--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3487600</v>
+        <v>3005700</v>
       </c>
       <c r="E8" s="3">
-        <v>3275000</v>
+        <v>2763400</v>
       </c>
       <c r="F8" s="3">
-        <v>3059500</v>
+        <v>2595000</v>
       </c>
       <c r="G8" s="3">
-        <v>3490200</v>
+        <v>2424200</v>
       </c>
       <c r="H8" s="3">
-        <v>3250300</v>
+        <v>2765400</v>
       </c>
       <c r="I8" s="3">
-        <v>2143800</v>
+        <v>2575300</v>
       </c>
       <c r="J8" s="3">
+        <v>1698600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1983300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1929100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2685900</v>
+        <v>2176000</v>
       </c>
       <c r="E9" s="3">
-        <v>2490700</v>
+        <v>2128200</v>
       </c>
       <c r="F9" s="3">
-        <v>2389900</v>
+        <v>1973500</v>
       </c>
       <c r="G9" s="3">
-        <v>2755400</v>
+        <v>1893600</v>
       </c>
       <c r="H9" s="3">
-        <v>2636200</v>
+        <v>2183200</v>
       </c>
       <c r="I9" s="3">
-        <v>1643500</v>
+        <v>2088800</v>
       </c>
       <c r="J9" s="3">
+        <v>1302200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1527400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1353800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>801700</v>
+        <v>829700</v>
       </c>
       <c r="E10" s="3">
-        <v>784300</v>
+        <v>635200</v>
       </c>
       <c r="F10" s="3">
-        <v>669700</v>
+        <v>621500</v>
       </c>
       <c r="G10" s="3">
-        <v>734800</v>
+        <v>530600</v>
       </c>
       <c r="H10" s="3">
-        <v>614100</v>
+        <v>582200</v>
       </c>
       <c r="I10" s="3">
-        <v>500300</v>
+        <v>486600</v>
       </c>
       <c r="J10" s="3">
+        <v>396400</v>
+      </c>
+      <c r="K10" s="3">
         <v>456000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>575300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9200</v>
+        <v>11500</v>
       </c>
       <c r="E15" s="3">
-        <v>10600</v>
+        <v>7300</v>
       </c>
       <c r="F15" s="3">
-        <v>10200</v>
+        <v>8400</v>
       </c>
       <c r="G15" s="3">
-        <v>17800</v>
+        <v>8100</v>
       </c>
       <c r="H15" s="3">
-        <v>9200</v>
+        <v>14100</v>
       </c>
       <c r="I15" s="3">
-        <v>12100</v>
+        <v>7300</v>
       </c>
       <c r="J15" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K15" s="3">
         <v>9900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2928500</v>
+        <v>2415300</v>
       </c>
       <c r="E17" s="3">
-        <v>2773600</v>
+        <v>2320400</v>
       </c>
       <c r="F17" s="3">
-        <v>2582200</v>
+        <v>2197700</v>
       </c>
       <c r="G17" s="3">
-        <v>2993600</v>
+        <v>2046000</v>
       </c>
       <c r="H17" s="3">
-        <v>2847000</v>
+        <v>2372000</v>
       </c>
       <c r="I17" s="3">
-        <v>1857400</v>
+        <v>2255800</v>
       </c>
       <c r="J17" s="3">
+        <v>1471700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1750000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1591900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>559100</v>
+        <v>590400</v>
       </c>
       <c r="E18" s="3">
-        <v>501400</v>
+        <v>443000</v>
       </c>
       <c r="F18" s="3">
-        <v>477300</v>
+        <v>397300</v>
       </c>
       <c r="G18" s="3">
-        <v>496600</v>
+        <v>378200</v>
       </c>
       <c r="H18" s="3">
-        <v>403300</v>
+        <v>393500</v>
       </c>
       <c r="I18" s="3">
-        <v>286300</v>
+        <v>319600</v>
       </c>
       <c r="J18" s="3">
+        <v>226900</v>
+      </c>
+      <c r="K18" s="3">
         <v>233300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>337200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>101200</v>
+        <v>77400</v>
       </c>
       <c r="E20" s="3">
-        <v>56000</v>
+        <v>80200</v>
       </c>
       <c r="F20" s="3">
-        <v>79000</v>
+        <v>44400</v>
       </c>
       <c r="G20" s="3">
-        <v>98700</v>
+        <v>62600</v>
       </c>
       <c r="H20" s="3">
-        <v>116100</v>
+        <v>78200</v>
       </c>
       <c r="I20" s="3">
-        <v>120000</v>
+        <v>92000</v>
       </c>
       <c r="J20" s="3">
+        <v>95100</v>
+      </c>
+      <c r="K20" s="3">
         <v>24900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>90800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>837100</v>
+        <v>875200</v>
       </c>
       <c r="E21" s="3">
-        <v>730100</v>
+        <v>665200</v>
       </c>
       <c r="F21" s="3">
-        <v>723600</v>
+        <v>580400</v>
       </c>
       <c r="G21" s="3">
-        <v>755000</v>
+        <v>575100</v>
       </c>
       <c r="H21" s="3">
-        <v>668200</v>
+        <v>600000</v>
       </c>
       <c r="I21" s="3">
-        <v>548700</v>
+        <v>531000</v>
       </c>
       <c r="J21" s="3">
+        <v>436300</v>
+      </c>
+      <c r="K21" s="3">
         <v>388100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>563000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>203500</v>
+        <v>167800</v>
       </c>
       <c r="E22" s="3">
-        <v>232100</v>
+        <v>161200</v>
       </c>
       <c r="F22" s="3">
-        <v>250500</v>
+        <v>183900</v>
       </c>
       <c r="G22" s="3">
-        <v>175500</v>
+        <v>198500</v>
       </c>
       <c r="H22" s="3">
-        <v>85600</v>
+        <v>139100</v>
       </c>
       <c r="I22" s="3">
-        <v>54500</v>
+        <v>67800</v>
       </c>
       <c r="J22" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K22" s="3">
         <v>31100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>456800</v>
+        <v>500000</v>
       </c>
       <c r="E23" s="3">
-        <v>325300</v>
+        <v>361900</v>
       </c>
       <c r="F23" s="3">
-        <v>305800</v>
+        <v>257700</v>
       </c>
       <c r="G23" s="3">
-        <v>419800</v>
+        <v>242300</v>
       </c>
       <c r="H23" s="3">
-        <v>433800</v>
+        <v>332600</v>
       </c>
       <c r="I23" s="3">
-        <v>351800</v>
+        <v>343700</v>
       </c>
       <c r="J23" s="3">
+        <v>278700</v>
+      </c>
+      <c r="K23" s="3">
         <v>227100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>392900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>119600</v>
+        <v>118300</v>
       </c>
       <c r="E24" s="3">
-        <v>64100</v>
+        <v>94700</v>
       </c>
       <c r="F24" s="3">
-        <v>121400</v>
+        <v>50800</v>
       </c>
       <c r="G24" s="3">
-        <v>124300</v>
+        <v>96200</v>
       </c>
       <c r="H24" s="3">
-        <v>121900</v>
+        <v>98500</v>
       </c>
       <c r="I24" s="3">
-        <v>94600</v>
+        <v>96600</v>
       </c>
       <c r="J24" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K24" s="3">
         <v>57400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>101000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>337200</v>
+        <v>381700</v>
       </c>
       <c r="E26" s="3">
-        <v>261100</v>
+        <v>267200</v>
       </c>
       <c r="F26" s="3">
-        <v>184400</v>
+        <v>206900</v>
       </c>
       <c r="G26" s="3">
-        <v>295500</v>
+        <v>146100</v>
       </c>
       <c r="H26" s="3">
-        <v>311900</v>
+        <v>234200</v>
       </c>
       <c r="I26" s="3">
-        <v>257200</v>
+        <v>247100</v>
       </c>
       <c r="J26" s="3">
+        <v>203800</v>
+      </c>
+      <c r="K26" s="3">
         <v>169700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>292000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>328600</v>
+        <v>368200</v>
       </c>
       <c r="E27" s="3">
-        <v>241400</v>
+        <v>260300</v>
       </c>
       <c r="F27" s="3">
-        <v>193400</v>
+        <v>191300</v>
       </c>
       <c r="G27" s="3">
-        <v>278500</v>
+        <v>153200</v>
       </c>
       <c r="H27" s="3">
-        <v>281600</v>
+        <v>220700</v>
       </c>
       <c r="I27" s="3">
-        <v>250500</v>
+        <v>223100</v>
       </c>
       <c r="J27" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K27" s="3">
         <v>163600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>287200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-101200</v>
+        <v>-77400</v>
       </c>
       <c r="E32" s="3">
-        <v>-56000</v>
+        <v>-80200</v>
       </c>
       <c r="F32" s="3">
-        <v>-79000</v>
+        <v>-44400</v>
       </c>
       <c r="G32" s="3">
-        <v>-98700</v>
+        <v>-62600</v>
       </c>
       <c r="H32" s="3">
-        <v>-116100</v>
+        <v>-78200</v>
       </c>
       <c r="I32" s="3">
-        <v>-120000</v>
+        <v>-92000</v>
       </c>
       <c r="J32" s="3">
+        <v>-95100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-24900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-90800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>328600</v>
+        <v>368200</v>
       </c>
       <c r="E33" s="3">
-        <v>241400</v>
+        <v>260300</v>
       </c>
       <c r="F33" s="3">
-        <v>193400</v>
+        <v>191300</v>
       </c>
       <c r="G33" s="3">
-        <v>278500</v>
+        <v>153200</v>
       </c>
       <c r="H33" s="3">
-        <v>281600</v>
+        <v>220700</v>
       </c>
       <c r="I33" s="3">
-        <v>250500</v>
+        <v>223100</v>
       </c>
       <c r="J33" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K33" s="3">
         <v>163600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>287200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>328600</v>
+        <v>368200</v>
       </c>
       <c r="E35" s="3">
-        <v>241400</v>
+        <v>260300</v>
       </c>
       <c r="F35" s="3">
-        <v>193400</v>
+        <v>191300</v>
       </c>
       <c r="G35" s="3">
-        <v>278500</v>
+        <v>153200</v>
       </c>
       <c r="H35" s="3">
-        <v>281600</v>
+        <v>220700</v>
       </c>
       <c r="I35" s="3">
-        <v>250500</v>
+        <v>223100</v>
       </c>
       <c r="J35" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K35" s="3">
         <v>163600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>287200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>455000</v>
+        <v>551300</v>
       </c>
       <c r="E41" s="3">
-        <v>242900</v>
+        <v>365100</v>
       </c>
       <c r="F41" s="3">
-        <v>229300</v>
+        <v>194900</v>
       </c>
       <c r="G41" s="3">
-        <v>345800</v>
+        <v>184000</v>
       </c>
       <c r="H41" s="3">
-        <v>172800</v>
+        <v>277500</v>
       </c>
       <c r="I41" s="3">
-        <v>406700</v>
+        <v>138700</v>
       </c>
       <c r="J41" s="3">
+        <v>326400</v>
+      </c>
+      <c r="K41" s="3">
         <v>340800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>520400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>127500</v>
+        <v>67200</v>
       </c>
       <c r="E42" s="3">
-        <v>40400</v>
+        <v>102300</v>
       </c>
       <c r="F42" s="3">
-        <v>31900</v>
+        <v>32400</v>
       </c>
       <c r="G42" s="3">
-        <v>307600</v>
+        <v>25600</v>
       </c>
       <c r="H42" s="3">
-        <v>249500</v>
+        <v>246800</v>
       </c>
       <c r="I42" s="3">
-        <v>90900</v>
+        <v>200200</v>
       </c>
       <c r="J42" s="3">
+        <v>72900</v>
+      </c>
+      <c r="K42" s="3">
         <v>148400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>272400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>925500</v>
+        <v>821700</v>
       </c>
       <c r="E43" s="3">
-        <v>981900</v>
+        <v>742700</v>
       </c>
       <c r="F43" s="3">
-        <v>747500</v>
+        <v>788000</v>
       </c>
       <c r="G43" s="3">
-        <v>923200</v>
+        <v>599900</v>
       </c>
       <c r="H43" s="3">
-        <v>753200</v>
+        <v>740900</v>
       </c>
       <c r="I43" s="3">
-        <v>557700</v>
+        <v>604400</v>
       </c>
       <c r="J43" s="3">
+        <v>447500</v>
+      </c>
+      <c r="K43" s="3">
         <v>604300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>520200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27200</v>
+        <v>24400</v>
       </c>
       <c r="E44" s="3">
-        <v>25800</v>
+        <v>21800</v>
       </c>
       <c r="F44" s="3">
-        <v>30500</v>
+        <v>20700</v>
       </c>
       <c r="G44" s="3">
-        <v>30600</v>
+        <v>24500</v>
       </c>
       <c r="H44" s="3">
-        <v>35200</v>
+        <v>24600</v>
       </c>
       <c r="I44" s="3">
-        <v>32500</v>
+        <v>28200</v>
       </c>
       <c r="J44" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K44" s="3">
         <v>58300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>51500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24300</v>
+        <v>17600</v>
       </c>
       <c r="E45" s="3">
-        <v>40500</v>
+        <v>19500</v>
       </c>
       <c r="F45" s="3">
-        <v>21900</v>
+        <v>32500</v>
       </c>
       <c r="G45" s="3">
-        <v>12000</v>
+        <v>17600</v>
       </c>
       <c r="H45" s="3">
-        <v>7900</v>
+        <v>9600</v>
       </c>
       <c r="I45" s="3">
-        <v>5100</v>
+        <v>6300</v>
       </c>
       <c r="J45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K45" s="3">
         <v>25600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1559400</v>
+        <v>1482200</v>
       </c>
       <c r="E46" s="3">
-        <v>1331500</v>
+        <v>1251400</v>
       </c>
       <c r="F46" s="3">
-        <v>989500</v>
+        <v>1068500</v>
       </c>
       <c r="G46" s="3">
-        <v>1619100</v>
+        <v>794100</v>
       </c>
       <c r="H46" s="3">
-        <v>1218500</v>
+        <v>1299300</v>
       </c>
       <c r="I46" s="3">
-        <v>1092900</v>
+        <v>977900</v>
       </c>
       <c r="J46" s="3">
+        <v>877100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1093300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>917800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2217300</v>
+        <v>1993700</v>
       </c>
       <c r="E47" s="3">
-        <v>1984800</v>
+        <v>1780100</v>
       </c>
       <c r="F47" s="3">
-        <v>1752500</v>
+        <v>1593800</v>
       </c>
       <c r="G47" s="3">
-        <v>1036700</v>
+        <v>1420900</v>
       </c>
       <c r="H47" s="3">
-        <v>1706100</v>
+        <v>850000</v>
       </c>
       <c r="I47" s="3">
-        <v>1320300</v>
+        <v>1377900</v>
       </c>
       <c r="J47" s="3">
+        <v>1059500</v>
+      </c>
+      <c r="K47" s="3">
         <v>998600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1013300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2532600</v>
+        <v>2002500</v>
       </c>
       <c r="E48" s="3">
-        <v>2296900</v>
+        <v>2031800</v>
       </c>
       <c r="F48" s="3">
-        <v>2104700</v>
+        <v>1842300</v>
       </c>
       <c r="G48" s="3">
-        <v>2052400</v>
+        <v>1674500</v>
       </c>
       <c r="H48" s="3">
-        <v>1950100</v>
+        <v>1629000</v>
       </c>
       <c r="I48" s="3">
-        <v>2285200</v>
+        <v>1556200</v>
       </c>
       <c r="J48" s="3">
+        <v>1833900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5514700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3576900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1407900</v>
+        <v>1186700</v>
       </c>
       <c r="E49" s="3">
-        <v>1506900</v>
+        <v>1129900</v>
       </c>
       <c r="F49" s="3">
-        <v>1508500</v>
+        <v>1209300</v>
       </c>
       <c r="G49" s="3">
-        <v>1435000</v>
+        <v>1210600</v>
       </c>
       <c r="H49" s="3">
-        <v>507700</v>
+        <v>1151600</v>
       </c>
       <c r="I49" s="3">
-        <v>484800</v>
+        <v>407400</v>
       </c>
       <c r="J49" s="3">
+        <v>389000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1251000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>860900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>673100</v>
+        <v>514600</v>
       </c>
       <c r="E52" s="3">
-        <v>685500</v>
+        <v>540200</v>
       </c>
       <c r="F52" s="3">
-        <v>722400</v>
+        <v>550100</v>
       </c>
       <c r="G52" s="3">
-        <v>616700</v>
+        <v>579700</v>
       </c>
       <c r="H52" s="3">
-        <v>599900</v>
+        <v>494900</v>
       </c>
       <c r="I52" s="3">
-        <v>646700</v>
+        <v>481400</v>
       </c>
       <c r="J52" s="3">
+        <v>519000</v>
+      </c>
+      <c r="K52" s="3">
         <v>610900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>551300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8390400</v>
+        <v>7179800</v>
       </c>
       <c r="E54" s="3">
-        <v>7744100</v>
+        <v>6733300</v>
       </c>
       <c r="F54" s="3">
-        <v>7077600</v>
+        <v>6214600</v>
       </c>
       <c r="G54" s="3">
-        <v>6759900</v>
+        <v>5679800</v>
       </c>
       <c r="H54" s="3">
-        <v>5982300</v>
+        <v>5424800</v>
       </c>
       <c r="I54" s="3">
-        <v>5397000</v>
+        <v>4800800</v>
       </c>
       <c r="J54" s="3">
+        <v>4331100</v>
+      </c>
+      <c r="K54" s="3">
         <v>4952700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4673100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>331400</v>
+        <v>315800</v>
       </c>
       <c r="E57" s="3">
-        <v>393100</v>
+        <v>266000</v>
       </c>
       <c r="F57" s="3">
-        <v>293200</v>
+        <v>315500</v>
       </c>
       <c r="G57" s="3">
-        <v>376700</v>
+        <v>235300</v>
       </c>
       <c r="H57" s="3">
-        <v>370600</v>
+        <v>302300</v>
       </c>
       <c r="I57" s="3">
-        <v>255100</v>
+        <v>297400</v>
       </c>
       <c r="J57" s="3">
+        <v>204700</v>
+      </c>
+      <c r="K57" s="3">
         <v>264300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>185400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>770100</v>
+        <v>272400</v>
       </c>
       <c r="E58" s="3">
-        <v>564400</v>
+        <v>618000</v>
       </c>
       <c r="F58" s="3">
-        <v>607600</v>
+        <v>452900</v>
       </c>
       <c r="G58" s="3">
-        <v>287800</v>
+        <v>487600</v>
       </c>
       <c r="H58" s="3">
-        <v>303400</v>
+        <v>231000</v>
       </c>
       <c r="I58" s="3">
-        <v>236900</v>
+        <v>243500</v>
       </c>
       <c r="J58" s="3">
+        <v>190100</v>
+      </c>
+      <c r="K58" s="3">
         <v>64000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>461900</v>
+        <v>413600</v>
       </c>
       <c r="E59" s="3">
-        <v>469300</v>
+        <v>370700</v>
       </c>
       <c r="F59" s="3">
-        <v>420000</v>
+        <v>376600</v>
       </c>
       <c r="G59" s="3">
-        <v>453800</v>
+        <v>337000</v>
       </c>
       <c r="H59" s="3">
-        <v>273000</v>
+        <v>364200</v>
       </c>
       <c r="I59" s="3">
-        <v>289800</v>
+        <v>219100</v>
       </c>
       <c r="J59" s="3">
+        <v>232600</v>
+      </c>
+      <c r="K59" s="3">
         <v>423100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>414300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1563400</v>
+        <v>1001800</v>
       </c>
       <c r="E60" s="3">
-        <v>1426800</v>
+        <v>1254700</v>
       </c>
       <c r="F60" s="3">
-        <v>1320800</v>
+        <v>1145000</v>
       </c>
       <c r="G60" s="3">
-        <v>1118400</v>
+        <v>1059900</v>
       </c>
       <c r="H60" s="3">
-        <v>947000</v>
+        <v>897500</v>
       </c>
       <c r="I60" s="3">
-        <v>781800</v>
+        <v>760000</v>
       </c>
       <c r="J60" s="3">
+        <v>627400</v>
+      </c>
+      <c r="K60" s="3">
         <v>661700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>510500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1930600</v>
+        <v>1914300</v>
       </c>
       <c r="E61" s="3">
-        <v>1731300</v>
+        <v>1549300</v>
       </c>
       <c r="F61" s="3">
-        <v>1456000</v>
+        <v>1389300</v>
       </c>
       <c r="G61" s="3">
-        <v>1524500</v>
+        <v>1168500</v>
       </c>
       <c r="H61" s="3">
-        <v>1110500</v>
+        <v>1223400</v>
       </c>
       <c r="I61" s="3">
-        <v>821300</v>
+        <v>891100</v>
       </c>
       <c r="J61" s="3">
+        <v>659100</v>
+      </c>
+      <c r="K61" s="3">
         <v>697700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>510500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1081500</v>
+        <v>965700</v>
       </c>
       <c r="E62" s="3">
-        <v>964000</v>
+        <v>867900</v>
       </c>
       <c r="F62" s="3">
-        <v>798500</v>
+        <v>773600</v>
       </c>
       <c r="G62" s="3">
-        <v>711200</v>
+        <v>640800</v>
       </c>
       <c r="H62" s="3">
-        <v>729700</v>
+        <v>570800</v>
       </c>
       <c r="I62" s="3">
-        <v>774700</v>
+        <v>585600</v>
       </c>
       <c r="J62" s="3">
+        <v>621700</v>
+      </c>
+      <c r="K62" s="3">
         <v>706600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>655700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4646400</v>
+        <v>3946700</v>
       </c>
       <c r="E66" s="3">
-        <v>4192700</v>
+        <v>3728700</v>
       </c>
       <c r="F66" s="3">
-        <v>3637000</v>
+        <v>3364700</v>
       </c>
       <c r="G66" s="3">
-        <v>3433200</v>
+        <v>2918700</v>
       </c>
       <c r="H66" s="3">
-        <v>2869400</v>
+        <v>2755100</v>
       </c>
       <c r="I66" s="3">
-        <v>2442600</v>
+        <v>2302700</v>
       </c>
       <c r="J66" s="3">
+        <v>1960200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2127700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1736900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1713400</v>
+        <v>1098300</v>
       </c>
       <c r="E72" s="3">
-        <v>1495100</v>
+        <v>1375000</v>
       </c>
       <c r="F72" s="3">
-        <v>1360300</v>
+        <v>1199800</v>
       </c>
       <c r="G72" s="3">
-        <v>1438100</v>
+        <v>1091600</v>
       </c>
       <c r="H72" s="3">
-        <v>1214800</v>
+        <v>1154100</v>
       </c>
       <c r="I72" s="3">
-        <v>1056100</v>
+        <v>974800</v>
       </c>
       <c r="J72" s="3">
+        <v>847600</v>
+      </c>
+      <c r="K72" s="3">
         <v>912700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>837200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3744000</v>
+        <v>3233100</v>
       </c>
       <c r="E76" s="3">
-        <v>3551300</v>
+        <v>3004600</v>
       </c>
       <c r="F76" s="3">
-        <v>3440600</v>
+        <v>2849900</v>
       </c>
       <c r="G76" s="3">
-        <v>3326700</v>
+        <v>2761100</v>
       </c>
       <c r="H76" s="3">
-        <v>3113000</v>
+        <v>2669600</v>
       </c>
       <c r="I76" s="3">
-        <v>2954300</v>
+        <v>2498200</v>
       </c>
       <c r="J76" s="3">
+        <v>2370900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2825000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2936200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>328600</v>
+        <v>368200</v>
       </c>
       <c r="E81" s="3">
-        <v>241400</v>
+        <v>260300</v>
       </c>
       <c r="F81" s="3">
-        <v>193400</v>
+        <v>191300</v>
       </c>
       <c r="G81" s="3">
-        <v>278500</v>
+        <v>153200</v>
       </c>
       <c r="H81" s="3">
-        <v>281600</v>
+        <v>220700</v>
       </c>
       <c r="I81" s="3">
-        <v>250500</v>
+        <v>223100</v>
       </c>
       <c r="J81" s="3">
+        <v>198500</v>
+      </c>
+      <c r="K81" s="3">
         <v>163600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>287200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>174900</v>
+        <v>202400</v>
       </c>
       <c r="E83" s="3">
-        <v>170800</v>
+        <v>138600</v>
       </c>
       <c r="F83" s="3">
-        <v>165400</v>
+        <v>135400</v>
       </c>
       <c r="G83" s="3">
-        <v>158000</v>
+        <v>131100</v>
       </c>
       <c r="H83" s="3">
-        <v>147100</v>
+        <v>125200</v>
       </c>
       <c r="I83" s="3">
-        <v>140900</v>
+        <v>116600</v>
       </c>
       <c r="J83" s="3">
+        <v>111600</v>
+      </c>
+      <c r="K83" s="3">
         <v>128400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>413600</v>
+        <v>544900</v>
       </c>
       <c r="E89" s="3">
-        <v>231000</v>
+        <v>327700</v>
       </c>
       <c r="F89" s="3">
-        <v>344900</v>
+        <v>183000</v>
       </c>
       <c r="G89" s="3">
-        <v>308400</v>
+        <v>273300</v>
       </c>
       <c r="H89" s="3">
-        <v>254900</v>
+        <v>244400</v>
       </c>
       <c r="I89" s="3">
-        <v>312400</v>
+        <v>201900</v>
       </c>
       <c r="J89" s="3">
+        <v>247500</v>
+      </c>
+      <c r="K89" s="3">
         <v>331400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>285000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-347700</v>
+        <v>-100500</v>
       </c>
       <c r="E91" s="3">
-        <v>-281500</v>
+        <v>-275500</v>
       </c>
       <c r="F91" s="3">
-        <v>-299900</v>
+        <v>-223100</v>
       </c>
       <c r="G91" s="3">
-        <v>-175700</v>
+        <v>-237700</v>
       </c>
       <c r="H91" s="3">
-        <v>-208900</v>
+        <v>-139200</v>
       </c>
       <c r="I91" s="3">
-        <v>-98100</v>
+        <v>-165500</v>
       </c>
       <c r="J91" s="3">
+        <v>-77800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-204400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-407300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-501900</v>
+        <v>-307800</v>
       </c>
       <c r="E94" s="3">
-        <v>-369200</v>
+        <v>-397700</v>
       </c>
       <c r="F94" s="3">
-        <v>-586400</v>
+        <v>-292600</v>
       </c>
       <c r="G94" s="3">
-        <v>-455700</v>
+        <v>-464600</v>
       </c>
       <c r="H94" s="3">
-        <v>-598400</v>
+        <v>-361100</v>
       </c>
       <c r="I94" s="3">
-        <v>-435300</v>
+        <v>-474200</v>
       </c>
       <c r="J94" s="3">
+        <v>-344900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-426800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-404300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-70200</v>
+        <v>-70400</v>
       </c>
       <c r="E96" s="3">
-        <v>-118300</v>
+        <v>-55600</v>
       </c>
       <c r="F96" s="3">
-        <v>-86200</v>
+        <v>-93700</v>
       </c>
       <c r="G96" s="3">
-        <v>-71800</v>
+        <v>-68300</v>
       </c>
       <c r="H96" s="3">
-        <v>-156200</v>
+        <v>-56900</v>
       </c>
       <c r="I96" s="3">
-        <v>-138100</v>
+        <v>-123800</v>
       </c>
       <c r="J96" s="3">
+        <v>-109500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-52500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-99500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,39 +3420,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300400</v>
+        <v>-53300</v>
       </c>
       <c r="E100" s="3">
-        <v>151800</v>
+        <v>238000</v>
       </c>
       <c r="F100" s="3">
-        <v>125100</v>
+        <v>120300</v>
       </c>
       <c r="G100" s="3">
-        <v>320300</v>
+        <v>99100</v>
       </c>
       <c r="H100" s="3">
-        <v>109700</v>
+        <v>253800</v>
       </c>
       <c r="I100" s="3">
-        <v>188900</v>
+        <v>86900</v>
       </c>
       <c r="J100" s="3">
+        <v>149700</v>
+      </c>
+      <c r="K100" s="3">
         <v>191300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>212100</v>
+        <v>183800</v>
       </c>
       <c r="E102" s="3">
-        <v>13500</v>
+        <v>168100</v>
       </c>
       <c r="F102" s="3">
-        <v>-116400</v>
+        <v>10700</v>
       </c>
       <c r="G102" s="3">
-        <v>172900</v>
+        <v>-92300</v>
       </c>
       <c r="H102" s="3">
-        <v>-233900</v>
+        <v>137000</v>
       </c>
       <c r="I102" s="3">
-        <v>65900</v>
+        <v>-185300</v>
       </c>
       <c r="J102" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K102" s="3">
         <v>95900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-184800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3005700</v>
+        <v>2898000</v>
       </c>
       <c r="E8" s="3">
-        <v>2763400</v>
+        <v>2664400</v>
       </c>
       <c r="F8" s="3">
-        <v>2595000</v>
+        <v>2502000</v>
       </c>
       <c r="G8" s="3">
-        <v>2424200</v>
+        <v>2337400</v>
       </c>
       <c r="H8" s="3">
-        <v>2765400</v>
+        <v>2666300</v>
       </c>
       <c r="I8" s="3">
-        <v>2575300</v>
+        <v>2483100</v>
       </c>
       <c r="J8" s="3">
-        <v>1698600</v>
+        <v>1637800</v>
       </c>
       <c r="K8" s="3">
         <v>1983300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2176000</v>
+        <v>2098000</v>
       </c>
       <c r="E9" s="3">
-        <v>2128200</v>
+        <v>2051900</v>
       </c>
       <c r="F9" s="3">
-        <v>1973500</v>
+        <v>1902800</v>
       </c>
       <c r="G9" s="3">
-        <v>1893600</v>
+        <v>1825800</v>
       </c>
       <c r="H9" s="3">
-        <v>2183200</v>
+        <v>2105000</v>
       </c>
       <c r="I9" s="3">
-        <v>2088800</v>
+        <v>2013900</v>
       </c>
       <c r="J9" s="3">
-        <v>1302200</v>
+        <v>1255600</v>
       </c>
       <c r="K9" s="3">
         <v>1527400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>829700</v>
+        <v>800000</v>
       </c>
       <c r="E10" s="3">
-        <v>635200</v>
+        <v>612500</v>
       </c>
       <c r="F10" s="3">
-        <v>621500</v>
+        <v>599200</v>
       </c>
       <c r="G10" s="3">
-        <v>530600</v>
+        <v>511600</v>
       </c>
       <c r="H10" s="3">
-        <v>582200</v>
+        <v>561300</v>
       </c>
       <c r="I10" s="3">
-        <v>486600</v>
+        <v>469100</v>
       </c>
       <c r="J10" s="3">
-        <v>396400</v>
+        <v>382200</v>
       </c>
       <c r="K10" s="3">
         <v>456000</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="E15" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="F15" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="G15" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="H15" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="I15" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="J15" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="K15" s="3">
         <v>9900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2415300</v>
+        <v>2328800</v>
       </c>
       <c r="E17" s="3">
-        <v>2320400</v>
+        <v>2237300</v>
       </c>
       <c r="F17" s="3">
-        <v>2197700</v>
+        <v>2118900</v>
       </c>
       <c r="G17" s="3">
-        <v>2046000</v>
+        <v>1972700</v>
       </c>
       <c r="H17" s="3">
-        <v>2372000</v>
+        <v>2287000</v>
       </c>
       <c r="I17" s="3">
-        <v>2255800</v>
+        <v>2175000</v>
       </c>
       <c r="J17" s="3">
-        <v>1471700</v>
+        <v>1419000</v>
       </c>
       <c r="K17" s="3">
         <v>1750000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>590400</v>
+        <v>569200</v>
       </c>
       <c r="E18" s="3">
-        <v>443000</v>
+        <v>427100</v>
       </c>
       <c r="F18" s="3">
-        <v>397300</v>
+        <v>383100</v>
       </c>
       <c r="G18" s="3">
-        <v>378200</v>
+        <v>364700</v>
       </c>
       <c r="H18" s="3">
-        <v>393500</v>
+        <v>379400</v>
       </c>
       <c r="I18" s="3">
-        <v>319600</v>
+        <v>308100</v>
       </c>
       <c r="J18" s="3">
-        <v>226900</v>
+        <v>218800</v>
       </c>
       <c r="K18" s="3">
         <v>233300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>77400</v>
+        <v>74700</v>
       </c>
       <c r="E20" s="3">
-        <v>80200</v>
+        <v>77300</v>
       </c>
       <c r="F20" s="3">
-        <v>44400</v>
+        <v>42800</v>
       </c>
       <c r="G20" s="3">
-        <v>62600</v>
+        <v>60300</v>
       </c>
       <c r="H20" s="3">
-        <v>78200</v>
+        <v>75400</v>
       </c>
       <c r="I20" s="3">
-        <v>92000</v>
+        <v>88700</v>
       </c>
       <c r="J20" s="3">
-        <v>95100</v>
+        <v>91600</v>
       </c>
       <c r="K20" s="3">
         <v>24900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>875200</v>
+        <v>842500</v>
       </c>
       <c r="E21" s="3">
-        <v>665200</v>
+        <v>640400</v>
       </c>
       <c r="F21" s="3">
-        <v>580400</v>
+        <v>558700</v>
       </c>
       <c r="G21" s="3">
-        <v>575100</v>
+        <v>553600</v>
       </c>
       <c r="H21" s="3">
-        <v>600000</v>
+        <v>577600</v>
       </c>
       <c r="I21" s="3">
-        <v>531000</v>
+        <v>511200</v>
       </c>
       <c r="J21" s="3">
-        <v>436300</v>
+        <v>419900</v>
       </c>
       <c r="K21" s="3">
         <v>388100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>167800</v>
+        <v>161800</v>
       </c>
       <c r="E22" s="3">
-        <v>161200</v>
+        <v>155500</v>
       </c>
       <c r="F22" s="3">
-        <v>183900</v>
+        <v>177300</v>
       </c>
       <c r="G22" s="3">
-        <v>198500</v>
+        <v>191400</v>
       </c>
       <c r="H22" s="3">
-        <v>139100</v>
+        <v>134100</v>
       </c>
       <c r="I22" s="3">
-        <v>67800</v>
+        <v>65400</v>
       </c>
       <c r="J22" s="3">
-        <v>43200</v>
+        <v>41600</v>
       </c>
       <c r="K22" s="3">
         <v>31100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>500000</v>
+        <v>482100</v>
       </c>
       <c r="E23" s="3">
-        <v>361900</v>
+        <v>348900</v>
       </c>
       <c r="F23" s="3">
-        <v>257700</v>
+        <v>248500</v>
       </c>
       <c r="G23" s="3">
-        <v>242300</v>
+        <v>233600</v>
       </c>
       <c r="H23" s="3">
-        <v>332600</v>
+        <v>320700</v>
       </c>
       <c r="I23" s="3">
-        <v>343700</v>
+        <v>331400</v>
       </c>
       <c r="J23" s="3">
-        <v>278700</v>
+        <v>268800</v>
       </c>
       <c r="K23" s="3">
         <v>227100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118300</v>
+        <v>114100</v>
       </c>
       <c r="E24" s="3">
-        <v>94700</v>
+        <v>91300</v>
       </c>
       <c r="F24" s="3">
-        <v>50800</v>
+        <v>49000</v>
       </c>
       <c r="G24" s="3">
-        <v>96200</v>
+        <v>92700</v>
       </c>
       <c r="H24" s="3">
-        <v>98500</v>
+        <v>94900</v>
       </c>
       <c r="I24" s="3">
-        <v>96600</v>
+        <v>93100</v>
       </c>
       <c r="J24" s="3">
-        <v>74900</v>
+        <v>72300</v>
       </c>
       <c r="K24" s="3">
         <v>57400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>381700</v>
+        <v>368000</v>
       </c>
       <c r="E26" s="3">
-        <v>267200</v>
+        <v>257600</v>
       </c>
       <c r="F26" s="3">
-        <v>206900</v>
+        <v>199500</v>
       </c>
       <c r="G26" s="3">
-        <v>146100</v>
+        <v>140900</v>
       </c>
       <c r="H26" s="3">
-        <v>234200</v>
+        <v>225800</v>
       </c>
       <c r="I26" s="3">
-        <v>247100</v>
+        <v>238300</v>
       </c>
       <c r="J26" s="3">
-        <v>203800</v>
+        <v>196500</v>
       </c>
       <c r="K26" s="3">
         <v>169700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>368200</v>
+        <v>355000</v>
       </c>
       <c r="E27" s="3">
-        <v>260300</v>
+        <v>251000</v>
       </c>
       <c r="F27" s="3">
+        <v>184400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>147700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>212800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>215100</v>
+      </c>
+      <c r="J27" s="3">
         <v>191300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>153200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>220700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>223100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>198500</v>
       </c>
       <c r="K27" s="3">
         <v>163600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-77400</v>
+        <v>-74700</v>
       </c>
       <c r="E32" s="3">
-        <v>-80200</v>
+        <v>-77300</v>
       </c>
       <c r="F32" s="3">
-        <v>-44400</v>
+        <v>-42800</v>
       </c>
       <c r="G32" s="3">
-        <v>-62600</v>
+        <v>-60300</v>
       </c>
       <c r="H32" s="3">
-        <v>-78200</v>
+        <v>-75400</v>
       </c>
       <c r="I32" s="3">
-        <v>-92000</v>
+        <v>-88700</v>
       </c>
       <c r="J32" s="3">
-        <v>-95100</v>
+        <v>-91600</v>
       </c>
       <c r="K32" s="3">
         <v>-24900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>368200</v>
+        <v>355000</v>
       </c>
       <c r="E33" s="3">
-        <v>260300</v>
+        <v>251000</v>
       </c>
       <c r="F33" s="3">
+        <v>184400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>147700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>212800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>215100</v>
+      </c>
+      <c r="J33" s="3">
         <v>191300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>153200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>220700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>223100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>198500</v>
       </c>
       <c r="K33" s="3">
         <v>163600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>368200</v>
+        <v>355000</v>
       </c>
       <c r="E35" s="3">
-        <v>260300</v>
+        <v>251000</v>
       </c>
       <c r="F35" s="3">
+        <v>184400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>147700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>212800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>215100</v>
+      </c>
+      <c r="J35" s="3">
         <v>191300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>153200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>220700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>223100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>198500</v>
       </c>
       <c r="K35" s="3">
         <v>163600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>551300</v>
+        <v>524800</v>
       </c>
       <c r="E41" s="3">
-        <v>365100</v>
+        <v>347600</v>
       </c>
       <c r="F41" s="3">
-        <v>194900</v>
+        <v>185500</v>
       </c>
       <c r="G41" s="3">
-        <v>184000</v>
+        <v>175200</v>
       </c>
       <c r="H41" s="3">
-        <v>277500</v>
+        <v>264200</v>
       </c>
       <c r="I41" s="3">
-        <v>138700</v>
+        <v>132000</v>
       </c>
       <c r="J41" s="3">
-        <v>326400</v>
+        <v>310700</v>
       </c>
       <c r="K41" s="3">
         <v>340800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>67200</v>
+        <v>64000</v>
       </c>
       <c r="E42" s="3">
-        <v>102300</v>
+        <v>97400</v>
       </c>
       <c r="F42" s="3">
-        <v>32400</v>
+        <v>30900</v>
       </c>
       <c r="G42" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="H42" s="3">
-        <v>246800</v>
+        <v>235000</v>
       </c>
       <c r="I42" s="3">
-        <v>200200</v>
+        <v>190600</v>
       </c>
       <c r="J42" s="3">
-        <v>72900</v>
+        <v>69400</v>
       </c>
       <c r="K42" s="3">
         <v>148400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>821700</v>
+        <v>782200</v>
       </c>
       <c r="E43" s="3">
-        <v>742700</v>
+        <v>707000</v>
       </c>
       <c r="F43" s="3">
-        <v>788000</v>
+        <v>750100</v>
       </c>
       <c r="G43" s="3">
-        <v>599900</v>
+        <v>571100</v>
       </c>
       <c r="H43" s="3">
-        <v>740900</v>
+        <v>705300</v>
       </c>
       <c r="I43" s="3">
-        <v>604400</v>
+        <v>575400</v>
       </c>
       <c r="J43" s="3">
-        <v>447500</v>
+        <v>426100</v>
       </c>
       <c r="K43" s="3">
         <v>604300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24400</v>
+        <v>23300</v>
       </c>
       <c r="E44" s="3">
-        <v>21800</v>
+        <v>20700</v>
       </c>
       <c r="F44" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="G44" s="3">
-        <v>24500</v>
+        <v>23300</v>
       </c>
       <c r="H44" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="I44" s="3">
-        <v>28200</v>
+        <v>26900</v>
       </c>
       <c r="J44" s="3">
-        <v>26100</v>
+        <v>24800</v>
       </c>
       <c r="K44" s="3">
         <v>58300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17600</v>
+        <v>16700</v>
       </c>
       <c r="E45" s="3">
-        <v>19500</v>
+        <v>18500</v>
       </c>
       <c r="F45" s="3">
-        <v>32500</v>
+        <v>30900</v>
       </c>
       <c r="G45" s="3">
-        <v>17600</v>
+        <v>16700</v>
       </c>
       <c r="H45" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="I45" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="J45" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="K45" s="3">
         <v>25600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1482200</v>
+        <v>1411000</v>
       </c>
       <c r="E46" s="3">
-        <v>1251400</v>
+        <v>1191300</v>
       </c>
       <c r="F46" s="3">
-        <v>1068500</v>
+        <v>1017200</v>
       </c>
       <c r="G46" s="3">
-        <v>794100</v>
+        <v>755900</v>
       </c>
       <c r="H46" s="3">
-        <v>1299300</v>
+        <v>1236900</v>
       </c>
       <c r="I46" s="3">
-        <v>977900</v>
+        <v>930900</v>
       </c>
       <c r="J46" s="3">
-        <v>877100</v>
+        <v>835000</v>
       </c>
       <c r="K46" s="3">
         <v>1093300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1993700</v>
+        <v>1898000</v>
       </c>
       <c r="E47" s="3">
-        <v>1780100</v>
+        <v>1694600</v>
       </c>
       <c r="F47" s="3">
-        <v>1593800</v>
+        <v>1517200</v>
       </c>
       <c r="G47" s="3">
-        <v>1420900</v>
+        <v>1352600</v>
       </c>
       <c r="H47" s="3">
-        <v>850000</v>
+        <v>809200</v>
       </c>
       <c r="I47" s="3">
-        <v>1377900</v>
+        <v>1311700</v>
       </c>
       <c r="J47" s="3">
-        <v>1059500</v>
+        <v>1008600</v>
       </c>
       <c r="K47" s="3">
         <v>998600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2002500</v>
+        <v>1906300</v>
       </c>
       <c r="E48" s="3">
-        <v>2031800</v>
+        <v>1934200</v>
       </c>
       <c r="F48" s="3">
-        <v>1842300</v>
+        <v>1753800</v>
       </c>
       <c r="G48" s="3">
-        <v>1674500</v>
+        <v>1594100</v>
       </c>
       <c r="H48" s="3">
-        <v>1629000</v>
+        <v>1550800</v>
       </c>
       <c r="I48" s="3">
-        <v>1556200</v>
+        <v>1481500</v>
       </c>
       <c r="J48" s="3">
-        <v>1833900</v>
+        <v>1745800</v>
       </c>
       <c r="K48" s="3">
         <v>5514700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1186700</v>
+        <v>1129700</v>
       </c>
       <c r="E49" s="3">
-        <v>1129900</v>
+        <v>1075600</v>
       </c>
       <c r="F49" s="3">
-        <v>1209300</v>
+        <v>1151200</v>
       </c>
       <c r="G49" s="3">
-        <v>1210600</v>
+        <v>1152400</v>
       </c>
       <c r="H49" s="3">
-        <v>1151600</v>
+        <v>1096300</v>
       </c>
       <c r="I49" s="3">
-        <v>407400</v>
+        <v>387900</v>
       </c>
       <c r="J49" s="3">
-        <v>389000</v>
+        <v>370400</v>
       </c>
       <c r="K49" s="3">
         <v>1251000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>514600</v>
+        <v>489900</v>
       </c>
       <c r="E52" s="3">
-        <v>540200</v>
+        <v>514200</v>
       </c>
       <c r="F52" s="3">
-        <v>550100</v>
+        <v>523700</v>
       </c>
       <c r="G52" s="3">
-        <v>579700</v>
+        <v>551900</v>
       </c>
       <c r="H52" s="3">
-        <v>494900</v>
+        <v>471100</v>
       </c>
       <c r="I52" s="3">
-        <v>481400</v>
+        <v>458300</v>
       </c>
       <c r="J52" s="3">
-        <v>519000</v>
+        <v>494100</v>
       </c>
       <c r="K52" s="3">
         <v>610900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7179800</v>
+        <v>6835000</v>
       </c>
       <c r="E54" s="3">
-        <v>6733300</v>
+        <v>6409900</v>
       </c>
       <c r="F54" s="3">
-        <v>6214600</v>
+        <v>5916200</v>
       </c>
       <c r="G54" s="3">
-        <v>5679800</v>
+        <v>5407000</v>
       </c>
       <c r="H54" s="3">
-        <v>5424800</v>
+        <v>5164300</v>
       </c>
       <c r="I54" s="3">
-        <v>4800800</v>
+        <v>4570300</v>
       </c>
       <c r="J54" s="3">
-        <v>4331100</v>
+        <v>4123100</v>
       </c>
       <c r="K54" s="3">
         <v>4952700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>315800</v>
+        <v>300700</v>
       </c>
       <c r="E57" s="3">
-        <v>266000</v>
+        <v>253200</v>
       </c>
       <c r="F57" s="3">
-        <v>315500</v>
+        <v>300400</v>
       </c>
       <c r="G57" s="3">
-        <v>235300</v>
+        <v>224000</v>
       </c>
       <c r="H57" s="3">
-        <v>302300</v>
+        <v>287800</v>
       </c>
       <c r="I57" s="3">
-        <v>297400</v>
+        <v>283200</v>
       </c>
       <c r="J57" s="3">
-        <v>204700</v>
+        <v>194900</v>
       </c>
       <c r="K57" s="3">
         <v>264300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>272400</v>
+        <v>259300</v>
       </c>
       <c r="E58" s="3">
-        <v>618000</v>
+        <v>588400</v>
       </c>
       <c r="F58" s="3">
-        <v>452900</v>
+        <v>431100</v>
       </c>
       <c r="G58" s="3">
-        <v>487600</v>
+        <v>464200</v>
       </c>
       <c r="H58" s="3">
-        <v>231000</v>
+        <v>219900</v>
       </c>
       <c r="I58" s="3">
-        <v>243500</v>
+        <v>231800</v>
       </c>
       <c r="J58" s="3">
-        <v>190100</v>
+        <v>181000</v>
       </c>
       <c r="K58" s="3">
         <v>64000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>413600</v>
+        <v>393700</v>
       </c>
       <c r="E59" s="3">
-        <v>370700</v>
+        <v>352900</v>
       </c>
       <c r="F59" s="3">
-        <v>376600</v>
+        <v>358500</v>
       </c>
       <c r="G59" s="3">
-        <v>337000</v>
+        <v>320800</v>
       </c>
       <c r="H59" s="3">
-        <v>364200</v>
+        <v>346700</v>
       </c>
       <c r="I59" s="3">
-        <v>219100</v>
+        <v>208600</v>
       </c>
       <c r="J59" s="3">
-        <v>232600</v>
+        <v>221400</v>
       </c>
       <c r="K59" s="3">
         <v>423100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1001800</v>
+        <v>953700</v>
       </c>
       <c r="E60" s="3">
-        <v>1254700</v>
+        <v>1194400</v>
       </c>
       <c r="F60" s="3">
-        <v>1145000</v>
+        <v>1090000</v>
       </c>
       <c r="G60" s="3">
-        <v>1059900</v>
+        <v>1009000</v>
       </c>
       <c r="H60" s="3">
-        <v>897500</v>
+        <v>854400</v>
       </c>
       <c r="I60" s="3">
-        <v>760000</v>
+        <v>723500</v>
       </c>
       <c r="J60" s="3">
-        <v>627400</v>
+        <v>597300</v>
       </c>
       <c r="K60" s="3">
         <v>661700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1914300</v>
+        <v>1822400</v>
       </c>
       <c r="E61" s="3">
-        <v>1549300</v>
+        <v>1474900</v>
       </c>
       <c r="F61" s="3">
-        <v>1389300</v>
+        <v>1322600</v>
       </c>
       <c r="G61" s="3">
-        <v>1168500</v>
+        <v>1112400</v>
       </c>
       <c r="H61" s="3">
-        <v>1223400</v>
+        <v>1164700</v>
       </c>
       <c r="I61" s="3">
-        <v>891100</v>
+        <v>848300</v>
       </c>
       <c r="J61" s="3">
-        <v>659100</v>
+        <v>627500</v>
       </c>
       <c r="K61" s="3">
         <v>697700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>965700</v>
+        <v>919400</v>
       </c>
       <c r="E62" s="3">
-        <v>867900</v>
+        <v>826200</v>
       </c>
       <c r="F62" s="3">
-        <v>773600</v>
+        <v>736500</v>
       </c>
       <c r="G62" s="3">
-        <v>640800</v>
+        <v>610000</v>
       </c>
       <c r="H62" s="3">
-        <v>570800</v>
+        <v>543300</v>
       </c>
       <c r="I62" s="3">
-        <v>585600</v>
+        <v>557400</v>
       </c>
       <c r="J62" s="3">
-        <v>621700</v>
+        <v>591900</v>
       </c>
       <c r="K62" s="3">
         <v>706600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3946700</v>
+        <v>3757100</v>
       </c>
       <c r="E66" s="3">
-        <v>3728700</v>
+        <v>3549700</v>
       </c>
       <c r="F66" s="3">
-        <v>3364700</v>
+        <v>3203100</v>
       </c>
       <c r="G66" s="3">
-        <v>2918700</v>
+        <v>2778500</v>
       </c>
       <c r="H66" s="3">
-        <v>2755100</v>
+        <v>2622800</v>
       </c>
       <c r="I66" s="3">
-        <v>2302700</v>
+        <v>2192100</v>
       </c>
       <c r="J66" s="3">
-        <v>1960200</v>
+        <v>1866100</v>
       </c>
       <c r="K66" s="3">
         <v>2127700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1098300</v>
+        <v>1045500</v>
       </c>
       <c r="E72" s="3">
-        <v>1375000</v>
+        <v>1309000</v>
       </c>
       <c r="F72" s="3">
-        <v>1199800</v>
+        <v>1142200</v>
       </c>
       <c r="G72" s="3">
-        <v>1091600</v>
+        <v>1039200</v>
       </c>
       <c r="H72" s="3">
-        <v>1154100</v>
+        <v>1098700</v>
       </c>
       <c r="I72" s="3">
-        <v>974800</v>
+        <v>928000</v>
       </c>
       <c r="J72" s="3">
-        <v>847600</v>
+        <v>806800</v>
       </c>
       <c r="K72" s="3">
         <v>912700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3233100</v>
+        <v>3077800</v>
       </c>
       <c r="E76" s="3">
-        <v>3004600</v>
+        <v>2860300</v>
       </c>
       <c r="F76" s="3">
-        <v>2849900</v>
+        <v>2713100</v>
       </c>
       <c r="G76" s="3">
-        <v>2761100</v>
+        <v>2628500</v>
       </c>
       <c r="H76" s="3">
-        <v>2669600</v>
+        <v>2541400</v>
       </c>
       <c r="I76" s="3">
-        <v>2498200</v>
+        <v>2378200</v>
       </c>
       <c r="J76" s="3">
-        <v>2370900</v>
+        <v>2257000</v>
       </c>
       <c r="K76" s="3">
         <v>2825000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>368200</v>
+        <v>355000</v>
       </c>
       <c r="E81" s="3">
-        <v>260300</v>
+        <v>251000</v>
       </c>
       <c r="F81" s="3">
+        <v>184400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>147700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>212800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>215100</v>
+      </c>
+      <c r="J81" s="3">
         <v>191300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>153200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>220700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>223100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>198500</v>
       </c>
       <c r="K81" s="3">
         <v>163600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>202400</v>
+        <v>195100</v>
       </c>
       <c r="E83" s="3">
-        <v>138600</v>
+        <v>133700</v>
       </c>
       <c r="F83" s="3">
-        <v>135400</v>
+        <v>130500</v>
       </c>
       <c r="G83" s="3">
-        <v>131100</v>
+        <v>126400</v>
       </c>
       <c r="H83" s="3">
-        <v>125200</v>
+        <v>120700</v>
       </c>
       <c r="I83" s="3">
-        <v>116600</v>
+        <v>112400</v>
       </c>
       <c r="J83" s="3">
-        <v>111600</v>
+        <v>107600</v>
       </c>
       <c r="K83" s="3">
         <v>128400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>544900</v>
+        <v>525400</v>
       </c>
       <c r="E89" s="3">
-        <v>327700</v>
+        <v>315900</v>
       </c>
       <c r="F89" s="3">
-        <v>183000</v>
+        <v>176500</v>
       </c>
       <c r="G89" s="3">
-        <v>273300</v>
+        <v>263500</v>
       </c>
       <c r="H89" s="3">
-        <v>244400</v>
+        <v>235600</v>
       </c>
       <c r="I89" s="3">
-        <v>201900</v>
+        <v>194700</v>
       </c>
       <c r="J89" s="3">
-        <v>247500</v>
+        <v>238600</v>
       </c>
       <c r="K89" s="3">
         <v>331400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100500</v>
+        <v>-96900</v>
       </c>
       <c r="E91" s="3">
-        <v>-275500</v>
+        <v>-265600</v>
       </c>
       <c r="F91" s="3">
-        <v>-223100</v>
+        <v>-215100</v>
       </c>
       <c r="G91" s="3">
-        <v>-237700</v>
+        <v>-229100</v>
       </c>
       <c r="H91" s="3">
-        <v>-139200</v>
+        <v>-134300</v>
       </c>
       <c r="I91" s="3">
-        <v>-165500</v>
+        <v>-159600</v>
       </c>
       <c r="J91" s="3">
-        <v>-77800</v>
+        <v>-75000</v>
       </c>
       <c r="K91" s="3">
         <v>-204400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-307800</v>
+        <v>-296800</v>
       </c>
       <c r="E94" s="3">
-        <v>-397700</v>
+        <v>-383400</v>
       </c>
       <c r="F94" s="3">
-        <v>-292600</v>
+        <v>-282100</v>
       </c>
       <c r="G94" s="3">
-        <v>-464600</v>
+        <v>-448000</v>
       </c>
       <c r="H94" s="3">
-        <v>-361100</v>
+        <v>-348200</v>
       </c>
       <c r="I94" s="3">
-        <v>-474200</v>
+        <v>-457200</v>
       </c>
       <c r="J94" s="3">
-        <v>-344900</v>
+        <v>-332600</v>
       </c>
       <c r="K94" s="3">
         <v>-426800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-70400</v>
+        <v>-67900</v>
       </c>
       <c r="E96" s="3">
-        <v>-55600</v>
+        <v>-53600</v>
       </c>
       <c r="F96" s="3">
-        <v>-93700</v>
+        <v>-90300</v>
       </c>
       <c r="G96" s="3">
-        <v>-68300</v>
+        <v>-65800</v>
       </c>
       <c r="H96" s="3">
-        <v>-56900</v>
+        <v>-54900</v>
       </c>
       <c r="I96" s="3">
-        <v>-123800</v>
+        <v>-119300</v>
       </c>
       <c r="J96" s="3">
-        <v>-109500</v>
+        <v>-105500</v>
       </c>
       <c r="K96" s="3">
         <v>-52500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53300</v>
+        <v>-51400</v>
       </c>
       <c r="E100" s="3">
-        <v>238000</v>
+        <v>229500</v>
       </c>
       <c r="F100" s="3">
-        <v>120300</v>
+        <v>116000</v>
       </c>
       <c r="G100" s="3">
-        <v>99100</v>
+        <v>95600</v>
       </c>
       <c r="H100" s="3">
-        <v>253800</v>
+        <v>244700</v>
       </c>
       <c r="I100" s="3">
-        <v>86900</v>
+        <v>83800</v>
       </c>
       <c r="J100" s="3">
-        <v>149700</v>
+        <v>144300</v>
       </c>
       <c r="K100" s="3">
         <v>191300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>183800</v>
+        <v>177200</v>
       </c>
       <c r="E102" s="3">
-        <v>168100</v>
+        <v>162000</v>
       </c>
       <c r="F102" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="G102" s="3">
-        <v>-92300</v>
+        <v>-89000</v>
       </c>
       <c r="H102" s="3">
-        <v>137000</v>
+        <v>132100</v>
       </c>
       <c r="I102" s="3">
-        <v>-185300</v>
+        <v>-178700</v>
       </c>
       <c r="J102" s="3">
-        <v>52300</v>
+        <v>50400</v>
       </c>
       <c r="K102" s="3">
         <v>95900</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2898000</v>
+        <v>3039800</v>
       </c>
       <c r="E8" s="3">
-        <v>2664400</v>
+        <v>2794700</v>
       </c>
       <c r="F8" s="3">
-        <v>2502000</v>
+        <v>2624400</v>
       </c>
       <c r="G8" s="3">
-        <v>2337400</v>
+        <v>2451700</v>
       </c>
       <c r="H8" s="3">
-        <v>2666300</v>
+        <v>2796800</v>
       </c>
       <c r="I8" s="3">
-        <v>2483100</v>
+        <v>2604600</v>
       </c>
       <c r="J8" s="3">
-        <v>1637800</v>
+        <v>1717900</v>
       </c>
       <c r="K8" s="3">
         <v>1983300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2098000</v>
+        <v>2200700</v>
       </c>
       <c r="E9" s="3">
-        <v>2051900</v>
+        <v>2152300</v>
       </c>
       <c r="F9" s="3">
-        <v>1902800</v>
+        <v>1995900</v>
       </c>
       <c r="G9" s="3">
-        <v>1825800</v>
+        <v>1915100</v>
       </c>
       <c r="H9" s="3">
-        <v>2105000</v>
+        <v>2208000</v>
       </c>
       <c r="I9" s="3">
-        <v>2013900</v>
+        <v>2112500</v>
       </c>
       <c r="J9" s="3">
-        <v>1255600</v>
+        <v>1317000</v>
       </c>
       <c r="K9" s="3">
         <v>1527400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>800000</v>
+        <v>839100</v>
       </c>
       <c r="E10" s="3">
-        <v>612500</v>
+        <v>642400</v>
       </c>
       <c r="F10" s="3">
-        <v>599200</v>
+        <v>628500</v>
       </c>
       <c r="G10" s="3">
-        <v>511600</v>
+        <v>536600</v>
       </c>
       <c r="H10" s="3">
-        <v>561300</v>
+        <v>588800</v>
       </c>
       <c r="I10" s="3">
-        <v>469100</v>
+        <v>492100</v>
       </c>
       <c r="J10" s="3">
-        <v>382200</v>
+        <v>400900</v>
       </c>
       <c r="K10" s="3">
         <v>456000</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="E15" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F15" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="G15" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="H15" s="3">
-        <v>13600</v>
+        <v>14300</v>
       </c>
       <c r="I15" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="J15" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="K15" s="3">
         <v>9900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2328800</v>
+        <v>2442700</v>
       </c>
       <c r="E17" s="3">
-        <v>2237300</v>
+        <v>2346700</v>
       </c>
       <c r="F17" s="3">
-        <v>2118900</v>
+        <v>2222600</v>
       </c>
       <c r="G17" s="3">
-        <v>1972700</v>
+        <v>2069200</v>
       </c>
       <c r="H17" s="3">
-        <v>2287000</v>
+        <v>2398900</v>
       </c>
       <c r="I17" s="3">
-        <v>2175000</v>
+        <v>2281400</v>
       </c>
       <c r="J17" s="3">
-        <v>1419000</v>
+        <v>1488400</v>
       </c>
       <c r="K17" s="3">
         <v>1750000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>569200</v>
+        <v>597100</v>
       </c>
       <c r="E18" s="3">
-        <v>427100</v>
+        <v>448000</v>
       </c>
       <c r="F18" s="3">
-        <v>383100</v>
+        <v>401800</v>
       </c>
       <c r="G18" s="3">
-        <v>364700</v>
+        <v>382500</v>
       </c>
       <c r="H18" s="3">
-        <v>379400</v>
+        <v>397900</v>
       </c>
       <c r="I18" s="3">
-        <v>308100</v>
+        <v>323200</v>
       </c>
       <c r="J18" s="3">
-        <v>218800</v>
+        <v>229500</v>
       </c>
       <c r="K18" s="3">
         <v>233300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>74700</v>
+        <v>78300</v>
       </c>
       <c r="E20" s="3">
-        <v>77300</v>
+        <v>81100</v>
       </c>
       <c r="F20" s="3">
-        <v>42800</v>
+        <v>44900</v>
       </c>
       <c r="G20" s="3">
-        <v>60300</v>
+        <v>63300</v>
       </c>
       <c r="H20" s="3">
-        <v>75400</v>
+        <v>79100</v>
       </c>
       <c r="I20" s="3">
-        <v>88700</v>
+        <v>93100</v>
       </c>
       <c r="J20" s="3">
-        <v>91600</v>
+        <v>96100</v>
       </c>
       <c r="K20" s="3">
         <v>24900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>842500</v>
+        <v>880400</v>
       </c>
       <c r="E21" s="3">
-        <v>640400</v>
+        <v>669500</v>
       </c>
       <c r="F21" s="3">
-        <v>558700</v>
+        <v>583800</v>
       </c>
       <c r="G21" s="3">
-        <v>553600</v>
+        <v>578500</v>
       </c>
       <c r="H21" s="3">
-        <v>577600</v>
+        <v>603800</v>
       </c>
       <c r="I21" s="3">
-        <v>511200</v>
+        <v>534300</v>
       </c>
       <c r="J21" s="3">
-        <v>419900</v>
+        <v>438600</v>
       </c>
       <c r="K21" s="3">
         <v>388100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>161800</v>
+        <v>169700</v>
       </c>
       <c r="E22" s="3">
-        <v>155500</v>
+        <v>163100</v>
       </c>
       <c r="F22" s="3">
-        <v>177300</v>
+        <v>186000</v>
       </c>
       <c r="G22" s="3">
-        <v>191400</v>
+        <v>200800</v>
       </c>
       <c r="H22" s="3">
-        <v>134100</v>
+        <v>140600</v>
       </c>
       <c r="I22" s="3">
-        <v>65400</v>
+        <v>68600</v>
       </c>
       <c r="J22" s="3">
-        <v>41600</v>
+        <v>43700</v>
       </c>
       <c r="K22" s="3">
         <v>31100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>482100</v>
+        <v>505700</v>
       </c>
       <c r="E23" s="3">
-        <v>348900</v>
+        <v>366000</v>
       </c>
       <c r="F23" s="3">
-        <v>248500</v>
+        <v>260700</v>
       </c>
       <c r="G23" s="3">
-        <v>233600</v>
+        <v>245000</v>
       </c>
       <c r="H23" s="3">
-        <v>320700</v>
+        <v>336400</v>
       </c>
       <c r="I23" s="3">
-        <v>331400</v>
+        <v>347600</v>
       </c>
       <c r="J23" s="3">
-        <v>268800</v>
+        <v>281900</v>
       </c>
       <c r="K23" s="3">
         <v>227100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114100</v>
+        <v>119600</v>
       </c>
       <c r="E24" s="3">
-        <v>91300</v>
+        <v>95800</v>
       </c>
       <c r="F24" s="3">
-        <v>49000</v>
+        <v>51400</v>
       </c>
       <c r="G24" s="3">
-        <v>92700</v>
+        <v>97200</v>
       </c>
       <c r="H24" s="3">
-        <v>94900</v>
+        <v>99600</v>
       </c>
       <c r="I24" s="3">
-        <v>93100</v>
+        <v>97700</v>
       </c>
       <c r="J24" s="3">
-        <v>72300</v>
+        <v>75800</v>
       </c>
       <c r="K24" s="3">
         <v>57400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>368000</v>
+        <v>386000</v>
       </c>
       <c r="E26" s="3">
-        <v>257600</v>
+        <v>270200</v>
       </c>
       <c r="F26" s="3">
-        <v>199500</v>
+        <v>209300</v>
       </c>
       <c r="G26" s="3">
-        <v>140900</v>
+        <v>147800</v>
       </c>
       <c r="H26" s="3">
-        <v>225800</v>
+        <v>236800</v>
       </c>
       <c r="I26" s="3">
-        <v>238300</v>
+        <v>249900</v>
       </c>
       <c r="J26" s="3">
-        <v>196500</v>
+        <v>206100</v>
       </c>
       <c r="K26" s="3">
         <v>169700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>355000</v>
+        <v>372400</v>
       </c>
       <c r="E27" s="3">
-        <v>251000</v>
+        <v>263300</v>
       </c>
       <c r="F27" s="3">
-        <v>184400</v>
+        <v>193400</v>
       </c>
       <c r="G27" s="3">
-        <v>147700</v>
+        <v>154900</v>
       </c>
       <c r="H27" s="3">
-        <v>212800</v>
+        <v>223200</v>
       </c>
       <c r="I27" s="3">
-        <v>215100</v>
+        <v>225700</v>
       </c>
       <c r="J27" s="3">
-        <v>191300</v>
+        <v>200700</v>
       </c>
       <c r="K27" s="3">
         <v>163600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-74700</v>
+        <v>-78300</v>
       </c>
       <c r="E32" s="3">
-        <v>-77300</v>
+        <v>-81100</v>
       </c>
       <c r="F32" s="3">
-        <v>-42800</v>
+        <v>-44900</v>
       </c>
       <c r="G32" s="3">
-        <v>-60300</v>
+        <v>-63300</v>
       </c>
       <c r="H32" s="3">
-        <v>-75400</v>
+        <v>-79100</v>
       </c>
       <c r="I32" s="3">
-        <v>-88700</v>
+        <v>-93100</v>
       </c>
       <c r="J32" s="3">
-        <v>-91600</v>
+        <v>-96100</v>
       </c>
       <c r="K32" s="3">
         <v>-24900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>355000</v>
+        <v>372400</v>
       </c>
       <c r="E33" s="3">
-        <v>251000</v>
+        <v>263300</v>
       </c>
       <c r="F33" s="3">
-        <v>184400</v>
+        <v>193400</v>
       </c>
       <c r="G33" s="3">
-        <v>147700</v>
+        <v>154900</v>
       </c>
       <c r="H33" s="3">
-        <v>212800</v>
+        <v>223200</v>
       </c>
       <c r="I33" s="3">
-        <v>215100</v>
+        <v>225700</v>
       </c>
       <c r="J33" s="3">
-        <v>191300</v>
+        <v>200700</v>
       </c>
       <c r="K33" s="3">
         <v>163600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>355000</v>
+        <v>372400</v>
       </c>
       <c r="E35" s="3">
-        <v>251000</v>
+        <v>263300</v>
       </c>
       <c r="F35" s="3">
-        <v>184400</v>
+        <v>193400</v>
       </c>
       <c r="G35" s="3">
-        <v>147700</v>
+        <v>154900</v>
       </c>
       <c r="H35" s="3">
-        <v>212800</v>
+        <v>223200</v>
       </c>
       <c r="I35" s="3">
-        <v>215100</v>
+        <v>225700</v>
       </c>
       <c r="J35" s="3">
-        <v>191300</v>
+        <v>200700</v>
       </c>
       <c r="K35" s="3">
         <v>163600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>524800</v>
+        <v>550500</v>
       </c>
       <c r="E41" s="3">
-        <v>347600</v>
+        <v>364600</v>
       </c>
       <c r="F41" s="3">
-        <v>185500</v>
+        <v>194600</v>
       </c>
       <c r="G41" s="3">
-        <v>175200</v>
+        <v>183800</v>
       </c>
       <c r="H41" s="3">
-        <v>264200</v>
+        <v>277100</v>
       </c>
       <c r="I41" s="3">
-        <v>132000</v>
+        <v>138500</v>
       </c>
       <c r="J41" s="3">
-        <v>310700</v>
+        <v>325900</v>
       </c>
       <c r="K41" s="3">
         <v>340800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>64000</v>
+        <v>67100</v>
       </c>
       <c r="E42" s="3">
-        <v>97400</v>
+        <v>102200</v>
       </c>
       <c r="F42" s="3">
-        <v>30900</v>
+        <v>32400</v>
       </c>
       <c r="G42" s="3">
-        <v>24400</v>
+        <v>25600</v>
       </c>
       <c r="H42" s="3">
-        <v>235000</v>
+        <v>246500</v>
       </c>
       <c r="I42" s="3">
-        <v>190600</v>
+        <v>199900</v>
       </c>
       <c r="J42" s="3">
-        <v>69400</v>
+        <v>72800</v>
       </c>
       <c r="K42" s="3">
         <v>148400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>782200</v>
+        <v>820500</v>
       </c>
       <c r="E43" s="3">
-        <v>707000</v>
+        <v>741600</v>
       </c>
       <c r="F43" s="3">
-        <v>750100</v>
+        <v>786900</v>
       </c>
       <c r="G43" s="3">
-        <v>571100</v>
+        <v>599000</v>
       </c>
       <c r="H43" s="3">
-        <v>705300</v>
+        <v>739800</v>
       </c>
       <c r="I43" s="3">
-        <v>575400</v>
+        <v>603600</v>
       </c>
       <c r="J43" s="3">
-        <v>426100</v>
+        <v>446900</v>
       </c>
       <c r="K43" s="3">
         <v>604300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23300</v>
+        <v>24400</v>
       </c>
       <c r="E44" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F44" s="3">
         <v>20700</v>
       </c>
-      <c r="F44" s="3">
-        <v>19700</v>
-      </c>
       <c r="G44" s="3">
-        <v>23300</v>
+        <v>24400</v>
       </c>
       <c r="H44" s="3">
-        <v>23400</v>
+        <v>24500</v>
       </c>
       <c r="I44" s="3">
-        <v>26900</v>
+        <v>28200</v>
       </c>
       <c r="J44" s="3">
-        <v>24800</v>
+        <v>26100</v>
       </c>
       <c r="K44" s="3">
         <v>58300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16700</v>
+        <v>17600</v>
       </c>
       <c r="E45" s="3">
-        <v>18500</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>30900</v>
+        <v>32500</v>
       </c>
       <c r="G45" s="3">
-        <v>16700</v>
+        <v>17600</v>
       </c>
       <c r="H45" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="I45" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="J45" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="K45" s="3">
         <v>25600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1411000</v>
+        <v>1480000</v>
       </c>
       <c r="E46" s="3">
-        <v>1191300</v>
+        <v>1249600</v>
       </c>
       <c r="F46" s="3">
-        <v>1017200</v>
+        <v>1067000</v>
       </c>
       <c r="G46" s="3">
-        <v>755900</v>
+        <v>792900</v>
       </c>
       <c r="H46" s="3">
-        <v>1236900</v>
+        <v>1297400</v>
       </c>
       <c r="I46" s="3">
-        <v>930900</v>
+        <v>976500</v>
       </c>
       <c r="J46" s="3">
-        <v>835000</v>
+        <v>875800</v>
       </c>
       <c r="K46" s="3">
         <v>1093300</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1898000</v>
+        <v>1990900</v>
       </c>
       <c r="E47" s="3">
-        <v>1694600</v>
+        <v>1777500</v>
       </c>
       <c r="F47" s="3">
-        <v>1517200</v>
+        <v>1591500</v>
       </c>
       <c r="G47" s="3">
-        <v>1352600</v>
+        <v>1418800</v>
       </c>
       <c r="H47" s="3">
-        <v>809200</v>
+        <v>848800</v>
       </c>
       <c r="I47" s="3">
-        <v>1311700</v>
+        <v>1375900</v>
       </c>
       <c r="J47" s="3">
-        <v>1008600</v>
+        <v>1058000</v>
       </c>
       <c r="K47" s="3">
         <v>998600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1906300</v>
+        <v>1999600</v>
       </c>
       <c r="E48" s="3">
-        <v>1934200</v>
+        <v>2028900</v>
       </c>
       <c r="F48" s="3">
-        <v>1753800</v>
+        <v>1839600</v>
       </c>
       <c r="G48" s="3">
-        <v>1594100</v>
+        <v>1672100</v>
       </c>
       <c r="H48" s="3">
-        <v>1550800</v>
+        <v>1626700</v>
       </c>
       <c r="I48" s="3">
-        <v>1481500</v>
+        <v>1554000</v>
       </c>
       <c r="J48" s="3">
-        <v>1745800</v>
+        <v>1831200</v>
       </c>
       <c r="K48" s="3">
         <v>5514700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1129700</v>
+        <v>1185000</v>
       </c>
       <c r="E49" s="3">
-        <v>1075600</v>
+        <v>1128200</v>
       </c>
       <c r="F49" s="3">
-        <v>1151200</v>
+        <v>1207500</v>
       </c>
       <c r="G49" s="3">
-        <v>1152400</v>
+        <v>1208800</v>
       </c>
       <c r="H49" s="3">
-        <v>1096300</v>
+        <v>1149900</v>
       </c>
       <c r="I49" s="3">
-        <v>387900</v>
+        <v>406800</v>
       </c>
       <c r="J49" s="3">
-        <v>370400</v>
+        <v>388500</v>
       </c>
       <c r="K49" s="3">
         <v>1251000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>489900</v>
+        <v>513900</v>
       </c>
       <c r="E52" s="3">
-        <v>514200</v>
+        <v>539400</v>
       </c>
       <c r="F52" s="3">
-        <v>523700</v>
+        <v>549300</v>
       </c>
       <c r="G52" s="3">
-        <v>551900</v>
+        <v>578900</v>
       </c>
       <c r="H52" s="3">
-        <v>471100</v>
+        <v>494200</v>
       </c>
       <c r="I52" s="3">
-        <v>458300</v>
+        <v>480700</v>
       </c>
       <c r="J52" s="3">
-        <v>494100</v>
+        <v>518300</v>
       </c>
       <c r="K52" s="3">
         <v>610900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6835000</v>
+        <v>7169400</v>
       </c>
       <c r="E54" s="3">
-        <v>6409900</v>
+        <v>6723600</v>
       </c>
       <c r="F54" s="3">
-        <v>5916200</v>
+        <v>6205700</v>
       </c>
       <c r="G54" s="3">
-        <v>5407000</v>
+        <v>5671600</v>
       </c>
       <c r="H54" s="3">
-        <v>5164300</v>
+        <v>5417000</v>
       </c>
       <c r="I54" s="3">
-        <v>4570300</v>
+        <v>4793900</v>
       </c>
       <c r="J54" s="3">
-        <v>4123100</v>
+        <v>4324800</v>
       </c>
       <c r="K54" s="3">
         <v>4952700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300700</v>
+        <v>315400</v>
       </c>
       <c r="E57" s="3">
-        <v>253200</v>
+        <v>265600</v>
       </c>
       <c r="F57" s="3">
-        <v>300400</v>
+        <v>315000</v>
       </c>
       <c r="G57" s="3">
-        <v>224000</v>
+        <v>235000</v>
       </c>
       <c r="H57" s="3">
-        <v>287800</v>
+        <v>301900</v>
       </c>
       <c r="I57" s="3">
-        <v>283200</v>
+        <v>297000</v>
       </c>
       <c r="J57" s="3">
-        <v>194900</v>
+        <v>204400</v>
       </c>
       <c r="K57" s="3">
         <v>264300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>259300</v>
+        <v>272000</v>
       </c>
       <c r="E58" s="3">
-        <v>588400</v>
+        <v>617100</v>
       </c>
       <c r="F58" s="3">
-        <v>431100</v>
+        <v>452200</v>
       </c>
       <c r="G58" s="3">
-        <v>464200</v>
+        <v>486900</v>
       </c>
       <c r="H58" s="3">
-        <v>219900</v>
+        <v>230600</v>
       </c>
       <c r="I58" s="3">
-        <v>231800</v>
+        <v>243100</v>
       </c>
       <c r="J58" s="3">
-        <v>181000</v>
+        <v>189900</v>
       </c>
       <c r="K58" s="3">
         <v>64000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>393700</v>
+        <v>413000</v>
       </c>
       <c r="E59" s="3">
-        <v>352900</v>
+        <v>370100</v>
       </c>
       <c r="F59" s="3">
-        <v>358500</v>
+        <v>376100</v>
       </c>
       <c r="G59" s="3">
-        <v>320800</v>
+        <v>336500</v>
       </c>
       <c r="H59" s="3">
-        <v>346700</v>
+        <v>363700</v>
       </c>
       <c r="I59" s="3">
-        <v>208600</v>
+        <v>218800</v>
       </c>
       <c r="J59" s="3">
-        <v>221400</v>
+        <v>232200</v>
       </c>
       <c r="K59" s="3">
         <v>423100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>953700</v>
+        <v>1000300</v>
       </c>
       <c r="E60" s="3">
-        <v>1194400</v>
+        <v>1252900</v>
       </c>
       <c r="F60" s="3">
-        <v>1090000</v>
+        <v>1143300</v>
       </c>
       <c r="G60" s="3">
-        <v>1009000</v>
+        <v>1058400</v>
       </c>
       <c r="H60" s="3">
-        <v>854400</v>
+        <v>896200</v>
       </c>
       <c r="I60" s="3">
-        <v>723500</v>
+        <v>758900</v>
       </c>
       <c r="J60" s="3">
-        <v>597300</v>
+        <v>626500</v>
       </c>
       <c r="K60" s="3">
         <v>661700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1822400</v>
+        <v>1911600</v>
       </c>
       <c r="E61" s="3">
-        <v>1474900</v>
+        <v>1547100</v>
       </c>
       <c r="F61" s="3">
-        <v>1322600</v>
+        <v>1387300</v>
       </c>
       <c r="G61" s="3">
-        <v>1112400</v>
+        <v>1166800</v>
       </c>
       <c r="H61" s="3">
-        <v>1164700</v>
+        <v>1221700</v>
       </c>
       <c r="I61" s="3">
-        <v>848300</v>
+        <v>889900</v>
       </c>
       <c r="J61" s="3">
-        <v>627500</v>
+        <v>658200</v>
       </c>
       <c r="K61" s="3">
         <v>697700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>919400</v>
+        <v>964400</v>
       </c>
       <c r="E62" s="3">
-        <v>826200</v>
+        <v>866600</v>
       </c>
       <c r="F62" s="3">
-        <v>736500</v>
+        <v>772500</v>
       </c>
       <c r="G62" s="3">
-        <v>610000</v>
+        <v>639900</v>
       </c>
       <c r="H62" s="3">
-        <v>543300</v>
+        <v>569900</v>
       </c>
       <c r="I62" s="3">
-        <v>557400</v>
+        <v>584700</v>
       </c>
       <c r="J62" s="3">
-        <v>591900</v>
+        <v>620800</v>
       </c>
       <c r="K62" s="3">
         <v>706600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3757100</v>
+        <v>3941000</v>
       </c>
       <c r="E66" s="3">
-        <v>3549700</v>
+        <v>3723400</v>
       </c>
       <c r="F66" s="3">
-        <v>3203100</v>
+        <v>3359800</v>
       </c>
       <c r="G66" s="3">
-        <v>2778500</v>
+        <v>2914500</v>
       </c>
       <c r="H66" s="3">
-        <v>2622800</v>
+        <v>2751200</v>
       </c>
       <c r="I66" s="3">
-        <v>2192100</v>
+        <v>2299400</v>
       </c>
       <c r="J66" s="3">
-        <v>1866100</v>
+        <v>1957400</v>
       </c>
       <c r="K66" s="3">
         <v>2127700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1045500</v>
+        <v>1096700</v>
       </c>
       <c r="E72" s="3">
-        <v>1309000</v>
+        <v>1373000</v>
       </c>
       <c r="F72" s="3">
-        <v>1142200</v>
+        <v>1198100</v>
       </c>
       <c r="G72" s="3">
-        <v>1039200</v>
+        <v>1090000</v>
       </c>
       <c r="H72" s="3">
-        <v>1098700</v>
+        <v>1152400</v>
       </c>
       <c r="I72" s="3">
-        <v>928000</v>
+        <v>973400</v>
       </c>
       <c r="J72" s="3">
-        <v>806800</v>
+        <v>846300</v>
       </c>
       <c r="K72" s="3">
         <v>912700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3077800</v>
+        <v>3228400</v>
       </c>
       <c r="E76" s="3">
-        <v>2860300</v>
+        <v>3000200</v>
       </c>
       <c r="F76" s="3">
-        <v>2713100</v>
+        <v>2845800</v>
       </c>
       <c r="G76" s="3">
-        <v>2628500</v>
+        <v>2757100</v>
       </c>
       <c r="H76" s="3">
-        <v>2541400</v>
+        <v>2665800</v>
       </c>
       <c r="I76" s="3">
-        <v>2378200</v>
+        <v>2494600</v>
       </c>
       <c r="J76" s="3">
-        <v>2257000</v>
+        <v>2367400</v>
       </c>
       <c r="K76" s="3">
         <v>2825000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>355000</v>
+        <v>372400</v>
       </c>
       <c r="E81" s="3">
-        <v>251000</v>
+        <v>263300</v>
       </c>
       <c r="F81" s="3">
-        <v>184400</v>
+        <v>193400</v>
       </c>
       <c r="G81" s="3">
-        <v>147700</v>
+        <v>154900</v>
       </c>
       <c r="H81" s="3">
-        <v>212800</v>
+        <v>223200</v>
       </c>
       <c r="I81" s="3">
-        <v>215100</v>
+        <v>225700</v>
       </c>
       <c r="J81" s="3">
-        <v>191300</v>
+        <v>200700</v>
       </c>
       <c r="K81" s="3">
         <v>163600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>195100</v>
+        <v>204700</v>
       </c>
       <c r="E83" s="3">
-        <v>133700</v>
+        <v>140200</v>
       </c>
       <c r="F83" s="3">
-        <v>130500</v>
+        <v>136900</v>
       </c>
       <c r="G83" s="3">
-        <v>126400</v>
+        <v>132500</v>
       </c>
       <c r="H83" s="3">
-        <v>120700</v>
+        <v>126600</v>
       </c>
       <c r="I83" s="3">
-        <v>112400</v>
+        <v>117900</v>
       </c>
       <c r="J83" s="3">
-        <v>107600</v>
+        <v>112900</v>
       </c>
       <c r="K83" s="3">
         <v>128400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>525400</v>
+        <v>551100</v>
       </c>
       <c r="E89" s="3">
-        <v>315900</v>
+        <v>331400</v>
       </c>
       <c r="F89" s="3">
-        <v>176500</v>
+        <v>185100</v>
       </c>
       <c r="G89" s="3">
-        <v>263500</v>
+        <v>276400</v>
       </c>
       <c r="H89" s="3">
-        <v>235600</v>
+        <v>247100</v>
       </c>
       <c r="I89" s="3">
-        <v>194700</v>
+        <v>204200</v>
       </c>
       <c r="J89" s="3">
-        <v>238600</v>
+        <v>250300</v>
       </c>
       <c r="K89" s="3">
         <v>331400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-96900</v>
+        <v>-101600</v>
       </c>
       <c r="E91" s="3">
-        <v>-265600</v>
+        <v>-278600</v>
       </c>
       <c r="F91" s="3">
-        <v>-215100</v>
+        <v>-225600</v>
       </c>
       <c r="G91" s="3">
-        <v>-229100</v>
+        <v>-240400</v>
       </c>
       <c r="H91" s="3">
-        <v>-134300</v>
+        <v>-140800</v>
       </c>
       <c r="I91" s="3">
-        <v>-159600</v>
+        <v>-167400</v>
       </c>
       <c r="J91" s="3">
-        <v>-75000</v>
+        <v>-78600</v>
       </c>
       <c r="K91" s="3">
         <v>-204400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-296800</v>
+        <v>-311300</v>
       </c>
       <c r="E94" s="3">
-        <v>-383400</v>
+        <v>-402200</v>
       </c>
       <c r="F94" s="3">
-        <v>-282100</v>
+        <v>-295900</v>
       </c>
       <c r="G94" s="3">
-        <v>-448000</v>
+        <v>-469900</v>
       </c>
       <c r="H94" s="3">
-        <v>-348200</v>
+        <v>-365200</v>
       </c>
       <c r="I94" s="3">
-        <v>-457200</v>
+        <v>-479600</v>
       </c>
       <c r="J94" s="3">
-        <v>-332600</v>
+        <v>-348800</v>
       </c>
       <c r="K94" s="3">
         <v>-426800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-67900</v>
+        <v>-71200</v>
       </c>
       <c r="E96" s="3">
-        <v>-53600</v>
+        <v>-56300</v>
       </c>
       <c r="F96" s="3">
-        <v>-90300</v>
+        <v>-94800</v>
       </c>
       <c r="G96" s="3">
-        <v>-65800</v>
+        <v>-69000</v>
       </c>
       <c r="H96" s="3">
-        <v>-54900</v>
+        <v>-57500</v>
       </c>
       <c r="I96" s="3">
-        <v>-119300</v>
+        <v>-125200</v>
       </c>
       <c r="J96" s="3">
-        <v>-105500</v>
+        <v>-110700</v>
       </c>
       <c r="K96" s="3">
         <v>-52500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-51400</v>
+        <v>-53900</v>
       </c>
       <c r="E100" s="3">
-        <v>229500</v>
+        <v>240700</v>
       </c>
       <c r="F100" s="3">
-        <v>116000</v>
+        <v>121600</v>
       </c>
       <c r="G100" s="3">
-        <v>95600</v>
+        <v>100200</v>
       </c>
       <c r="H100" s="3">
-        <v>244700</v>
+        <v>256600</v>
       </c>
       <c r="I100" s="3">
-        <v>83800</v>
+        <v>87900</v>
       </c>
       <c r="J100" s="3">
-        <v>144300</v>
+        <v>151400</v>
       </c>
       <c r="K100" s="3">
         <v>191300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>177200</v>
+        <v>185900</v>
       </c>
       <c r="E102" s="3">
-        <v>162000</v>
+        <v>170000</v>
       </c>
       <c r="F102" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="G102" s="3">
-        <v>-89000</v>
+        <v>-93300</v>
       </c>
       <c r="H102" s="3">
-        <v>132100</v>
+        <v>138600</v>
       </c>
       <c r="I102" s="3">
-        <v>-178700</v>
+        <v>-187400</v>
       </c>
       <c r="J102" s="3">
-        <v>50400</v>
+        <v>52800</v>
       </c>
       <c r="K102" s="3">
         <v>95900</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3039800</v>
+        <v>3299400</v>
       </c>
       <c r="E8" s="3">
-        <v>2794700</v>
+        <v>2810000</v>
       </c>
       <c r="F8" s="3">
-        <v>2624400</v>
+        <v>2644500</v>
       </c>
       <c r="G8" s="3">
-        <v>2451700</v>
+        <v>2483300</v>
       </c>
       <c r="H8" s="3">
-        <v>2796800</v>
+        <v>2319900</v>
       </c>
       <c r="I8" s="3">
-        <v>2604600</v>
+        <v>2646500</v>
       </c>
       <c r="J8" s="3">
+        <v>2464600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1717900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1983300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1929100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2200700</v>
+        <v>2363500</v>
       </c>
       <c r="E9" s="3">
-        <v>2152300</v>
+        <v>2030000</v>
       </c>
       <c r="F9" s="3">
-        <v>1995900</v>
+        <v>2036600</v>
       </c>
       <c r="G9" s="3">
-        <v>1915100</v>
+        <v>1888600</v>
       </c>
       <c r="H9" s="3">
-        <v>2208000</v>
+        <v>1812200</v>
       </c>
       <c r="I9" s="3">
-        <v>2112500</v>
+        <v>2089300</v>
       </c>
       <c r="J9" s="3">
+        <v>1998900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1317000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1527400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1353800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>839100</v>
+        <v>935900</v>
       </c>
       <c r="E10" s="3">
-        <v>642400</v>
+        <v>780000</v>
       </c>
       <c r="F10" s="3">
-        <v>628500</v>
+        <v>607900</v>
       </c>
       <c r="G10" s="3">
-        <v>536600</v>
+        <v>594700</v>
       </c>
       <c r="H10" s="3">
-        <v>588800</v>
+        <v>507800</v>
       </c>
       <c r="I10" s="3">
-        <v>492100</v>
+        <v>557200</v>
       </c>
       <c r="J10" s="3">
+        <v>465700</v>
+      </c>
+      <c r="K10" s="3">
         <v>400900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>456000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>575300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="E15" s="3">
-        <v>7400</v>
+        <v>10300</v>
       </c>
       <c r="F15" s="3">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="G15" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H15" s="3">
-        <v>14300</v>
+        <v>7800</v>
       </c>
       <c r="I15" s="3">
-        <v>7400</v>
+        <v>13500</v>
       </c>
       <c r="J15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K15" s="3">
         <v>9700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2442700</v>
+        <v>2546300</v>
       </c>
       <c r="E17" s="3">
-        <v>2346700</v>
+        <v>2225200</v>
       </c>
       <c r="F17" s="3">
-        <v>2222600</v>
+        <v>2220600</v>
       </c>
       <c r="G17" s="3">
-        <v>2069200</v>
+        <v>2103100</v>
       </c>
       <c r="H17" s="3">
-        <v>2398900</v>
+        <v>1958000</v>
       </c>
       <c r="I17" s="3">
-        <v>2281400</v>
+        <v>2269900</v>
       </c>
       <c r="J17" s="3">
+        <v>2158700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1488400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1750000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1591900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>597100</v>
+        <v>753100</v>
       </c>
       <c r="E18" s="3">
-        <v>448000</v>
+        <v>584700</v>
       </c>
       <c r="F18" s="3">
-        <v>401800</v>
+        <v>423900</v>
       </c>
       <c r="G18" s="3">
-        <v>382500</v>
+        <v>380200</v>
       </c>
       <c r="H18" s="3">
-        <v>397900</v>
+        <v>361900</v>
       </c>
       <c r="I18" s="3">
-        <v>323200</v>
+        <v>376500</v>
       </c>
       <c r="J18" s="3">
+        <v>305800</v>
+      </c>
+      <c r="K18" s="3">
         <v>229500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>233300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>337200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>78300</v>
+        <v>261000</v>
       </c>
       <c r="E20" s="3">
-        <v>81100</v>
+        <v>231200</v>
       </c>
       <c r="F20" s="3">
-        <v>44900</v>
+        <v>76700</v>
       </c>
       <c r="G20" s="3">
-        <v>63300</v>
+        <v>42500</v>
       </c>
       <c r="H20" s="3">
-        <v>79100</v>
+        <v>59900</v>
       </c>
       <c r="I20" s="3">
-        <v>93100</v>
+        <v>74900</v>
       </c>
       <c r="J20" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K20" s="3">
         <v>96100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>90800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>880400</v>
+        <v>1193800</v>
       </c>
       <c r="E21" s="3">
-        <v>669500</v>
+        <v>1010500</v>
       </c>
       <c r="F21" s="3">
-        <v>583800</v>
+        <v>633900</v>
       </c>
       <c r="G21" s="3">
-        <v>578500</v>
+        <v>552800</v>
       </c>
       <c r="H21" s="3">
-        <v>603800</v>
+        <v>547900</v>
       </c>
       <c r="I21" s="3">
-        <v>534300</v>
+        <v>571800</v>
       </c>
       <c r="J21" s="3">
+        <v>505900</v>
+      </c>
+      <c r="K21" s="3">
         <v>438600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>388100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>563000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>169700</v>
+        <v>107600</v>
       </c>
       <c r="E22" s="3">
-        <v>163100</v>
+        <v>311800</v>
       </c>
       <c r="F22" s="3">
-        <v>186000</v>
+        <v>154300</v>
       </c>
       <c r="G22" s="3">
-        <v>200800</v>
+        <v>176000</v>
       </c>
       <c r="H22" s="3">
-        <v>140600</v>
+        <v>190000</v>
       </c>
       <c r="I22" s="3">
-        <v>68600</v>
+        <v>133100</v>
       </c>
       <c r="J22" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K22" s="3">
         <v>43700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>505700</v>
+        <v>906500</v>
       </c>
       <c r="E23" s="3">
-        <v>366000</v>
+        <v>504100</v>
       </c>
       <c r="F23" s="3">
-        <v>260700</v>
+        <v>346300</v>
       </c>
       <c r="G23" s="3">
-        <v>245000</v>
+        <v>246600</v>
       </c>
       <c r="H23" s="3">
-        <v>336400</v>
+        <v>231900</v>
       </c>
       <c r="I23" s="3">
-        <v>347600</v>
+        <v>318300</v>
       </c>
       <c r="J23" s="3">
+        <v>328900</v>
+      </c>
+      <c r="K23" s="3">
         <v>281900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>227100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>392900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E24" s="3">
         <v>119600</v>
       </c>
-      <c r="E24" s="3">
-        <v>95800</v>
-      </c>
       <c r="F24" s="3">
-        <v>51400</v>
+        <v>90700</v>
       </c>
       <c r="G24" s="3">
-        <v>97200</v>
+        <v>48600</v>
       </c>
       <c r="H24" s="3">
-        <v>99600</v>
+        <v>92000</v>
       </c>
       <c r="I24" s="3">
-        <v>97700</v>
+        <v>94200</v>
       </c>
       <c r="J24" s="3">
+        <v>92400</v>
+      </c>
+      <c r="K24" s="3">
         <v>75800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>101000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>386000</v>
+        <v>678900</v>
       </c>
       <c r="E26" s="3">
-        <v>270200</v>
+        <v>384500</v>
       </c>
       <c r="F26" s="3">
-        <v>209300</v>
+        <v>255700</v>
       </c>
       <c r="G26" s="3">
-        <v>147800</v>
+        <v>198000</v>
       </c>
       <c r="H26" s="3">
-        <v>236800</v>
+        <v>139800</v>
       </c>
       <c r="I26" s="3">
-        <v>249900</v>
+        <v>224100</v>
       </c>
       <c r="J26" s="3">
+        <v>236500</v>
+      </c>
+      <c r="K26" s="3">
         <v>206100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>169700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>292000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>372400</v>
+        <v>677900</v>
       </c>
       <c r="E27" s="3">
-        <v>263300</v>
+        <v>371600</v>
       </c>
       <c r="F27" s="3">
-        <v>193400</v>
+        <v>249100</v>
       </c>
       <c r="G27" s="3">
-        <v>154900</v>
+        <v>183000</v>
       </c>
       <c r="H27" s="3">
-        <v>223200</v>
+        <v>146600</v>
       </c>
       <c r="I27" s="3">
-        <v>225700</v>
+        <v>211200</v>
       </c>
       <c r="J27" s="3">
+        <v>213500</v>
+      </c>
+      <c r="K27" s="3">
         <v>200700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>163600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>287200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,32 +1403,35 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-19200</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-78300</v>
+        <v>-261000</v>
       </c>
       <c r="E32" s="3">
-        <v>-81100</v>
+        <v>-231200</v>
       </c>
       <c r="F32" s="3">
-        <v>-44900</v>
+        <v>-76700</v>
       </c>
       <c r="G32" s="3">
-        <v>-63300</v>
+        <v>-42500</v>
       </c>
       <c r="H32" s="3">
-        <v>-79100</v>
+        <v>-59900</v>
       </c>
       <c r="I32" s="3">
-        <v>-93100</v>
+        <v>-74900</v>
       </c>
       <c r="J32" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-96100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-90800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>372400</v>
+        <v>691300</v>
       </c>
       <c r="E33" s="3">
-        <v>263300</v>
+        <v>352400</v>
       </c>
       <c r="F33" s="3">
-        <v>193400</v>
+        <v>249100</v>
       </c>
       <c r="G33" s="3">
-        <v>154900</v>
+        <v>183000</v>
       </c>
       <c r="H33" s="3">
-        <v>223200</v>
+        <v>146600</v>
       </c>
       <c r="I33" s="3">
-        <v>225700</v>
+        <v>211200</v>
       </c>
       <c r="J33" s="3">
+        <v>213500</v>
+      </c>
+      <c r="K33" s="3">
         <v>200700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>163600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>287200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>372400</v>
+        <v>691300</v>
       </c>
       <c r="E35" s="3">
-        <v>263300</v>
+        <v>352400</v>
       </c>
       <c r="F35" s="3">
-        <v>193400</v>
+        <v>249100</v>
       </c>
       <c r="G35" s="3">
-        <v>154900</v>
+        <v>183000</v>
       </c>
       <c r="H35" s="3">
-        <v>223200</v>
+        <v>146600</v>
       </c>
       <c r="I35" s="3">
-        <v>225700</v>
+        <v>211200</v>
       </c>
       <c r="J35" s="3">
+        <v>213500</v>
+      </c>
+      <c r="K35" s="3">
         <v>200700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>163600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>287200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>550500</v>
+        <v>570700</v>
       </c>
       <c r="E41" s="3">
-        <v>364600</v>
+        <v>520900</v>
       </c>
       <c r="F41" s="3">
-        <v>194600</v>
+        <v>345000</v>
       </c>
       <c r="G41" s="3">
-        <v>183800</v>
+        <v>184200</v>
       </c>
       <c r="H41" s="3">
-        <v>277100</v>
+        <v>173900</v>
       </c>
       <c r="I41" s="3">
-        <v>138500</v>
+        <v>262200</v>
       </c>
       <c r="J41" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K41" s="3">
         <v>325900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>340800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>520400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>67100</v>
+        <v>31000</v>
       </c>
       <c r="E42" s="3">
-        <v>102200</v>
+        <v>63500</v>
       </c>
       <c r="F42" s="3">
-        <v>32400</v>
+        <v>96700</v>
       </c>
       <c r="G42" s="3">
-        <v>25600</v>
+        <v>30600</v>
       </c>
       <c r="H42" s="3">
-        <v>246500</v>
+        <v>24200</v>
       </c>
       <c r="I42" s="3">
-        <v>199900</v>
+        <v>233200</v>
       </c>
       <c r="J42" s="3">
+        <v>189200</v>
+      </c>
+      <c r="K42" s="3">
         <v>72800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>148400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>272400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>820500</v>
+        <v>1165000</v>
       </c>
       <c r="E43" s="3">
-        <v>741600</v>
+        <v>787000</v>
       </c>
       <c r="F43" s="3">
-        <v>786900</v>
+        <v>701800</v>
       </c>
       <c r="G43" s="3">
-        <v>599000</v>
+        <v>744600</v>
       </c>
       <c r="H43" s="3">
-        <v>739800</v>
+        <v>566800</v>
       </c>
       <c r="I43" s="3">
-        <v>603600</v>
+        <v>700000</v>
       </c>
       <c r="J43" s="3">
+        <v>571100</v>
+      </c>
+      <c r="K43" s="3">
         <v>446900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>604300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>520200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24400</v>
+        <v>28800</v>
       </c>
       <c r="E44" s="3">
-        <v>21800</v>
+        <v>23100</v>
       </c>
       <c r="F44" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="G44" s="3">
-        <v>24400</v>
+        <v>19600</v>
       </c>
       <c r="H44" s="3">
-        <v>24500</v>
+        <v>23100</v>
       </c>
       <c r="I44" s="3">
-        <v>28200</v>
+        <v>23200</v>
       </c>
       <c r="J44" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K44" s="3">
         <v>26100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>58300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>51500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17600</v>
+        <v>224500</v>
       </c>
       <c r="E45" s="3">
-        <v>19400</v>
+        <v>6000</v>
       </c>
       <c r="F45" s="3">
-        <v>32500</v>
+        <v>18400</v>
       </c>
       <c r="G45" s="3">
-        <v>17600</v>
+        <v>30700</v>
       </c>
       <c r="H45" s="3">
-        <v>9600</v>
+        <v>16600</v>
       </c>
       <c r="I45" s="3">
-        <v>6300</v>
+        <v>9100</v>
       </c>
       <c r="J45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1480000</v>
+        <v>2019900</v>
       </c>
       <c r="E46" s="3">
-        <v>1249600</v>
+        <v>1400500</v>
       </c>
       <c r="F46" s="3">
-        <v>1067000</v>
+        <v>1182400</v>
       </c>
       <c r="G46" s="3">
-        <v>792900</v>
+        <v>1009600</v>
       </c>
       <c r="H46" s="3">
-        <v>1297400</v>
+        <v>750300</v>
       </c>
       <c r="I46" s="3">
-        <v>976500</v>
+        <v>1227700</v>
       </c>
       <c r="J46" s="3">
+        <v>924000</v>
+      </c>
+      <c r="K46" s="3">
         <v>875800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1093300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>917800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1990900</v>
+        <v>2815900</v>
       </c>
       <c r="E47" s="3">
-        <v>1777500</v>
+        <v>1883800</v>
       </c>
       <c r="F47" s="3">
-        <v>1591500</v>
+        <v>1682000</v>
       </c>
       <c r="G47" s="3">
-        <v>1418800</v>
+        <v>1505900</v>
       </c>
       <c r="H47" s="3">
-        <v>848800</v>
+        <v>1342600</v>
       </c>
       <c r="I47" s="3">
-        <v>1375900</v>
+        <v>803200</v>
       </c>
       <c r="J47" s="3">
+        <v>1301900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1058000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>998600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1013300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1999600</v>
+        <v>1705000</v>
       </c>
       <c r="E48" s="3">
-        <v>2028900</v>
+        <v>1892100</v>
       </c>
       <c r="F48" s="3">
-        <v>1839600</v>
+        <v>1919800</v>
       </c>
       <c r="G48" s="3">
-        <v>1672100</v>
+        <v>1740700</v>
       </c>
       <c r="H48" s="3">
-        <v>1626700</v>
+        <v>1582200</v>
       </c>
       <c r="I48" s="3">
-        <v>1554000</v>
+        <v>1539200</v>
       </c>
       <c r="J48" s="3">
+        <v>1470400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1831200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5514700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3576900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1185000</v>
+        <v>1227000</v>
       </c>
       <c r="E49" s="3">
-        <v>1128200</v>
+        <v>1121300</v>
       </c>
       <c r="F49" s="3">
-        <v>1207500</v>
+        <v>1067600</v>
       </c>
       <c r="G49" s="3">
-        <v>1208800</v>
+        <v>1142600</v>
       </c>
       <c r="H49" s="3">
-        <v>1149900</v>
+        <v>1143800</v>
       </c>
       <c r="I49" s="3">
-        <v>406800</v>
+        <v>1088100</v>
       </c>
       <c r="J49" s="3">
+        <v>385000</v>
+      </c>
+      <c r="K49" s="3">
         <v>388500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1251000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>860900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>513900</v>
+        <v>516400</v>
       </c>
       <c r="E52" s="3">
-        <v>539400</v>
+        <v>486200</v>
       </c>
       <c r="F52" s="3">
-        <v>549300</v>
+        <v>510400</v>
       </c>
       <c r="G52" s="3">
-        <v>578900</v>
+        <v>519800</v>
       </c>
       <c r="H52" s="3">
-        <v>494200</v>
+        <v>547700</v>
       </c>
       <c r="I52" s="3">
-        <v>480700</v>
+        <v>467600</v>
       </c>
       <c r="J52" s="3">
+        <v>454900</v>
+      </c>
+      <c r="K52" s="3">
         <v>518300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>610900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>551300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7169400</v>
+        <v>8284200</v>
       </c>
       <c r="E54" s="3">
-        <v>6723600</v>
+        <v>6784000</v>
       </c>
       <c r="F54" s="3">
-        <v>6205700</v>
+        <v>6362100</v>
       </c>
       <c r="G54" s="3">
-        <v>5671600</v>
+        <v>5872100</v>
       </c>
       <c r="H54" s="3">
-        <v>5417000</v>
+        <v>5366700</v>
       </c>
       <c r="I54" s="3">
-        <v>4793900</v>
+        <v>5125800</v>
       </c>
       <c r="J54" s="3">
+        <v>4536200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4324800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4952700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4673100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>315400</v>
+        <v>405700</v>
       </c>
       <c r="E57" s="3">
-        <v>265600</v>
+        <v>298400</v>
       </c>
       <c r="F57" s="3">
-        <v>315000</v>
+        <v>251300</v>
       </c>
       <c r="G57" s="3">
-        <v>235000</v>
+        <v>298100</v>
       </c>
       <c r="H57" s="3">
-        <v>301900</v>
+        <v>222300</v>
       </c>
       <c r="I57" s="3">
-        <v>297000</v>
+        <v>285600</v>
       </c>
       <c r="J57" s="3">
+        <v>281000</v>
+      </c>
+      <c r="K57" s="3">
         <v>204400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>264300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>185400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>272000</v>
+        <v>467500</v>
       </c>
       <c r="E58" s="3">
-        <v>617100</v>
+        <v>257400</v>
       </c>
       <c r="F58" s="3">
-        <v>452200</v>
+        <v>584000</v>
       </c>
       <c r="G58" s="3">
-        <v>486900</v>
+        <v>427900</v>
       </c>
       <c r="H58" s="3">
-        <v>230600</v>
+        <v>460700</v>
       </c>
       <c r="I58" s="3">
-        <v>243100</v>
+        <v>218200</v>
       </c>
       <c r="J58" s="3">
+        <v>230000</v>
+      </c>
+      <c r="K58" s="3">
         <v>189900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>413000</v>
+        <v>836300</v>
       </c>
       <c r="E59" s="3">
-        <v>370100</v>
+        <v>390800</v>
       </c>
       <c r="F59" s="3">
-        <v>376100</v>
+        <v>350200</v>
       </c>
       <c r="G59" s="3">
-        <v>336500</v>
+        <v>355800</v>
       </c>
       <c r="H59" s="3">
-        <v>363700</v>
+        <v>318500</v>
       </c>
       <c r="I59" s="3">
-        <v>218800</v>
+        <v>344100</v>
       </c>
       <c r="J59" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K59" s="3">
         <v>232200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>423100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>414300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000300</v>
+        <v>1709500</v>
       </c>
       <c r="E60" s="3">
-        <v>1252900</v>
+        <v>946500</v>
       </c>
       <c r="F60" s="3">
-        <v>1143300</v>
+        <v>1185500</v>
       </c>
       <c r="G60" s="3">
-        <v>1058400</v>
+        <v>1081900</v>
       </c>
       <c r="H60" s="3">
-        <v>896200</v>
+        <v>1001500</v>
       </c>
       <c r="I60" s="3">
-        <v>758900</v>
+        <v>848000</v>
       </c>
       <c r="J60" s="3">
+        <v>718100</v>
+      </c>
+      <c r="K60" s="3">
         <v>626500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>661700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>510500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1911600</v>
+        <v>1318100</v>
       </c>
       <c r="E61" s="3">
-        <v>1547100</v>
+        <v>1808800</v>
       </c>
       <c r="F61" s="3">
-        <v>1387300</v>
+        <v>1463900</v>
       </c>
       <c r="G61" s="3">
-        <v>1166800</v>
+        <v>1312800</v>
       </c>
       <c r="H61" s="3">
-        <v>1221700</v>
+        <v>1104100</v>
       </c>
       <c r="I61" s="3">
-        <v>889900</v>
+        <v>1156000</v>
       </c>
       <c r="J61" s="3">
+        <v>842000</v>
+      </c>
+      <c r="K61" s="3">
         <v>658200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>697700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>510500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>964400</v>
+        <v>1670800</v>
       </c>
       <c r="E62" s="3">
-        <v>866600</v>
+        <v>912500</v>
       </c>
       <c r="F62" s="3">
-        <v>772500</v>
+        <v>820100</v>
       </c>
       <c r="G62" s="3">
-        <v>639900</v>
+        <v>731000</v>
       </c>
       <c r="H62" s="3">
-        <v>569900</v>
+        <v>605500</v>
       </c>
       <c r="I62" s="3">
-        <v>584700</v>
+        <v>539300</v>
       </c>
       <c r="J62" s="3">
+        <v>553300</v>
+      </c>
+      <c r="K62" s="3">
         <v>620800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>706600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>655700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3941000</v>
+        <v>4750000</v>
       </c>
       <c r="E66" s="3">
-        <v>3723400</v>
+        <v>3729100</v>
       </c>
       <c r="F66" s="3">
-        <v>3359800</v>
+        <v>3523200</v>
       </c>
       <c r="G66" s="3">
-        <v>2914500</v>
+        <v>3179200</v>
       </c>
       <c r="H66" s="3">
-        <v>2751200</v>
+        <v>2757800</v>
       </c>
       <c r="I66" s="3">
-        <v>2299400</v>
+        <v>2603300</v>
       </c>
       <c r="J66" s="3">
+        <v>2175700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1957400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2127700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1736900</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1096700</v>
+        <v>1292300</v>
       </c>
       <c r="E72" s="3">
-        <v>1373000</v>
+        <v>1037700</v>
       </c>
       <c r="F72" s="3">
-        <v>1198100</v>
+        <v>1299200</v>
       </c>
       <c r="G72" s="3">
-        <v>1090000</v>
+        <v>1133600</v>
       </c>
       <c r="H72" s="3">
-        <v>1152400</v>
+        <v>1031400</v>
       </c>
       <c r="I72" s="3">
-        <v>973400</v>
+        <v>1090500</v>
       </c>
       <c r="J72" s="3">
+        <v>921100</v>
+      </c>
+      <c r="K72" s="3">
         <v>846300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>912700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>837200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3228400</v>
+        <v>3534200</v>
       </c>
       <c r="E76" s="3">
-        <v>3000200</v>
+        <v>3054900</v>
       </c>
       <c r="F76" s="3">
-        <v>2845800</v>
+        <v>2839000</v>
       </c>
       <c r="G76" s="3">
-        <v>2757100</v>
+        <v>2692900</v>
       </c>
       <c r="H76" s="3">
-        <v>2665800</v>
+        <v>2608900</v>
       </c>
       <c r="I76" s="3">
-        <v>2494600</v>
+        <v>2522500</v>
       </c>
       <c r="J76" s="3">
+        <v>2360500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2367400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2825000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2936200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>372400</v>
+        <v>691300</v>
       </c>
       <c r="E81" s="3">
-        <v>263300</v>
+        <v>352400</v>
       </c>
       <c r="F81" s="3">
-        <v>193400</v>
+        <v>249100</v>
       </c>
       <c r="G81" s="3">
-        <v>154900</v>
+        <v>183000</v>
       </c>
       <c r="H81" s="3">
-        <v>223200</v>
+        <v>146600</v>
       </c>
       <c r="I81" s="3">
-        <v>225700</v>
+        <v>211200</v>
       </c>
       <c r="J81" s="3">
+        <v>213500</v>
+      </c>
+      <c r="K81" s="3">
         <v>200700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>163600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>287200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204700</v>
+        <v>178800</v>
       </c>
       <c r="E83" s="3">
-        <v>140200</v>
+        <v>193700</v>
       </c>
       <c r="F83" s="3">
-        <v>136900</v>
+        <v>132700</v>
       </c>
       <c r="G83" s="3">
-        <v>132500</v>
+        <v>129500</v>
       </c>
       <c r="H83" s="3">
-        <v>126600</v>
+        <v>125400</v>
       </c>
       <c r="I83" s="3">
-        <v>117900</v>
+        <v>119800</v>
       </c>
       <c r="J83" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K83" s="3">
         <v>112900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>128400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>137000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>551100</v>
+        <v>697800</v>
       </c>
       <c r="E89" s="3">
+        <v>521500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>313600</v>
+      </c>
+      <c r="G89" s="3">
+        <v>175200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>261500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>233900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>193200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>250300</v>
+      </c>
+      <c r="L89" s="3">
         <v>331400</v>
       </c>
-      <c r="F89" s="3">
-        <v>185100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>276400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>247100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>204200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>250300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>331400</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>285000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-101600</v>
+        <v>-40100</v>
       </c>
       <c r="E91" s="3">
-        <v>-278600</v>
+        <v>-96200</v>
       </c>
       <c r="F91" s="3">
-        <v>-225600</v>
+        <v>-263700</v>
       </c>
       <c r="G91" s="3">
-        <v>-240400</v>
+        <v>-213500</v>
       </c>
       <c r="H91" s="3">
-        <v>-140800</v>
+        <v>-227400</v>
       </c>
       <c r="I91" s="3">
-        <v>-167400</v>
+        <v>-133300</v>
       </c>
       <c r="J91" s="3">
+        <v>-158400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-78600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-204400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-407300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-311300</v>
+        <v>-295300</v>
       </c>
       <c r="E94" s="3">
-        <v>-402200</v>
+        <v>-294600</v>
       </c>
       <c r="F94" s="3">
-        <v>-295900</v>
+        <v>-380600</v>
       </c>
       <c r="G94" s="3">
-        <v>-469900</v>
+        <v>-280000</v>
       </c>
       <c r="H94" s="3">
-        <v>-365200</v>
+        <v>-444600</v>
       </c>
       <c r="I94" s="3">
-        <v>-479600</v>
+        <v>-345600</v>
       </c>
       <c r="J94" s="3">
+        <v>-453800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-348800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-426800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-404300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-71200</v>
+        <v>-110900</v>
       </c>
       <c r="E96" s="3">
-        <v>-56300</v>
+        <v>-67400</v>
       </c>
       <c r="F96" s="3">
-        <v>-94800</v>
+        <v>-53200</v>
       </c>
       <c r="G96" s="3">
-        <v>-69000</v>
+        <v>-89700</v>
       </c>
       <c r="H96" s="3">
-        <v>-57500</v>
+        <v>-65300</v>
       </c>
       <c r="I96" s="3">
-        <v>-125200</v>
+        <v>-54500</v>
       </c>
       <c r="J96" s="3">
+        <v>-118500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-110700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-52500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-99500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,42 +3665,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53900</v>
+        <v>-303700</v>
       </c>
       <c r="E100" s="3">
-        <v>240700</v>
+        <v>-51000</v>
       </c>
       <c r="F100" s="3">
-        <v>121600</v>
+        <v>227800</v>
       </c>
       <c r="G100" s="3">
-        <v>100200</v>
+        <v>115100</v>
       </c>
       <c r="H100" s="3">
-        <v>256600</v>
+        <v>94800</v>
       </c>
       <c r="I100" s="3">
-        <v>87900</v>
+        <v>242800</v>
       </c>
       <c r="J100" s="3">
+        <v>83200</v>
+      </c>
+      <c r="K100" s="3">
         <v>151400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>191300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-65500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>185900</v>
+        <v>98800</v>
       </c>
       <c r="E102" s="3">
-        <v>170000</v>
+        <v>175900</v>
       </c>
       <c r="F102" s="3">
-        <v>10900</v>
+        <v>160800</v>
       </c>
       <c r="G102" s="3">
-        <v>-93300</v>
+        <v>10300</v>
       </c>
       <c r="H102" s="3">
-        <v>138600</v>
+        <v>-88300</v>
       </c>
       <c r="I102" s="3">
-        <v>-187400</v>
+        <v>131100</v>
       </c>
       <c r="J102" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="K102" s="3">
         <v>52800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>95900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-184800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3299400</v>
+        <v>3495200</v>
       </c>
       <c r="E8" s="3">
-        <v>2810000</v>
+        <v>2976800</v>
       </c>
       <c r="F8" s="3">
-        <v>2644500</v>
+        <v>2801500</v>
       </c>
       <c r="G8" s="3">
-        <v>2483300</v>
+        <v>2630700</v>
       </c>
       <c r="H8" s="3">
-        <v>2319900</v>
+        <v>2457600</v>
       </c>
       <c r="I8" s="3">
-        <v>2646500</v>
+        <v>2803500</v>
       </c>
       <c r="J8" s="3">
-        <v>2464600</v>
+        <v>2610800</v>
       </c>
       <c r="K8" s="3">
         <v>1717900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2363500</v>
+        <v>2503800</v>
       </c>
       <c r="E9" s="3">
-        <v>2030000</v>
+        <v>2150400</v>
       </c>
       <c r="F9" s="3">
-        <v>2036600</v>
+        <v>2157500</v>
       </c>
       <c r="G9" s="3">
-        <v>1888600</v>
+        <v>2000700</v>
       </c>
       <c r="H9" s="3">
-        <v>1812200</v>
+        <v>1919700</v>
       </c>
       <c r="I9" s="3">
-        <v>2089300</v>
+        <v>2213300</v>
       </c>
       <c r="J9" s="3">
-        <v>1998900</v>
+        <v>2117500</v>
       </c>
       <c r="K9" s="3">
         <v>1317000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>935900</v>
+        <v>991400</v>
       </c>
       <c r="E10" s="3">
-        <v>780000</v>
+        <v>826300</v>
       </c>
       <c r="F10" s="3">
-        <v>607900</v>
+        <v>644000</v>
       </c>
       <c r="G10" s="3">
-        <v>594700</v>
+        <v>630000</v>
       </c>
       <c r="H10" s="3">
-        <v>507800</v>
+        <v>537900</v>
       </c>
       <c r="I10" s="3">
-        <v>557200</v>
+        <v>590200</v>
       </c>
       <c r="J10" s="3">
-        <v>465700</v>
+        <v>493300</v>
       </c>
       <c r="K10" s="3">
         <v>400900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11400</v>
+        <v>12100</v>
       </c>
       <c r="E15" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="F15" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="G15" s="3">
-        <v>8100</v>
+        <v>8600</v>
       </c>
       <c r="H15" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="I15" s="3">
-        <v>13500</v>
+        <v>14300</v>
       </c>
       <c r="J15" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="K15" s="3">
         <v>9700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2546300</v>
+        <v>2697400</v>
       </c>
       <c r="E17" s="3">
-        <v>2225200</v>
+        <v>2357300</v>
       </c>
       <c r="F17" s="3">
-        <v>2220600</v>
+        <v>2352400</v>
       </c>
       <c r="G17" s="3">
-        <v>2103100</v>
+        <v>2228000</v>
       </c>
       <c r="H17" s="3">
-        <v>1958000</v>
+        <v>2074200</v>
       </c>
       <c r="I17" s="3">
-        <v>2269900</v>
+        <v>2404700</v>
       </c>
       <c r="J17" s="3">
-        <v>2158700</v>
+        <v>2286900</v>
       </c>
       <c r="K17" s="3">
         <v>1488400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>753100</v>
+        <v>797800</v>
       </c>
       <c r="E18" s="3">
-        <v>584700</v>
+        <v>619400</v>
       </c>
       <c r="F18" s="3">
-        <v>423900</v>
+        <v>449100</v>
       </c>
       <c r="G18" s="3">
-        <v>380200</v>
+        <v>402800</v>
       </c>
       <c r="H18" s="3">
-        <v>361900</v>
+        <v>383400</v>
       </c>
       <c r="I18" s="3">
-        <v>376500</v>
+        <v>398900</v>
       </c>
       <c r="J18" s="3">
-        <v>305800</v>
+        <v>324000</v>
       </c>
       <c r="K18" s="3">
         <v>229500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>261000</v>
+        <v>276500</v>
       </c>
       <c r="E20" s="3">
-        <v>231200</v>
+        <v>244900</v>
       </c>
       <c r="F20" s="3">
-        <v>76700</v>
+        <v>81300</v>
       </c>
       <c r="G20" s="3">
-        <v>42500</v>
+        <v>45000</v>
       </c>
       <c r="H20" s="3">
-        <v>59900</v>
+        <v>63400</v>
       </c>
       <c r="I20" s="3">
-        <v>74900</v>
+        <v>79300</v>
       </c>
       <c r="J20" s="3">
-        <v>88100</v>
+        <v>93300</v>
       </c>
       <c r="K20" s="3">
         <v>96100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1193800</v>
+        <v>1264200</v>
       </c>
       <c r="E21" s="3">
-        <v>1010500</v>
+        <v>1070000</v>
       </c>
       <c r="F21" s="3">
-        <v>633900</v>
+        <v>671300</v>
       </c>
       <c r="G21" s="3">
-        <v>552800</v>
+        <v>585300</v>
       </c>
       <c r="H21" s="3">
-        <v>547900</v>
+        <v>580100</v>
       </c>
       <c r="I21" s="3">
-        <v>571800</v>
+        <v>605400</v>
       </c>
       <c r="J21" s="3">
-        <v>505900</v>
+        <v>535700</v>
       </c>
       <c r="K21" s="3">
         <v>438600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>107600</v>
+        <v>114000</v>
       </c>
       <c r="E22" s="3">
-        <v>311800</v>
+        <v>330300</v>
       </c>
       <c r="F22" s="3">
-        <v>154300</v>
+        <v>163500</v>
       </c>
       <c r="G22" s="3">
-        <v>176000</v>
+        <v>186400</v>
       </c>
       <c r="H22" s="3">
-        <v>190000</v>
+        <v>201200</v>
       </c>
       <c r="I22" s="3">
-        <v>133100</v>
+        <v>141000</v>
       </c>
       <c r="J22" s="3">
-        <v>64900</v>
+        <v>68800</v>
       </c>
       <c r="K22" s="3">
         <v>43700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>906500</v>
+        <v>960300</v>
       </c>
       <c r="E23" s="3">
-        <v>504100</v>
+        <v>534000</v>
       </c>
       <c r="F23" s="3">
-        <v>346300</v>
+        <v>366900</v>
       </c>
       <c r="G23" s="3">
-        <v>246600</v>
+        <v>261300</v>
       </c>
       <c r="H23" s="3">
-        <v>231900</v>
+        <v>245600</v>
       </c>
       <c r="I23" s="3">
-        <v>318300</v>
+        <v>337200</v>
       </c>
       <c r="J23" s="3">
-        <v>328900</v>
+        <v>348500</v>
       </c>
       <c r="K23" s="3">
         <v>281900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>227600</v>
+        <v>241100</v>
       </c>
       <c r="E24" s="3">
-        <v>119600</v>
+        <v>126700</v>
       </c>
       <c r="F24" s="3">
-        <v>90700</v>
+        <v>96000</v>
       </c>
       <c r="G24" s="3">
-        <v>48600</v>
+        <v>51500</v>
       </c>
       <c r="H24" s="3">
-        <v>92000</v>
+        <v>97500</v>
       </c>
       <c r="I24" s="3">
-        <v>94200</v>
+        <v>99800</v>
       </c>
       <c r="J24" s="3">
-        <v>92400</v>
+        <v>97900</v>
       </c>
       <c r="K24" s="3">
         <v>75800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>678900</v>
+        <v>719200</v>
       </c>
       <c r="E26" s="3">
-        <v>384500</v>
+        <v>407300</v>
       </c>
       <c r="F26" s="3">
-        <v>255700</v>
+        <v>270900</v>
       </c>
       <c r="G26" s="3">
-        <v>198000</v>
+        <v>209800</v>
       </c>
       <c r="H26" s="3">
-        <v>139800</v>
+        <v>148100</v>
       </c>
       <c r="I26" s="3">
-        <v>224100</v>
+        <v>237400</v>
       </c>
       <c r="J26" s="3">
-        <v>236500</v>
+        <v>250500</v>
       </c>
       <c r="K26" s="3">
         <v>206100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>677900</v>
+        <v>718200</v>
       </c>
       <c r="E27" s="3">
-        <v>371600</v>
+        <v>393600</v>
       </c>
       <c r="F27" s="3">
-        <v>249100</v>
+        <v>263900</v>
       </c>
       <c r="G27" s="3">
-        <v>183000</v>
+        <v>193900</v>
       </c>
       <c r="H27" s="3">
-        <v>146600</v>
+        <v>155300</v>
       </c>
       <c r="I27" s="3">
-        <v>211200</v>
+        <v>223700</v>
       </c>
       <c r="J27" s="3">
-        <v>213500</v>
+        <v>226200</v>
       </c>
       <c r="K27" s="3">
         <v>200700</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>13400</v>
+        <v>14200</v>
       </c>
       <c r="E29" s="3">
-        <v>-19200</v>
+        <v>-20300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-261000</v>
+        <v>-276500</v>
       </c>
       <c r="E32" s="3">
-        <v>-231200</v>
+        <v>-244900</v>
       </c>
       <c r="F32" s="3">
-        <v>-76700</v>
+        <v>-81300</v>
       </c>
       <c r="G32" s="3">
-        <v>-42500</v>
+        <v>-45000</v>
       </c>
       <c r="H32" s="3">
-        <v>-59900</v>
+        <v>-63400</v>
       </c>
       <c r="I32" s="3">
-        <v>-74900</v>
+        <v>-79300</v>
       </c>
       <c r="J32" s="3">
-        <v>-88100</v>
+        <v>-93300</v>
       </c>
       <c r="K32" s="3">
         <v>-96100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>691300</v>
+        <v>732400</v>
       </c>
       <c r="E33" s="3">
-        <v>352400</v>
+        <v>373300</v>
       </c>
       <c r="F33" s="3">
-        <v>249100</v>
+        <v>263900</v>
       </c>
       <c r="G33" s="3">
-        <v>183000</v>
+        <v>193900</v>
       </c>
       <c r="H33" s="3">
-        <v>146600</v>
+        <v>155300</v>
       </c>
       <c r="I33" s="3">
-        <v>211200</v>
+        <v>223700</v>
       </c>
       <c r="J33" s="3">
-        <v>213500</v>
+        <v>226200</v>
       </c>
       <c r="K33" s="3">
         <v>200700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>691300</v>
+        <v>732400</v>
       </c>
       <c r="E35" s="3">
-        <v>352400</v>
+        <v>373300</v>
       </c>
       <c r="F35" s="3">
-        <v>249100</v>
+        <v>263900</v>
       </c>
       <c r="G35" s="3">
-        <v>183000</v>
+        <v>193900</v>
       </c>
       <c r="H35" s="3">
-        <v>146600</v>
+        <v>155300</v>
       </c>
       <c r="I35" s="3">
-        <v>211200</v>
+        <v>223700</v>
       </c>
       <c r="J35" s="3">
-        <v>213500</v>
+        <v>226200</v>
       </c>
       <c r="K35" s="3">
         <v>200700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>570700</v>
+        <v>604500</v>
       </c>
       <c r="E41" s="3">
-        <v>520900</v>
+        <v>551800</v>
       </c>
       <c r="F41" s="3">
-        <v>345000</v>
+        <v>365500</v>
       </c>
       <c r="G41" s="3">
+        <v>195100</v>
+      </c>
+      <c r="H41" s="3">
         <v>184200</v>
       </c>
-      <c r="H41" s="3">
-        <v>173900</v>
-      </c>
       <c r="I41" s="3">
-        <v>262200</v>
+        <v>277800</v>
       </c>
       <c r="J41" s="3">
-        <v>131100</v>
+        <v>138800</v>
       </c>
       <c r="K41" s="3">
         <v>325900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31000</v>
+        <v>32800</v>
       </c>
       <c r="E42" s="3">
-        <v>63500</v>
+        <v>67300</v>
       </c>
       <c r="F42" s="3">
-        <v>96700</v>
+        <v>102400</v>
       </c>
       <c r="G42" s="3">
-        <v>30600</v>
+        <v>32400</v>
       </c>
       <c r="H42" s="3">
-        <v>24200</v>
+        <v>25600</v>
       </c>
       <c r="I42" s="3">
-        <v>233200</v>
+        <v>247000</v>
       </c>
       <c r="J42" s="3">
-        <v>189200</v>
+        <v>200400</v>
       </c>
       <c r="K42" s="3">
         <v>72800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1165000</v>
+        <v>1234100</v>
       </c>
       <c r="E43" s="3">
-        <v>787000</v>
+        <v>833700</v>
       </c>
       <c r="F43" s="3">
-        <v>701800</v>
+        <v>743400</v>
       </c>
       <c r="G43" s="3">
-        <v>744600</v>
+        <v>788700</v>
       </c>
       <c r="H43" s="3">
-        <v>566800</v>
+        <v>600400</v>
       </c>
       <c r="I43" s="3">
-        <v>700000</v>
+        <v>741600</v>
       </c>
       <c r="J43" s="3">
-        <v>571100</v>
+        <v>605000</v>
       </c>
       <c r="K43" s="3">
         <v>446900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>28800</v>
+        <v>30500</v>
       </c>
       <c r="E44" s="3">
-        <v>23100</v>
+        <v>24500</v>
       </c>
       <c r="F44" s="3">
-        <v>20600</v>
+        <v>21800</v>
       </c>
       <c r="G44" s="3">
-        <v>19600</v>
+        <v>20700</v>
       </c>
       <c r="H44" s="3">
-        <v>23100</v>
+        <v>24500</v>
       </c>
       <c r="I44" s="3">
-        <v>23200</v>
+        <v>24600</v>
       </c>
       <c r="J44" s="3">
-        <v>26700</v>
+        <v>28300</v>
       </c>
       <c r="K44" s="3">
         <v>26100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>224500</v>
+        <v>237800</v>
       </c>
       <c r="E45" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="F45" s="3">
-        <v>18400</v>
+        <v>19500</v>
       </c>
       <c r="G45" s="3">
-        <v>30700</v>
+        <v>32500</v>
       </c>
       <c r="H45" s="3">
-        <v>16600</v>
+        <v>17600</v>
       </c>
       <c r="I45" s="3">
-        <v>9100</v>
+        <v>9600</v>
       </c>
       <c r="J45" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="K45" s="3">
         <v>4100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2019900</v>
+        <v>2139800</v>
       </c>
       <c r="E46" s="3">
-        <v>1400500</v>
+        <v>1483600</v>
       </c>
       <c r="F46" s="3">
-        <v>1182400</v>
+        <v>1252600</v>
       </c>
       <c r="G46" s="3">
-        <v>1009600</v>
+        <v>1069600</v>
       </c>
       <c r="H46" s="3">
-        <v>750300</v>
+        <v>794800</v>
       </c>
       <c r="I46" s="3">
-        <v>1227700</v>
+        <v>1300600</v>
       </c>
       <c r="J46" s="3">
-        <v>924000</v>
+        <v>978800</v>
       </c>
       <c r="K46" s="3">
         <v>875800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2815900</v>
+        <v>2983000</v>
       </c>
       <c r="E47" s="3">
-        <v>1883800</v>
+        <v>1995600</v>
       </c>
       <c r="F47" s="3">
-        <v>1682000</v>
+        <v>1781800</v>
       </c>
       <c r="G47" s="3">
-        <v>1505900</v>
+        <v>1595300</v>
       </c>
       <c r="H47" s="3">
-        <v>1342600</v>
+        <v>1422300</v>
       </c>
       <c r="I47" s="3">
-        <v>803200</v>
+        <v>850800</v>
       </c>
       <c r="J47" s="3">
-        <v>1301900</v>
+        <v>1379200</v>
       </c>
       <c r="K47" s="3">
         <v>1058000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1705000</v>
+        <v>1806200</v>
       </c>
       <c r="E48" s="3">
-        <v>1892100</v>
+        <v>2004400</v>
       </c>
       <c r="F48" s="3">
-        <v>1919800</v>
+        <v>2033700</v>
       </c>
       <c r="G48" s="3">
-        <v>1740700</v>
+        <v>1844100</v>
       </c>
       <c r="H48" s="3">
-        <v>1582200</v>
+        <v>1676200</v>
       </c>
       <c r="I48" s="3">
-        <v>1539200</v>
+        <v>1630600</v>
       </c>
       <c r="J48" s="3">
-        <v>1470400</v>
+        <v>1557700</v>
       </c>
       <c r="K48" s="3">
         <v>1831200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1227000</v>
+        <v>1299800</v>
       </c>
       <c r="E49" s="3">
-        <v>1121300</v>
+        <v>1187900</v>
       </c>
       <c r="F49" s="3">
-        <v>1067600</v>
+        <v>1130900</v>
       </c>
       <c r="G49" s="3">
-        <v>1142600</v>
+        <v>1210400</v>
       </c>
       <c r="H49" s="3">
-        <v>1143800</v>
+        <v>1211700</v>
       </c>
       <c r="I49" s="3">
-        <v>1088100</v>
+        <v>1152700</v>
       </c>
       <c r="J49" s="3">
-        <v>385000</v>
+        <v>407800</v>
       </c>
       <c r="K49" s="3">
         <v>388500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>516400</v>
+        <v>547000</v>
       </c>
       <c r="E52" s="3">
-        <v>486200</v>
+        <v>515100</v>
       </c>
       <c r="F52" s="3">
-        <v>510400</v>
+        <v>540700</v>
       </c>
       <c r="G52" s="3">
-        <v>519800</v>
+        <v>550700</v>
       </c>
       <c r="H52" s="3">
-        <v>547700</v>
+        <v>580300</v>
       </c>
       <c r="I52" s="3">
-        <v>467600</v>
+        <v>495300</v>
       </c>
       <c r="J52" s="3">
-        <v>454900</v>
+        <v>481900</v>
       </c>
       <c r="K52" s="3">
         <v>518300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8284200</v>
+        <v>8775900</v>
       </c>
       <c r="E54" s="3">
-        <v>6784000</v>
+        <v>7186700</v>
       </c>
       <c r="F54" s="3">
-        <v>6362100</v>
+        <v>6739800</v>
       </c>
       <c r="G54" s="3">
-        <v>5872100</v>
+        <v>6220600</v>
       </c>
       <c r="H54" s="3">
-        <v>5366700</v>
+        <v>5685200</v>
       </c>
       <c r="I54" s="3">
-        <v>5125800</v>
+        <v>5430000</v>
       </c>
       <c r="J54" s="3">
-        <v>4536200</v>
+        <v>4805500</v>
       </c>
       <c r="K54" s="3">
         <v>4324800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>405700</v>
+        <v>429800</v>
       </c>
       <c r="E57" s="3">
-        <v>298400</v>
+        <v>316100</v>
       </c>
       <c r="F57" s="3">
-        <v>251300</v>
+        <v>266200</v>
       </c>
       <c r="G57" s="3">
-        <v>298100</v>
+        <v>315800</v>
       </c>
       <c r="H57" s="3">
-        <v>222300</v>
+        <v>235500</v>
       </c>
       <c r="I57" s="3">
-        <v>285600</v>
+        <v>302600</v>
       </c>
       <c r="J57" s="3">
-        <v>281000</v>
+        <v>297700</v>
       </c>
       <c r="K57" s="3">
         <v>204400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>467500</v>
+        <v>495300</v>
       </c>
       <c r="E58" s="3">
-        <v>257400</v>
+        <v>272600</v>
       </c>
       <c r="F58" s="3">
-        <v>584000</v>
+        <v>618600</v>
       </c>
       <c r="G58" s="3">
-        <v>427900</v>
+        <v>453300</v>
       </c>
       <c r="H58" s="3">
-        <v>460700</v>
+        <v>488100</v>
       </c>
       <c r="I58" s="3">
-        <v>218200</v>
+        <v>231200</v>
       </c>
       <c r="J58" s="3">
-        <v>230000</v>
+        <v>243700</v>
       </c>
       <c r="K58" s="3">
         <v>189900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>836300</v>
+        <v>885900</v>
       </c>
       <c r="E59" s="3">
-        <v>390800</v>
+        <v>414000</v>
       </c>
       <c r="F59" s="3">
-        <v>350200</v>
+        <v>371000</v>
       </c>
       <c r="G59" s="3">
-        <v>355800</v>
+        <v>377000</v>
       </c>
       <c r="H59" s="3">
-        <v>318500</v>
+        <v>337400</v>
       </c>
       <c r="I59" s="3">
-        <v>344100</v>
+        <v>364500</v>
       </c>
       <c r="J59" s="3">
-        <v>207000</v>
+        <v>219300</v>
       </c>
       <c r="K59" s="3">
         <v>232200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1709500</v>
+        <v>1811000</v>
       </c>
       <c r="E60" s="3">
-        <v>946500</v>
+        <v>1002700</v>
       </c>
       <c r="F60" s="3">
-        <v>1185500</v>
+        <v>1255900</v>
       </c>
       <c r="G60" s="3">
-        <v>1081900</v>
+        <v>1146100</v>
       </c>
       <c r="H60" s="3">
-        <v>1001500</v>
+        <v>1061000</v>
       </c>
       <c r="I60" s="3">
-        <v>848000</v>
+        <v>898300</v>
       </c>
       <c r="J60" s="3">
-        <v>718100</v>
+        <v>760700</v>
       </c>
       <c r="K60" s="3">
         <v>626500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1318100</v>
+        <v>1396400</v>
       </c>
       <c r="E61" s="3">
-        <v>1808800</v>
+        <v>1916200</v>
       </c>
       <c r="F61" s="3">
-        <v>1463900</v>
+        <v>1550800</v>
       </c>
       <c r="G61" s="3">
-        <v>1312800</v>
+        <v>1390700</v>
       </c>
       <c r="H61" s="3">
-        <v>1104100</v>
+        <v>1169600</v>
       </c>
       <c r="I61" s="3">
-        <v>1156000</v>
+        <v>1224600</v>
       </c>
       <c r="J61" s="3">
-        <v>842000</v>
+        <v>892000</v>
       </c>
       <c r="K61" s="3">
         <v>658200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1670800</v>
+        <v>1769900</v>
       </c>
       <c r="E62" s="3">
-        <v>912500</v>
+        <v>966700</v>
       </c>
       <c r="F62" s="3">
-        <v>820100</v>
+        <v>868700</v>
       </c>
       <c r="G62" s="3">
-        <v>731000</v>
+        <v>774400</v>
       </c>
       <c r="H62" s="3">
-        <v>605500</v>
+        <v>641400</v>
       </c>
       <c r="I62" s="3">
-        <v>539300</v>
+        <v>571300</v>
       </c>
       <c r="J62" s="3">
-        <v>553300</v>
+        <v>586100</v>
       </c>
       <c r="K62" s="3">
         <v>620800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4750000</v>
+        <v>5031900</v>
       </c>
       <c r="E66" s="3">
-        <v>3729100</v>
+        <v>3950500</v>
       </c>
       <c r="F66" s="3">
-        <v>3523200</v>
+        <v>3732300</v>
       </c>
       <c r="G66" s="3">
-        <v>3179200</v>
+        <v>3367900</v>
       </c>
       <c r="H66" s="3">
+        <v>2921500</v>
+      </c>
+      <c r="I66" s="3">
         <v>2757800</v>
       </c>
-      <c r="I66" s="3">
-        <v>2603300</v>
-      </c>
       <c r="J66" s="3">
-        <v>2175700</v>
+        <v>2304900</v>
       </c>
       <c r="K66" s="3">
         <v>1957400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1292300</v>
+        <v>1369000</v>
       </c>
       <c r="E72" s="3">
-        <v>1037700</v>
+        <v>1099300</v>
       </c>
       <c r="F72" s="3">
-        <v>1299200</v>
+        <v>1376300</v>
       </c>
       <c r="G72" s="3">
-        <v>1133600</v>
+        <v>1200900</v>
       </c>
       <c r="H72" s="3">
-        <v>1031400</v>
+        <v>1092700</v>
       </c>
       <c r="I72" s="3">
-        <v>1090500</v>
+        <v>1155200</v>
       </c>
       <c r="J72" s="3">
-        <v>921100</v>
+        <v>975800</v>
       </c>
       <c r="K72" s="3">
         <v>846300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3534200</v>
+        <v>3743900</v>
       </c>
       <c r="E76" s="3">
-        <v>3054900</v>
+        <v>3236200</v>
       </c>
       <c r="F76" s="3">
-        <v>2839000</v>
+        <v>3007500</v>
       </c>
       <c r="G76" s="3">
-        <v>2692900</v>
+        <v>2852700</v>
       </c>
       <c r="H76" s="3">
-        <v>2608900</v>
+        <v>2763700</v>
       </c>
       <c r="I76" s="3">
-        <v>2522500</v>
+        <v>2672200</v>
       </c>
       <c r="J76" s="3">
-        <v>2360500</v>
+        <v>2500600</v>
       </c>
       <c r="K76" s="3">
         <v>2367400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>691300</v>
+        <v>732400</v>
       </c>
       <c r="E81" s="3">
-        <v>352400</v>
+        <v>373300</v>
       </c>
       <c r="F81" s="3">
-        <v>249100</v>
+        <v>263900</v>
       </c>
       <c r="G81" s="3">
-        <v>183000</v>
+        <v>193900</v>
       </c>
       <c r="H81" s="3">
-        <v>146600</v>
+        <v>155300</v>
       </c>
       <c r="I81" s="3">
-        <v>211200</v>
+        <v>223700</v>
       </c>
       <c r="J81" s="3">
-        <v>213500</v>
+        <v>226200</v>
       </c>
       <c r="K81" s="3">
         <v>200700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>178800</v>
+        <v>189400</v>
       </c>
       <c r="E83" s="3">
-        <v>193700</v>
+        <v>205200</v>
       </c>
       <c r="F83" s="3">
-        <v>132700</v>
+        <v>140500</v>
       </c>
       <c r="G83" s="3">
-        <v>129500</v>
+        <v>137200</v>
       </c>
       <c r="H83" s="3">
-        <v>125400</v>
+        <v>132900</v>
       </c>
       <c r="I83" s="3">
-        <v>119800</v>
+        <v>126900</v>
       </c>
       <c r="J83" s="3">
-        <v>111500</v>
+        <v>118200</v>
       </c>
       <c r="K83" s="3">
         <v>112900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>697800</v>
+        <v>739200</v>
       </c>
       <c r="E89" s="3">
-        <v>521500</v>
+        <v>552400</v>
       </c>
       <c r="F89" s="3">
-        <v>313600</v>
+        <v>332200</v>
       </c>
       <c r="G89" s="3">
-        <v>175200</v>
+        <v>185600</v>
       </c>
       <c r="H89" s="3">
-        <v>261500</v>
+        <v>277000</v>
       </c>
       <c r="I89" s="3">
-        <v>233900</v>
+        <v>247700</v>
       </c>
       <c r="J89" s="3">
-        <v>193200</v>
+        <v>204700</v>
       </c>
       <c r="K89" s="3">
         <v>250300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40100</v>
+        <v>-42500</v>
       </c>
       <c r="E91" s="3">
-        <v>-96200</v>
+        <v>-101900</v>
       </c>
       <c r="F91" s="3">
-        <v>-263700</v>
+        <v>-279300</v>
       </c>
       <c r="G91" s="3">
-        <v>-213500</v>
+        <v>-226100</v>
       </c>
       <c r="H91" s="3">
-        <v>-227400</v>
+        <v>-240900</v>
       </c>
       <c r="I91" s="3">
-        <v>-133300</v>
+        <v>-141200</v>
       </c>
       <c r="J91" s="3">
-        <v>-158400</v>
+        <v>-167800</v>
       </c>
       <c r="K91" s="3">
         <v>-78600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-295300</v>
+        <v>-312800</v>
       </c>
       <c r="E94" s="3">
-        <v>-294600</v>
+        <v>-312100</v>
       </c>
       <c r="F94" s="3">
-        <v>-380600</v>
+        <v>-403100</v>
       </c>
       <c r="G94" s="3">
-        <v>-280000</v>
+        <v>-296600</v>
       </c>
       <c r="H94" s="3">
-        <v>-444600</v>
+        <v>-471000</v>
       </c>
       <c r="I94" s="3">
-        <v>-345600</v>
+        <v>-366100</v>
       </c>
       <c r="J94" s="3">
-        <v>-453800</v>
+        <v>-480700</v>
       </c>
       <c r="K94" s="3">
         <v>-348800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-110900</v>
+        <v>-117500</v>
       </c>
       <c r="E96" s="3">
-        <v>-67400</v>
+        <v>-71400</v>
       </c>
       <c r="F96" s="3">
-        <v>-53200</v>
+        <v>-56400</v>
       </c>
       <c r="G96" s="3">
-        <v>-89700</v>
+        <v>-95000</v>
       </c>
       <c r="H96" s="3">
-        <v>-65300</v>
+        <v>-69200</v>
       </c>
       <c r="I96" s="3">
-        <v>-54500</v>
+        <v>-57700</v>
       </c>
       <c r="J96" s="3">
-        <v>-118500</v>
+        <v>-125500</v>
       </c>
       <c r="K96" s="3">
         <v>-110700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-303700</v>
+        <v>-321700</v>
       </c>
       <c r="E100" s="3">
-        <v>-51000</v>
+        <v>-54000</v>
       </c>
       <c r="F100" s="3">
-        <v>227800</v>
+        <v>241300</v>
       </c>
       <c r="G100" s="3">
-        <v>115100</v>
+        <v>121900</v>
       </c>
       <c r="H100" s="3">
-        <v>94800</v>
+        <v>100500</v>
       </c>
       <c r="I100" s="3">
-        <v>242800</v>
+        <v>257300</v>
       </c>
       <c r="J100" s="3">
-        <v>83200</v>
+        <v>88100</v>
       </c>
       <c r="K100" s="3">
         <v>151400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>98800</v>
+        <v>104700</v>
       </c>
       <c r="E102" s="3">
-        <v>175900</v>
+        <v>186300</v>
       </c>
       <c r="F102" s="3">
-        <v>160800</v>
+        <v>170400</v>
       </c>
       <c r="G102" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="H102" s="3">
-        <v>-88300</v>
+        <v>-93500</v>
       </c>
       <c r="I102" s="3">
-        <v>131100</v>
+        <v>138900</v>
       </c>
       <c r="J102" s="3">
-        <v>-177300</v>
+        <v>-187900</v>
       </c>
       <c r="K102" s="3">
         <v>52800</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3495200</v>
+        <v>3441600</v>
       </c>
       <c r="E8" s="3">
-        <v>2976800</v>
+        <v>2931000</v>
       </c>
       <c r="F8" s="3">
-        <v>2801500</v>
+        <v>2758500</v>
       </c>
       <c r="G8" s="3">
-        <v>2630700</v>
+        <v>2590300</v>
       </c>
       <c r="H8" s="3">
-        <v>2457600</v>
+        <v>2419900</v>
       </c>
       <c r="I8" s="3">
-        <v>2803500</v>
+        <v>2760500</v>
       </c>
       <c r="J8" s="3">
-        <v>2610800</v>
+        <v>2570800</v>
       </c>
       <c r="K8" s="3">
         <v>1717900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2503800</v>
+        <v>2465300</v>
       </c>
       <c r="E9" s="3">
-        <v>2150400</v>
+        <v>2117400</v>
       </c>
       <c r="F9" s="3">
-        <v>2157500</v>
+        <v>2124400</v>
       </c>
       <c r="G9" s="3">
-        <v>2000700</v>
+        <v>1970000</v>
       </c>
       <c r="H9" s="3">
-        <v>1919700</v>
+        <v>1890200</v>
       </c>
       <c r="I9" s="3">
-        <v>2213300</v>
+        <v>2179300</v>
       </c>
       <c r="J9" s="3">
-        <v>2117500</v>
+        <v>2085000</v>
       </c>
       <c r="K9" s="3">
         <v>1317000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>991400</v>
+        <v>976200</v>
       </c>
       <c r="E10" s="3">
-        <v>826300</v>
+        <v>813600</v>
       </c>
       <c r="F10" s="3">
-        <v>644000</v>
+        <v>634100</v>
       </c>
       <c r="G10" s="3">
-        <v>630000</v>
+        <v>620300</v>
       </c>
       <c r="H10" s="3">
-        <v>537900</v>
+        <v>529700</v>
       </c>
       <c r="I10" s="3">
-        <v>590200</v>
+        <v>581200</v>
       </c>
       <c r="J10" s="3">
-        <v>493300</v>
+        <v>485700</v>
       </c>
       <c r="K10" s="3">
         <v>400900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="E15" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G15" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="H15" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I15" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="J15" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="K15" s="3">
         <v>9700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2697400</v>
+        <v>2656000</v>
       </c>
       <c r="E17" s="3">
-        <v>2357300</v>
+        <v>2321100</v>
       </c>
       <c r="F17" s="3">
-        <v>2352400</v>
+        <v>2316300</v>
       </c>
       <c r="G17" s="3">
-        <v>2228000</v>
+        <v>2193800</v>
       </c>
       <c r="H17" s="3">
-        <v>2074200</v>
+        <v>2042300</v>
       </c>
       <c r="I17" s="3">
-        <v>2404700</v>
+        <v>2367700</v>
       </c>
       <c r="J17" s="3">
-        <v>2286900</v>
+        <v>2251800</v>
       </c>
       <c r="K17" s="3">
         <v>1488400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>797800</v>
+        <v>785600</v>
       </c>
       <c r="E18" s="3">
-        <v>619400</v>
+        <v>609900</v>
       </c>
       <c r="F18" s="3">
-        <v>449100</v>
+        <v>442200</v>
       </c>
       <c r="G18" s="3">
-        <v>402800</v>
+        <v>396600</v>
       </c>
       <c r="H18" s="3">
-        <v>383400</v>
+        <v>377500</v>
       </c>
       <c r="I18" s="3">
-        <v>398900</v>
+        <v>392800</v>
       </c>
       <c r="J18" s="3">
-        <v>324000</v>
+        <v>319000</v>
       </c>
       <c r="K18" s="3">
         <v>229500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>276500</v>
+        <v>272200</v>
       </c>
       <c r="E20" s="3">
-        <v>244900</v>
+        <v>241100</v>
       </c>
       <c r="F20" s="3">
-        <v>81300</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="3">
-        <v>45000</v>
+        <v>44300</v>
       </c>
       <c r="H20" s="3">
-        <v>63400</v>
+        <v>62500</v>
       </c>
       <c r="I20" s="3">
-        <v>79300</v>
+        <v>78100</v>
       </c>
       <c r="J20" s="3">
-        <v>93300</v>
+        <v>91800</v>
       </c>
       <c r="K20" s="3">
         <v>96100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1264200</v>
+        <v>1245500</v>
       </c>
       <c r="E21" s="3">
-        <v>1070000</v>
+        <v>1054400</v>
       </c>
       <c r="F21" s="3">
-        <v>671300</v>
+        <v>661500</v>
       </c>
       <c r="G21" s="3">
-        <v>585300</v>
+        <v>576900</v>
       </c>
       <c r="H21" s="3">
-        <v>580100</v>
+        <v>571700</v>
       </c>
       <c r="I21" s="3">
-        <v>605400</v>
+        <v>596600</v>
       </c>
       <c r="J21" s="3">
-        <v>535700</v>
+        <v>527900</v>
       </c>
       <c r="K21" s="3">
         <v>438600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>114000</v>
+        <v>112200</v>
       </c>
       <c r="E22" s="3">
-        <v>330300</v>
+        <v>325200</v>
       </c>
       <c r="F22" s="3">
-        <v>163500</v>
+        <v>160900</v>
       </c>
       <c r="G22" s="3">
-        <v>186400</v>
+        <v>183600</v>
       </c>
       <c r="H22" s="3">
-        <v>201200</v>
+        <v>198200</v>
       </c>
       <c r="I22" s="3">
-        <v>141000</v>
+        <v>138800</v>
       </c>
       <c r="J22" s="3">
-        <v>68800</v>
+        <v>67700</v>
       </c>
       <c r="K22" s="3">
         <v>43700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>960300</v>
+        <v>945600</v>
       </c>
       <c r="E23" s="3">
-        <v>534000</v>
+        <v>525800</v>
       </c>
       <c r="F23" s="3">
-        <v>366900</v>
+        <v>361300</v>
       </c>
       <c r="G23" s="3">
-        <v>261300</v>
+        <v>257300</v>
       </c>
       <c r="H23" s="3">
-        <v>245600</v>
+        <v>241900</v>
       </c>
       <c r="I23" s="3">
-        <v>337200</v>
+        <v>332000</v>
       </c>
       <c r="J23" s="3">
-        <v>348500</v>
+        <v>343100</v>
       </c>
       <c r="K23" s="3">
         <v>281900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>241100</v>
+        <v>237400</v>
       </c>
       <c r="E24" s="3">
-        <v>126700</v>
+        <v>124800</v>
       </c>
       <c r="F24" s="3">
+        <v>94600</v>
+      </c>
+      <c r="G24" s="3">
+        <v>50700</v>
+      </c>
+      <c r="H24" s="3">
         <v>96000</v>
       </c>
-      <c r="G24" s="3">
-        <v>51500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>97500</v>
-      </c>
       <c r="I24" s="3">
-        <v>99800</v>
+        <v>98300</v>
       </c>
       <c r="J24" s="3">
-        <v>97900</v>
+        <v>96400</v>
       </c>
       <c r="K24" s="3">
         <v>75800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>719200</v>
+        <v>708200</v>
       </c>
       <c r="E26" s="3">
-        <v>407300</v>
+        <v>401000</v>
       </c>
       <c r="F26" s="3">
-        <v>270900</v>
+        <v>266700</v>
       </c>
       <c r="G26" s="3">
-        <v>209800</v>
+        <v>206500</v>
       </c>
       <c r="H26" s="3">
-        <v>148100</v>
+        <v>145900</v>
       </c>
       <c r="I26" s="3">
-        <v>237400</v>
+        <v>233700</v>
       </c>
       <c r="J26" s="3">
-        <v>250500</v>
+        <v>246700</v>
       </c>
       <c r="K26" s="3">
         <v>206100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>718200</v>
+        <v>707100</v>
       </c>
       <c r="E27" s="3">
-        <v>393600</v>
+        <v>387600</v>
       </c>
       <c r="F27" s="3">
-        <v>263900</v>
+        <v>259900</v>
       </c>
       <c r="G27" s="3">
-        <v>193900</v>
+        <v>190900</v>
       </c>
       <c r="H27" s="3">
-        <v>155300</v>
+        <v>152900</v>
       </c>
       <c r="I27" s="3">
-        <v>223700</v>
+        <v>220300</v>
       </c>
       <c r="J27" s="3">
-        <v>226200</v>
+        <v>222700</v>
       </c>
       <c r="K27" s="3">
         <v>200700</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="E29" s="3">
-        <v>-20300</v>
+        <v>-20000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-276500</v>
+        <v>-272200</v>
       </c>
       <c r="E32" s="3">
-        <v>-244900</v>
+        <v>-241100</v>
       </c>
       <c r="F32" s="3">
-        <v>-81300</v>
+        <v>-80000</v>
       </c>
       <c r="G32" s="3">
-        <v>-45000</v>
+        <v>-44300</v>
       </c>
       <c r="H32" s="3">
-        <v>-63400</v>
+        <v>-62500</v>
       </c>
       <c r="I32" s="3">
-        <v>-79300</v>
+        <v>-78100</v>
       </c>
       <c r="J32" s="3">
-        <v>-93300</v>
+        <v>-91800</v>
       </c>
       <c r="K32" s="3">
         <v>-96100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>732400</v>
+        <v>721100</v>
       </c>
       <c r="E33" s="3">
-        <v>373300</v>
+        <v>367500</v>
       </c>
       <c r="F33" s="3">
-        <v>263900</v>
+        <v>259900</v>
       </c>
       <c r="G33" s="3">
-        <v>193900</v>
+        <v>190900</v>
       </c>
       <c r="H33" s="3">
-        <v>155300</v>
+        <v>152900</v>
       </c>
       <c r="I33" s="3">
-        <v>223700</v>
+        <v>220300</v>
       </c>
       <c r="J33" s="3">
-        <v>226200</v>
+        <v>222700</v>
       </c>
       <c r="K33" s="3">
         <v>200700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>732400</v>
+        <v>721100</v>
       </c>
       <c r="E35" s="3">
-        <v>373300</v>
+        <v>367500</v>
       </c>
       <c r="F35" s="3">
-        <v>263900</v>
+        <v>259900</v>
       </c>
       <c r="G35" s="3">
-        <v>193900</v>
+        <v>190900</v>
       </c>
       <c r="H35" s="3">
-        <v>155300</v>
+        <v>152900</v>
       </c>
       <c r="I35" s="3">
-        <v>223700</v>
+        <v>220300</v>
       </c>
       <c r="J35" s="3">
-        <v>226200</v>
+        <v>222700</v>
       </c>
       <c r="K35" s="3">
         <v>200700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>604500</v>
+        <v>595200</v>
       </c>
       <c r="E41" s="3">
-        <v>551800</v>
+        <v>543300</v>
       </c>
       <c r="F41" s="3">
-        <v>365500</v>
+        <v>359900</v>
       </c>
       <c r="G41" s="3">
-        <v>195100</v>
+        <v>192100</v>
       </c>
       <c r="H41" s="3">
-        <v>184200</v>
+        <v>181400</v>
       </c>
       <c r="I41" s="3">
-        <v>277800</v>
+        <v>273500</v>
       </c>
       <c r="J41" s="3">
-        <v>138800</v>
+        <v>136700</v>
       </c>
       <c r="K41" s="3">
         <v>325900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32800</v>
+        <v>32300</v>
       </c>
       <c r="E42" s="3">
-        <v>67300</v>
+        <v>66200</v>
       </c>
       <c r="F42" s="3">
-        <v>102400</v>
+        <v>100900</v>
       </c>
       <c r="G42" s="3">
-        <v>32400</v>
+        <v>31900</v>
       </c>
       <c r="H42" s="3">
-        <v>25600</v>
+        <v>25200</v>
       </c>
       <c r="I42" s="3">
-        <v>247000</v>
+        <v>243300</v>
       </c>
       <c r="J42" s="3">
-        <v>200400</v>
+        <v>197300</v>
       </c>
       <c r="K42" s="3">
         <v>72800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1234100</v>
+        <v>1215200</v>
       </c>
       <c r="E43" s="3">
-        <v>833700</v>
+        <v>820900</v>
       </c>
       <c r="F43" s="3">
-        <v>743400</v>
+        <v>732000</v>
       </c>
       <c r="G43" s="3">
-        <v>788700</v>
+        <v>776600</v>
       </c>
       <c r="H43" s="3">
-        <v>600400</v>
+        <v>591200</v>
       </c>
       <c r="I43" s="3">
-        <v>741600</v>
+        <v>730200</v>
       </c>
       <c r="J43" s="3">
-        <v>605000</v>
+        <v>595700</v>
       </c>
       <c r="K43" s="3">
         <v>446900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30500</v>
+        <v>30100</v>
       </c>
       <c r="E44" s="3">
-        <v>24500</v>
+        <v>24100</v>
       </c>
       <c r="F44" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="G44" s="3">
-        <v>20700</v>
+        <v>20400</v>
       </c>
       <c r="H44" s="3">
-        <v>24500</v>
+        <v>24100</v>
       </c>
       <c r="I44" s="3">
-        <v>24600</v>
+        <v>24200</v>
       </c>
       <c r="J44" s="3">
-        <v>28300</v>
+        <v>27800</v>
       </c>
       <c r="K44" s="3">
         <v>26100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>237800</v>
+        <v>234100</v>
       </c>
       <c r="E45" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="F45" s="3">
-        <v>19500</v>
+        <v>19200</v>
       </c>
       <c r="G45" s="3">
-        <v>32500</v>
+        <v>32000</v>
       </c>
       <c r="H45" s="3">
-        <v>17600</v>
+        <v>17300</v>
       </c>
       <c r="I45" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="J45" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="K45" s="3">
         <v>4100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2139800</v>
+        <v>2107000</v>
       </c>
       <c r="E46" s="3">
-        <v>1483600</v>
+        <v>1460800</v>
       </c>
       <c r="F46" s="3">
-        <v>1252600</v>
+        <v>1233400</v>
       </c>
       <c r="G46" s="3">
-        <v>1069600</v>
+        <v>1053100</v>
       </c>
       <c r="H46" s="3">
-        <v>794800</v>
+        <v>782600</v>
       </c>
       <c r="I46" s="3">
-        <v>1300600</v>
+        <v>1280600</v>
       </c>
       <c r="J46" s="3">
-        <v>978800</v>
+        <v>963800</v>
       </c>
       <c r="K46" s="3">
         <v>875800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2983000</v>
+        <v>2937200</v>
       </c>
       <c r="E47" s="3">
-        <v>1995600</v>
+        <v>1965000</v>
       </c>
       <c r="F47" s="3">
-        <v>1781800</v>
+        <v>1754400</v>
       </c>
       <c r="G47" s="3">
-        <v>1595300</v>
+        <v>1570800</v>
       </c>
       <c r="H47" s="3">
-        <v>1422300</v>
+        <v>1400400</v>
       </c>
       <c r="I47" s="3">
-        <v>850800</v>
+        <v>837800</v>
       </c>
       <c r="J47" s="3">
-        <v>1379200</v>
+        <v>1358000</v>
       </c>
       <c r="K47" s="3">
         <v>1058000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1806200</v>
+        <v>1778400</v>
       </c>
       <c r="E48" s="3">
-        <v>2004400</v>
+        <v>1973700</v>
       </c>
       <c r="F48" s="3">
-        <v>2033700</v>
+        <v>2002500</v>
       </c>
       <c r="G48" s="3">
-        <v>1844100</v>
+        <v>1815800</v>
       </c>
       <c r="H48" s="3">
-        <v>1676200</v>
+        <v>1650400</v>
       </c>
       <c r="I48" s="3">
-        <v>1630600</v>
+        <v>1605500</v>
       </c>
       <c r="J48" s="3">
-        <v>1557700</v>
+        <v>1533800</v>
       </c>
       <c r="K48" s="3">
         <v>1831200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1299800</v>
+        <v>1279900</v>
       </c>
       <c r="E49" s="3">
-        <v>1187900</v>
+        <v>1169600</v>
       </c>
       <c r="F49" s="3">
-        <v>1130900</v>
+        <v>1113600</v>
       </c>
       <c r="G49" s="3">
-        <v>1210400</v>
+        <v>1191800</v>
       </c>
       <c r="H49" s="3">
-        <v>1211700</v>
+        <v>1193100</v>
       </c>
       <c r="I49" s="3">
-        <v>1152700</v>
+        <v>1135000</v>
       </c>
       <c r="J49" s="3">
-        <v>407800</v>
+        <v>401600</v>
       </c>
       <c r="K49" s="3">
         <v>388500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>547000</v>
+        <v>538600</v>
       </c>
       <c r="E52" s="3">
-        <v>515100</v>
+        <v>507200</v>
       </c>
       <c r="F52" s="3">
-        <v>540700</v>
+        <v>532400</v>
       </c>
       <c r="G52" s="3">
-        <v>550700</v>
+        <v>542200</v>
       </c>
       <c r="H52" s="3">
-        <v>580300</v>
+        <v>571300</v>
       </c>
       <c r="I52" s="3">
-        <v>495300</v>
+        <v>487700</v>
       </c>
       <c r="J52" s="3">
-        <v>481900</v>
+        <v>474500</v>
       </c>
       <c r="K52" s="3">
         <v>518300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8775900</v>
+        <v>8641100</v>
       </c>
       <c r="E54" s="3">
-        <v>7186700</v>
+        <v>7076300</v>
       </c>
       <c r="F54" s="3">
-        <v>6739800</v>
+        <v>6636300</v>
       </c>
       <c r="G54" s="3">
-        <v>6220600</v>
+        <v>6125100</v>
       </c>
       <c r="H54" s="3">
-        <v>5685200</v>
+        <v>5597900</v>
       </c>
       <c r="I54" s="3">
-        <v>5430000</v>
+        <v>5346600</v>
       </c>
       <c r="J54" s="3">
-        <v>4805500</v>
+        <v>4731700</v>
       </c>
       <c r="K54" s="3">
         <v>4324800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>429800</v>
+        <v>423200</v>
       </c>
       <c r="E57" s="3">
-        <v>316100</v>
+        <v>311300</v>
       </c>
       <c r="F57" s="3">
-        <v>266200</v>
+        <v>262100</v>
       </c>
       <c r="G57" s="3">
-        <v>315800</v>
+        <v>311000</v>
       </c>
       <c r="H57" s="3">
-        <v>235500</v>
+        <v>231900</v>
       </c>
       <c r="I57" s="3">
-        <v>302600</v>
+        <v>297900</v>
       </c>
       <c r="J57" s="3">
-        <v>297700</v>
+        <v>293200</v>
       </c>
       <c r="K57" s="3">
         <v>204400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>495300</v>
+        <v>487700</v>
       </c>
       <c r="E58" s="3">
-        <v>272600</v>
+        <v>268400</v>
       </c>
       <c r="F58" s="3">
-        <v>618600</v>
+        <v>609100</v>
       </c>
       <c r="G58" s="3">
-        <v>453300</v>
+        <v>446400</v>
       </c>
       <c r="H58" s="3">
-        <v>488100</v>
+        <v>480600</v>
       </c>
       <c r="I58" s="3">
-        <v>231200</v>
+        <v>227700</v>
       </c>
       <c r="J58" s="3">
-        <v>243700</v>
+        <v>239900</v>
       </c>
       <c r="K58" s="3">
         <v>189900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>885900</v>
+        <v>872300</v>
       </c>
       <c r="E59" s="3">
-        <v>414000</v>
+        <v>407600</v>
       </c>
       <c r="F59" s="3">
-        <v>371000</v>
+        <v>365300</v>
       </c>
       <c r="G59" s="3">
-        <v>377000</v>
+        <v>371200</v>
       </c>
       <c r="H59" s="3">
-        <v>337400</v>
+        <v>332200</v>
       </c>
       <c r="I59" s="3">
-        <v>364500</v>
+        <v>359000</v>
       </c>
       <c r="J59" s="3">
-        <v>219300</v>
+        <v>215900</v>
       </c>
       <c r="K59" s="3">
         <v>232200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1811000</v>
+        <v>1783200</v>
       </c>
       <c r="E60" s="3">
-        <v>1002700</v>
+        <v>987300</v>
       </c>
       <c r="F60" s="3">
-        <v>1255900</v>
+        <v>1236600</v>
       </c>
       <c r="G60" s="3">
-        <v>1146100</v>
+        <v>1128500</v>
       </c>
       <c r="H60" s="3">
-        <v>1061000</v>
+        <v>1044700</v>
       </c>
       <c r="I60" s="3">
-        <v>898300</v>
+        <v>884600</v>
       </c>
       <c r="J60" s="3">
-        <v>760700</v>
+        <v>749000</v>
       </c>
       <c r="K60" s="3">
         <v>626500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1396400</v>
+        <v>1374900</v>
       </c>
       <c r="E61" s="3">
-        <v>1916200</v>
+        <v>1886800</v>
       </c>
       <c r="F61" s="3">
-        <v>1550800</v>
+        <v>1527000</v>
       </c>
       <c r="G61" s="3">
-        <v>1390700</v>
+        <v>1369300</v>
       </c>
       <c r="H61" s="3">
-        <v>1169600</v>
+        <v>1151600</v>
       </c>
       <c r="I61" s="3">
-        <v>1224600</v>
+        <v>1205800</v>
       </c>
       <c r="J61" s="3">
-        <v>892000</v>
+        <v>878300</v>
       </c>
       <c r="K61" s="3">
         <v>658200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1769900</v>
+        <v>1742800</v>
       </c>
       <c r="E62" s="3">
-        <v>966700</v>
+        <v>951800</v>
       </c>
       <c r="F62" s="3">
-        <v>868700</v>
+        <v>855400</v>
       </c>
       <c r="G62" s="3">
-        <v>774400</v>
+        <v>762500</v>
       </c>
       <c r="H62" s="3">
-        <v>641400</v>
+        <v>631600</v>
       </c>
       <c r="I62" s="3">
-        <v>571300</v>
+        <v>562500</v>
       </c>
       <c r="J62" s="3">
-        <v>586100</v>
+        <v>577100</v>
       </c>
       <c r="K62" s="3">
         <v>620800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5031900</v>
+        <v>4954700</v>
       </c>
       <c r="E66" s="3">
-        <v>3950500</v>
+        <v>3889800</v>
       </c>
       <c r="F66" s="3">
-        <v>3732300</v>
+        <v>3675000</v>
       </c>
       <c r="G66" s="3">
-        <v>3367900</v>
+        <v>3316200</v>
       </c>
       <c r="H66" s="3">
-        <v>2921500</v>
+        <v>2876600</v>
       </c>
       <c r="I66" s="3">
-        <v>2757800</v>
+        <v>2715400</v>
       </c>
       <c r="J66" s="3">
-        <v>2304900</v>
+        <v>2269500</v>
       </c>
       <c r="K66" s="3">
         <v>1957400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1369000</v>
+        <v>1348000</v>
       </c>
       <c r="E72" s="3">
-        <v>1099300</v>
+        <v>1082400</v>
       </c>
       <c r="F72" s="3">
-        <v>1376300</v>
+        <v>1355200</v>
       </c>
       <c r="G72" s="3">
-        <v>1200900</v>
+        <v>1182500</v>
       </c>
       <c r="H72" s="3">
-        <v>1092700</v>
+        <v>1075900</v>
       </c>
       <c r="I72" s="3">
-        <v>1155200</v>
+        <v>1137400</v>
       </c>
       <c r="J72" s="3">
-        <v>975800</v>
+        <v>960800</v>
       </c>
       <c r="K72" s="3">
         <v>846300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3743900</v>
+        <v>3686400</v>
       </c>
       <c r="E76" s="3">
-        <v>3236200</v>
+        <v>3186500</v>
       </c>
       <c r="F76" s="3">
-        <v>3007500</v>
+        <v>2961300</v>
       </c>
       <c r="G76" s="3">
-        <v>2852700</v>
+        <v>2808900</v>
       </c>
       <c r="H76" s="3">
-        <v>2763700</v>
+        <v>2721300</v>
       </c>
       <c r="I76" s="3">
-        <v>2672200</v>
+        <v>2631200</v>
       </c>
       <c r="J76" s="3">
-        <v>2500600</v>
+        <v>2462200</v>
       </c>
       <c r="K76" s="3">
         <v>2367400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>732400</v>
+        <v>721100</v>
       </c>
       <c r="E81" s="3">
-        <v>373300</v>
+        <v>367500</v>
       </c>
       <c r="F81" s="3">
-        <v>263900</v>
+        <v>259900</v>
       </c>
       <c r="G81" s="3">
-        <v>193900</v>
+        <v>190900</v>
       </c>
       <c r="H81" s="3">
-        <v>155300</v>
+        <v>152900</v>
       </c>
       <c r="I81" s="3">
-        <v>223700</v>
+        <v>220300</v>
       </c>
       <c r="J81" s="3">
-        <v>226200</v>
+        <v>222700</v>
       </c>
       <c r="K81" s="3">
         <v>200700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>189400</v>
+        <v>186500</v>
       </c>
       <c r="E83" s="3">
-        <v>205200</v>
+        <v>202000</v>
       </c>
       <c r="F83" s="3">
-        <v>140500</v>
+        <v>138400</v>
       </c>
       <c r="G83" s="3">
-        <v>137200</v>
+        <v>135100</v>
       </c>
       <c r="H83" s="3">
-        <v>132900</v>
+        <v>130800</v>
       </c>
       <c r="I83" s="3">
-        <v>126900</v>
+        <v>124900</v>
       </c>
       <c r="J83" s="3">
-        <v>118200</v>
+        <v>116400</v>
       </c>
       <c r="K83" s="3">
         <v>112900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>739200</v>
+        <v>727900</v>
       </c>
       <c r="E89" s="3">
-        <v>552400</v>
+        <v>543900</v>
       </c>
       <c r="F89" s="3">
-        <v>332200</v>
+        <v>327100</v>
       </c>
       <c r="G89" s="3">
-        <v>185600</v>
+        <v>182700</v>
       </c>
       <c r="H89" s="3">
-        <v>277000</v>
+        <v>272800</v>
       </c>
       <c r="I89" s="3">
-        <v>247700</v>
+        <v>243900</v>
       </c>
       <c r="J89" s="3">
-        <v>204700</v>
+        <v>201600</v>
       </c>
       <c r="K89" s="3">
         <v>250300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42500</v>
+        <v>-41800</v>
       </c>
       <c r="E91" s="3">
-        <v>-101900</v>
+        <v>-100300</v>
       </c>
       <c r="F91" s="3">
-        <v>-279300</v>
+        <v>-275000</v>
       </c>
       <c r="G91" s="3">
-        <v>-226100</v>
+        <v>-222700</v>
       </c>
       <c r="H91" s="3">
-        <v>-240900</v>
+        <v>-237200</v>
       </c>
       <c r="I91" s="3">
-        <v>-141200</v>
+        <v>-139000</v>
       </c>
       <c r="J91" s="3">
-        <v>-167800</v>
+        <v>-165200</v>
       </c>
       <c r="K91" s="3">
         <v>-78600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312800</v>
+        <v>-308000</v>
       </c>
       <c r="E94" s="3">
-        <v>-312100</v>
+        <v>-307300</v>
       </c>
       <c r="F94" s="3">
-        <v>-403100</v>
+        <v>-396900</v>
       </c>
       <c r="G94" s="3">
-        <v>-296600</v>
+        <v>-292000</v>
       </c>
       <c r="H94" s="3">
-        <v>-471000</v>
+        <v>-463800</v>
       </c>
       <c r="I94" s="3">
-        <v>-366100</v>
+        <v>-360500</v>
       </c>
       <c r="J94" s="3">
-        <v>-480700</v>
+        <v>-473300</v>
       </c>
       <c r="K94" s="3">
         <v>-348800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-117500</v>
+        <v>-115700</v>
       </c>
       <c r="E96" s="3">
-        <v>-71400</v>
+        <v>-70300</v>
       </c>
       <c r="F96" s="3">
-        <v>-56400</v>
+        <v>-55500</v>
       </c>
       <c r="G96" s="3">
-        <v>-95000</v>
+        <v>-93500</v>
       </c>
       <c r="H96" s="3">
-        <v>-69200</v>
+        <v>-68100</v>
       </c>
       <c r="I96" s="3">
-        <v>-57700</v>
+        <v>-56800</v>
       </c>
       <c r="J96" s="3">
-        <v>-125500</v>
+        <v>-123600</v>
       </c>
       <c r="K96" s="3">
         <v>-110700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-321700</v>
+        <v>-316800</v>
       </c>
       <c r="E100" s="3">
-        <v>-54000</v>
+        <v>-53200</v>
       </c>
       <c r="F100" s="3">
-        <v>241300</v>
+        <v>237600</v>
       </c>
       <c r="G100" s="3">
-        <v>121900</v>
+        <v>120000</v>
       </c>
       <c r="H100" s="3">
-        <v>100500</v>
+        <v>98900</v>
       </c>
       <c r="I100" s="3">
-        <v>257300</v>
+        <v>253300</v>
       </c>
       <c r="J100" s="3">
-        <v>88100</v>
+        <v>86800</v>
       </c>
       <c r="K100" s="3">
         <v>151400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>104700</v>
+        <v>103100</v>
       </c>
       <c r="E102" s="3">
-        <v>186300</v>
+        <v>183500</v>
       </c>
       <c r="F102" s="3">
-        <v>170400</v>
+        <v>167800</v>
       </c>
       <c r="G102" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="H102" s="3">
-        <v>-93500</v>
+        <v>-92100</v>
       </c>
       <c r="I102" s="3">
-        <v>138900</v>
+        <v>136800</v>
       </c>
       <c r="J102" s="3">
-        <v>-187900</v>
+        <v>-185000</v>
       </c>
       <c r="K102" s="3">
         <v>52800</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3441600</v>
+        <v>3326400</v>
       </c>
       <c r="E8" s="3">
-        <v>2931000</v>
+        <v>2833000</v>
       </c>
       <c r="F8" s="3">
-        <v>2758500</v>
+        <v>2666200</v>
       </c>
       <c r="G8" s="3">
-        <v>2590300</v>
+        <v>2503700</v>
       </c>
       <c r="H8" s="3">
-        <v>2419900</v>
+        <v>2338900</v>
       </c>
       <c r="I8" s="3">
-        <v>2760500</v>
+        <v>2668100</v>
       </c>
       <c r="J8" s="3">
-        <v>2570800</v>
+        <v>2484700</v>
       </c>
       <c r="K8" s="3">
         <v>1717900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2465300</v>
+        <v>2382900</v>
       </c>
       <c r="E9" s="3">
-        <v>2117400</v>
+        <v>2046600</v>
       </c>
       <c r="F9" s="3">
-        <v>2124400</v>
+        <v>2053300</v>
       </c>
       <c r="G9" s="3">
-        <v>1970000</v>
+        <v>1904100</v>
       </c>
       <c r="H9" s="3">
-        <v>1890200</v>
+        <v>1827000</v>
       </c>
       <c r="I9" s="3">
-        <v>2179300</v>
+        <v>2106400</v>
       </c>
       <c r="J9" s="3">
-        <v>2085000</v>
+        <v>2015300</v>
       </c>
       <c r="K9" s="3">
         <v>1317000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>976200</v>
+        <v>943600</v>
       </c>
       <c r="E10" s="3">
-        <v>813600</v>
+        <v>786400</v>
       </c>
       <c r="F10" s="3">
-        <v>634100</v>
+        <v>612900</v>
       </c>
       <c r="G10" s="3">
-        <v>620300</v>
+        <v>599600</v>
       </c>
       <c r="H10" s="3">
-        <v>529700</v>
+        <v>511900</v>
       </c>
       <c r="I10" s="3">
-        <v>581200</v>
+        <v>561700</v>
       </c>
       <c r="J10" s="3">
-        <v>485700</v>
+        <v>469500</v>
       </c>
       <c r="K10" s="3">
         <v>400900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="E15" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="F15" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="G15" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="H15" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="I15" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="J15" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K15" s="3">
         <v>9700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2656000</v>
+        <v>2567100</v>
       </c>
       <c r="E17" s="3">
-        <v>2321100</v>
+        <v>2243500</v>
       </c>
       <c r="F17" s="3">
-        <v>2316300</v>
+        <v>2238800</v>
       </c>
       <c r="G17" s="3">
-        <v>2193800</v>
+        <v>2120400</v>
       </c>
       <c r="H17" s="3">
-        <v>2042300</v>
+        <v>1974000</v>
       </c>
       <c r="I17" s="3">
-        <v>2367700</v>
+        <v>2288500</v>
       </c>
       <c r="J17" s="3">
-        <v>2251800</v>
+        <v>2176400</v>
       </c>
       <c r="K17" s="3">
         <v>1488400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>785600</v>
+        <v>759300</v>
       </c>
       <c r="E18" s="3">
-        <v>609900</v>
+        <v>589500</v>
       </c>
       <c r="F18" s="3">
-        <v>442200</v>
+        <v>427400</v>
       </c>
       <c r="G18" s="3">
-        <v>396600</v>
+        <v>383300</v>
       </c>
       <c r="H18" s="3">
-        <v>377500</v>
+        <v>364900</v>
       </c>
       <c r="I18" s="3">
-        <v>392800</v>
+        <v>379600</v>
       </c>
       <c r="J18" s="3">
-        <v>319000</v>
+        <v>308300</v>
       </c>
       <c r="K18" s="3">
         <v>229500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>272200</v>
+        <v>263100</v>
       </c>
       <c r="E20" s="3">
-        <v>241100</v>
+        <v>233100</v>
       </c>
       <c r="F20" s="3">
-        <v>80000</v>
+        <v>77400</v>
       </c>
       <c r="G20" s="3">
-        <v>44300</v>
+        <v>42800</v>
       </c>
       <c r="H20" s="3">
-        <v>62500</v>
+        <v>60400</v>
       </c>
       <c r="I20" s="3">
-        <v>78100</v>
+        <v>75500</v>
       </c>
       <c r="J20" s="3">
-        <v>91800</v>
+        <v>88800</v>
       </c>
       <c r="K20" s="3">
         <v>96100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1245500</v>
+        <v>1202500</v>
       </c>
       <c r="E21" s="3">
-        <v>1054400</v>
+        <v>1017600</v>
       </c>
       <c r="F21" s="3">
-        <v>661500</v>
+        <v>638300</v>
       </c>
       <c r="G21" s="3">
-        <v>576900</v>
+        <v>556500</v>
       </c>
       <c r="H21" s="3">
-        <v>571700</v>
+        <v>551600</v>
       </c>
       <c r="I21" s="3">
-        <v>596600</v>
+        <v>575700</v>
       </c>
       <c r="J21" s="3">
-        <v>527900</v>
+        <v>509400</v>
       </c>
       <c r="K21" s="3">
         <v>438600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>112200</v>
+        <v>108500</v>
       </c>
       <c r="E22" s="3">
-        <v>325200</v>
+        <v>314300</v>
       </c>
       <c r="F22" s="3">
-        <v>160900</v>
+        <v>155600</v>
       </c>
       <c r="G22" s="3">
-        <v>183600</v>
+        <v>177400</v>
       </c>
       <c r="H22" s="3">
-        <v>198200</v>
+        <v>191500</v>
       </c>
       <c r="I22" s="3">
-        <v>138800</v>
+        <v>134200</v>
       </c>
       <c r="J22" s="3">
-        <v>67700</v>
+        <v>65500</v>
       </c>
       <c r="K22" s="3">
         <v>43700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>945600</v>
+        <v>913900</v>
       </c>
       <c r="E23" s="3">
-        <v>525800</v>
+        <v>508200</v>
       </c>
       <c r="F23" s="3">
-        <v>361300</v>
+        <v>349200</v>
       </c>
       <c r="G23" s="3">
-        <v>257300</v>
+        <v>248700</v>
       </c>
       <c r="H23" s="3">
-        <v>241900</v>
+        <v>233800</v>
       </c>
       <c r="I23" s="3">
-        <v>332000</v>
+        <v>320900</v>
       </c>
       <c r="J23" s="3">
-        <v>343100</v>
+        <v>331600</v>
       </c>
       <c r="K23" s="3">
         <v>281900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>237400</v>
+        <v>229500</v>
       </c>
       <c r="E24" s="3">
-        <v>124800</v>
+        <v>120600</v>
       </c>
       <c r="F24" s="3">
-        <v>94600</v>
+        <v>91400</v>
       </c>
       <c r="G24" s="3">
-        <v>50700</v>
+        <v>49000</v>
       </c>
       <c r="H24" s="3">
-        <v>96000</v>
+        <v>92800</v>
       </c>
       <c r="I24" s="3">
-        <v>98300</v>
+        <v>95000</v>
       </c>
       <c r="J24" s="3">
-        <v>96400</v>
+        <v>93200</v>
       </c>
       <c r="K24" s="3">
         <v>75800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>708200</v>
+        <v>684500</v>
       </c>
       <c r="E26" s="3">
-        <v>401000</v>
+        <v>387600</v>
       </c>
       <c r="F26" s="3">
-        <v>266700</v>
+        <v>257800</v>
       </c>
       <c r="G26" s="3">
-        <v>206500</v>
+        <v>199600</v>
       </c>
       <c r="H26" s="3">
-        <v>145900</v>
+        <v>141000</v>
       </c>
       <c r="I26" s="3">
-        <v>233700</v>
+        <v>225900</v>
       </c>
       <c r="J26" s="3">
-        <v>246700</v>
+        <v>238400</v>
       </c>
       <c r="K26" s="3">
         <v>206100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>707100</v>
+        <v>683500</v>
       </c>
       <c r="E27" s="3">
-        <v>387600</v>
+        <v>374600</v>
       </c>
       <c r="F27" s="3">
-        <v>259900</v>
+        <v>251200</v>
       </c>
       <c r="G27" s="3">
-        <v>190900</v>
+        <v>184500</v>
       </c>
       <c r="H27" s="3">
-        <v>152900</v>
+        <v>147800</v>
       </c>
       <c r="I27" s="3">
-        <v>220300</v>
+        <v>212900</v>
       </c>
       <c r="J27" s="3">
-        <v>222700</v>
+        <v>215300</v>
       </c>
       <c r="K27" s="3">
         <v>200700</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="E29" s="3">
-        <v>-20000</v>
+        <v>-19400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-272200</v>
+        <v>-263100</v>
       </c>
       <c r="E32" s="3">
-        <v>-241100</v>
+        <v>-233100</v>
       </c>
       <c r="F32" s="3">
-        <v>-80000</v>
+        <v>-77400</v>
       </c>
       <c r="G32" s="3">
-        <v>-44300</v>
+        <v>-42800</v>
       </c>
       <c r="H32" s="3">
-        <v>-62500</v>
+        <v>-60400</v>
       </c>
       <c r="I32" s="3">
-        <v>-78100</v>
+        <v>-75500</v>
       </c>
       <c r="J32" s="3">
-        <v>-91800</v>
+        <v>-88800</v>
       </c>
       <c r="K32" s="3">
         <v>-96100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>721100</v>
+        <v>697000</v>
       </c>
       <c r="E33" s="3">
-        <v>367500</v>
+        <v>355200</v>
       </c>
       <c r="F33" s="3">
-        <v>259900</v>
+        <v>251200</v>
       </c>
       <c r="G33" s="3">
-        <v>190900</v>
+        <v>184500</v>
       </c>
       <c r="H33" s="3">
-        <v>152900</v>
+        <v>147800</v>
       </c>
       <c r="I33" s="3">
-        <v>220300</v>
+        <v>212900</v>
       </c>
       <c r="J33" s="3">
-        <v>222700</v>
+        <v>215300</v>
       </c>
       <c r="K33" s="3">
         <v>200700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>721100</v>
+        <v>697000</v>
       </c>
       <c r="E35" s="3">
-        <v>367500</v>
+        <v>355200</v>
       </c>
       <c r="F35" s="3">
-        <v>259900</v>
+        <v>251200</v>
       </c>
       <c r="G35" s="3">
-        <v>190900</v>
+        <v>184500</v>
       </c>
       <c r="H35" s="3">
-        <v>152900</v>
+        <v>147800</v>
       </c>
       <c r="I35" s="3">
-        <v>220300</v>
+        <v>212900</v>
       </c>
       <c r="J35" s="3">
-        <v>222700</v>
+        <v>215300</v>
       </c>
       <c r="K35" s="3">
         <v>200700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>595200</v>
+        <v>575300</v>
       </c>
       <c r="E41" s="3">
-        <v>543300</v>
+        <v>525200</v>
       </c>
       <c r="F41" s="3">
-        <v>359900</v>
+        <v>347800</v>
       </c>
       <c r="G41" s="3">
-        <v>192100</v>
+        <v>185700</v>
       </c>
       <c r="H41" s="3">
-        <v>181400</v>
+        <v>175300</v>
       </c>
       <c r="I41" s="3">
-        <v>273500</v>
+        <v>264300</v>
       </c>
       <c r="J41" s="3">
-        <v>136700</v>
+        <v>132100</v>
       </c>
       <c r="K41" s="3">
         <v>325900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32300</v>
+        <v>31200</v>
       </c>
       <c r="E42" s="3">
-        <v>66200</v>
+        <v>64000</v>
       </c>
       <c r="F42" s="3">
-        <v>100900</v>
+        <v>97500</v>
       </c>
       <c r="G42" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="H42" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="I42" s="3">
-        <v>243300</v>
+        <v>235100</v>
       </c>
       <c r="J42" s="3">
-        <v>197300</v>
+        <v>190700</v>
       </c>
       <c r="K42" s="3">
         <v>72800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1215200</v>
+        <v>1174500</v>
       </c>
       <c r="E43" s="3">
-        <v>820900</v>
+        <v>793500</v>
       </c>
       <c r="F43" s="3">
-        <v>732000</v>
+        <v>707500</v>
       </c>
       <c r="G43" s="3">
-        <v>776600</v>
+        <v>750600</v>
       </c>
       <c r="H43" s="3">
-        <v>591200</v>
+        <v>571400</v>
       </c>
       <c r="I43" s="3">
-        <v>730200</v>
+        <v>705700</v>
       </c>
       <c r="J43" s="3">
-        <v>595700</v>
+        <v>575800</v>
       </c>
       <c r="K43" s="3">
         <v>446900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30100</v>
+        <v>29100</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="F44" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="G44" s="3">
-        <v>20400</v>
+        <v>19700</v>
       </c>
       <c r="H44" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="I44" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="J44" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="K44" s="3">
         <v>26100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>234100</v>
+        <v>226300</v>
       </c>
       <c r="E45" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F45" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="G45" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="H45" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="I45" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="J45" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="K45" s="3">
         <v>4100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2107000</v>
+        <v>2036500</v>
       </c>
       <c r="E46" s="3">
-        <v>1460800</v>
+        <v>1411900</v>
       </c>
       <c r="F46" s="3">
-        <v>1233400</v>
+        <v>1192100</v>
       </c>
       <c r="G46" s="3">
-        <v>1053100</v>
+        <v>1017900</v>
       </c>
       <c r="H46" s="3">
-        <v>782600</v>
+        <v>756400</v>
       </c>
       <c r="I46" s="3">
-        <v>1280600</v>
+        <v>1237800</v>
       </c>
       <c r="J46" s="3">
-        <v>963800</v>
+        <v>931500</v>
       </c>
       <c r="K46" s="3">
         <v>875800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2937200</v>
+        <v>2839000</v>
       </c>
       <c r="E47" s="3">
-        <v>1965000</v>
+        <v>1899300</v>
       </c>
       <c r="F47" s="3">
-        <v>1754400</v>
+        <v>1695700</v>
       </c>
       <c r="G47" s="3">
-        <v>1570800</v>
+        <v>1518300</v>
       </c>
       <c r="H47" s="3">
-        <v>1400400</v>
+        <v>1353600</v>
       </c>
       <c r="I47" s="3">
-        <v>837800</v>
+        <v>809700</v>
       </c>
       <c r="J47" s="3">
-        <v>1358000</v>
+        <v>1312600</v>
       </c>
       <c r="K47" s="3">
         <v>1058000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1778400</v>
+        <v>1718900</v>
       </c>
       <c r="E48" s="3">
-        <v>1973700</v>
+        <v>1907600</v>
       </c>
       <c r="F48" s="3">
-        <v>2002500</v>
+        <v>1935500</v>
       </c>
       <c r="G48" s="3">
-        <v>1815800</v>
+        <v>1755000</v>
       </c>
       <c r="H48" s="3">
-        <v>1650400</v>
+        <v>1595200</v>
       </c>
       <c r="I48" s="3">
-        <v>1605500</v>
+        <v>1551800</v>
       </c>
       <c r="J48" s="3">
-        <v>1533800</v>
+        <v>1482500</v>
       </c>
       <c r="K48" s="3">
         <v>1831200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1279900</v>
+        <v>1237000</v>
       </c>
       <c r="E49" s="3">
-        <v>1169600</v>
+        <v>1130500</v>
       </c>
       <c r="F49" s="3">
-        <v>1113600</v>
+        <v>1076300</v>
       </c>
       <c r="G49" s="3">
-        <v>1191800</v>
+        <v>1152000</v>
       </c>
       <c r="H49" s="3">
-        <v>1193100</v>
+        <v>1153200</v>
       </c>
       <c r="I49" s="3">
-        <v>1135000</v>
+        <v>1097000</v>
       </c>
       <c r="J49" s="3">
-        <v>401600</v>
+        <v>388100</v>
       </c>
       <c r="K49" s="3">
         <v>388500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>538600</v>
+        <v>520600</v>
       </c>
       <c r="E52" s="3">
-        <v>507200</v>
+        <v>490200</v>
       </c>
       <c r="F52" s="3">
-        <v>532400</v>
+        <v>514600</v>
       </c>
       <c r="G52" s="3">
-        <v>542200</v>
+        <v>524100</v>
       </c>
       <c r="H52" s="3">
-        <v>571300</v>
+        <v>552200</v>
       </c>
       <c r="I52" s="3">
-        <v>487700</v>
+        <v>471400</v>
       </c>
       <c r="J52" s="3">
-        <v>474500</v>
+        <v>458600</v>
       </c>
       <c r="K52" s="3">
         <v>518300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8641100</v>
+        <v>8352000</v>
       </c>
       <c r="E54" s="3">
-        <v>7076300</v>
+        <v>6839600</v>
       </c>
       <c r="F54" s="3">
-        <v>6636300</v>
+        <v>6414200</v>
       </c>
       <c r="G54" s="3">
-        <v>6125100</v>
+        <v>5920100</v>
       </c>
       <c r="H54" s="3">
-        <v>5597900</v>
+        <v>5410600</v>
       </c>
       <c r="I54" s="3">
-        <v>5346600</v>
+        <v>5167700</v>
       </c>
       <c r="J54" s="3">
-        <v>4731700</v>
+        <v>4573400</v>
       </c>
       <c r="K54" s="3">
         <v>4324800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>423200</v>
+        <v>409000</v>
       </c>
       <c r="E57" s="3">
-        <v>311300</v>
+        <v>300900</v>
       </c>
       <c r="F57" s="3">
-        <v>262100</v>
+        <v>253400</v>
       </c>
       <c r="G57" s="3">
-        <v>311000</v>
+        <v>300600</v>
       </c>
       <c r="H57" s="3">
-        <v>231900</v>
+        <v>224200</v>
       </c>
       <c r="I57" s="3">
-        <v>297900</v>
+        <v>288000</v>
       </c>
       <c r="J57" s="3">
-        <v>293200</v>
+        <v>283300</v>
       </c>
       <c r="K57" s="3">
         <v>204400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>487700</v>
+        <v>471300</v>
       </c>
       <c r="E58" s="3">
-        <v>268400</v>
+        <v>259500</v>
       </c>
       <c r="F58" s="3">
-        <v>609100</v>
+        <v>588700</v>
       </c>
       <c r="G58" s="3">
-        <v>446400</v>
+        <v>431400</v>
       </c>
       <c r="H58" s="3">
-        <v>480600</v>
+        <v>464500</v>
       </c>
       <c r="I58" s="3">
-        <v>227700</v>
+        <v>220000</v>
       </c>
       <c r="J58" s="3">
-        <v>239900</v>
+        <v>231900</v>
       </c>
       <c r="K58" s="3">
         <v>189900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>872300</v>
+        <v>843100</v>
       </c>
       <c r="E59" s="3">
-        <v>407600</v>
+        <v>394000</v>
       </c>
       <c r="F59" s="3">
-        <v>365300</v>
+        <v>353100</v>
       </c>
       <c r="G59" s="3">
-        <v>371200</v>
+        <v>358800</v>
       </c>
       <c r="H59" s="3">
-        <v>332200</v>
+        <v>321100</v>
       </c>
       <c r="I59" s="3">
-        <v>359000</v>
+        <v>346900</v>
       </c>
       <c r="J59" s="3">
-        <v>215900</v>
+        <v>208700</v>
       </c>
       <c r="K59" s="3">
         <v>232200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1783200</v>
+        <v>1723500</v>
       </c>
       <c r="E60" s="3">
-        <v>987300</v>
+        <v>954300</v>
       </c>
       <c r="F60" s="3">
-        <v>1236600</v>
+        <v>1195200</v>
       </c>
       <c r="G60" s="3">
-        <v>1128500</v>
+        <v>1090700</v>
       </c>
       <c r="H60" s="3">
-        <v>1044700</v>
+        <v>1009700</v>
       </c>
       <c r="I60" s="3">
-        <v>884600</v>
+        <v>855000</v>
       </c>
       <c r="J60" s="3">
-        <v>749000</v>
+        <v>724000</v>
       </c>
       <c r="K60" s="3">
         <v>626500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1374900</v>
+        <v>1328900</v>
       </c>
       <c r="E61" s="3">
-        <v>1886800</v>
+        <v>1823600</v>
       </c>
       <c r="F61" s="3">
-        <v>1527000</v>
+        <v>1475900</v>
       </c>
       <c r="G61" s="3">
-        <v>1369300</v>
+        <v>1323500</v>
       </c>
       <c r="H61" s="3">
-        <v>1151600</v>
+        <v>1113100</v>
       </c>
       <c r="I61" s="3">
-        <v>1205800</v>
+        <v>1165500</v>
       </c>
       <c r="J61" s="3">
-        <v>878300</v>
+        <v>848900</v>
       </c>
       <c r="K61" s="3">
         <v>658200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1742800</v>
+        <v>1684500</v>
       </c>
       <c r="E62" s="3">
-        <v>951800</v>
+        <v>920000</v>
       </c>
       <c r="F62" s="3">
-        <v>855400</v>
+        <v>826800</v>
       </c>
       <c r="G62" s="3">
-        <v>762500</v>
+        <v>737000</v>
       </c>
       <c r="H62" s="3">
-        <v>631600</v>
+        <v>610500</v>
       </c>
       <c r="I62" s="3">
-        <v>562500</v>
+        <v>543700</v>
       </c>
       <c r="J62" s="3">
-        <v>577100</v>
+        <v>557800</v>
       </c>
       <c r="K62" s="3">
         <v>620800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4954700</v>
+        <v>4788900</v>
       </c>
       <c r="E66" s="3">
-        <v>3889800</v>
+        <v>3759700</v>
       </c>
       <c r="F66" s="3">
-        <v>3675000</v>
+        <v>3552000</v>
       </c>
       <c r="G66" s="3">
-        <v>3316200</v>
+        <v>3205200</v>
       </c>
       <c r="H66" s="3">
-        <v>2876600</v>
+        <v>2780400</v>
       </c>
       <c r="I66" s="3">
-        <v>2715400</v>
+        <v>2624600</v>
       </c>
       <c r="J66" s="3">
-        <v>2269500</v>
+        <v>2193600</v>
       </c>
       <c r="K66" s="3">
         <v>1957400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1348000</v>
+        <v>1302900</v>
       </c>
       <c r="E72" s="3">
-        <v>1082400</v>
+        <v>1046200</v>
       </c>
       <c r="F72" s="3">
-        <v>1355200</v>
+        <v>1309900</v>
       </c>
       <c r="G72" s="3">
-        <v>1182500</v>
+        <v>1142900</v>
       </c>
       <c r="H72" s="3">
-        <v>1075900</v>
+        <v>1039900</v>
       </c>
       <c r="I72" s="3">
-        <v>1137400</v>
+        <v>1099400</v>
       </c>
       <c r="J72" s="3">
-        <v>960800</v>
+        <v>928700</v>
       </c>
       <c r="K72" s="3">
         <v>846300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3686400</v>
+        <v>3563100</v>
       </c>
       <c r="E76" s="3">
-        <v>3186500</v>
+        <v>3079900</v>
       </c>
       <c r="F76" s="3">
-        <v>2961300</v>
+        <v>2862200</v>
       </c>
       <c r="G76" s="3">
-        <v>2808900</v>
+        <v>2714900</v>
       </c>
       <c r="H76" s="3">
-        <v>2721300</v>
+        <v>2630200</v>
       </c>
       <c r="I76" s="3">
-        <v>2631200</v>
+        <v>2543100</v>
       </c>
       <c r="J76" s="3">
-        <v>2462200</v>
+        <v>2379800</v>
       </c>
       <c r="K76" s="3">
         <v>2367400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>721100</v>
+        <v>697000</v>
       </c>
       <c r="E81" s="3">
-        <v>367500</v>
+        <v>355200</v>
       </c>
       <c r="F81" s="3">
-        <v>259900</v>
+        <v>251200</v>
       </c>
       <c r="G81" s="3">
-        <v>190900</v>
+        <v>184500</v>
       </c>
       <c r="H81" s="3">
-        <v>152900</v>
+        <v>147800</v>
       </c>
       <c r="I81" s="3">
-        <v>220300</v>
+        <v>212900</v>
       </c>
       <c r="J81" s="3">
-        <v>222700</v>
+        <v>215300</v>
       </c>
       <c r="K81" s="3">
         <v>200700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>186500</v>
+        <v>180300</v>
       </c>
       <c r="E83" s="3">
-        <v>202000</v>
+        <v>195300</v>
       </c>
       <c r="F83" s="3">
-        <v>138400</v>
+        <v>133700</v>
       </c>
       <c r="G83" s="3">
-        <v>135100</v>
+        <v>130600</v>
       </c>
       <c r="H83" s="3">
-        <v>130800</v>
+        <v>126400</v>
       </c>
       <c r="I83" s="3">
-        <v>124900</v>
+        <v>120800</v>
       </c>
       <c r="J83" s="3">
-        <v>116400</v>
+        <v>112500</v>
       </c>
       <c r="K83" s="3">
         <v>112900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>727900</v>
+        <v>703500</v>
       </c>
       <c r="E89" s="3">
-        <v>543900</v>
+        <v>525700</v>
       </c>
       <c r="F89" s="3">
-        <v>327100</v>
+        <v>316200</v>
       </c>
       <c r="G89" s="3">
-        <v>182700</v>
+        <v>176600</v>
       </c>
       <c r="H89" s="3">
-        <v>272800</v>
+        <v>263600</v>
       </c>
       <c r="I89" s="3">
-        <v>243900</v>
+        <v>235800</v>
       </c>
       <c r="J89" s="3">
-        <v>201600</v>
+        <v>194800</v>
       </c>
       <c r="K89" s="3">
         <v>250300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41800</v>
+        <v>-40400</v>
       </c>
       <c r="E91" s="3">
-        <v>-100300</v>
+        <v>-97000</v>
       </c>
       <c r="F91" s="3">
-        <v>-275000</v>
+        <v>-265800</v>
       </c>
       <c r="G91" s="3">
-        <v>-222700</v>
+        <v>-215200</v>
       </c>
       <c r="H91" s="3">
-        <v>-237200</v>
+        <v>-229300</v>
       </c>
       <c r="I91" s="3">
-        <v>-139000</v>
+        <v>-134300</v>
       </c>
       <c r="J91" s="3">
-        <v>-165200</v>
+        <v>-159700</v>
       </c>
       <c r="K91" s="3">
         <v>-78600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-308000</v>
+        <v>-297700</v>
       </c>
       <c r="E94" s="3">
-        <v>-307300</v>
+        <v>-297000</v>
       </c>
       <c r="F94" s="3">
-        <v>-396900</v>
+        <v>-383700</v>
       </c>
       <c r="G94" s="3">
-        <v>-292000</v>
+        <v>-282300</v>
       </c>
       <c r="H94" s="3">
-        <v>-463800</v>
+        <v>-448300</v>
       </c>
       <c r="I94" s="3">
-        <v>-360500</v>
+        <v>-348400</v>
       </c>
       <c r="J94" s="3">
-        <v>-473300</v>
+        <v>-457500</v>
       </c>
       <c r="K94" s="3">
         <v>-348800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-115700</v>
+        <v>-111800</v>
       </c>
       <c r="E96" s="3">
-        <v>-70300</v>
+        <v>-67900</v>
       </c>
       <c r="F96" s="3">
-        <v>-55500</v>
+        <v>-53700</v>
       </c>
       <c r="G96" s="3">
-        <v>-93500</v>
+        <v>-90400</v>
       </c>
       <c r="H96" s="3">
-        <v>-68100</v>
+        <v>-65900</v>
       </c>
       <c r="I96" s="3">
-        <v>-56800</v>
+        <v>-54900</v>
       </c>
       <c r="J96" s="3">
-        <v>-123600</v>
+        <v>-119400</v>
       </c>
       <c r="K96" s="3">
         <v>-110700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-316800</v>
+        <v>-306200</v>
       </c>
       <c r="E100" s="3">
-        <v>-53200</v>
+        <v>-51400</v>
       </c>
       <c r="F100" s="3">
-        <v>237600</v>
+        <v>229700</v>
       </c>
       <c r="G100" s="3">
-        <v>120000</v>
+        <v>116000</v>
       </c>
       <c r="H100" s="3">
-        <v>98900</v>
+        <v>95600</v>
       </c>
       <c r="I100" s="3">
-        <v>253300</v>
+        <v>244800</v>
       </c>
       <c r="J100" s="3">
-        <v>86800</v>
+        <v>83900</v>
       </c>
       <c r="K100" s="3">
         <v>151400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>103100</v>
+        <v>99600</v>
       </c>
       <c r="E102" s="3">
-        <v>183500</v>
+        <v>177300</v>
       </c>
       <c r="F102" s="3">
-        <v>167800</v>
+        <v>162200</v>
       </c>
       <c r="G102" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="H102" s="3">
-        <v>-92100</v>
+        <v>-89000</v>
       </c>
       <c r="I102" s="3">
-        <v>136800</v>
+        <v>132200</v>
       </c>
       <c r="J102" s="3">
-        <v>-185000</v>
+        <v>-178800</v>
       </c>
       <c r="K102" s="3">
         <v>52800</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3326400</v>
+        <v>3671900</v>
       </c>
       <c r="E8" s="3">
-        <v>2833000</v>
+        <v>3127200</v>
       </c>
       <c r="F8" s="3">
-        <v>2666200</v>
+        <v>2943000</v>
       </c>
       <c r="G8" s="3">
-        <v>2503700</v>
+        <v>2763700</v>
       </c>
       <c r="H8" s="3">
-        <v>2338900</v>
+        <v>2581800</v>
       </c>
       <c r="I8" s="3">
-        <v>2668100</v>
+        <v>2945200</v>
       </c>
       <c r="J8" s="3">
-        <v>2484700</v>
+        <v>2742800</v>
       </c>
       <c r="K8" s="3">
         <v>1717900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2382900</v>
+        <v>2630300</v>
       </c>
       <c r="E9" s="3">
-        <v>2046600</v>
+        <v>2259100</v>
       </c>
       <c r="F9" s="3">
-        <v>2053300</v>
+        <v>2266500</v>
       </c>
       <c r="G9" s="3">
-        <v>1904100</v>
+        <v>2101800</v>
       </c>
       <c r="H9" s="3">
-        <v>1827000</v>
+        <v>2016700</v>
       </c>
       <c r="I9" s="3">
-        <v>2106400</v>
+        <v>2325200</v>
       </c>
       <c r="J9" s="3">
-        <v>2015300</v>
+        <v>2224600</v>
       </c>
       <c r="K9" s="3">
         <v>1317000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>943600</v>
+        <v>1041500</v>
       </c>
       <c r="E10" s="3">
-        <v>786400</v>
+        <v>868100</v>
       </c>
       <c r="F10" s="3">
-        <v>612900</v>
+        <v>676500</v>
       </c>
       <c r="G10" s="3">
-        <v>599600</v>
+        <v>661900</v>
       </c>
       <c r="H10" s="3">
-        <v>511900</v>
+        <v>565100</v>
       </c>
       <c r="I10" s="3">
-        <v>561700</v>
+        <v>620100</v>
       </c>
       <c r="J10" s="3">
-        <v>469500</v>
+        <v>518200</v>
       </c>
       <c r="K10" s="3">
         <v>400900</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11500</v>
+        <v>12700</v>
       </c>
       <c r="E15" s="3">
-        <v>10300</v>
+        <v>11400</v>
       </c>
       <c r="F15" s="3">
-        <v>7100</v>
+        <v>7800</v>
       </c>
       <c r="G15" s="3">
-        <v>8100</v>
+        <v>9000</v>
       </c>
       <c r="H15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J15" s="3">
         <v>7800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7000</v>
       </c>
       <c r="K15" s="3">
         <v>9700</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2567100</v>
+        <v>2833700</v>
       </c>
       <c r="E17" s="3">
-        <v>2243500</v>
+        <v>2476400</v>
       </c>
       <c r="F17" s="3">
-        <v>2238800</v>
+        <v>2471300</v>
       </c>
       <c r="G17" s="3">
-        <v>2120400</v>
+        <v>2340600</v>
       </c>
       <c r="H17" s="3">
-        <v>1974000</v>
+        <v>2179000</v>
       </c>
       <c r="I17" s="3">
-        <v>2288500</v>
+        <v>2526200</v>
       </c>
       <c r="J17" s="3">
-        <v>2176400</v>
+        <v>2402500</v>
       </c>
       <c r="K17" s="3">
         <v>1488400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>759300</v>
+        <v>838100</v>
       </c>
       <c r="E18" s="3">
-        <v>589500</v>
+        <v>650700</v>
       </c>
       <c r="F18" s="3">
-        <v>427400</v>
+        <v>471800</v>
       </c>
       <c r="G18" s="3">
-        <v>383300</v>
+        <v>423100</v>
       </c>
       <c r="H18" s="3">
-        <v>364900</v>
+        <v>402800</v>
       </c>
       <c r="I18" s="3">
-        <v>379600</v>
+        <v>419000</v>
       </c>
       <c r="J18" s="3">
-        <v>308300</v>
+        <v>340300</v>
       </c>
       <c r="K18" s="3">
         <v>229500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>263100</v>
+        <v>290400</v>
       </c>
       <c r="E20" s="3">
-        <v>233100</v>
+        <v>257300</v>
       </c>
       <c r="F20" s="3">
-        <v>77400</v>
+        <v>85400</v>
       </c>
       <c r="G20" s="3">
-        <v>42800</v>
+        <v>47200</v>
       </c>
       <c r="H20" s="3">
-        <v>60400</v>
+        <v>66600</v>
       </c>
       <c r="I20" s="3">
-        <v>75500</v>
+        <v>83300</v>
       </c>
       <c r="J20" s="3">
-        <v>88800</v>
+        <v>98000</v>
       </c>
       <c r="K20" s="3">
         <v>96100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1202500</v>
+        <v>1330100</v>
       </c>
       <c r="E21" s="3">
-        <v>1017600</v>
+        <v>1126200</v>
       </c>
       <c r="F21" s="3">
-        <v>638300</v>
+        <v>706600</v>
       </c>
       <c r="G21" s="3">
-        <v>556500</v>
+        <v>616300</v>
       </c>
       <c r="H21" s="3">
-        <v>551600</v>
+        <v>610800</v>
       </c>
       <c r="I21" s="3">
-        <v>575700</v>
+        <v>637300</v>
       </c>
       <c r="J21" s="3">
-        <v>509400</v>
+        <v>564000</v>
       </c>
       <c r="K21" s="3">
         <v>438600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>108500</v>
+        <v>119700</v>
       </c>
       <c r="E22" s="3">
-        <v>314300</v>
+        <v>347000</v>
       </c>
       <c r="F22" s="3">
-        <v>155600</v>
+        <v>171700</v>
       </c>
       <c r="G22" s="3">
-        <v>177400</v>
+        <v>195900</v>
       </c>
       <c r="H22" s="3">
-        <v>191500</v>
+        <v>211400</v>
       </c>
       <c r="I22" s="3">
-        <v>134200</v>
+        <v>148100</v>
       </c>
       <c r="J22" s="3">
-        <v>65500</v>
+        <v>72300</v>
       </c>
       <c r="K22" s="3">
         <v>43700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>913900</v>
+        <v>1008900</v>
       </c>
       <c r="E23" s="3">
-        <v>508200</v>
+        <v>561000</v>
       </c>
       <c r="F23" s="3">
-        <v>349200</v>
+        <v>385400</v>
       </c>
       <c r="G23" s="3">
-        <v>248700</v>
+        <v>274500</v>
       </c>
       <c r="H23" s="3">
-        <v>233800</v>
+        <v>258000</v>
       </c>
       <c r="I23" s="3">
-        <v>320900</v>
+        <v>354300</v>
       </c>
       <c r="J23" s="3">
-        <v>331600</v>
+        <v>366100</v>
       </c>
       <c r="K23" s="3">
         <v>281900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>229500</v>
+        <v>253300</v>
       </c>
       <c r="E24" s="3">
-        <v>120600</v>
+        <v>133100</v>
       </c>
       <c r="F24" s="3">
-        <v>91400</v>
+        <v>100900</v>
       </c>
       <c r="G24" s="3">
-        <v>49000</v>
+        <v>54100</v>
       </c>
       <c r="H24" s="3">
-        <v>92800</v>
+        <v>102400</v>
       </c>
       <c r="I24" s="3">
-        <v>95000</v>
+        <v>104900</v>
       </c>
       <c r="J24" s="3">
-        <v>93200</v>
+        <v>102900</v>
       </c>
       <c r="K24" s="3">
         <v>75800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>684500</v>
+        <v>755600</v>
       </c>
       <c r="E26" s="3">
-        <v>387600</v>
+        <v>427900</v>
       </c>
       <c r="F26" s="3">
-        <v>257800</v>
+        <v>284600</v>
       </c>
       <c r="G26" s="3">
-        <v>199600</v>
+        <v>220400</v>
       </c>
       <c r="H26" s="3">
-        <v>141000</v>
+        <v>155600</v>
       </c>
       <c r="I26" s="3">
-        <v>225900</v>
+        <v>249400</v>
       </c>
       <c r="J26" s="3">
-        <v>238400</v>
+        <v>263200</v>
       </c>
       <c r="K26" s="3">
         <v>206100</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>683500</v>
+        <v>754500</v>
       </c>
       <c r="E27" s="3">
-        <v>374600</v>
+        <v>413500</v>
       </c>
       <c r="F27" s="3">
-        <v>251200</v>
+        <v>277300</v>
       </c>
       <c r="G27" s="3">
-        <v>184500</v>
+        <v>203700</v>
       </c>
       <c r="H27" s="3">
-        <v>147800</v>
+        <v>163200</v>
       </c>
       <c r="I27" s="3">
-        <v>212900</v>
+        <v>235000</v>
       </c>
       <c r="J27" s="3">
-        <v>215300</v>
+        <v>237600</v>
       </c>
       <c r="K27" s="3">
         <v>200700</v>
@@ -1413,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>13500</v>
+        <v>14900</v>
       </c>
       <c r="E29" s="3">
-        <v>-19400</v>
+        <v>-21400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-263100</v>
+        <v>-290400</v>
       </c>
       <c r="E32" s="3">
-        <v>-233100</v>
+        <v>-257300</v>
       </c>
       <c r="F32" s="3">
-        <v>-77400</v>
+        <v>-85400</v>
       </c>
       <c r="G32" s="3">
-        <v>-42800</v>
+        <v>-47200</v>
       </c>
       <c r="H32" s="3">
-        <v>-60400</v>
+        <v>-66600</v>
       </c>
       <c r="I32" s="3">
-        <v>-75500</v>
+        <v>-83300</v>
       </c>
       <c r="J32" s="3">
-        <v>-88800</v>
+        <v>-98000</v>
       </c>
       <c r="K32" s="3">
         <v>-96100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>697000</v>
+        <v>769400</v>
       </c>
       <c r="E33" s="3">
-        <v>355200</v>
+        <v>392100</v>
       </c>
       <c r="F33" s="3">
-        <v>251200</v>
+        <v>277300</v>
       </c>
       <c r="G33" s="3">
-        <v>184500</v>
+        <v>203700</v>
       </c>
       <c r="H33" s="3">
-        <v>147800</v>
+        <v>163200</v>
       </c>
       <c r="I33" s="3">
-        <v>212900</v>
+        <v>235000</v>
       </c>
       <c r="J33" s="3">
-        <v>215300</v>
+        <v>237600</v>
       </c>
       <c r="K33" s="3">
         <v>200700</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>697000</v>
+        <v>769400</v>
       </c>
       <c r="E35" s="3">
-        <v>355200</v>
+        <v>392100</v>
       </c>
       <c r="F35" s="3">
-        <v>251200</v>
+        <v>277300</v>
       </c>
       <c r="G35" s="3">
-        <v>184500</v>
+        <v>203700</v>
       </c>
       <c r="H35" s="3">
-        <v>147800</v>
+        <v>163200</v>
       </c>
       <c r="I35" s="3">
-        <v>212900</v>
+        <v>235000</v>
       </c>
       <c r="J35" s="3">
-        <v>215300</v>
+        <v>237600</v>
       </c>
       <c r="K35" s="3">
         <v>200700</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>575300</v>
+        <v>635100</v>
       </c>
       <c r="E41" s="3">
-        <v>525200</v>
+        <v>579700</v>
       </c>
       <c r="F41" s="3">
-        <v>347800</v>
+        <v>384000</v>
       </c>
       <c r="G41" s="3">
-        <v>185700</v>
+        <v>205000</v>
       </c>
       <c r="H41" s="3">
-        <v>175300</v>
+        <v>193500</v>
       </c>
       <c r="I41" s="3">
-        <v>264300</v>
+        <v>291800</v>
       </c>
       <c r="J41" s="3">
-        <v>132100</v>
+        <v>145900</v>
       </c>
       <c r="K41" s="3">
         <v>325900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31200</v>
+        <v>34500</v>
       </c>
       <c r="E42" s="3">
-        <v>64000</v>
+        <v>70700</v>
       </c>
       <c r="F42" s="3">
-        <v>97500</v>
+        <v>107600</v>
       </c>
       <c r="G42" s="3">
-        <v>30900</v>
+        <v>34100</v>
       </c>
       <c r="H42" s="3">
-        <v>24400</v>
+        <v>26900</v>
       </c>
       <c r="I42" s="3">
-        <v>235100</v>
+        <v>259500</v>
       </c>
       <c r="J42" s="3">
-        <v>190700</v>
+        <v>210500</v>
       </c>
       <c r="K42" s="3">
         <v>72800</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1174500</v>
+        <v>1296500</v>
       </c>
       <c r="E43" s="3">
-        <v>793500</v>
+        <v>875900</v>
       </c>
       <c r="F43" s="3">
-        <v>707500</v>
+        <v>781000</v>
       </c>
       <c r="G43" s="3">
-        <v>750600</v>
+        <v>828600</v>
       </c>
       <c r="H43" s="3">
-        <v>571400</v>
+        <v>630800</v>
       </c>
       <c r="I43" s="3">
-        <v>705700</v>
+        <v>779000</v>
       </c>
       <c r="J43" s="3">
-        <v>575800</v>
+        <v>635600</v>
       </c>
       <c r="K43" s="3">
         <v>446900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29100</v>
+        <v>32100</v>
       </c>
       <c r="E44" s="3">
-        <v>23300</v>
+        <v>25700</v>
       </c>
       <c r="F44" s="3">
-        <v>20800</v>
+        <v>22900</v>
       </c>
       <c r="G44" s="3">
-        <v>19700</v>
+        <v>21800</v>
       </c>
       <c r="H44" s="3">
-        <v>23300</v>
+        <v>25700</v>
       </c>
       <c r="I44" s="3">
-        <v>23400</v>
+        <v>25800</v>
       </c>
       <c r="J44" s="3">
-        <v>26900</v>
+        <v>29700</v>
       </c>
       <c r="K44" s="3">
         <v>26100</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>226300</v>
+        <v>249800</v>
       </c>
       <c r="E45" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="F45" s="3">
-        <v>18600</v>
+        <v>20500</v>
       </c>
       <c r="G45" s="3">
-        <v>31000</v>
+        <v>34200</v>
       </c>
       <c r="H45" s="3">
-        <v>16800</v>
+        <v>18500</v>
       </c>
       <c r="I45" s="3">
-        <v>9200</v>
+        <v>10100</v>
       </c>
       <c r="J45" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="K45" s="3">
         <v>4100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2036500</v>
+        <v>2247900</v>
       </c>
       <c r="E46" s="3">
-        <v>1411900</v>
+        <v>1558600</v>
       </c>
       <c r="F46" s="3">
-        <v>1192100</v>
+        <v>1315900</v>
       </c>
       <c r="G46" s="3">
-        <v>1017900</v>
+        <v>1123600</v>
       </c>
       <c r="H46" s="3">
-        <v>756400</v>
+        <v>835000</v>
       </c>
       <c r="I46" s="3">
-        <v>1237800</v>
+        <v>1366300</v>
       </c>
       <c r="J46" s="3">
-        <v>931500</v>
+        <v>1028300</v>
       </c>
       <c r="K46" s="3">
         <v>875800</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2839000</v>
+        <v>3133800</v>
       </c>
       <c r="E47" s="3">
-        <v>1899300</v>
+        <v>2096500</v>
       </c>
       <c r="F47" s="3">
-        <v>1695700</v>
+        <v>1871800</v>
       </c>
       <c r="G47" s="3">
-        <v>1518300</v>
+        <v>1675900</v>
       </c>
       <c r="H47" s="3">
-        <v>1353600</v>
+        <v>1494100</v>
       </c>
       <c r="I47" s="3">
-        <v>809700</v>
+        <v>893800</v>
       </c>
       <c r="J47" s="3">
-        <v>1312600</v>
+        <v>1448900</v>
       </c>
       <c r="K47" s="3">
         <v>1058000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1718900</v>
+        <v>1897400</v>
       </c>
       <c r="E48" s="3">
-        <v>1907600</v>
+        <v>2105700</v>
       </c>
       <c r="F48" s="3">
-        <v>1935500</v>
+        <v>2136500</v>
       </c>
       <c r="G48" s="3">
-        <v>1755000</v>
+        <v>1937300</v>
       </c>
       <c r="H48" s="3">
-        <v>1595200</v>
+        <v>1760900</v>
       </c>
       <c r="I48" s="3">
-        <v>1551800</v>
+        <v>1713000</v>
       </c>
       <c r="J48" s="3">
-        <v>1482500</v>
+        <v>1636400</v>
       </c>
       <c r="K48" s="3">
         <v>1831200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1237000</v>
+        <v>1365500</v>
       </c>
       <c r="E49" s="3">
-        <v>1130500</v>
+        <v>1247900</v>
       </c>
       <c r="F49" s="3">
-        <v>1076300</v>
+        <v>1188100</v>
       </c>
       <c r="G49" s="3">
-        <v>1152000</v>
+        <v>1271600</v>
       </c>
       <c r="H49" s="3">
-        <v>1153200</v>
+        <v>1273000</v>
       </c>
       <c r="I49" s="3">
-        <v>1097000</v>
+        <v>1210900</v>
       </c>
       <c r="J49" s="3">
-        <v>388100</v>
+        <v>428400</v>
       </c>
       <c r="K49" s="3">
         <v>388500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>520600</v>
+        <v>574700</v>
       </c>
       <c r="E52" s="3">
-        <v>490200</v>
+        <v>541100</v>
       </c>
       <c r="F52" s="3">
-        <v>514600</v>
+        <v>568000</v>
       </c>
       <c r="G52" s="3">
-        <v>524100</v>
+        <v>578500</v>
       </c>
       <c r="H52" s="3">
-        <v>552200</v>
+        <v>609600</v>
       </c>
       <c r="I52" s="3">
-        <v>471400</v>
+        <v>520400</v>
       </c>
       <c r="J52" s="3">
-        <v>458600</v>
+        <v>506200</v>
       </c>
       <c r="K52" s="3">
         <v>518300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8352000</v>
+        <v>9219400</v>
       </c>
       <c r="E54" s="3">
-        <v>6839600</v>
+        <v>7549900</v>
       </c>
       <c r="F54" s="3">
-        <v>6414200</v>
+        <v>7080400</v>
       </c>
       <c r="G54" s="3">
-        <v>5920100</v>
+        <v>6535000</v>
       </c>
       <c r="H54" s="3">
-        <v>5410600</v>
+        <v>5972500</v>
       </c>
       <c r="I54" s="3">
-        <v>5167700</v>
+        <v>5704400</v>
       </c>
       <c r="J54" s="3">
-        <v>4573400</v>
+        <v>5048300</v>
       </c>
       <c r="K54" s="3">
         <v>4324800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>409000</v>
+        <v>451500</v>
       </c>
       <c r="E57" s="3">
-        <v>300900</v>
+        <v>332100</v>
       </c>
       <c r="F57" s="3">
-        <v>253400</v>
+        <v>279700</v>
       </c>
       <c r="G57" s="3">
-        <v>300600</v>
+        <v>331800</v>
       </c>
       <c r="H57" s="3">
-        <v>224200</v>
+        <v>247400</v>
       </c>
       <c r="I57" s="3">
-        <v>288000</v>
+        <v>317900</v>
       </c>
       <c r="J57" s="3">
-        <v>283300</v>
+        <v>312800</v>
       </c>
       <c r="K57" s="3">
         <v>204400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>471300</v>
+        <v>520300</v>
       </c>
       <c r="E58" s="3">
-        <v>259500</v>
+        <v>286400</v>
       </c>
       <c r="F58" s="3">
-        <v>588700</v>
+        <v>649900</v>
       </c>
       <c r="G58" s="3">
-        <v>431400</v>
+        <v>476200</v>
       </c>
       <c r="H58" s="3">
-        <v>464500</v>
+        <v>512700</v>
       </c>
       <c r="I58" s="3">
-        <v>220000</v>
+        <v>242900</v>
       </c>
       <c r="J58" s="3">
-        <v>231900</v>
+        <v>256000</v>
       </c>
       <c r="K58" s="3">
         <v>189900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>843100</v>
+        <v>930700</v>
       </c>
       <c r="E59" s="3">
-        <v>394000</v>
+        <v>434900</v>
       </c>
       <c r="F59" s="3">
-        <v>353100</v>
+        <v>389800</v>
       </c>
       <c r="G59" s="3">
-        <v>358800</v>
+        <v>396000</v>
       </c>
       <c r="H59" s="3">
-        <v>321100</v>
+        <v>354400</v>
       </c>
       <c r="I59" s="3">
-        <v>346900</v>
+        <v>383000</v>
       </c>
       <c r="J59" s="3">
-        <v>208700</v>
+        <v>230400</v>
       </c>
       <c r="K59" s="3">
         <v>232200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1723500</v>
+        <v>1902500</v>
       </c>
       <c r="E60" s="3">
-        <v>954300</v>
+        <v>1053400</v>
       </c>
       <c r="F60" s="3">
-        <v>1195200</v>
+        <v>1319300</v>
       </c>
       <c r="G60" s="3">
-        <v>1090700</v>
+        <v>1204000</v>
       </c>
       <c r="H60" s="3">
-        <v>1009700</v>
+        <v>1114600</v>
       </c>
       <c r="I60" s="3">
-        <v>855000</v>
+        <v>943700</v>
       </c>
       <c r="J60" s="3">
-        <v>724000</v>
+        <v>799200</v>
       </c>
       <c r="K60" s="3">
         <v>626500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1328900</v>
+        <v>1466900</v>
       </c>
       <c r="E61" s="3">
-        <v>1823600</v>
+        <v>2013000</v>
       </c>
       <c r="F61" s="3">
-        <v>1475900</v>
+        <v>1629200</v>
       </c>
       <c r="G61" s="3">
-        <v>1323500</v>
+        <v>1461000</v>
       </c>
       <c r="H61" s="3">
-        <v>1113100</v>
+        <v>1228700</v>
       </c>
       <c r="I61" s="3">
-        <v>1165500</v>
+        <v>1286500</v>
       </c>
       <c r="J61" s="3">
-        <v>848900</v>
+        <v>937100</v>
       </c>
       <c r="K61" s="3">
         <v>658200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1684500</v>
+        <v>1859400</v>
       </c>
       <c r="E62" s="3">
-        <v>920000</v>
+        <v>1015500</v>
       </c>
       <c r="F62" s="3">
-        <v>826800</v>
+        <v>912600</v>
       </c>
       <c r="G62" s="3">
-        <v>737000</v>
+        <v>813500</v>
       </c>
       <c r="H62" s="3">
-        <v>610500</v>
+        <v>673900</v>
       </c>
       <c r="I62" s="3">
-        <v>543700</v>
+        <v>600200</v>
       </c>
       <c r="J62" s="3">
-        <v>557800</v>
+        <v>615800</v>
       </c>
       <c r="K62" s="3">
         <v>620800</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4788900</v>
+        <v>5286200</v>
       </c>
       <c r="E66" s="3">
-        <v>3759700</v>
+        <v>4150100</v>
       </c>
       <c r="F66" s="3">
-        <v>3552000</v>
+        <v>3920900</v>
       </c>
       <c r="G66" s="3">
-        <v>3205200</v>
+        <v>3538100</v>
       </c>
       <c r="H66" s="3">
-        <v>2780400</v>
+        <v>3069100</v>
       </c>
       <c r="I66" s="3">
-        <v>2624600</v>
+        <v>2897200</v>
       </c>
       <c r="J66" s="3">
-        <v>2193600</v>
+        <v>2421400</v>
       </c>
       <c r="K66" s="3">
         <v>1957400</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1302900</v>
+        <v>1438200</v>
       </c>
       <c r="E72" s="3">
-        <v>1046200</v>
+        <v>1154900</v>
       </c>
       <c r="F72" s="3">
-        <v>1309900</v>
+        <v>1445900</v>
       </c>
       <c r="G72" s="3">
-        <v>1142900</v>
+        <v>1261600</v>
       </c>
       <c r="H72" s="3">
-        <v>1039900</v>
+        <v>1147900</v>
       </c>
       <c r="I72" s="3">
-        <v>1099400</v>
+        <v>1213600</v>
       </c>
       <c r="J72" s="3">
-        <v>928700</v>
+        <v>1025100</v>
       </c>
       <c r="K72" s="3">
         <v>846300</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3563100</v>
+        <v>3933100</v>
       </c>
       <c r="E76" s="3">
-        <v>3079900</v>
+        <v>3399800</v>
       </c>
       <c r="F76" s="3">
-        <v>2862200</v>
+        <v>3159400</v>
       </c>
       <c r="G76" s="3">
-        <v>2714900</v>
+        <v>2996900</v>
       </c>
       <c r="H76" s="3">
-        <v>2630200</v>
+        <v>2903400</v>
       </c>
       <c r="I76" s="3">
-        <v>2543100</v>
+        <v>2807300</v>
       </c>
       <c r="J76" s="3">
-        <v>2379800</v>
+        <v>2626900</v>
       </c>
       <c r="K76" s="3">
         <v>2367400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>697000</v>
+        <v>769400</v>
       </c>
       <c r="E81" s="3">
-        <v>355200</v>
+        <v>392100</v>
       </c>
       <c r="F81" s="3">
-        <v>251200</v>
+        <v>277300</v>
       </c>
       <c r="G81" s="3">
-        <v>184500</v>
+        <v>203700</v>
       </c>
       <c r="H81" s="3">
-        <v>147800</v>
+        <v>163200</v>
       </c>
       <c r="I81" s="3">
-        <v>212900</v>
+        <v>235000</v>
       </c>
       <c r="J81" s="3">
-        <v>215300</v>
+        <v>237600</v>
       </c>
       <c r="K81" s="3">
         <v>200700</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>180300</v>
+        <v>199000</v>
       </c>
       <c r="E83" s="3">
-        <v>195300</v>
+        <v>215600</v>
       </c>
       <c r="F83" s="3">
-        <v>133700</v>
+        <v>147600</v>
       </c>
       <c r="G83" s="3">
-        <v>130600</v>
+        <v>144200</v>
       </c>
       <c r="H83" s="3">
-        <v>126400</v>
+        <v>139600</v>
       </c>
       <c r="I83" s="3">
-        <v>120800</v>
+        <v>133300</v>
       </c>
       <c r="J83" s="3">
-        <v>112500</v>
+        <v>124100</v>
       </c>
       <c r="K83" s="3">
         <v>112900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>703500</v>
+        <v>776600</v>
       </c>
       <c r="E89" s="3">
-        <v>525700</v>
+        <v>580300</v>
       </c>
       <c r="F89" s="3">
-        <v>316200</v>
+        <v>349000</v>
       </c>
       <c r="G89" s="3">
-        <v>176600</v>
+        <v>194900</v>
       </c>
       <c r="H89" s="3">
-        <v>263600</v>
+        <v>291000</v>
       </c>
       <c r="I89" s="3">
-        <v>235800</v>
+        <v>260300</v>
       </c>
       <c r="J89" s="3">
-        <v>194800</v>
+        <v>215100</v>
       </c>
       <c r="K89" s="3">
         <v>250300</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40400</v>
+        <v>-44600</v>
       </c>
       <c r="E91" s="3">
-        <v>-97000</v>
+        <v>-107000</v>
       </c>
       <c r="F91" s="3">
-        <v>-265800</v>
+        <v>-293400</v>
       </c>
       <c r="G91" s="3">
-        <v>-215200</v>
+        <v>-237600</v>
       </c>
       <c r="H91" s="3">
-        <v>-229300</v>
+        <v>-253100</v>
       </c>
       <c r="I91" s="3">
-        <v>-134300</v>
+        <v>-148300</v>
       </c>
       <c r="J91" s="3">
-        <v>-159700</v>
+        <v>-176300</v>
       </c>
       <c r="K91" s="3">
         <v>-78600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-297700</v>
+        <v>-328600</v>
       </c>
       <c r="E94" s="3">
-        <v>-297000</v>
+        <v>-327800</v>
       </c>
       <c r="F94" s="3">
-        <v>-383700</v>
+        <v>-423500</v>
       </c>
       <c r="G94" s="3">
-        <v>-282300</v>
+        <v>-311600</v>
       </c>
       <c r="H94" s="3">
-        <v>-448300</v>
+        <v>-494800</v>
       </c>
       <c r="I94" s="3">
-        <v>-348400</v>
+        <v>-384600</v>
       </c>
       <c r="J94" s="3">
-        <v>-457500</v>
+        <v>-505000</v>
       </c>
       <c r="K94" s="3">
         <v>-348800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-111800</v>
+        <v>-123400</v>
       </c>
       <c r="E96" s="3">
-        <v>-67900</v>
+        <v>-75000</v>
       </c>
       <c r="F96" s="3">
-        <v>-53700</v>
+        <v>-59300</v>
       </c>
       <c r="G96" s="3">
-        <v>-90400</v>
+        <v>-99800</v>
       </c>
       <c r="H96" s="3">
-        <v>-65900</v>
+        <v>-72700</v>
       </c>
       <c r="I96" s="3">
-        <v>-54900</v>
+        <v>-60600</v>
       </c>
       <c r="J96" s="3">
-        <v>-119400</v>
+        <v>-131800</v>
       </c>
       <c r="K96" s="3">
         <v>-110700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-306200</v>
+        <v>-338000</v>
       </c>
       <c r="E100" s="3">
-        <v>-51400</v>
+        <v>-56800</v>
       </c>
       <c r="F100" s="3">
-        <v>229700</v>
+        <v>253500</v>
       </c>
       <c r="G100" s="3">
-        <v>116000</v>
+        <v>128100</v>
       </c>
       <c r="H100" s="3">
-        <v>95600</v>
+        <v>105500</v>
       </c>
       <c r="I100" s="3">
-        <v>244800</v>
+        <v>270300</v>
       </c>
       <c r="J100" s="3">
-        <v>83900</v>
+        <v>92600</v>
       </c>
       <c r="K100" s="3">
         <v>151400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>99600</v>
+        <v>110000</v>
       </c>
       <c r="E102" s="3">
-        <v>177300</v>
+        <v>195700</v>
       </c>
       <c r="F102" s="3">
-        <v>162200</v>
+        <v>179000</v>
       </c>
       <c r="G102" s="3">
-        <v>10400</v>
+        <v>11400</v>
       </c>
       <c r="H102" s="3">
-        <v>-89000</v>
+        <v>-98300</v>
       </c>
       <c r="I102" s="3">
-        <v>132200</v>
+        <v>145900</v>
       </c>
       <c r="J102" s="3">
-        <v>-178800</v>
+        <v>-197400</v>
       </c>
       <c r="K102" s="3">
         <v>52800</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3671900</v>
+        <v>4671700</v>
       </c>
       <c r="E8" s="3">
-        <v>3127200</v>
+        <v>3629400</v>
       </c>
       <c r="F8" s="3">
-        <v>2943000</v>
+        <v>3091000</v>
       </c>
       <c r="G8" s="3">
-        <v>2763700</v>
+        <v>2909000</v>
       </c>
       <c r="H8" s="3">
-        <v>2581800</v>
+        <v>2731700</v>
       </c>
       <c r="I8" s="3">
-        <v>2945200</v>
+        <v>2552000</v>
       </c>
       <c r="J8" s="3">
+        <v>2911200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2742800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1717900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1983300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1929100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2630300</v>
+        <v>3724100</v>
       </c>
       <c r="E9" s="3">
-        <v>2259100</v>
+        <v>2599900</v>
       </c>
       <c r="F9" s="3">
-        <v>2266500</v>
+        <v>2233000</v>
       </c>
       <c r="G9" s="3">
-        <v>2101800</v>
+        <v>2240300</v>
       </c>
       <c r="H9" s="3">
-        <v>2016700</v>
+        <v>2077500</v>
       </c>
       <c r="I9" s="3">
-        <v>2325200</v>
+        <v>1993400</v>
       </c>
       <c r="J9" s="3">
+        <v>2298300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2224600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1317000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1527400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1353800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1041500</v>
+        <v>947500</v>
       </c>
       <c r="E10" s="3">
-        <v>868100</v>
+        <v>1029500</v>
       </c>
       <c r="F10" s="3">
-        <v>676500</v>
+        <v>858000</v>
       </c>
       <c r="G10" s="3">
-        <v>661900</v>
+        <v>668700</v>
       </c>
       <c r="H10" s="3">
-        <v>565100</v>
+        <v>654200</v>
       </c>
       <c r="I10" s="3">
-        <v>620100</v>
+        <v>558600</v>
       </c>
       <c r="J10" s="3">
+        <v>612900</v>
+      </c>
+      <c r="K10" s="3">
         <v>518200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>456000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>575300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="E15" s="3">
-        <v>11400</v>
+        <v>12500</v>
       </c>
       <c r="F15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K15" s="3">
         <v>7800</v>
       </c>
-      <c r="G15" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>15000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7800</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2833700</v>
+        <v>3610900</v>
       </c>
       <c r="E17" s="3">
-        <v>2476400</v>
+        <v>2800900</v>
       </c>
       <c r="F17" s="3">
-        <v>2471300</v>
+        <v>2447800</v>
       </c>
       <c r="G17" s="3">
-        <v>2340600</v>
+        <v>2442700</v>
       </c>
       <c r="H17" s="3">
-        <v>2179000</v>
+        <v>2313500</v>
       </c>
       <c r="I17" s="3">
-        <v>2526200</v>
+        <v>2153800</v>
       </c>
       <c r="J17" s="3">
+        <v>2497000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2402500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1488400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1750000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1591900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>838100</v>
+        <v>1060800</v>
       </c>
       <c r="E18" s="3">
-        <v>650700</v>
+        <v>828500</v>
       </c>
       <c r="F18" s="3">
-        <v>471800</v>
+        <v>643200</v>
       </c>
       <c r="G18" s="3">
-        <v>423100</v>
+        <v>466300</v>
       </c>
       <c r="H18" s="3">
-        <v>402800</v>
+        <v>418200</v>
       </c>
       <c r="I18" s="3">
-        <v>419000</v>
+        <v>398200</v>
       </c>
       <c r="J18" s="3">
+        <v>414200</v>
+      </c>
+      <c r="K18" s="3">
         <v>340300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>229500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>233300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>337200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>290400</v>
+        <v>102900</v>
       </c>
       <c r="E20" s="3">
-        <v>257300</v>
+        <v>287100</v>
       </c>
       <c r="F20" s="3">
-        <v>85400</v>
+        <v>254300</v>
       </c>
       <c r="G20" s="3">
-        <v>47200</v>
+        <v>84400</v>
       </c>
       <c r="H20" s="3">
-        <v>66600</v>
+        <v>46700</v>
       </c>
       <c r="I20" s="3">
-        <v>83300</v>
+        <v>65900</v>
       </c>
       <c r="J20" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K20" s="3">
         <v>98000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>96100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>90800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1330100</v>
+        <v>1374400</v>
       </c>
       <c r="E21" s="3">
-        <v>1126200</v>
+        <v>1312100</v>
       </c>
       <c r="F21" s="3">
-        <v>706600</v>
+        <v>1110400</v>
       </c>
       <c r="G21" s="3">
-        <v>616300</v>
+        <v>696500</v>
       </c>
       <c r="H21" s="3">
-        <v>610800</v>
+        <v>607300</v>
       </c>
       <c r="I21" s="3">
-        <v>637300</v>
+        <v>601900</v>
       </c>
       <c r="J21" s="3">
+        <v>628200</v>
+      </c>
+      <c r="K21" s="3">
         <v>564000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>438600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>388100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>563000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>119700</v>
+        <v>166700</v>
       </c>
       <c r="E22" s="3">
-        <v>347000</v>
+        <v>118300</v>
       </c>
       <c r="F22" s="3">
-        <v>171700</v>
+        <v>343000</v>
       </c>
       <c r="G22" s="3">
-        <v>195900</v>
+        <v>169700</v>
       </c>
       <c r="H22" s="3">
-        <v>211400</v>
+        <v>193600</v>
       </c>
       <c r="I22" s="3">
-        <v>148100</v>
+        <v>209000</v>
       </c>
       <c r="J22" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K22" s="3">
         <v>72300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1008900</v>
+        <v>997000</v>
       </c>
       <c r="E23" s="3">
-        <v>561000</v>
+        <v>997200</v>
       </c>
       <c r="F23" s="3">
-        <v>385400</v>
+        <v>554500</v>
       </c>
       <c r="G23" s="3">
-        <v>274500</v>
+        <v>381000</v>
       </c>
       <c r="H23" s="3">
-        <v>258000</v>
+        <v>271300</v>
       </c>
       <c r="I23" s="3">
-        <v>354300</v>
+        <v>255100</v>
       </c>
       <c r="J23" s="3">
+        <v>350200</v>
+      </c>
+      <c r="K23" s="3">
         <v>366100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>281900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>227100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>392900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>253300</v>
+        <v>245400</v>
       </c>
       <c r="E24" s="3">
-        <v>133100</v>
+        <v>250400</v>
       </c>
       <c r="F24" s="3">
-        <v>100900</v>
+        <v>131600</v>
       </c>
       <c r="G24" s="3">
-        <v>54100</v>
+        <v>99700</v>
       </c>
       <c r="H24" s="3">
-        <v>102400</v>
+        <v>53500</v>
       </c>
       <c r="I24" s="3">
-        <v>104900</v>
+        <v>101200</v>
       </c>
       <c r="J24" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K24" s="3">
         <v>102900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>57400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>101000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>755600</v>
+        <v>751700</v>
       </c>
       <c r="E26" s="3">
-        <v>427900</v>
+        <v>746800</v>
       </c>
       <c r="F26" s="3">
-        <v>284600</v>
+        <v>422900</v>
       </c>
       <c r="G26" s="3">
-        <v>220400</v>
+        <v>281300</v>
       </c>
       <c r="H26" s="3">
-        <v>155600</v>
+        <v>217800</v>
       </c>
       <c r="I26" s="3">
-        <v>249400</v>
+        <v>153800</v>
       </c>
       <c r="J26" s="3">
+        <v>246500</v>
+      </c>
+      <c r="K26" s="3">
         <v>263200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>206100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>169700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>292000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>754500</v>
+        <v>733000</v>
       </c>
       <c r="E27" s="3">
-        <v>413500</v>
+        <v>745700</v>
       </c>
       <c r="F27" s="3">
-        <v>277300</v>
+        <v>408700</v>
       </c>
       <c r="G27" s="3">
-        <v>203700</v>
+        <v>274100</v>
       </c>
       <c r="H27" s="3">
-        <v>163200</v>
+        <v>201300</v>
       </c>
       <c r="I27" s="3">
-        <v>235000</v>
+        <v>161300</v>
       </c>
       <c r="J27" s="3">
+        <v>232300</v>
+      </c>
+      <c r="K27" s="3">
         <v>237600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>163600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>287200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,20 +1463,23 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>14900</v>
+        <v>231700</v>
       </c>
       <c r="E29" s="3">
-        <v>-21400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>14700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-21100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1433,8 +1493,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-290400</v>
+        <v>-102900</v>
       </c>
       <c r="E32" s="3">
-        <v>-257300</v>
+        <v>-287100</v>
       </c>
       <c r="F32" s="3">
-        <v>-85400</v>
+        <v>-254300</v>
       </c>
       <c r="G32" s="3">
-        <v>-47200</v>
+        <v>-84400</v>
       </c>
       <c r="H32" s="3">
-        <v>-66600</v>
+        <v>-46700</v>
       </c>
       <c r="I32" s="3">
-        <v>-83300</v>
+        <v>-65900</v>
       </c>
       <c r="J32" s="3">
+        <v>-82400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-98000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-96100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-90800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>769400</v>
+        <v>964700</v>
       </c>
       <c r="E33" s="3">
-        <v>392100</v>
+        <v>760500</v>
       </c>
       <c r="F33" s="3">
-        <v>277300</v>
+        <v>387600</v>
       </c>
       <c r="G33" s="3">
-        <v>203700</v>
+        <v>274100</v>
       </c>
       <c r="H33" s="3">
-        <v>163200</v>
+        <v>201300</v>
       </c>
       <c r="I33" s="3">
-        <v>235000</v>
+        <v>161300</v>
       </c>
       <c r="J33" s="3">
+        <v>232300</v>
+      </c>
+      <c r="K33" s="3">
         <v>237600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>163600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>287200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>769400</v>
+        <v>964700</v>
       </c>
       <c r="E35" s="3">
-        <v>392100</v>
+        <v>760500</v>
       </c>
       <c r="F35" s="3">
-        <v>277300</v>
+        <v>387600</v>
       </c>
       <c r="G35" s="3">
-        <v>203700</v>
+        <v>274100</v>
       </c>
       <c r="H35" s="3">
-        <v>163200</v>
+        <v>201300</v>
       </c>
       <c r="I35" s="3">
-        <v>235000</v>
+        <v>161300</v>
       </c>
       <c r="J35" s="3">
+        <v>232300</v>
+      </c>
+      <c r="K35" s="3">
         <v>237600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>163600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>287200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>635100</v>
+        <v>676400</v>
       </c>
       <c r="E41" s="3">
-        <v>579700</v>
+        <v>627700</v>
       </c>
       <c r="F41" s="3">
-        <v>384000</v>
+        <v>573000</v>
       </c>
       <c r="G41" s="3">
-        <v>205000</v>
+        <v>379500</v>
       </c>
       <c r="H41" s="3">
-        <v>193500</v>
+        <v>202600</v>
       </c>
       <c r="I41" s="3">
-        <v>291800</v>
+        <v>191300</v>
       </c>
       <c r="J41" s="3">
+        <v>288400</v>
+      </c>
+      <c r="K41" s="3">
         <v>145900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>325900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>340800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>520400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34500</v>
+        <v>77900</v>
       </c>
       <c r="E42" s="3">
-        <v>70700</v>
+        <v>34100</v>
       </c>
       <c r="F42" s="3">
-        <v>107600</v>
+        <v>69900</v>
       </c>
       <c r="G42" s="3">
-        <v>34100</v>
+        <v>106400</v>
       </c>
       <c r="H42" s="3">
-        <v>26900</v>
+        <v>33700</v>
       </c>
       <c r="I42" s="3">
-        <v>259500</v>
+        <v>26600</v>
       </c>
       <c r="J42" s="3">
+        <v>256500</v>
+      </c>
+      <c r="K42" s="3">
         <v>210500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>72800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>148400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>272400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1296500</v>
+        <v>1376200</v>
       </c>
       <c r="E43" s="3">
-        <v>875900</v>
+        <v>1281500</v>
       </c>
       <c r="F43" s="3">
-        <v>781000</v>
+        <v>865700</v>
       </c>
       <c r="G43" s="3">
-        <v>828600</v>
+        <v>772000</v>
       </c>
       <c r="H43" s="3">
-        <v>630800</v>
+        <v>819000</v>
       </c>
       <c r="I43" s="3">
-        <v>779000</v>
+        <v>623500</v>
       </c>
       <c r="J43" s="3">
+        <v>770000</v>
+      </c>
+      <c r="K43" s="3">
         <v>635600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>446900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>604300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>520200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>32100</v>
+        <v>38500</v>
       </c>
       <c r="E44" s="3">
-        <v>25700</v>
+        <v>31700</v>
       </c>
       <c r="F44" s="3">
-        <v>22900</v>
+        <v>25400</v>
       </c>
       <c r="G44" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="H44" s="3">
-        <v>25700</v>
+        <v>21500</v>
       </c>
       <c r="I44" s="3">
-        <v>25800</v>
+        <v>25400</v>
       </c>
       <c r="J44" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K44" s="3">
         <v>29700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>26100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>51500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>249800</v>
+        <v>10500</v>
       </c>
       <c r="E45" s="3">
+        <v>246900</v>
+      </c>
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
-        <v>20500</v>
-      </c>
       <c r="G45" s="3">
-        <v>34200</v>
+        <v>20200</v>
       </c>
       <c r="H45" s="3">
-        <v>18500</v>
+        <v>33800</v>
       </c>
       <c r="I45" s="3">
-        <v>10100</v>
+        <v>18300</v>
       </c>
       <c r="J45" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K45" s="3">
         <v>6600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2247900</v>
+        <v>2179600</v>
       </c>
       <c r="E46" s="3">
-        <v>1558600</v>
+        <v>2221900</v>
       </c>
       <c r="F46" s="3">
-        <v>1315900</v>
+        <v>1540600</v>
       </c>
       <c r="G46" s="3">
-        <v>1123600</v>
+        <v>1300700</v>
       </c>
       <c r="H46" s="3">
-        <v>835000</v>
+        <v>1110600</v>
       </c>
       <c r="I46" s="3">
-        <v>1366300</v>
+        <v>825300</v>
       </c>
       <c r="J46" s="3">
+        <v>1350500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1028300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>875800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1093300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>917800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3133800</v>
+        <v>3328300</v>
       </c>
       <c r="E47" s="3">
-        <v>2096500</v>
+        <v>3097500</v>
       </c>
       <c r="F47" s="3">
-        <v>1871800</v>
+        <v>2072300</v>
       </c>
       <c r="G47" s="3">
-        <v>1675900</v>
+        <v>1850200</v>
       </c>
       <c r="H47" s="3">
-        <v>1494100</v>
+        <v>1656500</v>
       </c>
       <c r="I47" s="3">
-        <v>893800</v>
+        <v>1476800</v>
       </c>
       <c r="J47" s="3">
+        <v>883500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1448900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1058000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>998600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1013300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1897400</v>
+        <v>2015400</v>
       </c>
       <c r="E48" s="3">
-        <v>2105700</v>
+        <v>1875500</v>
       </c>
       <c r="F48" s="3">
-        <v>2136500</v>
+        <v>2081400</v>
       </c>
       <c r="G48" s="3">
-        <v>1937300</v>
+        <v>2111800</v>
       </c>
       <c r="H48" s="3">
-        <v>1760900</v>
+        <v>1914800</v>
       </c>
       <c r="I48" s="3">
-        <v>1713000</v>
+        <v>1740500</v>
       </c>
       <c r="J48" s="3">
+        <v>1693200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1636400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1831200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5514700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3576900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1365500</v>
+        <v>1795000</v>
       </c>
       <c r="E49" s="3">
-        <v>1247900</v>
+        <v>1349700</v>
       </c>
       <c r="F49" s="3">
-        <v>1188100</v>
+        <v>1233500</v>
       </c>
       <c r="G49" s="3">
-        <v>1271600</v>
+        <v>1174300</v>
       </c>
       <c r="H49" s="3">
-        <v>1273000</v>
+        <v>1256900</v>
       </c>
       <c r="I49" s="3">
-        <v>1210900</v>
+        <v>1258200</v>
       </c>
       <c r="J49" s="3">
+        <v>1196900</v>
+      </c>
+      <c r="K49" s="3">
         <v>428400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>388500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1251000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>860900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>574700</v>
+        <v>330600</v>
       </c>
       <c r="E52" s="3">
-        <v>541100</v>
+        <v>568000</v>
       </c>
       <c r="F52" s="3">
-        <v>568000</v>
+        <v>534900</v>
       </c>
       <c r="G52" s="3">
-        <v>578500</v>
+        <v>561400</v>
       </c>
       <c r="H52" s="3">
-        <v>609600</v>
+        <v>571800</v>
       </c>
       <c r="I52" s="3">
-        <v>520400</v>
+        <v>602500</v>
       </c>
       <c r="J52" s="3">
+        <v>514400</v>
+      </c>
+      <c r="K52" s="3">
         <v>506200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>518300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>610900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>551300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9219400</v>
+        <v>9648900</v>
       </c>
       <c r="E54" s="3">
-        <v>7549900</v>
+        <v>9112700</v>
       </c>
       <c r="F54" s="3">
-        <v>7080400</v>
+        <v>7462500</v>
       </c>
       <c r="G54" s="3">
-        <v>6535000</v>
+        <v>6998500</v>
       </c>
       <c r="H54" s="3">
-        <v>5972500</v>
+        <v>6459400</v>
       </c>
       <c r="I54" s="3">
-        <v>5704400</v>
+        <v>5903400</v>
       </c>
       <c r="J54" s="3">
+        <v>5638400</v>
+      </c>
+      <c r="K54" s="3">
         <v>5048300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4324800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4952700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4673100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>451500</v>
+        <v>503600</v>
       </c>
       <c r="E57" s="3">
-        <v>332100</v>
+        <v>446300</v>
       </c>
       <c r="F57" s="3">
-        <v>279700</v>
+        <v>328300</v>
       </c>
       <c r="G57" s="3">
-        <v>331800</v>
+        <v>276400</v>
       </c>
       <c r="H57" s="3">
-        <v>247400</v>
+        <v>327900</v>
       </c>
       <c r="I57" s="3">
-        <v>317900</v>
+        <v>244600</v>
       </c>
       <c r="J57" s="3">
+        <v>314200</v>
+      </c>
+      <c r="K57" s="3">
         <v>312800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>204400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>264300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>185400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>520300</v>
+        <v>539800</v>
       </c>
       <c r="E58" s="3">
-        <v>286400</v>
+        <v>514300</v>
       </c>
       <c r="F58" s="3">
-        <v>649900</v>
+        <v>283100</v>
       </c>
       <c r="G58" s="3">
-        <v>476200</v>
+        <v>642400</v>
       </c>
       <c r="H58" s="3">
-        <v>512700</v>
+        <v>470700</v>
       </c>
       <c r="I58" s="3">
-        <v>242900</v>
+        <v>506800</v>
       </c>
       <c r="J58" s="3">
+        <v>240100</v>
+      </c>
+      <c r="K58" s="3">
         <v>256000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>189900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>930700</v>
+        <v>510900</v>
       </c>
       <c r="E59" s="3">
-        <v>434900</v>
+        <v>919900</v>
       </c>
       <c r="F59" s="3">
-        <v>389800</v>
+        <v>429900</v>
       </c>
       <c r="G59" s="3">
-        <v>396000</v>
+        <v>385300</v>
       </c>
       <c r="H59" s="3">
-        <v>354400</v>
+        <v>391400</v>
       </c>
       <c r="I59" s="3">
-        <v>383000</v>
+        <v>350300</v>
       </c>
       <c r="J59" s="3">
+        <v>378500</v>
+      </c>
+      <c r="K59" s="3">
         <v>230400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>232200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>423100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>414300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1902500</v>
+        <v>1554300</v>
       </c>
       <c r="E60" s="3">
-        <v>1053400</v>
+        <v>1880500</v>
       </c>
       <c r="F60" s="3">
-        <v>1319300</v>
+        <v>1041200</v>
       </c>
       <c r="G60" s="3">
-        <v>1204000</v>
+        <v>1304100</v>
       </c>
       <c r="H60" s="3">
-        <v>1114600</v>
+        <v>1190100</v>
       </c>
       <c r="I60" s="3">
-        <v>943700</v>
+        <v>1101700</v>
       </c>
       <c r="J60" s="3">
+        <v>932800</v>
+      </c>
+      <c r="K60" s="3">
         <v>799200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>626500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>661700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>510500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1466900</v>
+        <v>1805100</v>
       </c>
       <c r="E61" s="3">
-        <v>2013000</v>
+        <v>1450000</v>
       </c>
       <c r="F61" s="3">
-        <v>1629200</v>
+        <v>1989700</v>
       </c>
       <c r="G61" s="3">
-        <v>1461000</v>
+        <v>1610300</v>
       </c>
       <c r="H61" s="3">
-        <v>1228700</v>
+        <v>1444100</v>
       </c>
       <c r="I61" s="3">
-        <v>1286500</v>
+        <v>1214500</v>
       </c>
       <c r="J61" s="3">
+        <v>1271600</v>
+      </c>
+      <c r="K61" s="3">
         <v>937100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>658200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>697700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>510500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1859400</v>
+        <v>1970200</v>
       </c>
       <c r="E62" s="3">
-        <v>1015500</v>
+        <v>1837900</v>
       </c>
       <c r="F62" s="3">
-        <v>912600</v>
+        <v>1003800</v>
       </c>
       <c r="G62" s="3">
-        <v>813500</v>
+        <v>902100</v>
       </c>
       <c r="H62" s="3">
-        <v>673900</v>
+        <v>804100</v>
       </c>
       <c r="I62" s="3">
-        <v>600200</v>
+        <v>666100</v>
       </c>
       <c r="J62" s="3">
+        <v>593200</v>
+      </c>
+      <c r="K62" s="3">
         <v>615800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>620800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>706600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>655700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5286200</v>
+        <v>5395500</v>
       </c>
       <c r="E66" s="3">
-        <v>4150100</v>
+        <v>5225100</v>
       </c>
       <c r="F66" s="3">
-        <v>3920900</v>
+        <v>4102100</v>
       </c>
       <c r="G66" s="3">
-        <v>3538100</v>
+        <v>3875600</v>
       </c>
       <c r="H66" s="3">
-        <v>3069100</v>
+        <v>3497200</v>
       </c>
       <c r="I66" s="3">
-        <v>2897200</v>
+        <v>3033600</v>
       </c>
       <c r="J66" s="3">
+        <v>2863600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2421400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1957400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2127700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1736900</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1438200</v>
+        <v>1800200</v>
       </c>
       <c r="E72" s="3">
-        <v>1154900</v>
+        <v>1421600</v>
       </c>
       <c r="F72" s="3">
-        <v>1445900</v>
+        <v>1141500</v>
       </c>
       <c r="G72" s="3">
-        <v>1261600</v>
+        <v>1429200</v>
       </c>
       <c r="H72" s="3">
-        <v>1147900</v>
+        <v>1247000</v>
       </c>
       <c r="I72" s="3">
-        <v>1213600</v>
+        <v>1134600</v>
       </c>
       <c r="J72" s="3">
+        <v>1199500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1025100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>846300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>912700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>837200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3933100</v>
+        <v>4253400</v>
       </c>
       <c r="E76" s="3">
-        <v>3399800</v>
+        <v>3887600</v>
       </c>
       <c r="F76" s="3">
-        <v>3159400</v>
+        <v>3360400</v>
       </c>
       <c r="G76" s="3">
-        <v>2996900</v>
+        <v>3122900</v>
       </c>
       <c r="H76" s="3">
-        <v>2903400</v>
+        <v>2962200</v>
       </c>
       <c r="I76" s="3">
-        <v>2807300</v>
+        <v>2869800</v>
       </c>
       <c r="J76" s="3">
+        <v>2774800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2626900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2367400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2825000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2936200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>769400</v>
+        <v>964700</v>
       </c>
       <c r="E81" s="3">
-        <v>392100</v>
+        <v>760500</v>
       </c>
       <c r="F81" s="3">
-        <v>277300</v>
+        <v>387600</v>
       </c>
       <c r="G81" s="3">
-        <v>203700</v>
+        <v>274100</v>
       </c>
       <c r="H81" s="3">
-        <v>163200</v>
+        <v>201300</v>
       </c>
       <c r="I81" s="3">
-        <v>235000</v>
+        <v>161300</v>
       </c>
       <c r="J81" s="3">
+        <v>232300</v>
+      </c>
+      <c r="K81" s="3">
         <v>237600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>163600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>287200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>199000</v>
+        <v>210900</v>
       </c>
       <c r="E83" s="3">
-        <v>215600</v>
+        <v>196700</v>
       </c>
       <c r="F83" s="3">
-        <v>147600</v>
+        <v>213100</v>
       </c>
       <c r="G83" s="3">
-        <v>144200</v>
+        <v>145900</v>
       </c>
       <c r="H83" s="3">
-        <v>139600</v>
+        <v>142500</v>
       </c>
       <c r="I83" s="3">
-        <v>133300</v>
+        <v>138000</v>
       </c>
       <c r="J83" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K83" s="3">
         <v>124100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>112900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>128400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>137000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>776600</v>
+        <v>659700</v>
       </c>
       <c r="E89" s="3">
-        <v>580300</v>
+        <v>767600</v>
       </c>
       <c r="F89" s="3">
-        <v>349000</v>
+        <v>573600</v>
       </c>
       <c r="G89" s="3">
-        <v>194900</v>
+        <v>344900</v>
       </c>
       <c r="H89" s="3">
-        <v>291000</v>
+        <v>192700</v>
       </c>
       <c r="I89" s="3">
-        <v>260300</v>
+        <v>287700</v>
       </c>
       <c r="J89" s="3">
+        <v>257300</v>
+      </c>
+      <c r="K89" s="3">
         <v>215100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>250300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>331400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>285000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44600</v>
+        <v>-65900</v>
       </c>
       <c r="E91" s="3">
-        <v>-107000</v>
+        <v>-44100</v>
       </c>
       <c r="F91" s="3">
-        <v>-293400</v>
+        <v>-105800</v>
       </c>
       <c r="G91" s="3">
-        <v>-237600</v>
+        <v>-290000</v>
       </c>
       <c r="H91" s="3">
-        <v>-253100</v>
+        <v>-234800</v>
       </c>
       <c r="I91" s="3">
-        <v>-148300</v>
+        <v>-250200</v>
       </c>
       <c r="J91" s="3">
+        <v>-146600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-176300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-78600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-204400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-407300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-328600</v>
+        <v>6200</v>
       </c>
       <c r="E94" s="3">
-        <v>-327800</v>
+        <v>-324800</v>
       </c>
       <c r="F94" s="3">
-        <v>-423500</v>
+        <v>-324000</v>
       </c>
       <c r="G94" s="3">
-        <v>-311600</v>
+        <v>-418600</v>
       </c>
       <c r="H94" s="3">
-        <v>-494800</v>
+        <v>-308000</v>
       </c>
       <c r="I94" s="3">
-        <v>-384600</v>
+        <v>-489100</v>
       </c>
       <c r="J94" s="3">
+        <v>-380100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-505000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-348800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-426800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-404300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-123400</v>
+        <v>-754600</v>
       </c>
       <c r="E96" s="3">
-        <v>-75000</v>
+        <v>-122000</v>
       </c>
       <c r="F96" s="3">
-        <v>-59300</v>
+        <v>-74100</v>
       </c>
       <c r="G96" s="3">
-        <v>-99800</v>
+        <v>-58600</v>
       </c>
       <c r="H96" s="3">
-        <v>-72700</v>
+        <v>-98600</v>
       </c>
       <c r="I96" s="3">
-        <v>-60600</v>
+        <v>-71900</v>
       </c>
       <c r="J96" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-131800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-110700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-52500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-99500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,45 +3910,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-338000</v>
+        <v>-561800</v>
       </c>
       <c r="E100" s="3">
-        <v>-56800</v>
+        <v>-334100</v>
       </c>
       <c r="F100" s="3">
-        <v>253500</v>
+        <v>-56100</v>
       </c>
       <c r="G100" s="3">
-        <v>128100</v>
+        <v>250600</v>
       </c>
       <c r="H100" s="3">
-        <v>105500</v>
+        <v>126600</v>
       </c>
       <c r="I100" s="3">
-        <v>270300</v>
+        <v>104300</v>
       </c>
       <c r="J100" s="3">
+        <v>267100</v>
+      </c>
+      <c r="K100" s="3">
         <v>92600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>151400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>191300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-65500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3740,43 +3988,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>110000</v>
+        <v>104100</v>
       </c>
       <c r="E102" s="3">
-        <v>195700</v>
+        <v>108700</v>
       </c>
       <c r="F102" s="3">
-        <v>179000</v>
+        <v>193500</v>
       </c>
       <c r="G102" s="3">
-        <v>11400</v>
+        <v>176900</v>
       </c>
       <c r="H102" s="3">
-        <v>-98300</v>
+        <v>11300</v>
       </c>
       <c r="I102" s="3">
-        <v>145900</v>
+        <v>-97100</v>
       </c>
       <c r="J102" s="3">
+        <v>144300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-197400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>52800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>95900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-184800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4671700</v>
+        <v>4693700</v>
       </c>
       <c r="E8" s="3">
-        <v>3629400</v>
+        <v>3646500</v>
       </c>
       <c r="F8" s="3">
-        <v>3091000</v>
+        <v>3105600</v>
       </c>
       <c r="G8" s="3">
-        <v>2909000</v>
+        <v>2922700</v>
       </c>
       <c r="H8" s="3">
-        <v>2731700</v>
+        <v>2744600</v>
       </c>
       <c r="I8" s="3">
-        <v>2552000</v>
+        <v>2564000</v>
       </c>
       <c r="J8" s="3">
-        <v>2911200</v>
+        <v>2924900</v>
       </c>
       <c r="K8" s="3">
         <v>2742800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3724100</v>
+        <v>3741700</v>
       </c>
       <c r="E9" s="3">
-        <v>2599900</v>
+        <v>2612200</v>
       </c>
       <c r="F9" s="3">
-        <v>2233000</v>
+        <v>2243500</v>
       </c>
       <c r="G9" s="3">
-        <v>2240300</v>
+        <v>2250900</v>
       </c>
       <c r="H9" s="3">
-        <v>2077500</v>
+        <v>2087300</v>
       </c>
       <c r="I9" s="3">
-        <v>1993400</v>
+        <v>2002800</v>
       </c>
       <c r="J9" s="3">
-        <v>2298300</v>
+        <v>2309100</v>
       </c>
       <c r="K9" s="3">
         <v>2224600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>947500</v>
+        <v>952000</v>
       </c>
       <c r="E10" s="3">
-        <v>1029500</v>
+        <v>1034400</v>
       </c>
       <c r="F10" s="3">
-        <v>858000</v>
+        <v>862100</v>
       </c>
       <c r="G10" s="3">
-        <v>668700</v>
+        <v>671900</v>
       </c>
       <c r="H10" s="3">
-        <v>654200</v>
+        <v>657300</v>
       </c>
       <c r="I10" s="3">
-        <v>558600</v>
+        <v>561200</v>
       </c>
       <c r="J10" s="3">
-        <v>612900</v>
+        <v>615800</v>
       </c>
       <c r="K10" s="3">
         <v>518200</v>
@@ -977,22 +977,22 @@
         <v>12900</v>
       </c>
       <c r="E15" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="F15" s="3">
         <v>11300</v>
       </c>
       <c r="G15" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H15" s="3">
         <v>8900</v>
       </c>
       <c r="I15" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="J15" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="K15" s="3">
         <v>7800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3610900</v>
+        <v>3627900</v>
       </c>
       <c r="E17" s="3">
-        <v>2800900</v>
+        <v>2814200</v>
       </c>
       <c r="F17" s="3">
-        <v>2447800</v>
+        <v>2459400</v>
       </c>
       <c r="G17" s="3">
-        <v>2442700</v>
+        <v>2454200</v>
       </c>
       <c r="H17" s="3">
-        <v>2313500</v>
+        <v>2324400</v>
       </c>
       <c r="I17" s="3">
-        <v>2153800</v>
+        <v>2164000</v>
       </c>
       <c r="J17" s="3">
-        <v>2497000</v>
+        <v>2508800</v>
       </c>
       <c r="K17" s="3">
         <v>2402500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1060800</v>
+        <v>1065800</v>
       </c>
       <c r="E18" s="3">
-        <v>828500</v>
+        <v>832400</v>
       </c>
       <c r="F18" s="3">
-        <v>643200</v>
+        <v>646300</v>
       </c>
       <c r="G18" s="3">
-        <v>466300</v>
+        <v>468500</v>
       </c>
       <c r="H18" s="3">
-        <v>418200</v>
+        <v>420200</v>
       </c>
       <c r="I18" s="3">
-        <v>398200</v>
+        <v>400000</v>
       </c>
       <c r="J18" s="3">
-        <v>414200</v>
+        <v>416100</v>
       </c>
       <c r="K18" s="3">
         <v>340300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>102900</v>
+        <v>103400</v>
       </c>
       <c r="E20" s="3">
-        <v>287100</v>
+        <v>288400</v>
       </c>
       <c r="F20" s="3">
-        <v>254300</v>
+        <v>255500</v>
       </c>
       <c r="G20" s="3">
-        <v>84400</v>
+        <v>84800</v>
       </c>
       <c r="H20" s="3">
-        <v>46700</v>
+        <v>46900</v>
       </c>
       <c r="I20" s="3">
-        <v>65900</v>
+        <v>66200</v>
       </c>
       <c r="J20" s="3">
-        <v>82400</v>
+        <v>82800</v>
       </c>
       <c r="K20" s="3">
         <v>98000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1374400</v>
+        <v>1381000</v>
       </c>
       <c r="E21" s="3">
-        <v>1312100</v>
+        <v>1318400</v>
       </c>
       <c r="F21" s="3">
-        <v>1110400</v>
+        <v>1115700</v>
       </c>
       <c r="G21" s="3">
-        <v>696500</v>
+        <v>699900</v>
       </c>
       <c r="H21" s="3">
-        <v>607300</v>
+        <v>610200</v>
       </c>
       <c r="I21" s="3">
-        <v>601900</v>
+        <v>604800</v>
       </c>
       <c r="J21" s="3">
-        <v>628200</v>
+        <v>631200</v>
       </c>
       <c r="K21" s="3">
         <v>564000</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>166700</v>
+        <v>167500</v>
       </c>
       <c r="E22" s="3">
-        <v>118300</v>
+        <v>118900</v>
       </c>
       <c r="F22" s="3">
-        <v>343000</v>
+        <v>344600</v>
       </c>
       <c r="G22" s="3">
-        <v>169700</v>
+        <v>170500</v>
       </c>
       <c r="H22" s="3">
-        <v>193600</v>
+        <v>194500</v>
       </c>
       <c r="I22" s="3">
-        <v>209000</v>
+        <v>210000</v>
       </c>
       <c r="J22" s="3">
-        <v>146400</v>
+        <v>147100</v>
       </c>
       <c r="K22" s="3">
         <v>72300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>997000</v>
+        <v>1001700</v>
       </c>
       <c r="E23" s="3">
-        <v>997200</v>
+        <v>1001900</v>
       </c>
       <c r="F23" s="3">
-        <v>554500</v>
+        <v>557100</v>
       </c>
       <c r="G23" s="3">
-        <v>381000</v>
+        <v>382800</v>
       </c>
       <c r="H23" s="3">
-        <v>271300</v>
+        <v>272600</v>
       </c>
       <c r="I23" s="3">
-        <v>255100</v>
+        <v>256300</v>
       </c>
       <c r="J23" s="3">
-        <v>350200</v>
+        <v>351800</v>
       </c>
       <c r="K23" s="3">
         <v>366100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>245400</v>
+        <v>246500</v>
       </c>
       <c r="E24" s="3">
-        <v>250400</v>
+        <v>251500</v>
       </c>
       <c r="F24" s="3">
-        <v>131600</v>
+        <v>132200</v>
       </c>
       <c r="G24" s="3">
-        <v>99700</v>
+        <v>100200</v>
       </c>
       <c r="H24" s="3">
-        <v>53500</v>
+        <v>53800</v>
       </c>
       <c r="I24" s="3">
-        <v>101200</v>
+        <v>101700</v>
       </c>
       <c r="J24" s="3">
-        <v>103700</v>
+        <v>104200</v>
       </c>
       <c r="K24" s="3">
         <v>102900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>751700</v>
+        <v>755200</v>
       </c>
       <c r="E26" s="3">
-        <v>746800</v>
+        <v>750300</v>
       </c>
       <c r="F26" s="3">
-        <v>422900</v>
+        <v>424900</v>
       </c>
       <c r="G26" s="3">
-        <v>281300</v>
+        <v>282600</v>
       </c>
       <c r="H26" s="3">
-        <v>217800</v>
+        <v>218800</v>
       </c>
       <c r="I26" s="3">
-        <v>153800</v>
+        <v>154600</v>
       </c>
       <c r="J26" s="3">
-        <v>246500</v>
+        <v>247700</v>
       </c>
       <c r="K26" s="3">
         <v>263200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>733000</v>
+        <v>736400</v>
       </c>
       <c r="E27" s="3">
-        <v>745700</v>
+        <v>749300</v>
       </c>
       <c r="F27" s="3">
-        <v>408700</v>
+        <v>410600</v>
       </c>
       <c r="G27" s="3">
-        <v>274100</v>
+        <v>275400</v>
       </c>
       <c r="H27" s="3">
-        <v>201300</v>
+        <v>202300</v>
       </c>
       <c r="I27" s="3">
-        <v>161300</v>
+        <v>162000</v>
       </c>
       <c r="J27" s="3">
-        <v>232300</v>
+        <v>233400</v>
       </c>
       <c r="K27" s="3">
         <v>237600</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>231700</v>
+        <v>232800</v>
       </c>
       <c r="E29" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="F29" s="3">
-        <v>-21100</v>
+        <v>-21200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102900</v>
+        <v>-103400</v>
       </c>
       <c r="E32" s="3">
-        <v>-287100</v>
+        <v>-288400</v>
       </c>
       <c r="F32" s="3">
-        <v>-254300</v>
+        <v>-255500</v>
       </c>
       <c r="G32" s="3">
-        <v>-84400</v>
+        <v>-84800</v>
       </c>
       <c r="H32" s="3">
-        <v>-46700</v>
+        <v>-46900</v>
       </c>
       <c r="I32" s="3">
-        <v>-65900</v>
+        <v>-66200</v>
       </c>
       <c r="J32" s="3">
-        <v>-82400</v>
+        <v>-82800</v>
       </c>
       <c r="K32" s="3">
         <v>-98000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>964700</v>
+        <v>969200</v>
       </c>
       <c r="E33" s="3">
-        <v>760500</v>
+        <v>764100</v>
       </c>
       <c r="F33" s="3">
-        <v>387600</v>
+        <v>389400</v>
       </c>
       <c r="G33" s="3">
-        <v>274100</v>
+        <v>275400</v>
       </c>
       <c r="H33" s="3">
-        <v>201300</v>
+        <v>202300</v>
       </c>
       <c r="I33" s="3">
-        <v>161300</v>
+        <v>162000</v>
       </c>
       <c r="J33" s="3">
-        <v>232300</v>
+        <v>233400</v>
       </c>
       <c r="K33" s="3">
         <v>237600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>964700</v>
+        <v>969200</v>
       </c>
       <c r="E35" s="3">
-        <v>760500</v>
+        <v>764100</v>
       </c>
       <c r="F35" s="3">
-        <v>387600</v>
+        <v>389400</v>
       </c>
       <c r="G35" s="3">
-        <v>274100</v>
+        <v>275400</v>
       </c>
       <c r="H35" s="3">
-        <v>201300</v>
+        <v>202300</v>
       </c>
       <c r="I35" s="3">
-        <v>161300</v>
+        <v>162000</v>
       </c>
       <c r="J35" s="3">
-        <v>232300</v>
+        <v>233400</v>
       </c>
       <c r="K35" s="3">
         <v>237600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>676400</v>
+        <v>679600</v>
       </c>
       <c r="E41" s="3">
-        <v>627700</v>
+        <v>630700</v>
       </c>
       <c r="F41" s="3">
-        <v>573000</v>
+        <v>575700</v>
       </c>
       <c r="G41" s="3">
-        <v>379500</v>
+        <v>381300</v>
       </c>
       <c r="H41" s="3">
-        <v>202600</v>
+        <v>203500</v>
       </c>
       <c r="I41" s="3">
-        <v>191300</v>
+        <v>192200</v>
       </c>
       <c r="J41" s="3">
-        <v>288400</v>
+        <v>289800</v>
       </c>
       <c r="K41" s="3">
         <v>145900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77900</v>
+        <v>78300</v>
       </c>
       <c r="E42" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="F42" s="3">
-        <v>69900</v>
+        <v>70200</v>
       </c>
       <c r="G42" s="3">
-        <v>106400</v>
+        <v>106900</v>
       </c>
       <c r="H42" s="3">
-        <v>33700</v>
+        <v>33800</v>
       </c>
       <c r="I42" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="J42" s="3">
-        <v>256500</v>
+        <v>257700</v>
       </c>
       <c r="K42" s="3">
         <v>210500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1376200</v>
+        <v>1382700</v>
       </c>
       <c r="E43" s="3">
-        <v>1281500</v>
+        <v>1287600</v>
       </c>
       <c r="F43" s="3">
-        <v>865700</v>
+        <v>869800</v>
       </c>
       <c r="G43" s="3">
-        <v>772000</v>
+        <v>775600</v>
       </c>
       <c r="H43" s="3">
-        <v>819000</v>
+        <v>822900</v>
       </c>
       <c r="I43" s="3">
-        <v>623500</v>
+        <v>626400</v>
       </c>
       <c r="J43" s="3">
-        <v>770000</v>
+        <v>773700</v>
       </c>
       <c r="K43" s="3">
         <v>635600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E44" s="3">
-        <v>31700</v>
+        <v>31900</v>
       </c>
       <c r="F44" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="G44" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="H44" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="I44" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="J44" s="3">
-        <v>25500</v>
+        <v>25600</v>
       </c>
       <c r="K44" s="3">
         <v>29700</v>
@@ -1983,19 +1983,19 @@
         <v>10500</v>
       </c>
       <c r="E45" s="3">
-        <v>246900</v>
+        <v>248100</v>
       </c>
       <c r="F45" s="3">
         <v>6600</v>
       </c>
       <c r="G45" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="H45" s="3">
-        <v>33800</v>
+        <v>33900</v>
       </c>
       <c r="I45" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J45" s="3">
         <v>10000</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2179600</v>
+        <v>2189900</v>
       </c>
       <c r="E46" s="3">
-        <v>2221900</v>
+        <v>2232400</v>
       </c>
       <c r="F46" s="3">
-        <v>1540600</v>
+        <v>1547800</v>
       </c>
       <c r="G46" s="3">
-        <v>1300700</v>
+        <v>1306900</v>
       </c>
       <c r="H46" s="3">
-        <v>1110600</v>
+        <v>1115800</v>
       </c>
       <c r="I46" s="3">
-        <v>825300</v>
+        <v>829200</v>
       </c>
       <c r="J46" s="3">
-        <v>1350500</v>
+        <v>1356900</v>
       </c>
       <c r="K46" s="3">
         <v>1028300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3328300</v>
+        <v>3344100</v>
       </c>
       <c r="E47" s="3">
-        <v>3097500</v>
+        <v>3112200</v>
       </c>
       <c r="F47" s="3">
-        <v>2072300</v>
+        <v>2082000</v>
       </c>
       <c r="G47" s="3">
-        <v>1850200</v>
+        <v>1858900</v>
       </c>
       <c r="H47" s="3">
-        <v>1656500</v>
+        <v>1664400</v>
       </c>
       <c r="I47" s="3">
-        <v>1476800</v>
+        <v>1483800</v>
       </c>
       <c r="J47" s="3">
-        <v>883500</v>
+        <v>887700</v>
       </c>
       <c r="K47" s="3">
         <v>1448900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2015400</v>
+        <v>2024900</v>
       </c>
       <c r="E48" s="3">
-        <v>1875500</v>
+        <v>1884400</v>
       </c>
       <c r="F48" s="3">
-        <v>2081400</v>
+        <v>2091200</v>
       </c>
       <c r="G48" s="3">
-        <v>2111800</v>
+        <v>2121800</v>
       </c>
       <c r="H48" s="3">
-        <v>1914800</v>
+        <v>1923900</v>
       </c>
       <c r="I48" s="3">
-        <v>1740500</v>
+        <v>1748700</v>
       </c>
       <c r="J48" s="3">
-        <v>1693200</v>
+        <v>1701200</v>
       </c>
       <c r="K48" s="3">
         <v>1636400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1795000</v>
+        <v>1803500</v>
       </c>
       <c r="E49" s="3">
-        <v>1349700</v>
+        <v>1356100</v>
       </c>
       <c r="F49" s="3">
-        <v>1233500</v>
+        <v>1239300</v>
       </c>
       <c r="G49" s="3">
-        <v>1174300</v>
+        <v>1179900</v>
       </c>
       <c r="H49" s="3">
-        <v>1256900</v>
+        <v>1262800</v>
       </c>
       <c r="I49" s="3">
-        <v>1258200</v>
+        <v>1264200</v>
       </c>
       <c r="J49" s="3">
-        <v>1196900</v>
+        <v>1202600</v>
       </c>
       <c r="K49" s="3">
         <v>428400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>330600</v>
+        <v>332100</v>
       </c>
       <c r="E52" s="3">
-        <v>568000</v>
+        <v>570700</v>
       </c>
       <c r="F52" s="3">
-        <v>534900</v>
+        <v>537400</v>
       </c>
       <c r="G52" s="3">
-        <v>561400</v>
+        <v>564100</v>
       </c>
       <c r="H52" s="3">
-        <v>571800</v>
+        <v>574500</v>
       </c>
       <c r="I52" s="3">
-        <v>602500</v>
+        <v>605400</v>
       </c>
       <c r="J52" s="3">
-        <v>514400</v>
+        <v>516800</v>
       </c>
       <c r="K52" s="3">
         <v>506200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9648900</v>
+        <v>9694500</v>
       </c>
       <c r="E54" s="3">
-        <v>9112700</v>
+        <v>9155800</v>
       </c>
       <c r="F54" s="3">
-        <v>7462500</v>
+        <v>7497800</v>
       </c>
       <c r="G54" s="3">
-        <v>6998500</v>
+        <v>7031500</v>
       </c>
       <c r="H54" s="3">
-        <v>6459400</v>
+        <v>6489900</v>
       </c>
       <c r="I54" s="3">
-        <v>5903400</v>
+        <v>5931300</v>
       </c>
       <c r="J54" s="3">
-        <v>5638400</v>
+        <v>5665100</v>
       </c>
       <c r="K54" s="3">
         <v>5048300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>503600</v>
+        <v>506000</v>
       </c>
       <c r="E57" s="3">
-        <v>446300</v>
+        <v>448400</v>
       </c>
       <c r="F57" s="3">
-        <v>328300</v>
+        <v>329800</v>
       </c>
       <c r="G57" s="3">
-        <v>276400</v>
+        <v>277700</v>
       </c>
       <c r="H57" s="3">
-        <v>327900</v>
+        <v>329500</v>
       </c>
       <c r="I57" s="3">
-        <v>244600</v>
+        <v>245700</v>
       </c>
       <c r="J57" s="3">
-        <v>314200</v>
+        <v>315700</v>
       </c>
       <c r="K57" s="3">
         <v>312800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>539800</v>
+        <v>542400</v>
       </c>
       <c r="E58" s="3">
-        <v>514300</v>
+        <v>516700</v>
       </c>
       <c r="F58" s="3">
-        <v>283100</v>
+        <v>284400</v>
       </c>
       <c r="G58" s="3">
-        <v>642400</v>
+        <v>645400</v>
       </c>
       <c r="H58" s="3">
-        <v>470700</v>
+        <v>473000</v>
       </c>
       <c r="I58" s="3">
-        <v>506800</v>
+        <v>509200</v>
       </c>
       <c r="J58" s="3">
-        <v>240100</v>
+        <v>241200</v>
       </c>
       <c r="K58" s="3">
         <v>256000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>510900</v>
+        <v>513300</v>
       </c>
       <c r="E59" s="3">
-        <v>919900</v>
+        <v>924300</v>
       </c>
       <c r="F59" s="3">
-        <v>429900</v>
+        <v>431900</v>
       </c>
       <c r="G59" s="3">
-        <v>385300</v>
+        <v>387100</v>
       </c>
       <c r="H59" s="3">
-        <v>391400</v>
+        <v>393300</v>
       </c>
       <c r="I59" s="3">
-        <v>350300</v>
+        <v>352000</v>
       </c>
       <c r="J59" s="3">
-        <v>378500</v>
+        <v>380300</v>
       </c>
       <c r="K59" s="3">
         <v>230400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1554300</v>
+        <v>1561700</v>
       </c>
       <c r="E60" s="3">
-        <v>1880500</v>
+        <v>1889400</v>
       </c>
       <c r="F60" s="3">
-        <v>1041200</v>
+        <v>1046100</v>
       </c>
       <c r="G60" s="3">
-        <v>1304100</v>
+        <v>1310200</v>
       </c>
       <c r="H60" s="3">
-        <v>1190100</v>
+        <v>1195700</v>
       </c>
       <c r="I60" s="3">
-        <v>1101700</v>
+        <v>1106900</v>
       </c>
       <c r="J60" s="3">
-        <v>932800</v>
+        <v>937200</v>
       </c>
       <c r="K60" s="3">
         <v>799200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1805100</v>
+        <v>1813600</v>
       </c>
       <c r="E61" s="3">
-        <v>1450000</v>
+        <v>1456800</v>
       </c>
       <c r="F61" s="3">
-        <v>1989700</v>
+        <v>1999100</v>
       </c>
       <c r="G61" s="3">
-        <v>1610300</v>
+        <v>1618000</v>
       </c>
       <c r="H61" s="3">
-        <v>1444100</v>
+        <v>1450900</v>
       </c>
       <c r="I61" s="3">
-        <v>1214500</v>
+        <v>1220200</v>
       </c>
       <c r="J61" s="3">
-        <v>1271600</v>
+        <v>1277600</v>
       </c>
       <c r="K61" s="3">
         <v>937100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1970200</v>
+        <v>1979500</v>
       </c>
       <c r="E62" s="3">
-        <v>1837900</v>
+        <v>1846600</v>
       </c>
       <c r="F62" s="3">
-        <v>1003800</v>
+        <v>1008500</v>
       </c>
       <c r="G62" s="3">
-        <v>902100</v>
+        <v>906300</v>
       </c>
       <c r="H62" s="3">
-        <v>804100</v>
+        <v>807900</v>
       </c>
       <c r="I62" s="3">
-        <v>666100</v>
+        <v>669200</v>
       </c>
       <c r="J62" s="3">
-        <v>593200</v>
+        <v>596000</v>
       </c>
       <c r="K62" s="3">
         <v>615800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5395500</v>
+        <v>5421000</v>
       </c>
       <c r="E66" s="3">
-        <v>5225100</v>
+        <v>5249800</v>
       </c>
       <c r="F66" s="3">
-        <v>4102100</v>
+        <v>4121500</v>
       </c>
       <c r="G66" s="3">
-        <v>3875600</v>
+        <v>3893900</v>
       </c>
       <c r="H66" s="3">
-        <v>3497200</v>
+        <v>3513700</v>
       </c>
       <c r="I66" s="3">
-        <v>3033600</v>
+        <v>3048000</v>
       </c>
       <c r="J66" s="3">
-        <v>2863600</v>
+        <v>2877200</v>
       </c>
       <c r="K66" s="3">
         <v>2421400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1800200</v>
+        <v>1808700</v>
       </c>
       <c r="E72" s="3">
-        <v>1421600</v>
+        <v>1428300</v>
       </c>
       <c r="F72" s="3">
-        <v>1141500</v>
+        <v>1146900</v>
       </c>
       <c r="G72" s="3">
-        <v>1429200</v>
+        <v>1435900</v>
       </c>
       <c r="H72" s="3">
-        <v>1247000</v>
+        <v>1252900</v>
       </c>
       <c r="I72" s="3">
-        <v>1134600</v>
+        <v>1140000</v>
       </c>
       <c r="J72" s="3">
-        <v>1199500</v>
+        <v>1205200</v>
       </c>
       <c r="K72" s="3">
         <v>1025100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4253400</v>
+        <v>4273500</v>
       </c>
       <c r="E76" s="3">
-        <v>3887600</v>
+        <v>3906000</v>
       </c>
       <c r="F76" s="3">
-        <v>3360400</v>
+        <v>3376300</v>
       </c>
       <c r="G76" s="3">
-        <v>3122900</v>
+        <v>3137600</v>
       </c>
       <c r="H76" s="3">
-        <v>2962200</v>
+        <v>2976200</v>
       </c>
       <c r="I76" s="3">
-        <v>2869800</v>
+        <v>2883300</v>
       </c>
       <c r="J76" s="3">
-        <v>2774800</v>
+        <v>2787900</v>
       </c>
       <c r="K76" s="3">
         <v>2626900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>964700</v>
+        <v>969200</v>
       </c>
       <c r="E81" s="3">
-        <v>760500</v>
+        <v>764100</v>
       </c>
       <c r="F81" s="3">
-        <v>387600</v>
+        <v>389400</v>
       </c>
       <c r="G81" s="3">
-        <v>274100</v>
+        <v>275400</v>
       </c>
       <c r="H81" s="3">
-        <v>201300</v>
+        <v>202300</v>
       </c>
       <c r="I81" s="3">
-        <v>161300</v>
+        <v>162000</v>
       </c>
       <c r="J81" s="3">
-        <v>232300</v>
+        <v>233400</v>
       </c>
       <c r="K81" s="3">
         <v>237600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>210900</v>
+        <v>211900</v>
       </c>
       <c r="E83" s="3">
-        <v>196700</v>
+        <v>197600</v>
       </c>
       <c r="F83" s="3">
-        <v>213100</v>
+        <v>214100</v>
       </c>
       <c r="G83" s="3">
-        <v>145900</v>
+        <v>146600</v>
       </c>
       <c r="H83" s="3">
-        <v>142500</v>
+        <v>143200</v>
       </c>
       <c r="I83" s="3">
-        <v>138000</v>
+        <v>138600</v>
       </c>
       <c r="J83" s="3">
-        <v>131800</v>
+        <v>132400</v>
       </c>
       <c r="K83" s="3">
         <v>124100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>659700</v>
+        <v>662800</v>
       </c>
       <c r="E89" s="3">
-        <v>767600</v>
+        <v>771200</v>
       </c>
       <c r="F89" s="3">
-        <v>573600</v>
+        <v>576300</v>
       </c>
       <c r="G89" s="3">
-        <v>344900</v>
+        <v>346600</v>
       </c>
       <c r="H89" s="3">
-        <v>192700</v>
+        <v>193600</v>
       </c>
       <c r="I89" s="3">
-        <v>287700</v>
+        <v>289000</v>
       </c>
       <c r="J89" s="3">
-        <v>257300</v>
+        <v>258500</v>
       </c>
       <c r="K89" s="3">
         <v>215100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65900</v>
+        <v>-66200</v>
       </c>
       <c r="E91" s="3">
-        <v>-44100</v>
+        <v>-44300</v>
       </c>
       <c r="F91" s="3">
-        <v>-105800</v>
+        <v>-106300</v>
       </c>
       <c r="G91" s="3">
-        <v>-290000</v>
+        <v>-291400</v>
       </c>
       <c r="H91" s="3">
-        <v>-234800</v>
+        <v>-235900</v>
       </c>
       <c r="I91" s="3">
-        <v>-250200</v>
+        <v>-251400</v>
       </c>
       <c r="J91" s="3">
-        <v>-146600</v>
+        <v>-147300</v>
       </c>
       <c r="K91" s="3">
         <v>-176300</v>
@@ -3711,22 +3711,22 @@
         <v>6200</v>
       </c>
       <c r="E94" s="3">
-        <v>-324800</v>
+        <v>-326300</v>
       </c>
       <c r="F94" s="3">
-        <v>-324000</v>
+        <v>-325600</v>
       </c>
       <c r="G94" s="3">
-        <v>-418600</v>
+        <v>-420600</v>
       </c>
       <c r="H94" s="3">
-        <v>-308000</v>
+        <v>-309400</v>
       </c>
       <c r="I94" s="3">
-        <v>-489100</v>
+        <v>-491400</v>
       </c>
       <c r="J94" s="3">
-        <v>-380100</v>
+        <v>-381900</v>
       </c>
       <c r="K94" s="3">
         <v>-505000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-754600</v>
+        <v>-758200</v>
       </c>
       <c r="E96" s="3">
-        <v>-122000</v>
+        <v>-122600</v>
       </c>
       <c r="F96" s="3">
-        <v>-74100</v>
+        <v>-74400</v>
       </c>
       <c r="G96" s="3">
-        <v>-58600</v>
+        <v>-58900</v>
       </c>
       <c r="H96" s="3">
-        <v>-98600</v>
+        <v>-99100</v>
       </c>
       <c r="I96" s="3">
-        <v>-71900</v>
+        <v>-72200</v>
       </c>
       <c r="J96" s="3">
-        <v>-59900</v>
+        <v>-60200</v>
       </c>
       <c r="K96" s="3">
         <v>-131800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-561800</v>
+        <v>-564500</v>
       </c>
       <c r="E100" s="3">
-        <v>-334100</v>
+        <v>-335600</v>
       </c>
       <c r="F100" s="3">
-        <v>-56100</v>
+        <v>-56400</v>
       </c>
       <c r="G100" s="3">
-        <v>250600</v>
+        <v>251800</v>
       </c>
       <c r="H100" s="3">
-        <v>126600</v>
+        <v>127200</v>
       </c>
       <c r="I100" s="3">
-        <v>104300</v>
+        <v>104800</v>
       </c>
       <c r="J100" s="3">
-        <v>267100</v>
+        <v>268400</v>
       </c>
       <c r="K100" s="3">
         <v>92600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>104100</v>
+        <v>104600</v>
       </c>
       <c r="E102" s="3">
-        <v>108700</v>
+        <v>109200</v>
       </c>
       <c r="F102" s="3">
-        <v>193500</v>
+        <v>194400</v>
       </c>
       <c r="G102" s="3">
-        <v>176900</v>
+        <v>177800</v>
       </c>
       <c r="H102" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="I102" s="3">
-        <v>-97100</v>
+        <v>-97600</v>
       </c>
       <c r="J102" s="3">
-        <v>144300</v>
+        <v>144900</v>
       </c>
       <c r="K102" s="3">
         <v>-197400</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4693700</v>
+        <v>4487200</v>
       </c>
       <c r="E8" s="3">
-        <v>3646500</v>
+        <v>3486100</v>
       </c>
       <c r="F8" s="3">
-        <v>3105600</v>
+        <v>2969000</v>
       </c>
       <c r="G8" s="3">
-        <v>2922700</v>
+        <v>2794100</v>
       </c>
       <c r="H8" s="3">
-        <v>2744600</v>
+        <v>2623900</v>
       </c>
       <c r="I8" s="3">
-        <v>2564000</v>
+        <v>2451200</v>
       </c>
       <c r="J8" s="3">
-        <v>2924900</v>
+        <v>2796200</v>
       </c>
       <c r="K8" s="3">
         <v>2742800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3741700</v>
+        <v>3577100</v>
       </c>
       <c r="E9" s="3">
-        <v>2612200</v>
+        <v>2497200</v>
       </c>
       <c r="F9" s="3">
-        <v>2243500</v>
+        <v>2144800</v>
       </c>
       <c r="G9" s="3">
-        <v>2250900</v>
+        <v>2151900</v>
       </c>
       <c r="H9" s="3">
-        <v>2087300</v>
+        <v>1995500</v>
       </c>
       <c r="I9" s="3">
-        <v>2002800</v>
+        <v>1914700</v>
       </c>
       <c r="J9" s="3">
-        <v>2309100</v>
+        <v>2207500</v>
       </c>
       <c r="K9" s="3">
         <v>2224600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>952000</v>
+        <v>910100</v>
       </c>
       <c r="E10" s="3">
-        <v>1034400</v>
+        <v>988900</v>
       </c>
       <c r="F10" s="3">
-        <v>862100</v>
+        <v>824100</v>
       </c>
       <c r="G10" s="3">
-        <v>671900</v>
+        <v>642300</v>
       </c>
       <c r="H10" s="3">
-        <v>657300</v>
+        <v>628400</v>
       </c>
       <c r="I10" s="3">
-        <v>561200</v>
+        <v>536500</v>
       </c>
       <c r="J10" s="3">
-        <v>615800</v>
+        <v>588700</v>
       </c>
       <c r="K10" s="3">
         <v>518200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="E15" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="F15" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="G15" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="H15" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="I15" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="J15" s="3">
-        <v>14900</v>
+        <v>14300</v>
       </c>
       <c r="K15" s="3">
         <v>7800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3627900</v>
+        <v>3468300</v>
       </c>
       <c r="E17" s="3">
-        <v>2814200</v>
+        <v>2690400</v>
       </c>
       <c r="F17" s="3">
-        <v>2459400</v>
+        <v>2351200</v>
       </c>
       <c r="G17" s="3">
-        <v>2454200</v>
+        <v>2346200</v>
       </c>
       <c r="H17" s="3">
-        <v>2324400</v>
+        <v>2222100</v>
       </c>
       <c r="I17" s="3">
-        <v>2164000</v>
+        <v>2068800</v>
       </c>
       <c r="J17" s="3">
-        <v>2508800</v>
+        <v>2398400</v>
       </c>
       <c r="K17" s="3">
         <v>2402500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1065800</v>
+        <v>1018900</v>
       </c>
       <c r="E18" s="3">
-        <v>832400</v>
+        <v>795700</v>
       </c>
       <c r="F18" s="3">
-        <v>646300</v>
+        <v>617800</v>
       </c>
       <c r="G18" s="3">
-        <v>468500</v>
+        <v>447900</v>
       </c>
       <c r="H18" s="3">
-        <v>420200</v>
+        <v>401700</v>
       </c>
       <c r="I18" s="3">
-        <v>400000</v>
+        <v>382400</v>
       </c>
       <c r="J18" s="3">
-        <v>416100</v>
+        <v>397800</v>
       </c>
       <c r="K18" s="3">
         <v>340300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>103400</v>
+        <v>98900</v>
       </c>
       <c r="E20" s="3">
-        <v>288400</v>
+        <v>275700</v>
       </c>
       <c r="F20" s="3">
-        <v>255500</v>
+        <v>244200</v>
       </c>
       <c r="G20" s="3">
-        <v>84800</v>
+        <v>81100</v>
       </c>
       <c r="H20" s="3">
-        <v>46900</v>
+        <v>44900</v>
       </c>
       <c r="I20" s="3">
-        <v>66200</v>
+        <v>63300</v>
       </c>
       <c r="J20" s="3">
-        <v>82800</v>
+        <v>79100</v>
       </c>
       <c r="K20" s="3">
         <v>98000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1381000</v>
+        <v>1326500</v>
       </c>
       <c r="E21" s="3">
-        <v>1318400</v>
+        <v>1266200</v>
       </c>
       <c r="F21" s="3">
-        <v>1115700</v>
+        <v>1073000</v>
       </c>
       <c r="G21" s="3">
-        <v>699900</v>
+        <v>673400</v>
       </c>
       <c r="H21" s="3">
-        <v>610200</v>
+        <v>587600</v>
       </c>
       <c r="I21" s="3">
-        <v>604800</v>
+        <v>582300</v>
       </c>
       <c r="J21" s="3">
-        <v>631200</v>
+        <v>607400</v>
       </c>
       <c r="K21" s="3">
         <v>564000</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>167500</v>
+        <v>160100</v>
       </c>
       <c r="E22" s="3">
-        <v>118900</v>
+        <v>113700</v>
       </c>
       <c r="F22" s="3">
-        <v>344600</v>
+        <v>329400</v>
       </c>
       <c r="G22" s="3">
-        <v>170500</v>
+        <v>163000</v>
       </c>
       <c r="H22" s="3">
-        <v>194500</v>
+        <v>186000</v>
       </c>
       <c r="I22" s="3">
-        <v>210000</v>
+        <v>200700</v>
       </c>
       <c r="J22" s="3">
-        <v>147100</v>
+        <v>140600</v>
       </c>
       <c r="K22" s="3">
         <v>72300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1001700</v>
+        <v>957700</v>
       </c>
       <c r="E23" s="3">
-        <v>1001900</v>
+        <v>957800</v>
       </c>
       <c r="F23" s="3">
-        <v>557100</v>
+        <v>532600</v>
       </c>
       <c r="G23" s="3">
-        <v>382800</v>
+        <v>365900</v>
       </c>
       <c r="H23" s="3">
-        <v>272600</v>
+        <v>260600</v>
       </c>
       <c r="I23" s="3">
-        <v>256300</v>
+        <v>245000</v>
       </c>
       <c r="J23" s="3">
-        <v>351800</v>
+        <v>336300</v>
       </c>
       <c r="K23" s="3">
         <v>366100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>246500</v>
+        <v>235700</v>
       </c>
       <c r="E24" s="3">
-        <v>251500</v>
+        <v>240500</v>
       </c>
       <c r="F24" s="3">
-        <v>132200</v>
+        <v>126400</v>
       </c>
       <c r="G24" s="3">
-        <v>100200</v>
+        <v>95800</v>
       </c>
       <c r="H24" s="3">
-        <v>53800</v>
+        <v>51400</v>
       </c>
       <c r="I24" s="3">
-        <v>101700</v>
+        <v>97200</v>
       </c>
       <c r="J24" s="3">
-        <v>104200</v>
+        <v>99600</v>
       </c>
       <c r="K24" s="3">
         <v>102900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>755200</v>
+        <v>722000</v>
       </c>
       <c r="E26" s="3">
-        <v>750300</v>
+        <v>717300</v>
       </c>
       <c r="F26" s="3">
-        <v>424900</v>
+        <v>406200</v>
       </c>
       <c r="G26" s="3">
-        <v>282600</v>
+        <v>270200</v>
       </c>
       <c r="H26" s="3">
-        <v>218800</v>
+        <v>209200</v>
       </c>
       <c r="I26" s="3">
-        <v>154600</v>
+        <v>147800</v>
       </c>
       <c r="J26" s="3">
-        <v>247700</v>
+        <v>236800</v>
       </c>
       <c r="K26" s="3">
         <v>263200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>736400</v>
+        <v>704000</v>
       </c>
       <c r="E27" s="3">
-        <v>749300</v>
+        <v>716300</v>
       </c>
       <c r="F27" s="3">
-        <v>410600</v>
+        <v>392600</v>
       </c>
       <c r="G27" s="3">
-        <v>275400</v>
+        <v>263200</v>
       </c>
       <c r="H27" s="3">
-        <v>202300</v>
+        <v>193400</v>
       </c>
       <c r="I27" s="3">
-        <v>162000</v>
+        <v>154900</v>
       </c>
       <c r="J27" s="3">
-        <v>233400</v>
+        <v>223100</v>
       </c>
       <c r="K27" s="3">
         <v>237600</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>232800</v>
+        <v>222600</v>
       </c>
       <c r="E29" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="F29" s="3">
-        <v>-21200</v>
+        <v>-20300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-103400</v>
+        <v>-98900</v>
       </c>
       <c r="E32" s="3">
-        <v>-288400</v>
+        <v>-275700</v>
       </c>
       <c r="F32" s="3">
-        <v>-255500</v>
+        <v>-244200</v>
       </c>
       <c r="G32" s="3">
-        <v>-84800</v>
+        <v>-81100</v>
       </c>
       <c r="H32" s="3">
-        <v>-46900</v>
+        <v>-44900</v>
       </c>
       <c r="I32" s="3">
-        <v>-66200</v>
+        <v>-63300</v>
       </c>
       <c r="J32" s="3">
-        <v>-82800</v>
+        <v>-79100</v>
       </c>
       <c r="K32" s="3">
         <v>-98000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>969200</v>
+        <v>926600</v>
       </c>
       <c r="E33" s="3">
-        <v>764100</v>
+        <v>730400</v>
       </c>
       <c r="F33" s="3">
-        <v>389400</v>
+        <v>372300</v>
       </c>
       <c r="G33" s="3">
-        <v>275400</v>
+        <v>263200</v>
       </c>
       <c r="H33" s="3">
-        <v>202300</v>
+        <v>193400</v>
       </c>
       <c r="I33" s="3">
-        <v>162000</v>
+        <v>154900</v>
       </c>
       <c r="J33" s="3">
-        <v>233400</v>
+        <v>223100</v>
       </c>
       <c r="K33" s="3">
         <v>237600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>969200</v>
+        <v>926600</v>
       </c>
       <c r="E35" s="3">
-        <v>764100</v>
+        <v>730400</v>
       </c>
       <c r="F35" s="3">
-        <v>389400</v>
+        <v>372300</v>
       </c>
       <c r="G35" s="3">
-        <v>275400</v>
+        <v>263200</v>
       </c>
       <c r="H35" s="3">
-        <v>202300</v>
+        <v>193400</v>
       </c>
       <c r="I35" s="3">
-        <v>162000</v>
+        <v>154900</v>
       </c>
       <c r="J35" s="3">
-        <v>233400</v>
+        <v>223100</v>
       </c>
       <c r="K35" s="3">
         <v>237600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>679600</v>
+        <v>649700</v>
       </c>
       <c r="E41" s="3">
-        <v>630700</v>
+        <v>602900</v>
       </c>
       <c r="F41" s="3">
-        <v>575700</v>
+        <v>550400</v>
       </c>
       <c r="G41" s="3">
-        <v>381300</v>
+        <v>364500</v>
       </c>
       <c r="H41" s="3">
-        <v>203500</v>
+        <v>194600</v>
       </c>
       <c r="I41" s="3">
-        <v>192200</v>
+        <v>183700</v>
       </c>
       <c r="J41" s="3">
-        <v>289800</v>
+        <v>277000</v>
       </c>
       <c r="K41" s="3">
         <v>145900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>78300</v>
+        <v>74800</v>
       </c>
       <c r="E42" s="3">
-        <v>34200</v>
+        <v>32700</v>
       </c>
       <c r="F42" s="3">
-        <v>70200</v>
+        <v>67100</v>
       </c>
       <c r="G42" s="3">
-        <v>106900</v>
+        <v>102200</v>
       </c>
       <c r="H42" s="3">
-        <v>33800</v>
+        <v>32400</v>
       </c>
       <c r="I42" s="3">
-        <v>26700</v>
+        <v>25600</v>
       </c>
       <c r="J42" s="3">
-        <v>257700</v>
+        <v>246400</v>
       </c>
       <c r="K42" s="3">
         <v>210500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1382700</v>
+        <v>1321900</v>
       </c>
       <c r="E43" s="3">
-        <v>1287600</v>
+        <v>1230900</v>
       </c>
       <c r="F43" s="3">
-        <v>869800</v>
+        <v>831500</v>
       </c>
       <c r="G43" s="3">
-        <v>775600</v>
+        <v>741500</v>
       </c>
       <c r="H43" s="3">
-        <v>822900</v>
+        <v>786700</v>
       </c>
       <c r="I43" s="3">
-        <v>626400</v>
+        <v>598900</v>
       </c>
       <c r="J43" s="3">
-        <v>773700</v>
+        <v>739600</v>
       </c>
       <c r="K43" s="3">
         <v>635600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38700</v>
+        <v>37000</v>
       </c>
       <c r="E44" s="3">
-        <v>31900</v>
+        <v>30500</v>
       </c>
       <c r="F44" s="3">
-        <v>25500</v>
+        <v>24400</v>
       </c>
       <c r="G44" s="3">
-        <v>22800</v>
+        <v>21800</v>
       </c>
       <c r="H44" s="3">
-        <v>21600</v>
+        <v>20700</v>
       </c>
       <c r="I44" s="3">
-        <v>25600</v>
+        <v>24400</v>
       </c>
       <c r="J44" s="3">
-        <v>25600</v>
+        <v>24500</v>
       </c>
       <c r="K44" s="3">
         <v>29700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="E45" s="3">
-        <v>248100</v>
+        <v>237200</v>
       </c>
       <c r="F45" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G45" s="3">
-        <v>20300</v>
+        <v>19400</v>
       </c>
       <c r="H45" s="3">
-        <v>33900</v>
+        <v>32400</v>
       </c>
       <c r="I45" s="3">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="J45" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="K45" s="3">
         <v>6600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2189900</v>
+        <v>2093500</v>
       </c>
       <c r="E46" s="3">
-        <v>2232400</v>
+        <v>2134200</v>
       </c>
       <c r="F46" s="3">
-        <v>1547800</v>
+        <v>1479700</v>
       </c>
       <c r="G46" s="3">
-        <v>1306900</v>
+        <v>1249400</v>
       </c>
       <c r="H46" s="3">
-        <v>1115800</v>
+        <v>1066800</v>
       </c>
       <c r="I46" s="3">
-        <v>829200</v>
+        <v>792700</v>
       </c>
       <c r="J46" s="3">
-        <v>1356900</v>
+        <v>1297200</v>
       </c>
       <c r="K46" s="3">
         <v>1028300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3344100</v>
+        <v>3196900</v>
       </c>
       <c r="E47" s="3">
-        <v>3112200</v>
+        <v>2975200</v>
       </c>
       <c r="F47" s="3">
-        <v>2082000</v>
+        <v>1990400</v>
       </c>
       <c r="G47" s="3">
-        <v>1858900</v>
+        <v>1777100</v>
       </c>
       <c r="H47" s="3">
-        <v>1664400</v>
+        <v>1591100</v>
       </c>
       <c r="I47" s="3">
-        <v>1483800</v>
+        <v>1418500</v>
       </c>
       <c r="J47" s="3">
-        <v>887700</v>
+        <v>848600</v>
       </c>
       <c r="K47" s="3">
         <v>1448900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2024900</v>
+        <v>1935900</v>
       </c>
       <c r="E48" s="3">
-        <v>1884400</v>
+        <v>1801500</v>
       </c>
       <c r="F48" s="3">
-        <v>2091200</v>
+        <v>1999200</v>
       </c>
       <c r="G48" s="3">
-        <v>2121800</v>
+        <v>2028400</v>
       </c>
       <c r="H48" s="3">
-        <v>1923900</v>
+        <v>1839200</v>
       </c>
       <c r="I48" s="3">
-        <v>1748700</v>
+        <v>1671800</v>
       </c>
       <c r="J48" s="3">
-        <v>1701200</v>
+        <v>1626300</v>
       </c>
       <c r="K48" s="3">
         <v>1636400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1803500</v>
+        <v>1724100</v>
       </c>
       <c r="E49" s="3">
-        <v>1356100</v>
+        <v>1296400</v>
       </c>
       <c r="F49" s="3">
-        <v>1239300</v>
+        <v>1184800</v>
       </c>
       <c r="G49" s="3">
-        <v>1179900</v>
+        <v>1128000</v>
       </c>
       <c r="H49" s="3">
-        <v>1262800</v>
+        <v>1207300</v>
       </c>
       <c r="I49" s="3">
-        <v>1264200</v>
+        <v>1208600</v>
       </c>
       <c r="J49" s="3">
-        <v>1202600</v>
+        <v>1149700</v>
       </c>
       <c r="K49" s="3">
         <v>428400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>332100</v>
+        <v>317500</v>
       </c>
       <c r="E52" s="3">
-        <v>570700</v>
+        <v>545600</v>
       </c>
       <c r="F52" s="3">
-        <v>537400</v>
+        <v>513800</v>
       </c>
       <c r="G52" s="3">
-        <v>564100</v>
+        <v>539300</v>
       </c>
       <c r="H52" s="3">
-        <v>574500</v>
+        <v>549200</v>
       </c>
       <c r="I52" s="3">
-        <v>605400</v>
+        <v>578700</v>
       </c>
       <c r="J52" s="3">
-        <v>516800</v>
+        <v>494000</v>
       </c>
       <c r="K52" s="3">
         <v>506200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9694500</v>
+        <v>9268000</v>
       </c>
       <c r="E54" s="3">
-        <v>9155800</v>
+        <v>8752900</v>
       </c>
       <c r="F54" s="3">
-        <v>7497800</v>
+        <v>7167900</v>
       </c>
       <c r="G54" s="3">
-        <v>7031500</v>
+        <v>6722200</v>
       </c>
       <c r="H54" s="3">
-        <v>6489900</v>
+        <v>6204300</v>
       </c>
       <c r="I54" s="3">
-        <v>5931300</v>
+        <v>5670400</v>
       </c>
       <c r="J54" s="3">
-        <v>5665100</v>
+        <v>5415800</v>
       </c>
       <c r="K54" s="3">
         <v>5048300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>506000</v>
+        <v>483800</v>
       </c>
       <c r="E57" s="3">
-        <v>448400</v>
+        <v>428700</v>
       </c>
       <c r="F57" s="3">
-        <v>329800</v>
+        <v>315300</v>
       </c>
       <c r="G57" s="3">
-        <v>277700</v>
+        <v>265500</v>
       </c>
       <c r="H57" s="3">
-        <v>329500</v>
+        <v>315000</v>
       </c>
       <c r="I57" s="3">
-        <v>245700</v>
+        <v>234900</v>
       </c>
       <c r="J57" s="3">
-        <v>315700</v>
+        <v>301800</v>
       </c>
       <c r="K57" s="3">
         <v>312800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>542400</v>
+        <v>518500</v>
       </c>
       <c r="E58" s="3">
-        <v>516700</v>
+        <v>494000</v>
       </c>
       <c r="F58" s="3">
-        <v>284400</v>
+        <v>271900</v>
       </c>
       <c r="G58" s="3">
-        <v>645400</v>
+        <v>617000</v>
       </c>
       <c r="H58" s="3">
-        <v>473000</v>
+        <v>452100</v>
       </c>
       <c r="I58" s="3">
-        <v>509200</v>
+        <v>486800</v>
       </c>
       <c r="J58" s="3">
-        <v>241200</v>
+        <v>230600</v>
       </c>
       <c r="K58" s="3">
         <v>256000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>513300</v>
+        <v>490700</v>
       </c>
       <c r="E59" s="3">
-        <v>924300</v>
+        <v>883600</v>
       </c>
       <c r="F59" s="3">
-        <v>431900</v>
+        <v>412900</v>
       </c>
       <c r="G59" s="3">
-        <v>387100</v>
+        <v>370100</v>
       </c>
       <c r="H59" s="3">
-        <v>393300</v>
+        <v>376000</v>
       </c>
       <c r="I59" s="3">
-        <v>352000</v>
+        <v>336500</v>
       </c>
       <c r="J59" s="3">
-        <v>380300</v>
+        <v>363600</v>
       </c>
       <c r="K59" s="3">
         <v>230400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1561700</v>
+        <v>1493000</v>
       </c>
       <c r="E60" s="3">
-        <v>1889400</v>
+        <v>1806200</v>
       </c>
       <c r="F60" s="3">
-        <v>1046100</v>
+        <v>1000100</v>
       </c>
       <c r="G60" s="3">
-        <v>1310200</v>
+        <v>1252600</v>
       </c>
       <c r="H60" s="3">
-        <v>1195700</v>
+        <v>1143100</v>
       </c>
       <c r="I60" s="3">
-        <v>1106900</v>
+        <v>1058200</v>
       </c>
       <c r="J60" s="3">
-        <v>937200</v>
+        <v>896000</v>
       </c>
       <c r="K60" s="3">
         <v>799200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1813600</v>
+        <v>1733800</v>
       </c>
       <c r="E61" s="3">
-        <v>1456800</v>
+        <v>1392700</v>
       </c>
       <c r="F61" s="3">
-        <v>1999100</v>
+        <v>1911200</v>
       </c>
       <c r="G61" s="3">
-        <v>1618000</v>
+        <v>1546800</v>
       </c>
       <c r="H61" s="3">
-        <v>1450900</v>
+        <v>1387000</v>
       </c>
       <c r="I61" s="3">
-        <v>1220200</v>
+        <v>1166500</v>
       </c>
       <c r="J61" s="3">
-        <v>1277600</v>
+        <v>1221400</v>
       </c>
       <c r="K61" s="3">
         <v>937100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1979500</v>
+        <v>1892400</v>
       </c>
       <c r="E62" s="3">
-        <v>1846600</v>
+        <v>1765300</v>
       </c>
       <c r="F62" s="3">
-        <v>1008500</v>
+        <v>964200</v>
       </c>
       <c r="G62" s="3">
-        <v>906300</v>
+        <v>866500</v>
       </c>
       <c r="H62" s="3">
-        <v>807900</v>
+        <v>772300</v>
       </c>
       <c r="I62" s="3">
-        <v>669200</v>
+        <v>639800</v>
       </c>
       <c r="J62" s="3">
-        <v>596000</v>
+        <v>569800</v>
       </c>
       <c r="K62" s="3">
         <v>615800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5421000</v>
+        <v>5182500</v>
       </c>
       <c r="E66" s="3">
-        <v>5249800</v>
+        <v>5018800</v>
       </c>
       <c r="F66" s="3">
-        <v>4121500</v>
+        <v>3940100</v>
       </c>
       <c r="G66" s="3">
-        <v>3893900</v>
+        <v>3722600</v>
       </c>
       <c r="H66" s="3">
-        <v>3513700</v>
+        <v>3359100</v>
       </c>
       <c r="I66" s="3">
-        <v>3048000</v>
+        <v>2913900</v>
       </c>
       <c r="J66" s="3">
-        <v>2877200</v>
+        <v>2750600</v>
       </c>
       <c r="K66" s="3">
         <v>2421400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1808700</v>
+        <v>1729100</v>
       </c>
       <c r="E72" s="3">
-        <v>1428300</v>
+        <v>1365400</v>
       </c>
       <c r="F72" s="3">
-        <v>1146900</v>
+        <v>1096400</v>
       </c>
       <c r="G72" s="3">
-        <v>1435900</v>
+        <v>1372700</v>
       </c>
       <c r="H72" s="3">
-        <v>1252900</v>
+        <v>1197800</v>
       </c>
       <c r="I72" s="3">
-        <v>1140000</v>
+        <v>1089800</v>
       </c>
       <c r="J72" s="3">
-        <v>1205200</v>
+        <v>1152200</v>
       </c>
       <c r="K72" s="3">
         <v>1025100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4273500</v>
+        <v>4085500</v>
       </c>
       <c r="E76" s="3">
-        <v>3906000</v>
+        <v>3734200</v>
       </c>
       <c r="F76" s="3">
-        <v>3376300</v>
+        <v>3227800</v>
       </c>
       <c r="G76" s="3">
-        <v>3137600</v>
+        <v>2999600</v>
       </c>
       <c r="H76" s="3">
-        <v>2976200</v>
+        <v>2845200</v>
       </c>
       <c r="I76" s="3">
-        <v>2883300</v>
+        <v>2756500</v>
       </c>
       <c r="J76" s="3">
-        <v>2787900</v>
+        <v>2665200</v>
       </c>
       <c r="K76" s="3">
         <v>2626900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>969200</v>
+        <v>926600</v>
       </c>
       <c r="E81" s="3">
-        <v>764100</v>
+        <v>730400</v>
       </c>
       <c r="F81" s="3">
-        <v>389400</v>
+        <v>372300</v>
       </c>
       <c r="G81" s="3">
-        <v>275400</v>
+        <v>263200</v>
       </c>
       <c r="H81" s="3">
-        <v>202300</v>
+        <v>193400</v>
       </c>
       <c r="I81" s="3">
-        <v>162000</v>
+        <v>154900</v>
       </c>
       <c r="J81" s="3">
-        <v>233400</v>
+        <v>223100</v>
       </c>
       <c r="K81" s="3">
         <v>237600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>211900</v>
+        <v>202500</v>
       </c>
       <c r="E83" s="3">
-        <v>197600</v>
+        <v>188900</v>
       </c>
       <c r="F83" s="3">
-        <v>214100</v>
+        <v>204600</v>
       </c>
       <c r="G83" s="3">
-        <v>146600</v>
+        <v>140200</v>
       </c>
       <c r="H83" s="3">
-        <v>143200</v>
+        <v>136900</v>
       </c>
       <c r="I83" s="3">
-        <v>138600</v>
+        <v>132500</v>
       </c>
       <c r="J83" s="3">
-        <v>132400</v>
+        <v>126600</v>
       </c>
       <c r="K83" s="3">
         <v>124100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>662800</v>
+        <v>633600</v>
       </c>
       <c r="E89" s="3">
-        <v>771200</v>
+        <v>737300</v>
       </c>
       <c r="F89" s="3">
-        <v>576300</v>
+        <v>551000</v>
       </c>
       <c r="G89" s="3">
-        <v>346600</v>
+        <v>331300</v>
       </c>
       <c r="H89" s="3">
-        <v>193600</v>
+        <v>185100</v>
       </c>
       <c r="I89" s="3">
-        <v>289000</v>
+        <v>276300</v>
       </c>
       <c r="J89" s="3">
-        <v>258500</v>
+        <v>247100</v>
       </c>
       <c r="K89" s="3">
         <v>215100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-66200</v>
+        <v>-63300</v>
       </c>
       <c r="E91" s="3">
-        <v>-44300</v>
+        <v>-42300</v>
       </c>
       <c r="F91" s="3">
-        <v>-106300</v>
+        <v>-101600</v>
       </c>
       <c r="G91" s="3">
-        <v>-291400</v>
+        <v>-278600</v>
       </c>
       <c r="H91" s="3">
-        <v>-235900</v>
+        <v>-225500</v>
       </c>
       <c r="I91" s="3">
-        <v>-251400</v>
+        <v>-240300</v>
       </c>
       <c r="J91" s="3">
-        <v>-147300</v>
+        <v>-140800</v>
       </c>
       <c r="K91" s="3">
         <v>-176300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E94" s="3">
-        <v>-326300</v>
+        <v>-312000</v>
       </c>
       <c r="F94" s="3">
-        <v>-325600</v>
+        <v>-311300</v>
       </c>
       <c r="G94" s="3">
-        <v>-420600</v>
+        <v>-402100</v>
       </c>
       <c r="H94" s="3">
-        <v>-309400</v>
+        <v>-295800</v>
       </c>
       <c r="I94" s="3">
-        <v>-491400</v>
+        <v>-469800</v>
       </c>
       <c r="J94" s="3">
-        <v>-381900</v>
+        <v>-365100</v>
       </c>
       <c r="K94" s="3">
         <v>-505000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-758200</v>
+        <v>-724800</v>
       </c>
       <c r="E96" s="3">
-        <v>-122600</v>
+        <v>-117200</v>
       </c>
       <c r="F96" s="3">
-        <v>-74400</v>
+        <v>-71200</v>
       </c>
       <c r="G96" s="3">
-        <v>-58900</v>
+        <v>-56300</v>
       </c>
       <c r="H96" s="3">
-        <v>-99100</v>
+        <v>-94700</v>
       </c>
       <c r="I96" s="3">
-        <v>-72200</v>
+        <v>-69000</v>
       </c>
       <c r="J96" s="3">
-        <v>-60200</v>
+        <v>-57500</v>
       </c>
       <c r="K96" s="3">
         <v>-131800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-564500</v>
+        <v>-539600</v>
       </c>
       <c r="E100" s="3">
-        <v>-335600</v>
+        <v>-320900</v>
       </c>
       <c r="F100" s="3">
-        <v>-56400</v>
+        <v>-53900</v>
       </c>
       <c r="G100" s="3">
-        <v>251800</v>
+        <v>240700</v>
       </c>
       <c r="H100" s="3">
-        <v>127200</v>
+        <v>121600</v>
       </c>
       <c r="I100" s="3">
-        <v>104800</v>
+        <v>100200</v>
       </c>
       <c r="J100" s="3">
-        <v>268400</v>
+        <v>256600</v>
       </c>
       <c r="K100" s="3">
         <v>92600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>104600</v>
+        <v>100000</v>
       </c>
       <c r="E102" s="3">
-        <v>109200</v>
+        <v>104400</v>
       </c>
       <c r="F102" s="3">
-        <v>194400</v>
+        <v>185800</v>
       </c>
       <c r="G102" s="3">
-        <v>177800</v>
+        <v>169900</v>
       </c>
       <c r="H102" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="I102" s="3">
-        <v>-97600</v>
+        <v>-93300</v>
       </c>
       <c r="J102" s="3">
-        <v>144900</v>
+        <v>138600</v>
       </c>
       <c r="K102" s="3">
         <v>-197400</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4487200</v>
+        <v>4644100</v>
       </c>
       <c r="E8" s="3">
-        <v>3486100</v>
+        <v>3608000</v>
       </c>
       <c r="F8" s="3">
-        <v>2969000</v>
+        <v>3072800</v>
       </c>
       <c r="G8" s="3">
-        <v>2794100</v>
+        <v>2891800</v>
       </c>
       <c r="H8" s="3">
-        <v>2623900</v>
+        <v>2715600</v>
       </c>
       <c r="I8" s="3">
-        <v>2451200</v>
+        <v>2536900</v>
       </c>
       <c r="J8" s="3">
-        <v>2796200</v>
+        <v>2894000</v>
       </c>
       <c r="K8" s="3">
         <v>2742800</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3577100</v>
+        <v>3702100</v>
       </c>
       <c r="E9" s="3">
-        <v>2497200</v>
+        <v>2584500</v>
       </c>
       <c r="F9" s="3">
-        <v>2144800</v>
+        <v>2219800</v>
       </c>
       <c r="G9" s="3">
-        <v>2151900</v>
+        <v>2227100</v>
       </c>
       <c r="H9" s="3">
-        <v>1995500</v>
+        <v>2065200</v>
       </c>
       <c r="I9" s="3">
-        <v>1914700</v>
+        <v>1981600</v>
       </c>
       <c r="J9" s="3">
-        <v>2207500</v>
+        <v>2284700</v>
       </c>
       <c r="K9" s="3">
         <v>2224600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>910100</v>
+        <v>941900</v>
       </c>
       <c r="E10" s="3">
-        <v>988900</v>
+        <v>1023400</v>
       </c>
       <c r="F10" s="3">
-        <v>824100</v>
+        <v>853000</v>
       </c>
       <c r="G10" s="3">
-        <v>642300</v>
+        <v>664700</v>
       </c>
       <c r="H10" s="3">
-        <v>628400</v>
+        <v>650300</v>
       </c>
       <c r="I10" s="3">
-        <v>536500</v>
+        <v>555300</v>
       </c>
       <c r="J10" s="3">
-        <v>588700</v>
+        <v>609300</v>
       </c>
       <c r="K10" s="3">
         <v>518200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="E15" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="F15" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="G15" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="H15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I15" s="3">
         <v>8500</v>
       </c>
-      <c r="I15" s="3">
-        <v>8200</v>
-      </c>
       <c r="J15" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="K15" s="3">
         <v>7800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3468300</v>
+        <v>3589600</v>
       </c>
       <c r="E17" s="3">
-        <v>2690400</v>
+        <v>2784400</v>
       </c>
       <c r="F17" s="3">
-        <v>2351200</v>
+        <v>2433300</v>
       </c>
       <c r="G17" s="3">
-        <v>2346200</v>
+        <v>2428300</v>
       </c>
       <c r="H17" s="3">
-        <v>2222100</v>
+        <v>2299800</v>
       </c>
       <c r="I17" s="3">
-        <v>2068800</v>
+        <v>2141100</v>
       </c>
       <c r="J17" s="3">
-        <v>2398400</v>
+        <v>2482200</v>
       </c>
       <c r="K17" s="3">
         <v>2402500</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1018900</v>
+        <v>1054500</v>
       </c>
       <c r="E18" s="3">
-        <v>795700</v>
+        <v>823600</v>
       </c>
       <c r="F18" s="3">
-        <v>617800</v>
+        <v>639400</v>
       </c>
       <c r="G18" s="3">
-        <v>447900</v>
+        <v>463600</v>
       </c>
       <c r="H18" s="3">
-        <v>401700</v>
+        <v>415800</v>
       </c>
       <c r="I18" s="3">
-        <v>382400</v>
+        <v>395800</v>
       </c>
       <c r="J18" s="3">
-        <v>397800</v>
+        <v>411700</v>
       </c>
       <c r="K18" s="3">
         <v>340300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>98900</v>
+        <v>102300</v>
       </c>
       <c r="E20" s="3">
-        <v>275700</v>
+        <v>285400</v>
       </c>
       <c r="F20" s="3">
-        <v>244200</v>
+        <v>252800</v>
       </c>
       <c r="G20" s="3">
-        <v>81100</v>
+        <v>83900</v>
       </c>
       <c r="H20" s="3">
-        <v>44900</v>
+        <v>46400</v>
       </c>
       <c r="I20" s="3">
-        <v>63300</v>
+        <v>65500</v>
       </c>
       <c r="J20" s="3">
-        <v>79100</v>
+        <v>81900</v>
       </c>
       <c r="K20" s="3">
         <v>98000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1326500</v>
+        <v>1367200</v>
       </c>
       <c r="E21" s="3">
-        <v>1266200</v>
+        <v>1305200</v>
       </c>
       <c r="F21" s="3">
-        <v>1073000</v>
+        <v>1104800</v>
       </c>
       <c r="G21" s="3">
-        <v>673400</v>
+        <v>693100</v>
       </c>
       <c r="H21" s="3">
-        <v>587600</v>
+        <v>604400</v>
       </c>
       <c r="I21" s="3">
-        <v>582300</v>
+        <v>598900</v>
       </c>
       <c r="J21" s="3">
-        <v>607400</v>
+        <v>625100</v>
       </c>
       <c r="K21" s="3">
         <v>564000</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>160100</v>
+        <v>165700</v>
       </c>
       <c r="E22" s="3">
-        <v>113700</v>
+        <v>117600</v>
       </c>
       <c r="F22" s="3">
-        <v>329400</v>
+        <v>340900</v>
       </c>
       <c r="G22" s="3">
-        <v>163000</v>
+        <v>168700</v>
       </c>
       <c r="H22" s="3">
-        <v>186000</v>
+        <v>192500</v>
       </c>
       <c r="I22" s="3">
-        <v>200700</v>
+        <v>207700</v>
       </c>
       <c r="J22" s="3">
-        <v>140600</v>
+        <v>145500</v>
       </c>
       <c r="K22" s="3">
         <v>72300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>957700</v>
+        <v>991100</v>
       </c>
       <c r="E23" s="3">
-        <v>957800</v>
+        <v>991300</v>
       </c>
       <c r="F23" s="3">
-        <v>532600</v>
+        <v>551200</v>
       </c>
       <c r="G23" s="3">
-        <v>365900</v>
+        <v>378700</v>
       </c>
       <c r="H23" s="3">
-        <v>260600</v>
+        <v>269700</v>
       </c>
       <c r="I23" s="3">
-        <v>245000</v>
+        <v>253500</v>
       </c>
       <c r="J23" s="3">
-        <v>336300</v>
+        <v>348100</v>
       </c>
       <c r="K23" s="3">
         <v>366100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>235700</v>
+        <v>243900</v>
       </c>
       <c r="E24" s="3">
-        <v>240500</v>
+        <v>248900</v>
       </c>
       <c r="F24" s="3">
-        <v>126400</v>
+        <v>130800</v>
       </c>
       <c r="G24" s="3">
-        <v>95800</v>
+        <v>99100</v>
       </c>
       <c r="H24" s="3">
-        <v>51400</v>
+        <v>53200</v>
       </c>
       <c r="I24" s="3">
-        <v>97200</v>
+        <v>100600</v>
       </c>
       <c r="J24" s="3">
-        <v>99600</v>
+        <v>103100</v>
       </c>
       <c r="K24" s="3">
         <v>102900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>722000</v>
+        <v>747200</v>
       </c>
       <c r="E26" s="3">
-        <v>717300</v>
+        <v>742400</v>
       </c>
       <c r="F26" s="3">
-        <v>406200</v>
+        <v>420400</v>
       </c>
       <c r="G26" s="3">
-        <v>270200</v>
+        <v>279600</v>
       </c>
       <c r="H26" s="3">
-        <v>209200</v>
+        <v>216500</v>
       </c>
       <c r="I26" s="3">
-        <v>147800</v>
+        <v>152900</v>
       </c>
       <c r="J26" s="3">
-        <v>236800</v>
+        <v>245000</v>
       </c>
       <c r="K26" s="3">
         <v>263200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>704000</v>
+        <v>728600</v>
       </c>
       <c r="E27" s="3">
-        <v>716300</v>
+        <v>741300</v>
       </c>
       <c r="F27" s="3">
-        <v>392600</v>
+        <v>406300</v>
       </c>
       <c r="G27" s="3">
-        <v>263200</v>
+        <v>272400</v>
       </c>
       <c r="H27" s="3">
-        <v>193400</v>
+        <v>200100</v>
       </c>
       <c r="I27" s="3">
-        <v>154900</v>
+        <v>160300</v>
       </c>
       <c r="J27" s="3">
-        <v>223100</v>
+        <v>230900</v>
       </c>
       <c r="K27" s="3">
         <v>237600</v>
@@ -1473,13 +1473,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>222600</v>
+        <v>230300</v>
       </c>
       <c r="E29" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="F29" s="3">
-        <v>-20300</v>
+        <v>-21000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-98900</v>
+        <v>-102300</v>
       </c>
       <c r="E32" s="3">
-        <v>-275700</v>
+        <v>-285400</v>
       </c>
       <c r="F32" s="3">
-        <v>-244200</v>
+        <v>-252800</v>
       </c>
       <c r="G32" s="3">
-        <v>-81100</v>
+        <v>-83900</v>
       </c>
       <c r="H32" s="3">
-        <v>-44900</v>
+        <v>-46400</v>
       </c>
       <c r="I32" s="3">
-        <v>-63300</v>
+        <v>-65500</v>
       </c>
       <c r="J32" s="3">
-        <v>-79100</v>
+        <v>-81900</v>
       </c>
       <c r="K32" s="3">
         <v>-98000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>926600</v>
+        <v>959000</v>
       </c>
       <c r="E33" s="3">
-        <v>730400</v>
+        <v>756000</v>
       </c>
       <c r="F33" s="3">
-        <v>372300</v>
+        <v>385300</v>
       </c>
       <c r="G33" s="3">
-        <v>263200</v>
+        <v>272400</v>
       </c>
       <c r="H33" s="3">
-        <v>193400</v>
+        <v>200100</v>
       </c>
       <c r="I33" s="3">
-        <v>154900</v>
+        <v>160300</v>
       </c>
       <c r="J33" s="3">
-        <v>223100</v>
+        <v>230900</v>
       </c>
       <c r="K33" s="3">
         <v>237600</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>926600</v>
+        <v>959000</v>
       </c>
       <c r="E35" s="3">
-        <v>730400</v>
+        <v>756000</v>
       </c>
       <c r="F35" s="3">
-        <v>372300</v>
+        <v>385300</v>
       </c>
       <c r="G35" s="3">
-        <v>263200</v>
+        <v>272400</v>
       </c>
       <c r="H35" s="3">
-        <v>193400</v>
+        <v>200100</v>
       </c>
       <c r="I35" s="3">
-        <v>154900</v>
+        <v>160300</v>
       </c>
       <c r="J35" s="3">
-        <v>223100</v>
+        <v>230900</v>
       </c>
       <c r="K35" s="3">
         <v>237600</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>649700</v>
+        <v>672400</v>
       </c>
       <c r="E41" s="3">
-        <v>602900</v>
+        <v>624000</v>
       </c>
       <c r="F41" s="3">
-        <v>550400</v>
+        <v>569600</v>
       </c>
       <c r="G41" s="3">
-        <v>364500</v>
+        <v>377300</v>
       </c>
       <c r="H41" s="3">
-        <v>194600</v>
+        <v>201400</v>
       </c>
       <c r="I41" s="3">
-        <v>183700</v>
+        <v>190200</v>
       </c>
       <c r="J41" s="3">
-        <v>277000</v>
+        <v>286700</v>
       </c>
       <c r="K41" s="3">
         <v>145900</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>74800</v>
+        <v>77400</v>
       </c>
       <c r="E42" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="F42" s="3">
-        <v>67100</v>
+        <v>69500</v>
       </c>
       <c r="G42" s="3">
-        <v>102200</v>
+        <v>105700</v>
       </c>
       <c r="H42" s="3">
-        <v>32400</v>
+        <v>33500</v>
       </c>
       <c r="I42" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="J42" s="3">
-        <v>246400</v>
+        <v>255000</v>
       </c>
       <c r="K42" s="3">
         <v>210500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1321900</v>
+        <v>1368100</v>
       </c>
       <c r="E43" s="3">
-        <v>1230900</v>
+        <v>1273900</v>
       </c>
       <c r="F43" s="3">
-        <v>831500</v>
+        <v>860600</v>
       </c>
       <c r="G43" s="3">
-        <v>741500</v>
+        <v>767400</v>
       </c>
       <c r="H43" s="3">
-        <v>786700</v>
+        <v>814200</v>
       </c>
       <c r="I43" s="3">
-        <v>598900</v>
+        <v>619800</v>
       </c>
       <c r="J43" s="3">
-        <v>739600</v>
+        <v>765500</v>
       </c>
       <c r="K43" s="3">
         <v>635600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>37000</v>
+        <v>38300</v>
       </c>
       <c r="E44" s="3">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="F44" s="3">
-        <v>24400</v>
+        <v>25300</v>
       </c>
       <c r="G44" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="H44" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="I44" s="3">
-        <v>24400</v>
+        <v>25300</v>
       </c>
       <c r="J44" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="K44" s="3">
         <v>29700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="E45" s="3">
-        <v>237200</v>
+        <v>245500</v>
       </c>
       <c r="F45" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G45" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="H45" s="3">
-        <v>32400</v>
+        <v>33600</v>
       </c>
       <c r="I45" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="J45" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="K45" s="3">
         <v>6600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2093500</v>
+        <v>2166700</v>
       </c>
       <c r="E46" s="3">
-        <v>2134200</v>
+        <v>2208800</v>
       </c>
       <c r="F46" s="3">
-        <v>1479700</v>
+        <v>1531500</v>
       </c>
       <c r="G46" s="3">
-        <v>1249400</v>
+        <v>1293000</v>
       </c>
       <c r="H46" s="3">
-        <v>1066800</v>
+        <v>1104000</v>
       </c>
       <c r="I46" s="3">
-        <v>792700</v>
+        <v>820500</v>
       </c>
       <c r="J46" s="3">
-        <v>1297200</v>
+        <v>1342500</v>
       </c>
       <c r="K46" s="3">
         <v>1028300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3196900</v>
+        <v>3308700</v>
       </c>
       <c r="E47" s="3">
-        <v>2975200</v>
+        <v>3079200</v>
       </c>
       <c r="F47" s="3">
-        <v>1990400</v>
+        <v>2060000</v>
       </c>
       <c r="G47" s="3">
-        <v>1777100</v>
+        <v>1839300</v>
       </c>
       <c r="H47" s="3">
-        <v>1591100</v>
+        <v>1646800</v>
       </c>
       <c r="I47" s="3">
-        <v>1418500</v>
+        <v>1468100</v>
       </c>
       <c r="J47" s="3">
-        <v>848600</v>
+        <v>878300</v>
       </c>
       <c r="K47" s="3">
         <v>1448900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1935900</v>
+        <v>2003500</v>
       </c>
       <c r="E48" s="3">
-        <v>1801500</v>
+        <v>1864400</v>
       </c>
       <c r="F48" s="3">
-        <v>1999200</v>
+        <v>2069100</v>
       </c>
       <c r="G48" s="3">
-        <v>2028400</v>
+        <v>2099300</v>
       </c>
       <c r="H48" s="3">
-        <v>1839200</v>
+        <v>1903500</v>
       </c>
       <c r="I48" s="3">
-        <v>1671800</v>
+        <v>1730200</v>
       </c>
       <c r="J48" s="3">
-        <v>1626300</v>
+        <v>1683200</v>
       </c>
       <c r="K48" s="3">
         <v>1636400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1724100</v>
+        <v>1784400</v>
       </c>
       <c r="E49" s="3">
-        <v>1296400</v>
+        <v>1341800</v>
       </c>
       <c r="F49" s="3">
-        <v>1184800</v>
+        <v>1226200</v>
       </c>
       <c r="G49" s="3">
-        <v>1128000</v>
+        <v>1167400</v>
       </c>
       <c r="H49" s="3">
-        <v>1207300</v>
+        <v>1249500</v>
       </c>
       <c r="I49" s="3">
-        <v>1208600</v>
+        <v>1250800</v>
       </c>
       <c r="J49" s="3">
-        <v>1149700</v>
+        <v>1189900</v>
       </c>
       <c r="K49" s="3">
         <v>428400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>317500</v>
+        <v>328600</v>
       </c>
       <c r="E52" s="3">
-        <v>545600</v>
+        <v>564700</v>
       </c>
       <c r="F52" s="3">
-        <v>513800</v>
+        <v>531700</v>
       </c>
       <c r="G52" s="3">
-        <v>539300</v>
+        <v>558100</v>
       </c>
       <c r="H52" s="3">
-        <v>549200</v>
+        <v>568400</v>
       </c>
       <c r="I52" s="3">
-        <v>578700</v>
+        <v>599000</v>
       </c>
       <c r="J52" s="3">
-        <v>494000</v>
+        <v>511300</v>
       </c>
       <c r="K52" s="3">
         <v>506200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9268000</v>
+        <v>9592000</v>
       </c>
       <c r="E54" s="3">
-        <v>8752900</v>
+        <v>9058900</v>
       </c>
       <c r="F54" s="3">
-        <v>7167900</v>
+        <v>7418500</v>
       </c>
       <c r="G54" s="3">
-        <v>6722200</v>
+        <v>6957100</v>
       </c>
       <c r="H54" s="3">
-        <v>6204300</v>
+        <v>6421200</v>
       </c>
       <c r="I54" s="3">
-        <v>5670400</v>
+        <v>5868600</v>
       </c>
       <c r="J54" s="3">
-        <v>5415800</v>
+        <v>5605100</v>
       </c>
       <c r="K54" s="3">
         <v>5048300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>483800</v>
+        <v>500700</v>
       </c>
       <c r="E57" s="3">
-        <v>428700</v>
+        <v>443700</v>
       </c>
       <c r="F57" s="3">
-        <v>315300</v>
+        <v>326300</v>
       </c>
       <c r="G57" s="3">
-        <v>265500</v>
+        <v>274800</v>
       </c>
       <c r="H57" s="3">
-        <v>315000</v>
+        <v>326000</v>
       </c>
       <c r="I57" s="3">
-        <v>234900</v>
+        <v>243100</v>
       </c>
       <c r="J57" s="3">
-        <v>301800</v>
+        <v>312300</v>
       </c>
       <c r="K57" s="3">
         <v>312800</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>518500</v>
+        <v>536600</v>
       </c>
       <c r="E58" s="3">
-        <v>494000</v>
+        <v>511200</v>
       </c>
       <c r="F58" s="3">
-        <v>271900</v>
+        <v>281400</v>
       </c>
       <c r="G58" s="3">
-        <v>617000</v>
+        <v>638600</v>
       </c>
       <c r="H58" s="3">
-        <v>452100</v>
+        <v>468000</v>
       </c>
       <c r="I58" s="3">
-        <v>486800</v>
+        <v>503800</v>
       </c>
       <c r="J58" s="3">
-        <v>230600</v>
+        <v>238700</v>
       </c>
       <c r="K58" s="3">
         <v>256000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>490700</v>
+        <v>507800</v>
       </c>
       <c r="E59" s="3">
-        <v>883600</v>
+        <v>914500</v>
       </c>
       <c r="F59" s="3">
-        <v>412900</v>
+        <v>427300</v>
       </c>
       <c r="G59" s="3">
-        <v>370100</v>
+        <v>383000</v>
       </c>
       <c r="H59" s="3">
-        <v>376000</v>
+        <v>389100</v>
       </c>
       <c r="I59" s="3">
-        <v>336500</v>
+        <v>348200</v>
       </c>
       <c r="J59" s="3">
-        <v>363600</v>
+        <v>376300</v>
       </c>
       <c r="K59" s="3">
         <v>230400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1493000</v>
+        <v>1545200</v>
       </c>
       <c r="E60" s="3">
-        <v>1806200</v>
+        <v>1869400</v>
       </c>
       <c r="F60" s="3">
-        <v>1000100</v>
+        <v>1035100</v>
       </c>
       <c r="G60" s="3">
-        <v>1252600</v>
+        <v>1296400</v>
       </c>
       <c r="H60" s="3">
-        <v>1143100</v>
+        <v>1183100</v>
       </c>
       <c r="I60" s="3">
-        <v>1058200</v>
+        <v>1095200</v>
       </c>
       <c r="J60" s="3">
-        <v>896000</v>
+        <v>927300</v>
       </c>
       <c r="K60" s="3">
         <v>799200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1733800</v>
+        <v>1794400</v>
       </c>
       <c r="E61" s="3">
-        <v>1392700</v>
+        <v>1441400</v>
       </c>
       <c r="F61" s="3">
-        <v>1911200</v>
+        <v>1978000</v>
       </c>
       <c r="G61" s="3">
-        <v>1546800</v>
+        <v>1600800</v>
       </c>
       <c r="H61" s="3">
-        <v>1387000</v>
+        <v>1435500</v>
       </c>
       <c r="I61" s="3">
-        <v>1166500</v>
+        <v>1207300</v>
       </c>
       <c r="J61" s="3">
-        <v>1221400</v>
+        <v>1264100</v>
       </c>
       <c r="K61" s="3">
         <v>937100</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1892400</v>
+        <v>1958600</v>
       </c>
       <c r="E62" s="3">
-        <v>1765300</v>
+        <v>1827000</v>
       </c>
       <c r="F62" s="3">
-        <v>964200</v>
+        <v>997900</v>
       </c>
       <c r="G62" s="3">
-        <v>866500</v>
+        <v>896800</v>
       </c>
       <c r="H62" s="3">
-        <v>772300</v>
+        <v>799300</v>
       </c>
       <c r="I62" s="3">
-        <v>639800</v>
+        <v>662100</v>
       </c>
       <c r="J62" s="3">
-        <v>569800</v>
+        <v>589700</v>
       </c>
       <c r="K62" s="3">
         <v>615800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5182500</v>
+        <v>5363600</v>
       </c>
       <c r="E66" s="3">
-        <v>5018800</v>
+        <v>5194200</v>
       </c>
       <c r="F66" s="3">
-        <v>3940100</v>
+        <v>4077900</v>
       </c>
       <c r="G66" s="3">
-        <v>3722600</v>
+        <v>3852700</v>
       </c>
       <c r="H66" s="3">
-        <v>3359100</v>
+        <v>3476500</v>
       </c>
       <c r="I66" s="3">
-        <v>2913900</v>
+        <v>3015700</v>
       </c>
       <c r="J66" s="3">
-        <v>2750600</v>
+        <v>2846700</v>
       </c>
       <c r="K66" s="3">
         <v>2421400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1729100</v>
+        <v>1789600</v>
       </c>
       <c r="E72" s="3">
-        <v>1365400</v>
+        <v>1413200</v>
       </c>
       <c r="F72" s="3">
-        <v>1096400</v>
+        <v>1134800</v>
       </c>
       <c r="G72" s="3">
-        <v>1372700</v>
+        <v>1420700</v>
       </c>
       <c r="H72" s="3">
-        <v>1197800</v>
+        <v>1239700</v>
       </c>
       <c r="I72" s="3">
-        <v>1089800</v>
+        <v>1127900</v>
       </c>
       <c r="J72" s="3">
-        <v>1152200</v>
+        <v>1192400</v>
       </c>
       <c r="K72" s="3">
         <v>1025100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4085500</v>
+        <v>4228300</v>
       </c>
       <c r="E76" s="3">
-        <v>3734200</v>
+        <v>3864700</v>
       </c>
       <c r="F76" s="3">
-        <v>3227800</v>
+        <v>3340600</v>
       </c>
       <c r="G76" s="3">
-        <v>2999600</v>
+        <v>3104500</v>
       </c>
       <c r="H76" s="3">
-        <v>2845200</v>
+        <v>2944700</v>
       </c>
       <c r="I76" s="3">
-        <v>2756500</v>
+        <v>2852900</v>
       </c>
       <c r="J76" s="3">
-        <v>2665200</v>
+        <v>2758400</v>
       </c>
       <c r="K76" s="3">
         <v>2626900</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>926600</v>
+        <v>959000</v>
       </c>
       <c r="E81" s="3">
-        <v>730400</v>
+        <v>756000</v>
       </c>
       <c r="F81" s="3">
-        <v>372300</v>
+        <v>385300</v>
       </c>
       <c r="G81" s="3">
-        <v>263200</v>
+        <v>272400</v>
       </c>
       <c r="H81" s="3">
-        <v>193400</v>
+        <v>200100</v>
       </c>
       <c r="I81" s="3">
-        <v>154900</v>
+        <v>160300</v>
       </c>
       <c r="J81" s="3">
-        <v>223100</v>
+        <v>230900</v>
       </c>
       <c r="K81" s="3">
         <v>237600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>202500</v>
+        <v>209600</v>
       </c>
       <c r="E83" s="3">
-        <v>188900</v>
+        <v>195500</v>
       </c>
       <c r="F83" s="3">
-        <v>204600</v>
+        <v>211800</v>
       </c>
       <c r="G83" s="3">
-        <v>140200</v>
+        <v>145100</v>
       </c>
       <c r="H83" s="3">
-        <v>136900</v>
+        <v>141700</v>
       </c>
       <c r="I83" s="3">
-        <v>132500</v>
+        <v>137100</v>
       </c>
       <c r="J83" s="3">
-        <v>126600</v>
+        <v>131000</v>
       </c>
       <c r="K83" s="3">
         <v>124100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>633600</v>
+        <v>655800</v>
       </c>
       <c r="E89" s="3">
-        <v>737300</v>
+        <v>763100</v>
       </c>
       <c r="F89" s="3">
-        <v>551000</v>
+        <v>570200</v>
       </c>
       <c r="G89" s="3">
-        <v>331300</v>
+        <v>342900</v>
       </c>
       <c r="H89" s="3">
-        <v>185100</v>
+        <v>191500</v>
       </c>
       <c r="I89" s="3">
-        <v>276300</v>
+        <v>286000</v>
       </c>
       <c r="J89" s="3">
-        <v>247100</v>
+        <v>255700</v>
       </c>
       <c r="K89" s="3">
         <v>215100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-63300</v>
+        <v>-65500</v>
       </c>
       <c r="E91" s="3">
-        <v>-42300</v>
+        <v>-43800</v>
       </c>
       <c r="F91" s="3">
-        <v>-101600</v>
+        <v>-105200</v>
       </c>
       <c r="G91" s="3">
-        <v>-278600</v>
+        <v>-288300</v>
       </c>
       <c r="H91" s="3">
-        <v>-225500</v>
+        <v>-233400</v>
       </c>
       <c r="I91" s="3">
-        <v>-240300</v>
+        <v>-248700</v>
       </c>
       <c r="J91" s="3">
-        <v>-140800</v>
+        <v>-145700</v>
       </c>
       <c r="K91" s="3">
         <v>-176300</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E94" s="3">
-        <v>-312000</v>
+        <v>-322900</v>
       </c>
       <c r="F94" s="3">
-        <v>-311300</v>
+        <v>-322100</v>
       </c>
       <c r="G94" s="3">
-        <v>-402100</v>
+        <v>-416100</v>
       </c>
       <c r="H94" s="3">
-        <v>-295800</v>
+        <v>-306200</v>
       </c>
       <c r="I94" s="3">
-        <v>-469800</v>
+        <v>-486200</v>
       </c>
       <c r="J94" s="3">
-        <v>-365100</v>
+        <v>-377900</v>
       </c>
       <c r="K94" s="3">
         <v>-505000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-724800</v>
+        <v>-750200</v>
       </c>
       <c r="E96" s="3">
-        <v>-117200</v>
+        <v>-121300</v>
       </c>
       <c r="F96" s="3">
-        <v>-71200</v>
+        <v>-73700</v>
       </c>
       <c r="G96" s="3">
-        <v>-56300</v>
+        <v>-58200</v>
       </c>
       <c r="H96" s="3">
-        <v>-94700</v>
+        <v>-98100</v>
       </c>
       <c r="I96" s="3">
-        <v>-69000</v>
+        <v>-71400</v>
       </c>
       <c r="J96" s="3">
-        <v>-57500</v>
+        <v>-59500</v>
       </c>
       <c r="K96" s="3">
         <v>-131800</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-539600</v>
+        <v>-558500</v>
       </c>
       <c r="E100" s="3">
-        <v>-320900</v>
+        <v>-332100</v>
       </c>
       <c r="F100" s="3">
-        <v>-53900</v>
+        <v>-55800</v>
       </c>
       <c r="G100" s="3">
-        <v>240700</v>
+        <v>249100</v>
       </c>
       <c r="H100" s="3">
-        <v>121600</v>
+        <v>125900</v>
       </c>
       <c r="I100" s="3">
-        <v>100200</v>
+        <v>103700</v>
       </c>
       <c r="J100" s="3">
-        <v>256600</v>
+        <v>265600</v>
       </c>
       <c r="K100" s="3">
         <v>92600</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100000</v>
+        <v>103500</v>
       </c>
       <c r="E102" s="3">
-        <v>104400</v>
+        <v>108100</v>
       </c>
       <c r="F102" s="3">
-        <v>185800</v>
+        <v>192300</v>
       </c>
       <c r="G102" s="3">
-        <v>169900</v>
+        <v>175900</v>
       </c>
       <c r="H102" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="I102" s="3">
-        <v>-93300</v>
+        <v>-96600</v>
       </c>
       <c r="J102" s="3">
-        <v>138600</v>
+        <v>143400</v>
       </c>
       <c r="K102" s="3">
         <v>-197400</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>ELP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4644100</v>
+        <v>4416200</v>
       </c>
       <c r="E8" s="3">
-        <v>3608000</v>
+        <v>4830400</v>
       </c>
       <c r="F8" s="3">
-        <v>3072800</v>
+        <v>3752700</v>
       </c>
       <c r="G8" s="3">
-        <v>2891800</v>
+        <v>3196100</v>
       </c>
       <c r="H8" s="3">
-        <v>2715600</v>
+        <v>3007900</v>
       </c>
       <c r="I8" s="3">
-        <v>2536900</v>
+        <v>2824500</v>
       </c>
       <c r="J8" s="3">
+        <v>2638700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2894000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2742800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1717900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1983300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1929100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3702100</v>
+        <v>3409400</v>
       </c>
       <c r="E9" s="3">
-        <v>2584500</v>
+        <v>3850700</v>
       </c>
       <c r="F9" s="3">
-        <v>2219800</v>
+        <v>2688300</v>
       </c>
       <c r="G9" s="3">
-        <v>2227100</v>
+        <v>2308900</v>
       </c>
       <c r="H9" s="3">
-        <v>2065200</v>
+        <v>2316400</v>
       </c>
       <c r="I9" s="3">
-        <v>1981600</v>
+        <v>2148100</v>
       </c>
       <c r="J9" s="3">
+        <v>2061200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2284700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2224600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1317000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1527400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1353800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>941900</v>
+        <v>1006900</v>
       </c>
       <c r="E10" s="3">
-        <v>1023400</v>
+        <v>979700</v>
       </c>
       <c r="F10" s="3">
-        <v>853000</v>
+        <v>1064500</v>
       </c>
       <c r="G10" s="3">
-        <v>664700</v>
+        <v>887200</v>
       </c>
       <c r="H10" s="3">
-        <v>650300</v>
+        <v>691400</v>
       </c>
       <c r="I10" s="3">
-        <v>555300</v>
+        <v>676400</v>
       </c>
       <c r="J10" s="3">
+        <v>577500</v>
+      </c>
+      <c r="K10" s="3">
         <v>609300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>518200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>456000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>575300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,32 +944,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>366900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12800</v>
+        <v>16700</v>
       </c>
       <c r="E15" s="3">
-        <v>12500</v>
+        <v>13300</v>
       </c>
       <c r="F15" s="3">
-        <v>11200</v>
+        <v>13000</v>
       </c>
       <c r="G15" s="3">
-        <v>7700</v>
+        <v>11700</v>
       </c>
       <c r="H15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J15" s="3">
         <v>8800</v>
       </c>
-      <c r="I15" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>14800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8300</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3589600</v>
+        <v>4032600</v>
       </c>
       <c r="E17" s="3">
-        <v>2784400</v>
+        <v>3733600</v>
       </c>
       <c r="F17" s="3">
-        <v>2433300</v>
+        <v>2896100</v>
       </c>
       <c r="G17" s="3">
-        <v>2428300</v>
+        <v>2531000</v>
       </c>
       <c r="H17" s="3">
-        <v>2299800</v>
+        <v>2525700</v>
       </c>
       <c r="I17" s="3">
-        <v>2141100</v>
+        <v>2392100</v>
       </c>
       <c r="J17" s="3">
+        <v>2227000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2482200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2402500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1488400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1750000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1591900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1054500</v>
+        <v>383600</v>
       </c>
       <c r="E18" s="3">
-        <v>823600</v>
+        <v>1096800</v>
       </c>
       <c r="F18" s="3">
-        <v>639400</v>
+        <v>856600</v>
       </c>
       <c r="G18" s="3">
-        <v>463600</v>
+        <v>665100</v>
       </c>
       <c r="H18" s="3">
-        <v>415800</v>
+        <v>482200</v>
       </c>
       <c r="I18" s="3">
-        <v>395800</v>
+        <v>432400</v>
       </c>
       <c r="J18" s="3">
         <v>411700</v>
       </c>
       <c r="K18" s="3">
+        <v>411700</v>
+      </c>
+      <c r="L18" s="3">
         <v>340300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>229500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>233300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>337200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>102300</v>
+        <v>105600</v>
       </c>
       <c r="E20" s="3">
-        <v>285400</v>
+        <v>106400</v>
       </c>
       <c r="F20" s="3">
-        <v>252800</v>
+        <v>296800</v>
       </c>
       <c r="G20" s="3">
-        <v>83900</v>
+        <v>262900</v>
       </c>
       <c r="H20" s="3">
-        <v>46400</v>
+        <v>87300</v>
       </c>
       <c r="I20" s="3">
-        <v>65500</v>
+        <v>48300</v>
       </c>
       <c r="J20" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K20" s="3">
         <v>81900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>98000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>96100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>90800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1367200</v>
+        <v>752600</v>
       </c>
       <c r="E21" s="3">
-        <v>1305200</v>
+        <v>1422400</v>
       </c>
       <c r="F21" s="3">
-        <v>1104800</v>
+        <v>1357900</v>
       </c>
       <c r="G21" s="3">
-        <v>693100</v>
+        <v>1149400</v>
       </c>
       <c r="H21" s="3">
-        <v>604400</v>
+        <v>721100</v>
       </c>
       <c r="I21" s="3">
-        <v>598900</v>
+        <v>628800</v>
       </c>
       <c r="J21" s="3">
+        <v>623200</v>
+      </c>
+      <c r="K21" s="3">
         <v>625100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>564000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>438600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>388100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>563000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>165700</v>
+        <v>297900</v>
       </c>
       <c r="E22" s="3">
-        <v>117600</v>
+        <v>172400</v>
       </c>
       <c r="F22" s="3">
-        <v>340900</v>
+        <v>122400</v>
       </c>
       <c r="G22" s="3">
-        <v>168700</v>
+        <v>354600</v>
       </c>
       <c r="H22" s="3">
-        <v>192500</v>
+        <v>175500</v>
       </c>
       <c r="I22" s="3">
-        <v>207700</v>
+        <v>200200</v>
       </c>
       <c r="J22" s="3">
+        <v>216100</v>
+      </c>
+      <c r="K22" s="3">
         <v>145500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>72300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>31100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>35100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>991100</v>
+        <v>191400</v>
       </c>
       <c r="E23" s="3">
-        <v>991300</v>
+        <v>1030900</v>
       </c>
       <c r="F23" s="3">
-        <v>551200</v>
+        <v>1031100</v>
       </c>
       <c r="G23" s="3">
-        <v>378700</v>
+        <v>573400</v>
       </c>
       <c r="H23" s="3">
-        <v>269700</v>
+        <v>393900</v>
       </c>
       <c r="I23" s="3">
-        <v>253500</v>
+        <v>280500</v>
       </c>
       <c r="J23" s="3">
+        <v>263700</v>
+      </c>
+      <c r="K23" s="3">
         <v>348100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>366100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>281900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>227100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>392900</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>243900</v>
+        <v>-40100</v>
       </c>
       <c r="E24" s="3">
-        <v>248900</v>
+        <v>253700</v>
       </c>
       <c r="F24" s="3">
-        <v>130800</v>
+        <v>258900</v>
       </c>
       <c r="G24" s="3">
-        <v>99100</v>
+        <v>136100</v>
       </c>
       <c r="H24" s="3">
-        <v>53200</v>
+        <v>103100</v>
       </c>
       <c r="I24" s="3">
-        <v>100600</v>
+        <v>55300</v>
       </c>
       <c r="J24" s="3">
+        <v>104700</v>
+      </c>
+      <c r="K24" s="3">
         <v>103100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>101000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>747200</v>
+        <v>231500</v>
       </c>
       <c r="E26" s="3">
-        <v>742400</v>
+        <v>777200</v>
       </c>
       <c r="F26" s="3">
-        <v>420400</v>
+        <v>772200</v>
       </c>
       <c r="G26" s="3">
-        <v>279600</v>
+        <v>437300</v>
       </c>
       <c r="H26" s="3">
-        <v>216500</v>
+        <v>290800</v>
       </c>
       <c r="I26" s="3">
-        <v>152900</v>
+        <v>225200</v>
       </c>
       <c r="J26" s="3">
+        <v>159100</v>
+      </c>
+      <c r="K26" s="3">
         <v>245000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>263200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>206100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>169700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>292000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>728600</v>
+        <v>224000</v>
       </c>
       <c r="E27" s="3">
-        <v>741300</v>
+        <v>757900</v>
       </c>
       <c r="F27" s="3">
-        <v>406300</v>
+        <v>771100</v>
       </c>
       <c r="G27" s="3">
-        <v>272400</v>
+        <v>422600</v>
       </c>
       <c r="H27" s="3">
-        <v>200100</v>
+        <v>283400</v>
       </c>
       <c r="I27" s="3">
-        <v>160300</v>
+        <v>208200</v>
       </c>
       <c r="J27" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K27" s="3">
         <v>230900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>237600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>163600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>287200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,23 +1523,26 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>230300</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>14600</v>
+        <v>239600</v>
       </c>
       <c r="F29" s="3">
-        <v>-21000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>15200</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-21800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1496,8 +1556,8 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102300</v>
+        <v>-105600</v>
       </c>
       <c r="E32" s="3">
-        <v>-285400</v>
+        <v>-106400</v>
       </c>
       <c r="F32" s="3">
-        <v>-252800</v>
+        <v>-296800</v>
       </c>
       <c r="G32" s="3">
-        <v>-83900</v>
+        <v>-262900</v>
       </c>
       <c r="H32" s="3">
-        <v>-46400</v>
+        <v>-87300</v>
       </c>
       <c r="I32" s="3">
-        <v>-65500</v>
+        <v>-48300</v>
       </c>
       <c r="J32" s="3">
+        <v>-68100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-81900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-98000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-96100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-90800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>959000</v>
+        <v>224000</v>
       </c>
       <c r="E33" s="3">
-        <v>756000</v>
+        <v>997400</v>
       </c>
       <c r="F33" s="3">
-        <v>385300</v>
+        <v>786300</v>
       </c>
       <c r="G33" s="3">
-        <v>272400</v>
+        <v>400800</v>
       </c>
       <c r="H33" s="3">
-        <v>200100</v>
+        <v>283400</v>
       </c>
       <c r="I33" s="3">
-        <v>160300</v>
+        <v>208200</v>
       </c>
       <c r="J33" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K33" s="3">
         <v>230900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>237600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>163600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>287200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>959000</v>
+        <v>224000</v>
       </c>
       <c r="E35" s="3">
-        <v>756000</v>
+        <v>997400</v>
       </c>
       <c r="F35" s="3">
-        <v>385300</v>
+        <v>786300</v>
       </c>
       <c r="G35" s="3">
-        <v>272400</v>
+        <v>400800</v>
       </c>
       <c r="H35" s="3">
-        <v>200100</v>
+        <v>283400</v>
       </c>
       <c r="I35" s="3">
-        <v>160300</v>
+        <v>208200</v>
       </c>
       <c r="J35" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K35" s="3">
         <v>230900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>237600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>163600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>287200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>672400</v>
+        <v>539400</v>
       </c>
       <c r="E41" s="3">
-        <v>624000</v>
+        <v>699400</v>
       </c>
       <c r="F41" s="3">
-        <v>569600</v>
+        <v>649100</v>
       </c>
       <c r="G41" s="3">
-        <v>377300</v>
+        <v>592500</v>
       </c>
       <c r="H41" s="3">
-        <v>201400</v>
+        <v>392400</v>
       </c>
       <c r="I41" s="3">
-        <v>190200</v>
+        <v>209500</v>
       </c>
       <c r="J41" s="3">
+        <v>197800</v>
+      </c>
+      <c r="K41" s="3">
         <v>286700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>145900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>325900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>340800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>520400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77400</v>
+        <v>38400</v>
       </c>
       <c r="E42" s="3">
-        <v>33900</v>
+        <v>80500</v>
       </c>
       <c r="F42" s="3">
-        <v>69500</v>
+        <v>35200</v>
       </c>
       <c r="G42" s="3">
-        <v>105700</v>
+        <v>72200</v>
       </c>
       <c r="H42" s="3">
-        <v>33500</v>
+        <v>110000</v>
       </c>
       <c r="I42" s="3">
-        <v>26500</v>
+        <v>34800</v>
       </c>
       <c r="J42" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K42" s="3">
         <v>255000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>210500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>72800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>148400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>272400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1368100</v>
+        <v>1249300</v>
       </c>
       <c r="E43" s="3">
-        <v>1273900</v>
+        <v>1423000</v>
       </c>
       <c r="F43" s="3">
-        <v>860600</v>
+        <v>1325100</v>
       </c>
       <c r="G43" s="3">
-        <v>767400</v>
+        <v>895100</v>
       </c>
       <c r="H43" s="3">
-        <v>814200</v>
+        <v>798200</v>
       </c>
       <c r="I43" s="3">
-        <v>619800</v>
+        <v>846900</v>
       </c>
       <c r="J43" s="3">
+        <v>644700</v>
+      </c>
+      <c r="K43" s="3">
         <v>765500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>635600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>446900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>604300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>520200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38300</v>
+        <v>39200</v>
       </c>
       <c r="E44" s="3">
-        <v>31500</v>
+        <v>39800</v>
       </c>
       <c r="F44" s="3">
-        <v>25300</v>
+        <v>32800</v>
       </c>
       <c r="G44" s="3">
-        <v>22500</v>
+        <v>26300</v>
       </c>
       <c r="H44" s="3">
-        <v>21400</v>
+        <v>23400</v>
       </c>
       <c r="I44" s="3">
-        <v>25300</v>
+        <v>22300</v>
       </c>
       <c r="J44" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K44" s="3">
         <v>25400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>26100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>58300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>51500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10400</v>
+        <v>12100</v>
       </c>
       <c r="E45" s="3">
-        <v>245500</v>
+        <v>10800</v>
       </c>
       <c r="F45" s="3">
-        <v>6500</v>
+        <v>255300</v>
       </c>
       <c r="G45" s="3">
-        <v>20100</v>
+        <v>6800</v>
       </c>
       <c r="H45" s="3">
-        <v>33600</v>
+        <v>20900</v>
       </c>
       <c r="I45" s="3">
-        <v>18200</v>
+        <v>34900</v>
       </c>
       <c r="J45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K45" s="3">
         <v>9900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2166700</v>
+        <v>1878500</v>
       </c>
       <c r="E46" s="3">
-        <v>2208800</v>
+        <v>2253600</v>
       </c>
       <c r="F46" s="3">
-        <v>1531500</v>
+        <v>2297500</v>
       </c>
       <c r="G46" s="3">
-        <v>1293000</v>
+        <v>1592900</v>
       </c>
       <c r="H46" s="3">
-        <v>1104000</v>
+        <v>1344900</v>
       </c>
       <c r="I46" s="3">
-        <v>820500</v>
+        <v>1148300</v>
       </c>
       <c r="J46" s="3">
+        <v>853400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1342500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1028300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>875800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1093300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>917800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3308700</v>
+        <v>3522600</v>
       </c>
       <c r="E47" s="3">
-        <v>3079200</v>
+        <v>3441500</v>
       </c>
       <c r="F47" s="3">
-        <v>2060000</v>
+        <v>3202800</v>
       </c>
       <c r="G47" s="3">
-        <v>1839300</v>
+        <v>2142700</v>
       </c>
       <c r="H47" s="3">
-        <v>1646800</v>
+        <v>1913100</v>
       </c>
       <c r="I47" s="3">
-        <v>1468100</v>
+        <v>1712800</v>
       </c>
       <c r="J47" s="3">
+        <v>1527000</v>
+      </c>
+      <c r="K47" s="3">
         <v>878300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1448900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1058000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>998600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1013300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2003500</v>
+        <v>2080700</v>
       </c>
       <c r="E48" s="3">
-        <v>1864400</v>
+        <v>2083900</v>
       </c>
       <c r="F48" s="3">
-        <v>2069100</v>
+        <v>1939200</v>
       </c>
       <c r="G48" s="3">
-        <v>2099300</v>
+        <v>2152100</v>
       </c>
       <c r="H48" s="3">
-        <v>1903500</v>
+        <v>2183600</v>
       </c>
       <c r="I48" s="3">
-        <v>1730200</v>
+        <v>1979900</v>
       </c>
       <c r="J48" s="3">
+        <v>1799600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1683200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1636400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1831200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5514700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3576900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1784400</v>
+        <v>2069900</v>
       </c>
       <c r="E49" s="3">
-        <v>1341800</v>
+        <v>1856000</v>
       </c>
       <c r="F49" s="3">
-        <v>1226200</v>
+        <v>1395600</v>
       </c>
       <c r="G49" s="3">
-        <v>1167400</v>
+        <v>1275400</v>
       </c>
       <c r="H49" s="3">
-        <v>1249500</v>
+        <v>1214300</v>
       </c>
       <c r="I49" s="3">
-        <v>1250800</v>
+        <v>1299600</v>
       </c>
       <c r="J49" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1189900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>428400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>388500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1251000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>860900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>328600</v>
+        <v>458500</v>
       </c>
       <c r="E52" s="3">
-        <v>564700</v>
+        <v>341800</v>
       </c>
       <c r="F52" s="3">
-        <v>531700</v>
+        <v>587300</v>
       </c>
       <c r="G52" s="3">
-        <v>558100</v>
+        <v>553100</v>
       </c>
       <c r="H52" s="3">
-        <v>568400</v>
+        <v>580500</v>
       </c>
       <c r="I52" s="3">
-        <v>599000</v>
+        <v>591200</v>
       </c>
       <c r="J52" s="3">
+        <v>623000</v>
+      </c>
+      <c r="K52" s="3">
         <v>511300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>506200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>518300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>610900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>551300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9592000</v>
+        <v>10010300</v>
       </c>
       <c r="E54" s="3">
-        <v>9058900</v>
+        <v>9976900</v>
       </c>
       <c r="F54" s="3">
-        <v>7418500</v>
+        <v>9422400</v>
       </c>
       <c r="G54" s="3">
-        <v>6957100</v>
+        <v>7716100</v>
       </c>
       <c r="H54" s="3">
-        <v>6421200</v>
+        <v>7236300</v>
       </c>
       <c r="I54" s="3">
-        <v>5868600</v>
+        <v>6678900</v>
       </c>
       <c r="J54" s="3">
+        <v>6104100</v>
+      </c>
+      <c r="K54" s="3">
         <v>5605100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5048300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4324800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4952700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4673100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500700</v>
+        <v>420900</v>
       </c>
       <c r="E57" s="3">
-        <v>443700</v>
+        <v>520800</v>
       </c>
       <c r="F57" s="3">
-        <v>326300</v>
+        <v>461500</v>
       </c>
       <c r="G57" s="3">
-        <v>274800</v>
+        <v>339400</v>
       </c>
       <c r="H57" s="3">
-        <v>326000</v>
+        <v>285800</v>
       </c>
       <c r="I57" s="3">
-        <v>243100</v>
+        <v>339100</v>
       </c>
       <c r="J57" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K57" s="3">
         <v>312300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>312800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>204400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>264300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>185400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>536600</v>
+        <v>340400</v>
       </c>
       <c r="E58" s="3">
-        <v>511200</v>
+        <v>558200</v>
       </c>
       <c r="F58" s="3">
-        <v>281400</v>
+        <v>531800</v>
       </c>
       <c r="G58" s="3">
-        <v>638600</v>
+        <v>292700</v>
       </c>
       <c r="H58" s="3">
-        <v>468000</v>
+        <v>664200</v>
       </c>
       <c r="I58" s="3">
-        <v>503800</v>
+        <v>486700</v>
       </c>
       <c r="J58" s="3">
+        <v>524000</v>
+      </c>
+      <c r="K58" s="3">
         <v>238700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>256000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>189900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>28900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>507800</v>
+        <v>680000</v>
       </c>
       <c r="E59" s="3">
-        <v>914500</v>
+        <v>528200</v>
       </c>
       <c r="F59" s="3">
-        <v>427300</v>
+        <v>951200</v>
       </c>
       <c r="G59" s="3">
-        <v>383000</v>
+        <v>444500</v>
       </c>
       <c r="H59" s="3">
-        <v>389100</v>
+        <v>398400</v>
       </c>
       <c r="I59" s="3">
-        <v>348200</v>
+        <v>404700</v>
       </c>
       <c r="J59" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K59" s="3">
         <v>376300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>230400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>232200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>423100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>414300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1545200</v>
+        <v>1441300</v>
       </c>
       <c r="E60" s="3">
-        <v>1869400</v>
+        <v>1607200</v>
       </c>
       <c r="F60" s="3">
-        <v>1035100</v>
+        <v>1944400</v>
       </c>
       <c r="G60" s="3">
-        <v>1296400</v>
+        <v>1076600</v>
       </c>
       <c r="H60" s="3">
-        <v>1183100</v>
+        <v>1348400</v>
       </c>
       <c r="I60" s="3">
-        <v>1095200</v>
+        <v>1230500</v>
       </c>
       <c r="J60" s="3">
+        <v>1139100</v>
+      </c>
+      <c r="K60" s="3">
         <v>927300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>799200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>626500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>661700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>510500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1794400</v>
+        <v>2223000</v>
       </c>
       <c r="E61" s="3">
-        <v>1441400</v>
+        <v>1866400</v>
       </c>
       <c r="F61" s="3">
-        <v>1978000</v>
+        <v>1499200</v>
       </c>
       <c r="G61" s="3">
-        <v>1600800</v>
+        <v>2057400</v>
       </c>
       <c r="H61" s="3">
-        <v>1435500</v>
+        <v>1665100</v>
       </c>
       <c r="I61" s="3">
-        <v>1207300</v>
+        <v>1493100</v>
       </c>
       <c r="J61" s="3">
+        <v>1255800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1264100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>937100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>658200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>697700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>510500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1958600</v>
+        <v>2090100</v>
       </c>
       <c r="E62" s="3">
-        <v>1827000</v>
+        <v>2037200</v>
       </c>
       <c r="F62" s="3">
-        <v>997900</v>
+        <v>1900300</v>
       </c>
       <c r="G62" s="3">
-        <v>896800</v>
+        <v>1037900</v>
       </c>
       <c r="H62" s="3">
-        <v>799300</v>
+        <v>932700</v>
       </c>
       <c r="I62" s="3">
-        <v>662100</v>
+        <v>831400</v>
       </c>
       <c r="J62" s="3">
+        <v>688700</v>
+      </c>
+      <c r="K62" s="3">
         <v>589700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>615800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>620800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>706600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>655700</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5363600</v>
+        <v>5817700</v>
       </c>
       <c r="E66" s="3">
-        <v>5194200</v>
+        <v>5578900</v>
       </c>
       <c r="F66" s="3">
-        <v>4077900</v>
+        <v>5402700</v>
       </c>
       <c r="G66" s="3">
-        <v>3852700</v>
+        <v>4241500</v>
       </c>
       <c r="H66" s="3">
-        <v>3476500</v>
+        <v>4007300</v>
       </c>
       <c r="I66" s="3">
-        <v>3015700</v>
+        <v>3616000</v>
       </c>
       <c r="J66" s="3">
+        <v>3136700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2846700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2421400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1957400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2127700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1736900</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1789600</v>
+        <v>1898000</v>
       </c>
       <c r="E72" s="3">
-        <v>1413200</v>
+        <v>1861400</v>
       </c>
       <c r="F72" s="3">
-        <v>1134800</v>
+        <v>1469900</v>
       </c>
       <c r="G72" s="3">
-        <v>1420700</v>
+        <v>1180300</v>
       </c>
       <c r="H72" s="3">
-        <v>1239700</v>
+        <v>1477700</v>
       </c>
       <c r="I72" s="3">
-        <v>1127900</v>
+        <v>1289400</v>
       </c>
       <c r="J72" s="3">
+        <v>1173200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1192400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1025100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>846300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>912700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>837200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4228300</v>
+        <v>4192600</v>
       </c>
       <c r="E76" s="3">
-        <v>3864700</v>
+        <v>4398000</v>
       </c>
       <c r="F76" s="3">
-        <v>3340600</v>
+        <v>4019800</v>
       </c>
       <c r="G76" s="3">
-        <v>3104500</v>
+        <v>3474600</v>
       </c>
       <c r="H76" s="3">
-        <v>2944700</v>
+        <v>3229000</v>
       </c>
       <c r="I76" s="3">
-        <v>2852900</v>
+        <v>3062900</v>
       </c>
       <c r="J76" s="3">
+        <v>2967300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2758400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2626900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2367400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2825000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2936200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>959000</v>
+        <v>224000</v>
       </c>
       <c r="E81" s="3">
-        <v>756000</v>
+        <v>997400</v>
       </c>
       <c r="F81" s="3">
-        <v>385300</v>
+        <v>786300</v>
       </c>
       <c r="G81" s="3">
-        <v>272400</v>
+        <v>400800</v>
       </c>
       <c r="H81" s="3">
-        <v>200100</v>
+        <v>283400</v>
       </c>
       <c r="I81" s="3">
-        <v>160300</v>
+        <v>208200</v>
       </c>
       <c r="J81" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K81" s="3">
         <v>230900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>237600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>163600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>287200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>209600</v>
+        <v>262000</v>
       </c>
       <c r="E83" s="3">
-        <v>195500</v>
+        <v>218000</v>
       </c>
       <c r="F83" s="3">
-        <v>211800</v>
+        <v>203400</v>
       </c>
       <c r="G83" s="3">
-        <v>145100</v>
+        <v>220300</v>
       </c>
       <c r="H83" s="3">
-        <v>141700</v>
+        <v>150900</v>
       </c>
       <c r="I83" s="3">
-        <v>137100</v>
+        <v>147300</v>
       </c>
       <c r="J83" s="3">
+        <v>142700</v>
+      </c>
+      <c r="K83" s="3">
         <v>131000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>124100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>112900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>128400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>137000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>655800</v>
+        <v>786000</v>
       </c>
       <c r="E89" s="3">
-        <v>763100</v>
+        <v>682100</v>
       </c>
       <c r="F89" s="3">
-        <v>570200</v>
+        <v>793700</v>
       </c>
       <c r="G89" s="3">
-        <v>342900</v>
+        <v>593100</v>
       </c>
       <c r="H89" s="3">
-        <v>191500</v>
+        <v>356700</v>
       </c>
       <c r="I89" s="3">
-        <v>286000</v>
+        <v>199200</v>
       </c>
       <c r="J89" s="3">
+        <v>297400</v>
+      </c>
+      <c r="K89" s="3">
         <v>255700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>215100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>250300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>331400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>285000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65500</v>
+        <v>-107900</v>
       </c>
       <c r="E91" s="3">
-        <v>-43800</v>
+        <v>-68100</v>
       </c>
       <c r="F91" s="3">
-        <v>-105200</v>
+        <v>-45600</v>
       </c>
       <c r="G91" s="3">
-        <v>-288300</v>
+        <v>-109400</v>
       </c>
       <c r="H91" s="3">
-        <v>-233400</v>
+        <v>-299900</v>
       </c>
       <c r="I91" s="3">
-        <v>-248700</v>
+        <v>-242800</v>
       </c>
       <c r="J91" s="3">
+        <v>-258700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-145700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-176300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-78600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-204400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-407300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6200</v>
+        <v>-558900</v>
       </c>
       <c r="E94" s="3">
-        <v>-322900</v>
+        <v>6400</v>
       </c>
       <c r="F94" s="3">
-        <v>-322100</v>
+        <v>-335800</v>
       </c>
       <c r="G94" s="3">
-        <v>-416100</v>
+        <v>-335100</v>
       </c>
       <c r="H94" s="3">
-        <v>-306200</v>
+        <v>-432800</v>
       </c>
       <c r="I94" s="3">
-        <v>-486200</v>
+        <v>-318400</v>
       </c>
       <c r="J94" s="3">
+        <v>-505700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-377900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-505000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-348800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-426800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-404300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-750200</v>
+        <v>-436600</v>
       </c>
       <c r="E96" s="3">
-        <v>-121300</v>
+        <v>-780300</v>
       </c>
       <c r="F96" s="3">
-        <v>-73700</v>
+        <v>-126100</v>
       </c>
       <c r="G96" s="3">
-        <v>-58200</v>
+        <v>-76600</v>
       </c>
       <c r="H96" s="3">
-        <v>-98100</v>
+        <v>-60600</v>
       </c>
       <c r="I96" s="3">
-        <v>-71400</v>
+        <v>-102000</v>
       </c>
       <c r="J96" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-59500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-131800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-110700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-52500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-99500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,48 +4155,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-558500</v>
+        <v>-387100</v>
       </c>
       <c r="E100" s="3">
-        <v>-332100</v>
+        <v>-580900</v>
       </c>
       <c r="F100" s="3">
-        <v>-55800</v>
+        <v>-345400</v>
       </c>
       <c r="G100" s="3">
-        <v>249100</v>
+        <v>-58000</v>
       </c>
       <c r="H100" s="3">
-        <v>125900</v>
+        <v>259100</v>
       </c>
       <c r="I100" s="3">
-        <v>103700</v>
+        <v>130900</v>
       </c>
       <c r="J100" s="3">
+        <v>107900</v>
+      </c>
+      <c r="K100" s="3">
         <v>265600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>92600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>151400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>191300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-65500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3991,46 +4239,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>103500</v>
+        <v>-160000</v>
       </c>
       <c r="E102" s="3">
-        <v>108100</v>
+        <v>107600</v>
       </c>
       <c r="F102" s="3">
-        <v>192300</v>
+        <v>112400</v>
       </c>
       <c r="G102" s="3">
-        <v>175900</v>
+        <v>200100</v>
       </c>
       <c r="H102" s="3">
-        <v>11200</v>
+        <v>182900</v>
       </c>
       <c r="I102" s="3">
-        <v>-96600</v>
+        <v>11700</v>
       </c>
       <c r="J102" s="3">
+        <v>-100400</v>
+      </c>
+      <c r="K102" s="3">
         <v>143400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-197400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>52800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>95900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-184800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4416200</v>
+        <v>4425900</v>
       </c>
       <c r="E8" s="3">
-        <v>4830400</v>
+        <v>4841000</v>
       </c>
       <c r="F8" s="3">
-        <v>3752700</v>
+        <v>3760900</v>
       </c>
       <c r="G8" s="3">
-        <v>3196100</v>
+        <v>3203000</v>
       </c>
       <c r="H8" s="3">
-        <v>3007900</v>
+        <v>3014400</v>
       </c>
       <c r="I8" s="3">
-        <v>2824500</v>
+        <v>2830700</v>
       </c>
       <c r="J8" s="3">
-        <v>2638700</v>
+        <v>2644500</v>
       </c>
       <c r="K8" s="3">
         <v>2894000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3409400</v>
+        <v>3416800</v>
       </c>
       <c r="E9" s="3">
-        <v>3850700</v>
+        <v>3859100</v>
       </c>
       <c r="F9" s="3">
-        <v>2688300</v>
+        <v>2694100</v>
       </c>
       <c r="G9" s="3">
-        <v>2308900</v>
+        <v>2313900</v>
       </c>
       <c r="H9" s="3">
-        <v>2316400</v>
+        <v>2321500</v>
       </c>
       <c r="I9" s="3">
-        <v>2148100</v>
+        <v>2152800</v>
       </c>
       <c r="J9" s="3">
-        <v>2061200</v>
+        <v>2065700</v>
       </c>
       <c r="K9" s="3">
         <v>2284700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1006900</v>
+        <v>1009100</v>
       </c>
       <c r="E10" s="3">
-        <v>979700</v>
+        <v>981900</v>
       </c>
       <c r="F10" s="3">
-        <v>1064500</v>
+        <v>1066800</v>
       </c>
       <c r="G10" s="3">
-        <v>887200</v>
+        <v>889100</v>
       </c>
       <c r="H10" s="3">
-        <v>691400</v>
+        <v>692900</v>
       </c>
       <c r="I10" s="3">
-        <v>676400</v>
+        <v>677900</v>
       </c>
       <c r="J10" s="3">
-        <v>577500</v>
+        <v>578800</v>
       </c>
       <c r="K10" s="3">
         <v>609300</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>366900</v>
+        <v>367700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4032600</v>
+        <v>4041400</v>
       </c>
       <c r="E17" s="3">
-        <v>3733600</v>
+        <v>3741800</v>
       </c>
       <c r="F17" s="3">
-        <v>2896100</v>
+        <v>2902500</v>
       </c>
       <c r="G17" s="3">
-        <v>2531000</v>
+        <v>2536500</v>
       </c>
       <c r="H17" s="3">
-        <v>2525700</v>
+        <v>2531200</v>
       </c>
       <c r="I17" s="3">
-        <v>2392100</v>
+        <v>2397300</v>
       </c>
       <c r="J17" s="3">
-        <v>2227000</v>
+        <v>2231900</v>
       </c>
       <c r="K17" s="3">
         <v>2482200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>383600</v>
+        <v>384500</v>
       </c>
       <c r="E18" s="3">
-        <v>1096800</v>
+        <v>1099200</v>
       </c>
       <c r="F18" s="3">
-        <v>856600</v>
+        <v>858500</v>
       </c>
       <c r="G18" s="3">
-        <v>665100</v>
+        <v>666500</v>
       </c>
       <c r="H18" s="3">
-        <v>482200</v>
+        <v>483200</v>
       </c>
       <c r="I18" s="3">
-        <v>432400</v>
+        <v>433400</v>
       </c>
       <c r="J18" s="3">
-        <v>411700</v>
+        <v>412600</v>
       </c>
       <c r="K18" s="3">
         <v>411700</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>105600</v>
+        <v>105800</v>
       </c>
       <c r="E20" s="3">
-        <v>106400</v>
+        <v>106700</v>
       </c>
       <c r="F20" s="3">
-        <v>296800</v>
+        <v>297500</v>
       </c>
       <c r="G20" s="3">
-        <v>262900</v>
+        <v>263500</v>
       </c>
       <c r="H20" s="3">
-        <v>87300</v>
+        <v>87500</v>
       </c>
       <c r="I20" s="3">
-        <v>48300</v>
+        <v>48400</v>
       </c>
       <c r="J20" s="3">
-        <v>68100</v>
+        <v>68300</v>
       </c>
       <c r="K20" s="3">
         <v>81900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>752600</v>
+        <v>752900</v>
       </c>
       <c r="E21" s="3">
-        <v>1422400</v>
+        <v>1424400</v>
       </c>
       <c r="F21" s="3">
-        <v>1357900</v>
+        <v>1359800</v>
       </c>
       <c r="G21" s="3">
-        <v>1149400</v>
+        <v>1150800</v>
       </c>
       <c r="H21" s="3">
-        <v>721100</v>
+        <v>721900</v>
       </c>
       <c r="I21" s="3">
-        <v>628800</v>
+        <v>629400</v>
       </c>
       <c r="J21" s="3">
-        <v>623200</v>
+        <v>623800</v>
       </c>
       <c r="K21" s="3">
         <v>625100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>297900</v>
+        <v>298500</v>
       </c>
       <c r="E22" s="3">
-        <v>172400</v>
+        <v>172700</v>
       </c>
       <c r="F22" s="3">
-        <v>122400</v>
+        <v>122600</v>
       </c>
       <c r="G22" s="3">
-        <v>354600</v>
+        <v>355400</v>
       </c>
       <c r="H22" s="3">
-        <v>175500</v>
+        <v>175900</v>
       </c>
       <c r="I22" s="3">
-        <v>200200</v>
+        <v>200600</v>
       </c>
       <c r="J22" s="3">
-        <v>216100</v>
+        <v>216500</v>
       </c>
       <c r="K22" s="3">
         <v>145500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>191400</v>
+        <v>191800</v>
       </c>
       <c r="E23" s="3">
-        <v>1030900</v>
+        <v>1033200</v>
       </c>
       <c r="F23" s="3">
-        <v>1031100</v>
+        <v>1033300</v>
       </c>
       <c r="G23" s="3">
-        <v>573400</v>
+        <v>574600</v>
       </c>
       <c r="H23" s="3">
-        <v>393900</v>
+        <v>394800</v>
       </c>
       <c r="I23" s="3">
-        <v>280500</v>
+        <v>281200</v>
       </c>
       <c r="J23" s="3">
-        <v>263700</v>
+        <v>264300</v>
       </c>
       <c r="K23" s="3">
         <v>348100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-40100</v>
+        <v>-40200</v>
       </c>
       <c r="E24" s="3">
-        <v>253700</v>
+        <v>254200</v>
       </c>
       <c r="F24" s="3">
-        <v>258900</v>
+        <v>259400</v>
       </c>
       <c r="G24" s="3">
-        <v>136100</v>
+        <v>136400</v>
       </c>
       <c r="H24" s="3">
-        <v>103100</v>
+        <v>103300</v>
       </c>
       <c r="I24" s="3">
-        <v>55300</v>
+        <v>55400</v>
       </c>
       <c r="J24" s="3">
-        <v>104700</v>
+        <v>104900</v>
       </c>
       <c r="K24" s="3">
         <v>103100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>231500</v>
+        <v>232000</v>
       </c>
       <c r="E26" s="3">
-        <v>777200</v>
+        <v>778900</v>
       </c>
       <c r="F26" s="3">
-        <v>772200</v>
+        <v>773900</v>
       </c>
       <c r="G26" s="3">
-        <v>437300</v>
+        <v>438200</v>
       </c>
       <c r="H26" s="3">
-        <v>290800</v>
+        <v>291500</v>
       </c>
       <c r="I26" s="3">
-        <v>225200</v>
+        <v>225700</v>
       </c>
       <c r="J26" s="3">
-        <v>159100</v>
+        <v>159400</v>
       </c>
       <c r="K26" s="3">
         <v>245000</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>224000</v>
+        <v>224400</v>
       </c>
       <c r="E27" s="3">
-        <v>757900</v>
+        <v>759500</v>
       </c>
       <c r="F27" s="3">
-        <v>771100</v>
+        <v>772800</v>
       </c>
       <c r="G27" s="3">
-        <v>422600</v>
+        <v>423500</v>
       </c>
       <c r="H27" s="3">
-        <v>283400</v>
+        <v>284000</v>
       </c>
       <c r="I27" s="3">
-        <v>208200</v>
+        <v>208600</v>
       </c>
       <c r="J27" s="3">
-        <v>166800</v>
+        <v>167100</v>
       </c>
       <c r="K27" s="3">
         <v>230900</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>239600</v>
+        <v>240100</v>
       </c>
       <c r="F29" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G29" s="3">
-        <v>-21800</v>
+        <v>-21900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-105600</v>
+        <v>-105800</v>
       </c>
       <c r="E32" s="3">
-        <v>-106400</v>
+        <v>-106700</v>
       </c>
       <c r="F32" s="3">
-        <v>-296800</v>
+        <v>-297500</v>
       </c>
       <c r="G32" s="3">
-        <v>-262900</v>
+        <v>-263500</v>
       </c>
       <c r="H32" s="3">
-        <v>-87300</v>
+        <v>-87500</v>
       </c>
       <c r="I32" s="3">
-        <v>-48300</v>
+        <v>-48400</v>
       </c>
       <c r="J32" s="3">
-        <v>-68100</v>
+        <v>-68300</v>
       </c>
       <c r="K32" s="3">
         <v>-81900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>224000</v>
+        <v>224400</v>
       </c>
       <c r="E33" s="3">
-        <v>997400</v>
+        <v>999600</v>
       </c>
       <c r="F33" s="3">
-        <v>786300</v>
+        <v>788000</v>
       </c>
       <c r="G33" s="3">
-        <v>400800</v>
+        <v>401700</v>
       </c>
       <c r="H33" s="3">
-        <v>283400</v>
+        <v>284000</v>
       </c>
       <c r="I33" s="3">
-        <v>208200</v>
+        <v>208600</v>
       </c>
       <c r="J33" s="3">
-        <v>166800</v>
+        <v>167100</v>
       </c>
       <c r="K33" s="3">
         <v>230900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>224000</v>
+        <v>224400</v>
       </c>
       <c r="E35" s="3">
-        <v>997400</v>
+        <v>999600</v>
       </c>
       <c r="F35" s="3">
-        <v>786300</v>
+        <v>788000</v>
       </c>
       <c r="G35" s="3">
-        <v>400800</v>
+        <v>401700</v>
       </c>
       <c r="H35" s="3">
-        <v>283400</v>
+        <v>284000</v>
       </c>
       <c r="I35" s="3">
-        <v>208200</v>
+        <v>208600</v>
       </c>
       <c r="J35" s="3">
-        <v>166800</v>
+        <v>167100</v>
       </c>
       <c r="K35" s="3">
         <v>230900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>539400</v>
+        <v>540600</v>
       </c>
       <c r="E41" s="3">
-        <v>699400</v>
+        <v>701000</v>
       </c>
       <c r="F41" s="3">
-        <v>649100</v>
+        <v>650500</v>
       </c>
       <c r="G41" s="3">
-        <v>592500</v>
+        <v>593800</v>
       </c>
       <c r="H41" s="3">
-        <v>392400</v>
+        <v>393300</v>
       </c>
       <c r="I41" s="3">
-        <v>209500</v>
+        <v>209900</v>
       </c>
       <c r="J41" s="3">
-        <v>197800</v>
+        <v>198200</v>
       </c>
       <c r="K41" s="3">
         <v>286700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38400</v>
+        <v>38500</v>
       </c>
       <c r="E42" s="3">
-        <v>80500</v>
+        <v>80700</v>
       </c>
       <c r="F42" s="3">
-        <v>35200</v>
+        <v>35300</v>
       </c>
       <c r="G42" s="3">
-        <v>72200</v>
+        <v>72400</v>
       </c>
       <c r="H42" s="3">
-        <v>110000</v>
+        <v>110200</v>
       </c>
       <c r="I42" s="3">
-        <v>34800</v>
+        <v>34900</v>
       </c>
       <c r="J42" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="K42" s="3">
         <v>255000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1249300</v>
+        <v>1252000</v>
       </c>
       <c r="E43" s="3">
-        <v>1423000</v>
+        <v>1426100</v>
       </c>
       <c r="F43" s="3">
-        <v>1325100</v>
+        <v>1327900</v>
       </c>
       <c r="G43" s="3">
-        <v>895100</v>
+        <v>897100</v>
       </c>
       <c r="H43" s="3">
-        <v>798200</v>
+        <v>799900</v>
       </c>
       <c r="I43" s="3">
-        <v>846900</v>
+        <v>848700</v>
       </c>
       <c r="J43" s="3">
-        <v>644700</v>
+        <v>646100</v>
       </c>
       <c r="K43" s="3">
         <v>765500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="E44" s="3">
-        <v>39800</v>
+        <v>39900</v>
       </c>
       <c r="F44" s="3">
-        <v>32800</v>
+        <v>32900</v>
       </c>
       <c r="G44" s="3">
         <v>26300</v>
       </c>
       <c r="H44" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="I44" s="3">
         <v>22300</v>
       </c>
       <c r="J44" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="K44" s="3">
         <v>25400</v>
@@ -2078,22 +2078,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="E45" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="F45" s="3">
-        <v>255300</v>
+        <v>255900</v>
       </c>
       <c r="G45" s="3">
         <v>6800</v>
       </c>
       <c r="H45" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="I45" s="3">
-        <v>34900</v>
+        <v>35000</v>
       </c>
       <c r="J45" s="3">
         <v>18900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1878500</v>
+        <v>1882600</v>
       </c>
       <c r="E46" s="3">
-        <v>2253600</v>
+        <v>2258600</v>
       </c>
       <c r="F46" s="3">
-        <v>2297500</v>
+        <v>2302500</v>
       </c>
       <c r="G46" s="3">
-        <v>1592900</v>
+        <v>1596400</v>
       </c>
       <c r="H46" s="3">
-        <v>1344900</v>
+        <v>1347900</v>
       </c>
       <c r="I46" s="3">
-        <v>1148300</v>
+        <v>1150900</v>
       </c>
       <c r="J46" s="3">
-        <v>853400</v>
+        <v>855200</v>
       </c>
       <c r="K46" s="3">
         <v>1342500</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3522600</v>
+        <v>3530300</v>
       </c>
       <c r="E47" s="3">
-        <v>3441500</v>
+        <v>3449000</v>
       </c>
       <c r="F47" s="3">
-        <v>3202800</v>
+        <v>3209800</v>
       </c>
       <c r="G47" s="3">
-        <v>2142700</v>
+        <v>2147400</v>
       </c>
       <c r="H47" s="3">
-        <v>1913100</v>
+        <v>1917200</v>
       </c>
       <c r="I47" s="3">
-        <v>1712800</v>
+        <v>1716600</v>
       </c>
       <c r="J47" s="3">
-        <v>1527000</v>
+        <v>1530400</v>
       </c>
       <c r="K47" s="3">
         <v>878300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2080700</v>
+        <v>2085300</v>
       </c>
       <c r="E48" s="3">
-        <v>2083900</v>
+        <v>2088500</v>
       </c>
       <c r="F48" s="3">
-        <v>1939200</v>
+        <v>1943500</v>
       </c>
       <c r="G48" s="3">
-        <v>2152100</v>
+        <v>2156800</v>
       </c>
       <c r="H48" s="3">
-        <v>2183600</v>
+        <v>2188400</v>
       </c>
       <c r="I48" s="3">
-        <v>1979900</v>
+        <v>1984300</v>
       </c>
       <c r="J48" s="3">
-        <v>1799600</v>
+        <v>1803600</v>
       </c>
       <c r="K48" s="3">
         <v>1683200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2069900</v>
+        <v>2074500</v>
       </c>
       <c r="E49" s="3">
-        <v>1856000</v>
+        <v>1860100</v>
       </c>
       <c r="F49" s="3">
-        <v>1395600</v>
+        <v>1398600</v>
       </c>
       <c r="G49" s="3">
-        <v>1275400</v>
+        <v>1278200</v>
       </c>
       <c r="H49" s="3">
-        <v>1214300</v>
+        <v>1216900</v>
       </c>
       <c r="I49" s="3">
-        <v>1299600</v>
+        <v>1302400</v>
       </c>
       <c r="J49" s="3">
-        <v>1301000</v>
+        <v>1303800</v>
       </c>
       <c r="K49" s="3">
         <v>1189900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>458500</v>
+        <v>459500</v>
       </c>
       <c r="E52" s="3">
-        <v>341800</v>
+        <v>342600</v>
       </c>
       <c r="F52" s="3">
-        <v>587300</v>
+        <v>588600</v>
       </c>
       <c r="G52" s="3">
-        <v>553100</v>
+        <v>554300</v>
       </c>
       <c r="H52" s="3">
-        <v>580500</v>
+        <v>581800</v>
       </c>
       <c r="I52" s="3">
-        <v>591200</v>
+        <v>592500</v>
       </c>
       <c r="J52" s="3">
-        <v>623000</v>
+        <v>624400</v>
       </c>
       <c r="K52" s="3">
         <v>511300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10010300</v>
+        <v>10032200</v>
       </c>
       <c r="E54" s="3">
-        <v>9976900</v>
+        <v>9998700</v>
       </c>
       <c r="F54" s="3">
-        <v>9422400</v>
+        <v>9443000</v>
       </c>
       <c r="G54" s="3">
-        <v>7716100</v>
+        <v>7733000</v>
       </c>
       <c r="H54" s="3">
-        <v>7236300</v>
+        <v>7252100</v>
       </c>
       <c r="I54" s="3">
-        <v>6678900</v>
+        <v>6693500</v>
       </c>
       <c r="J54" s="3">
-        <v>6104100</v>
+        <v>6117400</v>
       </c>
       <c r="K54" s="3">
         <v>5605100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>420900</v>
+        <v>421900</v>
       </c>
       <c r="E57" s="3">
-        <v>520800</v>
+        <v>521900</v>
       </c>
       <c r="F57" s="3">
-        <v>461500</v>
+        <v>462500</v>
       </c>
       <c r="G57" s="3">
-        <v>339400</v>
+        <v>340200</v>
       </c>
       <c r="H57" s="3">
-        <v>285800</v>
+        <v>286500</v>
       </c>
       <c r="I57" s="3">
-        <v>339100</v>
+        <v>339800</v>
       </c>
       <c r="J57" s="3">
-        <v>252900</v>
+        <v>253400</v>
       </c>
       <c r="K57" s="3">
         <v>312300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>340400</v>
+        <v>341100</v>
       </c>
       <c r="E58" s="3">
-        <v>558200</v>
+        <v>559400</v>
       </c>
       <c r="F58" s="3">
-        <v>531800</v>
+        <v>532900</v>
       </c>
       <c r="G58" s="3">
-        <v>292700</v>
+        <v>293400</v>
       </c>
       <c r="H58" s="3">
-        <v>664200</v>
+        <v>665700</v>
       </c>
       <c r="I58" s="3">
-        <v>486700</v>
+        <v>487800</v>
       </c>
       <c r="J58" s="3">
-        <v>524000</v>
+        <v>525200</v>
       </c>
       <c r="K58" s="3">
         <v>238700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>680000</v>
+        <v>681500</v>
       </c>
       <c r="E59" s="3">
-        <v>528200</v>
+        <v>529400</v>
       </c>
       <c r="F59" s="3">
-        <v>951200</v>
+        <v>953300</v>
       </c>
       <c r="G59" s="3">
-        <v>444500</v>
+        <v>445400</v>
       </c>
       <c r="H59" s="3">
-        <v>398400</v>
+        <v>399200</v>
       </c>
       <c r="I59" s="3">
-        <v>404700</v>
+        <v>405600</v>
       </c>
       <c r="J59" s="3">
-        <v>362200</v>
+        <v>363000</v>
       </c>
       <c r="K59" s="3">
         <v>376300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1441300</v>
+        <v>1444500</v>
       </c>
       <c r="E60" s="3">
-        <v>1607200</v>
+        <v>1610700</v>
       </c>
       <c r="F60" s="3">
-        <v>1944400</v>
+        <v>1948600</v>
       </c>
       <c r="G60" s="3">
-        <v>1076600</v>
+        <v>1079000</v>
       </c>
       <c r="H60" s="3">
-        <v>1348400</v>
+        <v>1351300</v>
       </c>
       <c r="I60" s="3">
-        <v>1230500</v>
+        <v>1233200</v>
       </c>
       <c r="J60" s="3">
-        <v>1139100</v>
+        <v>1141600</v>
       </c>
       <c r="K60" s="3">
         <v>927300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2223000</v>
+        <v>2227900</v>
       </c>
       <c r="E61" s="3">
-        <v>1866400</v>
+        <v>1870500</v>
       </c>
       <c r="F61" s="3">
-        <v>1499200</v>
+        <v>1502500</v>
       </c>
       <c r="G61" s="3">
-        <v>2057400</v>
+        <v>2061900</v>
       </c>
       <c r="H61" s="3">
-        <v>1665100</v>
+        <v>1668700</v>
       </c>
       <c r="I61" s="3">
-        <v>1493100</v>
+        <v>1496400</v>
       </c>
       <c r="J61" s="3">
-        <v>1255800</v>
+        <v>1258500</v>
       </c>
       <c r="K61" s="3">
         <v>1264100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2090100</v>
+        <v>2094700</v>
       </c>
       <c r="E62" s="3">
-        <v>2037200</v>
+        <v>2041600</v>
       </c>
       <c r="F62" s="3">
-        <v>1900300</v>
+        <v>1904500</v>
       </c>
       <c r="G62" s="3">
-        <v>1037900</v>
+        <v>1040200</v>
       </c>
       <c r="H62" s="3">
-        <v>932700</v>
+        <v>934800</v>
       </c>
       <c r="I62" s="3">
-        <v>831400</v>
+        <v>833200</v>
       </c>
       <c r="J62" s="3">
-        <v>688700</v>
+        <v>690200</v>
       </c>
       <c r="K62" s="3">
         <v>589700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5817700</v>
+        <v>5830400</v>
       </c>
       <c r="E66" s="3">
-        <v>5578900</v>
+        <v>5591100</v>
       </c>
       <c r="F66" s="3">
-        <v>5402700</v>
+        <v>5414500</v>
       </c>
       <c r="G66" s="3">
-        <v>4241500</v>
+        <v>4250800</v>
       </c>
       <c r="H66" s="3">
-        <v>4007300</v>
+        <v>4016000</v>
       </c>
       <c r="I66" s="3">
-        <v>3616000</v>
+        <v>3623900</v>
       </c>
       <c r="J66" s="3">
-        <v>3136700</v>
+        <v>3143600</v>
       </c>
       <c r="K66" s="3">
         <v>2846700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1898000</v>
+        <v>1902100</v>
       </c>
       <c r="E72" s="3">
-        <v>1861400</v>
+        <v>1865400</v>
       </c>
       <c r="F72" s="3">
-        <v>1469900</v>
+        <v>1473100</v>
       </c>
       <c r="G72" s="3">
-        <v>1180300</v>
+        <v>1182900</v>
       </c>
       <c r="H72" s="3">
-        <v>1477700</v>
+        <v>1481000</v>
       </c>
       <c r="I72" s="3">
-        <v>1289400</v>
+        <v>1292200</v>
       </c>
       <c r="J72" s="3">
-        <v>1173200</v>
+        <v>1175700</v>
       </c>
       <c r="K72" s="3">
         <v>1192400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4192600</v>
+        <v>4201800</v>
       </c>
       <c r="E76" s="3">
-        <v>4398000</v>
+        <v>4407600</v>
       </c>
       <c r="F76" s="3">
-        <v>4019800</v>
+        <v>4028500</v>
       </c>
       <c r="G76" s="3">
-        <v>3474600</v>
+        <v>3482200</v>
       </c>
       <c r="H76" s="3">
-        <v>3229000</v>
+        <v>3236100</v>
       </c>
       <c r="I76" s="3">
-        <v>3062900</v>
+        <v>3069600</v>
       </c>
       <c r="J76" s="3">
-        <v>2967300</v>
+        <v>2973800</v>
       </c>
       <c r="K76" s="3">
         <v>2758400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>224000</v>
+        <v>224400</v>
       </c>
       <c r="E81" s="3">
-        <v>997400</v>
+        <v>999600</v>
       </c>
       <c r="F81" s="3">
-        <v>786300</v>
+        <v>788000</v>
       </c>
       <c r="G81" s="3">
-        <v>400800</v>
+        <v>401700</v>
       </c>
       <c r="H81" s="3">
-        <v>283400</v>
+        <v>284000</v>
       </c>
       <c r="I81" s="3">
-        <v>208200</v>
+        <v>208600</v>
       </c>
       <c r="J81" s="3">
-        <v>166800</v>
+        <v>167100</v>
       </c>
       <c r="K81" s="3">
         <v>230900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>262000</v>
+        <v>262600</v>
       </c>
       <c r="E83" s="3">
-        <v>218000</v>
+        <v>218500</v>
       </c>
       <c r="F83" s="3">
-        <v>203400</v>
+        <v>203800</v>
       </c>
       <c r="G83" s="3">
-        <v>220300</v>
+        <v>220800</v>
       </c>
       <c r="H83" s="3">
-        <v>150900</v>
+        <v>151200</v>
       </c>
       <c r="I83" s="3">
-        <v>147300</v>
+        <v>147700</v>
       </c>
       <c r="J83" s="3">
-        <v>142700</v>
+        <v>143000</v>
       </c>
       <c r="K83" s="3">
         <v>131000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>786000</v>
+        <v>787700</v>
       </c>
       <c r="E89" s="3">
-        <v>682100</v>
+        <v>683600</v>
       </c>
       <c r="F89" s="3">
-        <v>793700</v>
+        <v>795400</v>
       </c>
       <c r="G89" s="3">
-        <v>593100</v>
+        <v>594400</v>
       </c>
       <c r="H89" s="3">
-        <v>356700</v>
+        <v>357500</v>
       </c>
       <c r="I89" s="3">
-        <v>199200</v>
+        <v>199700</v>
       </c>
       <c r="J89" s="3">
-        <v>297400</v>
+        <v>298100</v>
       </c>
       <c r="K89" s="3">
         <v>255700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107900</v>
+        <v>-108100</v>
       </c>
       <c r="E91" s="3">
-        <v>-68100</v>
+        <v>-68200</v>
       </c>
       <c r="F91" s="3">
-        <v>-45600</v>
+        <v>-45700</v>
       </c>
       <c r="G91" s="3">
-        <v>-109400</v>
+        <v>-109600</v>
       </c>
       <c r="H91" s="3">
-        <v>-299900</v>
+        <v>-300600</v>
       </c>
       <c r="I91" s="3">
-        <v>-242800</v>
+        <v>-243300</v>
       </c>
       <c r="J91" s="3">
-        <v>-258700</v>
+        <v>-259300</v>
       </c>
       <c r="K91" s="3">
         <v>-145700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-558900</v>
+        <v>-560100</v>
       </c>
       <c r="E94" s="3">
         <v>6400</v>
       </c>
       <c r="F94" s="3">
+        <v>-336600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-335800</v>
       </c>
-      <c r="G94" s="3">
-        <v>-335100</v>
-      </c>
       <c r="H94" s="3">
-        <v>-432800</v>
+        <v>-433800</v>
       </c>
       <c r="I94" s="3">
-        <v>-318400</v>
+        <v>-319100</v>
       </c>
       <c r="J94" s="3">
-        <v>-505700</v>
+        <v>-506800</v>
       </c>
       <c r="K94" s="3">
         <v>-377900</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-436600</v>
+        <v>-437500</v>
       </c>
       <c r="E96" s="3">
-        <v>-780300</v>
+        <v>-782000</v>
       </c>
       <c r="F96" s="3">
-        <v>-126100</v>
+        <v>-126400</v>
       </c>
       <c r="G96" s="3">
-        <v>-76600</v>
+        <v>-76800</v>
       </c>
       <c r="H96" s="3">
-        <v>-60600</v>
+        <v>-60700</v>
       </c>
       <c r="I96" s="3">
-        <v>-102000</v>
+        <v>-102200</v>
       </c>
       <c r="J96" s="3">
-        <v>-74300</v>
+        <v>-74500</v>
       </c>
       <c r="K96" s="3">
         <v>-59500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-387100</v>
+        <v>-387900</v>
       </c>
       <c r="E100" s="3">
-        <v>-580900</v>
+        <v>-582200</v>
       </c>
       <c r="F100" s="3">
-        <v>-345400</v>
+        <v>-346200</v>
       </c>
       <c r="G100" s="3">
-        <v>-58000</v>
+        <v>-58100</v>
       </c>
       <c r="H100" s="3">
-        <v>259100</v>
+        <v>259700</v>
       </c>
       <c r="I100" s="3">
-        <v>130900</v>
+        <v>131200</v>
       </c>
       <c r="J100" s="3">
-        <v>107900</v>
+        <v>108100</v>
       </c>
       <c r="K100" s="3">
         <v>265600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-160000</v>
+        <v>-160300</v>
       </c>
       <c r="E102" s="3">
-        <v>107600</v>
+        <v>107800</v>
       </c>
       <c r="F102" s="3">
-        <v>112400</v>
+        <v>112700</v>
       </c>
       <c r="G102" s="3">
-        <v>200100</v>
+        <v>200500</v>
       </c>
       <c r="H102" s="3">
-        <v>182900</v>
+        <v>183300</v>
       </c>
       <c r="I102" s="3">
         <v>11700</v>
       </c>
       <c r="J102" s="3">
-        <v>-100400</v>
+        <v>-100600</v>
       </c>
       <c r="K102" s="3">
         <v>143400</v>

--- a/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELP_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4425900</v>
+        <v>4509000</v>
       </c>
       <c r="E8" s="3">
-        <v>4841000</v>
+        <v>4931900</v>
       </c>
       <c r="F8" s="3">
-        <v>3760900</v>
+        <v>3831600</v>
       </c>
       <c r="G8" s="3">
-        <v>3203000</v>
+        <v>3263200</v>
       </c>
       <c r="H8" s="3">
-        <v>3014400</v>
+        <v>3071000</v>
       </c>
       <c r="I8" s="3">
-        <v>2830700</v>
+        <v>2883900</v>
       </c>
       <c r="J8" s="3">
-        <v>2644500</v>
+        <v>2694100</v>
       </c>
       <c r="K8" s="3">
         <v>2894000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3416800</v>
+        <v>3481000</v>
       </c>
       <c r="E9" s="3">
-        <v>3859100</v>
+        <v>3931600</v>
       </c>
       <c r="F9" s="3">
-        <v>2694100</v>
+        <v>2744700</v>
       </c>
       <c r="G9" s="3">
-        <v>2313900</v>
+        <v>2357400</v>
       </c>
       <c r="H9" s="3">
-        <v>2321500</v>
+        <v>2365100</v>
       </c>
       <c r="I9" s="3">
-        <v>2152800</v>
+        <v>2193200</v>
       </c>
       <c r="J9" s="3">
-        <v>2065700</v>
+        <v>2104400</v>
       </c>
       <c r="K9" s="3">
         <v>2284700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1009100</v>
+        <v>1028000</v>
       </c>
       <c r="E10" s="3">
-        <v>981900</v>
+        <v>1000300</v>
       </c>
       <c r="F10" s="3">
-        <v>1066800</v>
+        <v>1086800</v>
       </c>
       <c r="G10" s="3">
-        <v>889100</v>
+        <v>905800</v>
       </c>
       <c r="H10" s="3">
-        <v>692900</v>
+        <v>705900</v>
       </c>
       <c r="I10" s="3">
-        <v>677900</v>
+        <v>690600</v>
       </c>
       <c r="J10" s="3">
-        <v>578800</v>
+        <v>589700</v>
       </c>
       <c r="K10" s="3">
         <v>609300</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>367700</v>
+        <v>374600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="E15" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="F15" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="G15" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="H15" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="I15" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="J15" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="K15" s="3">
         <v>14800</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4041400</v>
+        <v>4117300</v>
       </c>
       <c r="E17" s="3">
-        <v>3741800</v>
+        <v>3812000</v>
       </c>
       <c r="F17" s="3">
-        <v>2902500</v>
+        <v>2957000</v>
       </c>
       <c r="G17" s="3">
-        <v>2536500</v>
+        <v>2584100</v>
       </c>
       <c r="H17" s="3">
-        <v>2531200</v>
+        <v>2578800</v>
       </c>
       <c r="I17" s="3">
-        <v>2397300</v>
+        <v>2442400</v>
       </c>
       <c r="J17" s="3">
-        <v>2231900</v>
+        <v>2273800</v>
       </c>
       <c r="K17" s="3">
         <v>2482200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>384500</v>
+        <v>391700</v>
       </c>
       <c r="E18" s="3">
-        <v>1099200</v>
+        <v>1119900</v>
       </c>
       <c r="F18" s="3">
-        <v>858500</v>
+        <v>874600</v>
       </c>
       <c r="G18" s="3">
-        <v>666500</v>
+        <v>679000</v>
       </c>
       <c r="H18" s="3">
-        <v>483200</v>
+        <v>492300</v>
       </c>
       <c r="I18" s="3">
-        <v>433400</v>
+        <v>441500</v>
       </c>
       <c r="J18" s="3">
-        <v>412600</v>
+        <v>420300</v>
       </c>
       <c r="K18" s="3">
         <v>411700</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>105800</v>
+        <v>107800</v>
       </c>
       <c r="E20" s="3">
-        <v>106700</v>
+        <v>108700</v>
       </c>
       <c r="F20" s="3">
-        <v>297500</v>
+        <v>303100</v>
       </c>
       <c r="G20" s="3">
-        <v>263500</v>
+        <v>268400</v>
       </c>
       <c r="H20" s="3">
-        <v>87500</v>
+        <v>89100</v>
       </c>
       <c r="I20" s="3">
-        <v>48400</v>
+        <v>49300</v>
       </c>
       <c r="J20" s="3">
-        <v>68300</v>
+        <v>69500</v>
       </c>
       <c r="K20" s="3">
         <v>81900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>752900</v>
+        <v>767100</v>
       </c>
       <c r="E21" s="3">
-        <v>1424400</v>
+        <v>1451200</v>
       </c>
       <c r="F21" s="3">
-        <v>1359800</v>
+        <v>1385400</v>
       </c>
       <c r="G21" s="3">
-        <v>1150800</v>
+        <v>1172500</v>
       </c>
       <c r="H21" s="3">
-        <v>721900</v>
+        <v>735500</v>
       </c>
       <c r="I21" s="3">
-        <v>629400</v>
+        <v>641300</v>
       </c>
       <c r="J21" s="3">
-        <v>623800</v>
+        <v>635600</v>
       </c>
       <c r="K21" s="3">
         <v>625100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>298500</v>
+        <v>304100</v>
       </c>
       <c r="E22" s="3">
-        <v>172700</v>
+        <v>176000</v>
       </c>
       <c r="F22" s="3">
-        <v>122600</v>
+        <v>124900</v>
       </c>
       <c r="G22" s="3">
-        <v>355400</v>
+        <v>362100</v>
       </c>
       <c r="H22" s="3">
-        <v>175900</v>
+        <v>179200</v>
       </c>
       <c r="I22" s="3">
-        <v>200600</v>
+        <v>204400</v>
       </c>
       <c r="J22" s="3">
-        <v>216500</v>
+        <v>220600</v>
       </c>
       <c r="K22" s="3">
         <v>145500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>191800</v>
+        <v>195400</v>
       </c>
       <c r="E23" s="3">
-        <v>1033200</v>
+        <v>1052600</v>
       </c>
       <c r="F23" s="3">
-        <v>1033300</v>
+        <v>1052700</v>
       </c>
       <c r="G23" s="3">
-        <v>574600</v>
+        <v>585400</v>
       </c>
       <c r="H23" s="3">
-        <v>394800</v>
+        <v>402200</v>
       </c>
       <c r="I23" s="3">
-        <v>281200</v>
+        <v>286400</v>
       </c>
       <c r="J23" s="3">
-        <v>264300</v>
+        <v>269300</v>
       </c>
       <c r="K23" s="3">
         <v>348100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-40200</v>
+        <v>-40900</v>
       </c>
       <c r="E24" s="3">
-        <v>254200</v>
+        <v>259000</v>
       </c>
       <c r="F24" s="3">
-        <v>259400</v>
+        <v>264300</v>
       </c>
       <c r="G24" s="3">
-        <v>136400</v>
+        <v>138900</v>
       </c>
       <c r="H24" s="3">
-        <v>103300</v>
+        <v>105300</v>
       </c>
       <c r="I24" s="3">
-        <v>55400</v>
+        <v>56500</v>
       </c>
       <c r="J24" s="3">
-        <v>104900</v>
+        <v>106900</v>
       </c>
       <c r="K24" s="3">
         <v>103100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>232000</v>
+        <v>236300</v>
       </c>
       <c r="E26" s="3">
-        <v>778900</v>
+        <v>793500</v>
       </c>
       <c r="F26" s="3">
-        <v>773900</v>
+        <v>788400</v>
       </c>
       <c r="G26" s="3">
-        <v>438200</v>
+        <v>446500</v>
       </c>
       <c r="H26" s="3">
-        <v>291500</v>
+        <v>296900</v>
       </c>
       <c r="I26" s="3">
-        <v>225700</v>
+        <v>229900</v>
       </c>
       <c r="J26" s="3">
-        <v>159400</v>
+        <v>162400</v>
       </c>
       <c r="K26" s="3">
         <v>245000</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>224400</v>
+        <v>228700</v>
       </c>
       <c r="E27" s="3">
-        <v>759500</v>
+        <v>773800</v>
       </c>
       <c r="F27" s="3">
-        <v>772800</v>
+        <v>787300</v>
       </c>
       <c r="G27" s="3">
-        <v>423500</v>
+        <v>431500</v>
       </c>
       <c r="H27" s="3">
-        <v>284000</v>
+        <v>289300</v>
       </c>
       <c r="I27" s="3">
-        <v>208600</v>
+        <v>212500</v>
       </c>
       <c r="J27" s="3">
-        <v>167100</v>
+        <v>170300</v>
       </c>
       <c r="K27" s="3">
         <v>230900</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>240100</v>
+        <v>244600</v>
       </c>
       <c r="F29" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="G29" s="3">
-        <v>-21900</v>
+        <v>-22300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-105800</v>
+        <v>-107800</v>
       </c>
       <c r="E32" s="3">
-        <v>-106700</v>
+        <v>-108700</v>
       </c>
       <c r="F32" s="3">
-        <v>-297500</v>
+        <v>-303100</v>
       </c>
       <c r="G32" s="3">
-        <v>-263500</v>
+        <v>-268400</v>
       </c>
       <c r="H32" s="3">
-        <v>-87500</v>
+        <v>-89100</v>
       </c>
       <c r="I32" s="3">
-        <v>-48400</v>
+        <v>-49300</v>
       </c>
       <c r="J32" s="3">
-        <v>-68300</v>
+        <v>-69500</v>
       </c>
       <c r="K32" s="3">
         <v>-81900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>224400</v>
+        <v>228700</v>
       </c>
       <c r="E33" s="3">
-        <v>999600</v>
+        <v>1018400</v>
       </c>
       <c r="F33" s="3">
-        <v>788000</v>
+        <v>802800</v>
       </c>
       <c r="G33" s="3">
-        <v>401700</v>
+        <v>409200</v>
       </c>
       <c r="H33" s="3">
-        <v>284000</v>
+        <v>289300</v>
       </c>
       <c r="I33" s="3">
-        <v>208600</v>
+        <v>212500</v>
       </c>
       <c r="J33" s="3">
-        <v>167100</v>
+        <v>170300</v>
       </c>
       <c r="K33" s="3">
         <v>230900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>224400</v>
+        <v>228700</v>
       </c>
       <c r="E35" s="3">
-        <v>999600</v>
+        <v>1018400</v>
       </c>
       <c r="F35" s="3">
-        <v>788000</v>
+        <v>802800</v>
       </c>
       <c r="G35" s="3">
-        <v>401700</v>
+        <v>409200</v>
       </c>
       <c r="H35" s="3">
-        <v>284000</v>
+        <v>289300</v>
       </c>
       <c r="I35" s="3">
-        <v>208600</v>
+        <v>212500</v>
       </c>
       <c r="J35" s="3">
-        <v>167100</v>
+        <v>170300</v>
       </c>
       <c r="K35" s="3">
         <v>230900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>540600</v>
+        <v>550800</v>
       </c>
       <c r="E41" s="3">
-        <v>701000</v>
+        <v>714100</v>
       </c>
       <c r="F41" s="3">
-        <v>650500</v>
+        <v>662700</v>
       </c>
       <c r="G41" s="3">
-        <v>593800</v>
+        <v>604900</v>
       </c>
       <c r="H41" s="3">
-        <v>393300</v>
+        <v>400700</v>
       </c>
       <c r="I41" s="3">
-        <v>209900</v>
+        <v>213900</v>
       </c>
       <c r="J41" s="3">
-        <v>198200</v>
+        <v>201900</v>
       </c>
       <c r="K41" s="3">
         <v>286700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38500</v>
+        <v>39200</v>
       </c>
       <c r="E42" s="3">
-        <v>80700</v>
+        <v>82200</v>
       </c>
       <c r="F42" s="3">
-        <v>35300</v>
+        <v>36000</v>
       </c>
       <c r="G42" s="3">
-        <v>72400</v>
+        <v>73800</v>
       </c>
       <c r="H42" s="3">
-        <v>110200</v>
+        <v>112300</v>
       </c>
       <c r="I42" s="3">
-        <v>34900</v>
+        <v>35600</v>
       </c>
       <c r="J42" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="K42" s="3">
         <v>255000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1252000</v>
+        <v>1275500</v>
       </c>
       <c r="E43" s="3">
-        <v>1426100</v>
+        <v>1452900</v>
       </c>
       <c r="F43" s="3">
-        <v>1327900</v>
+        <v>1352900</v>
       </c>
       <c r="G43" s="3">
-        <v>897100</v>
+        <v>914000</v>
       </c>
       <c r="H43" s="3">
-        <v>799900</v>
+        <v>815000</v>
       </c>
       <c r="I43" s="3">
-        <v>848700</v>
+        <v>864600</v>
       </c>
       <c r="J43" s="3">
-        <v>646100</v>
+        <v>658200</v>
       </c>
       <c r="K43" s="3">
         <v>765500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39300</v>
+        <v>40100</v>
       </c>
       <c r="E44" s="3">
-        <v>39900</v>
+        <v>40700</v>
       </c>
       <c r="F44" s="3">
-        <v>32900</v>
+        <v>33500</v>
       </c>
       <c r="G44" s="3">
-        <v>26300</v>
+        <v>26800</v>
       </c>
       <c r="H44" s="3">
-        <v>23500</v>
+        <v>23900</v>
       </c>
       <c r="I44" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="J44" s="3">
-        <v>26400</v>
+        <v>26900</v>
       </c>
       <c r="K44" s="3">
         <v>25400</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="E45" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="F45" s="3">
-        <v>255900</v>
+        <v>260700</v>
       </c>
       <c r="G45" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="H45" s="3">
-        <v>21000</v>
+        <v>21400</v>
       </c>
       <c r="I45" s="3">
-        <v>35000</v>
+        <v>35700</v>
       </c>
       <c r="J45" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="K45" s="3">
         <v>9900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1882600</v>
+        <v>1918000</v>
       </c>
       <c r="E46" s="3">
-        <v>2258600</v>
+        <v>2301000</v>
       </c>
       <c r="F46" s="3">
-        <v>2302500</v>
+        <v>2345700</v>
       </c>
       <c r="G46" s="3">
-        <v>1596400</v>
+        <v>1626400</v>
       </c>
       <c r="H46" s="3">
-        <v>1347900</v>
+        <v>1373200</v>
       </c>
       <c r="I46" s="3">
-        <v>1150900</v>
+        <v>1172500</v>
       </c>
       <c r="J46" s="3">
-        <v>855200</v>
+        <v>871300</v>
       </c>
       <c r="K46" s="3">
         <v>1342500</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3530300</v>
+        <v>3596600</v>
       </c>
       <c r="E47" s="3">
-        <v>3449000</v>
+        <v>3513800</v>
       </c>
       <c r="F47" s="3">
-        <v>3209800</v>
+        <v>3270100</v>
       </c>
       <c r="G47" s="3">
-        <v>2147400</v>
+        <v>2187700</v>
       </c>
       <c r="H47" s="3">
-        <v>1917200</v>
+        <v>1953200</v>
       </c>
       <c r="I47" s="3">
-        <v>1716600</v>
+        <v>1748800</v>
       </c>
       <c r="J47" s="3">
-        <v>1530400</v>
+        <v>1559100</v>
       </c>
       <c r="K47" s="3">
         <v>878300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2085300</v>
+        <v>2124400</v>
       </c>
       <c r="E48" s="3">
-        <v>2088500</v>
+        <v>2127700</v>
       </c>
       <c r="F48" s="3">
-        <v>1943500</v>
+        <v>1980000</v>
       </c>
       <c r="G48" s="3">
-        <v>2156800</v>
+        <v>2197300</v>
       </c>
       <c r="H48" s="3">
-        <v>2188400</v>
+        <v>2229400</v>
       </c>
       <c r="I48" s="3">
-        <v>1984300</v>
+        <v>2021500</v>
       </c>
       <c r="J48" s="3">
-        <v>1803600</v>
+        <v>1837400</v>
       </c>
       <c r="K48" s="3">
         <v>1683200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2074500</v>
+        <v>2113400</v>
       </c>
       <c r="E49" s="3">
-        <v>1860100</v>
+        <v>1895000</v>
       </c>
       <c r="F49" s="3">
-        <v>1398600</v>
+        <v>1424900</v>
       </c>
       <c r="G49" s="3">
-        <v>1278200</v>
+        <v>1302200</v>
       </c>
       <c r="H49" s="3">
-        <v>1216900</v>
+        <v>1239800</v>
       </c>
       <c r="I49" s="3">
-        <v>1302400</v>
+        <v>1326900</v>
       </c>
       <c r="J49" s="3">
-        <v>1303800</v>
+        <v>1328300</v>
       </c>
       <c r="K49" s="3">
         <v>1189900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>459500</v>
+        <v>468200</v>
       </c>
       <c r="E52" s="3">
-        <v>342600</v>
+        <v>349000</v>
       </c>
       <c r="F52" s="3">
-        <v>588600</v>
+        <v>599700</v>
       </c>
       <c r="G52" s="3">
-        <v>554300</v>
+        <v>564700</v>
       </c>
       <c r="H52" s="3">
-        <v>581800</v>
+        <v>592700</v>
       </c>
       <c r="I52" s="3">
-        <v>592500</v>
+        <v>603700</v>
       </c>
       <c r="J52" s="3">
-        <v>624400</v>
+        <v>636100</v>
       </c>
       <c r="K52" s="3">
         <v>511300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10032200</v>
+        <v>10220600</v>
       </c>
       <c r="E54" s="3">
-        <v>9998700</v>
+        <v>10186400</v>
       </c>
       <c r="F54" s="3">
-        <v>9443000</v>
+        <v>9620300</v>
       </c>
       <c r="G54" s="3">
-        <v>7733000</v>
+        <v>7878200</v>
       </c>
       <c r="H54" s="3">
-        <v>7252100</v>
+        <v>7388300</v>
       </c>
       <c r="I54" s="3">
-        <v>6693500</v>
+        <v>6819200</v>
       </c>
       <c r="J54" s="3">
-        <v>6117400</v>
+        <v>6232300</v>
       </c>
       <c r="K54" s="3">
         <v>5605100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>421900</v>
+        <v>429800</v>
       </c>
       <c r="E57" s="3">
-        <v>521900</v>
+        <v>531700</v>
       </c>
       <c r="F57" s="3">
-        <v>462500</v>
+        <v>471200</v>
       </c>
       <c r="G57" s="3">
-        <v>340200</v>
+        <v>346500</v>
       </c>
       <c r="H57" s="3">
-        <v>286500</v>
+        <v>291800</v>
       </c>
       <c r="I57" s="3">
-        <v>339800</v>
+        <v>346200</v>
       </c>
       <c r="J57" s="3">
-        <v>253400</v>
+        <v>258200</v>
       </c>
       <c r="K57" s="3">
         <v>312300</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>341100</v>
+        <v>347500</v>
       </c>
       <c r="E58" s="3">
-        <v>559400</v>
+        <v>569900</v>
       </c>
       <c r="F58" s="3">
-        <v>532900</v>
+        <v>542900</v>
       </c>
       <c r="G58" s="3">
-        <v>293400</v>
+        <v>298900</v>
       </c>
       <c r="H58" s="3">
-        <v>665700</v>
+        <v>678200</v>
       </c>
       <c r="I58" s="3">
-        <v>487800</v>
+        <v>497000</v>
       </c>
       <c r="J58" s="3">
-        <v>525200</v>
+        <v>535000</v>
       </c>
       <c r="K58" s="3">
         <v>238700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>681500</v>
+        <v>694300</v>
       </c>
       <c r="E59" s="3">
-        <v>529400</v>
+        <v>539300</v>
       </c>
       <c r="F59" s="3">
-        <v>953300</v>
+        <v>971200</v>
       </c>
       <c r="G59" s="3">
-        <v>445400</v>
+        <v>453800</v>
       </c>
       <c r="H59" s="3">
-        <v>399200</v>
+        <v>406700</v>
       </c>
       <c r="I59" s="3">
-        <v>405600</v>
+        <v>413200</v>
       </c>
       <c r="J59" s="3">
-        <v>363000</v>
+        <v>369800</v>
       </c>
       <c r="K59" s="3">
         <v>376300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1444500</v>
+        <v>1471600</v>
       </c>
       <c r="E60" s="3">
-        <v>1610700</v>
+        <v>1640900</v>
       </c>
       <c r="F60" s="3">
-        <v>1948600</v>
+        <v>1985200</v>
       </c>
       <c r="G60" s="3">
-        <v>1079000</v>
+        <v>1099200</v>
       </c>
       <c r="H60" s="3">
-        <v>1351300</v>
+        <v>1376700</v>
       </c>
       <c r="I60" s="3">
-        <v>1233200</v>
+        <v>1256400</v>
       </c>
       <c r="J60" s="3">
-        <v>1141600</v>
+        <v>1163100</v>
       </c>
       <c r="K60" s="3">
         <v>927300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2227900</v>
+        <v>2269700</v>
       </c>
       <c r="E61" s="3">
-        <v>1870500</v>
+        <v>1905600</v>
       </c>
       <c r="F61" s="3">
-        <v>1502500</v>
+        <v>1530700</v>
       </c>
       <c r="G61" s="3">
-        <v>2061900</v>
+        <v>2100600</v>
       </c>
       <c r="H61" s="3">
-        <v>1668700</v>
+        <v>1700000</v>
       </c>
       <c r="I61" s="3">
-        <v>1496400</v>
+        <v>1524500</v>
       </c>
       <c r="J61" s="3">
-        <v>1258500</v>
+        <v>1282100</v>
       </c>
       <c r="K61" s="3">
         <v>1264100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2094700</v>
+        <v>2134000</v>
       </c>
       <c r="E62" s="3">
-        <v>2041600</v>
+        <v>2079900</v>
       </c>
       <c r="F62" s="3">
-        <v>1904500</v>
+        <v>1940300</v>
       </c>
       <c r="G62" s="3">
-        <v>1040200</v>
+        <v>1059700</v>
       </c>
       <c r="H62" s="3">
-        <v>934800</v>
+        <v>952300</v>
       </c>
       <c r="I62" s="3">
-        <v>833200</v>
+        <v>848900</v>
       </c>
       <c r="J62" s="3">
-        <v>690200</v>
+        <v>703200</v>
       </c>
       <c r="K62" s="3">
         <v>589700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5830400</v>
+        <v>5939900</v>
       </c>
       <c r="E66" s="3">
-        <v>5591100</v>
+        <v>5696100</v>
       </c>
       <c r="F66" s="3">
-        <v>5414500</v>
+        <v>5516100</v>
       </c>
       <c r="G66" s="3">
-        <v>4250800</v>
+        <v>4330600</v>
       </c>
       <c r="H66" s="3">
-        <v>4016000</v>
+        <v>4091500</v>
       </c>
       <c r="I66" s="3">
-        <v>3623900</v>
+        <v>3692000</v>
       </c>
       <c r="J66" s="3">
-        <v>3143600</v>
+        <v>3202600</v>
       </c>
       <c r="K66" s="3">
         <v>2846700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1902100</v>
+        <v>1937900</v>
       </c>
       <c r="E72" s="3">
-        <v>1865400</v>
+        <v>1900500</v>
       </c>
       <c r="F72" s="3">
-        <v>1473100</v>
+        <v>1500800</v>
       </c>
       <c r="G72" s="3">
-        <v>1182900</v>
+        <v>1205100</v>
       </c>
       <c r="H72" s="3">
-        <v>1481000</v>
+        <v>1508800</v>
       </c>
       <c r="I72" s="3">
-        <v>1292200</v>
+        <v>1316500</v>
       </c>
       <c r="J72" s="3">
-        <v>1175700</v>
+        <v>1197800</v>
       </c>
       <c r="K72" s="3">
         <v>1192400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4201800</v>
+        <v>4280700</v>
       </c>
       <c r="E76" s="3">
-        <v>4407600</v>
+        <v>4490300</v>
       </c>
       <c r="F76" s="3">
-        <v>4028500</v>
+        <v>4104200</v>
       </c>
       <c r="G76" s="3">
-        <v>3482200</v>
+        <v>3547600</v>
       </c>
       <c r="H76" s="3">
-        <v>3236100</v>
+        <v>3296900</v>
       </c>
       <c r="I76" s="3">
-        <v>3069600</v>
+        <v>3127200</v>
       </c>
       <c r="J76" s="3">
-        <v>2973800</v>
+        <v>3029700</v>
       </c>
       <c r="K76" s="3">
         <v>2758400</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>224400</v>
+        <v>228700</v>
       </c>
       <c r="E81" s="3">
-        <v>999600</v>
+        <v>1018400</v>
       </c>
       <c r="F81" s="3">
-        <v>788000</v>
+        <v>802800</v>
       </c>
       <c r="G81" s="3">
-        <v>401700</v>
+        <v>409200</v>
       </c>
       <c r="H81" s="3">
-        <v>284000</v>
+        <v>289300</v>
       </c>
       <c r="I81" s="3">
-        <v>208600</v>
+        <v>212500</v>
       </c>
       <c r="J81" s="3">
-        <v>167100</v>
+        <v>170300</v>
       </c>
       <c r="K81" s="3">
         <v>230900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>262600</v>
+        <v>267500</v>
       </c>
       <c r="E83" s="3">
-        <v>218500</v>
+        <v>222600</v>
       </c>
       <c r="F83" s="3">
-        <v>203800</v>
+        <v>207700</v>
       </c>
       <c r="G83" s="3">
-        <v>220800</v>
+        <v>224900</v>
       </c>
       <c r="H83" s="3">
-        <v>151200</v>
+        <v>154100</v>
       </c>
       <c r="I83" s="3">
-        <v>147700</v>
+        <v>150400</v>
       </c>
       <c r="J83" s="3">
-        <v>143000</v>
+        <v>145600</v>
       </c>
       <c r="K83" s="3">
         <v>131000</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>787700</v>
+        <v>802500</v>
       </c>
       <c r="E89" s="3">
-        <v>683600</v>
+        <v>696400</v>
       </c>
       <c r="F89" s="3">
-        <v>795400</v>
+        <v>810400</v>
       </c>
       <c r="G89" s="3">
-        <v>594400</v>
+        <v>605600</v>
       </c>
       <c r="H89" s="3">
-        <v>357500</v>
+        <v>364200</v>
       </c>
       <c r="I89" s="3">
-        <v>199700</v>
+        <v>203400</v>
       </c>
       <c r="J89" s="3">
-        <v>298100</v>
+        <v>303700</v>
       </c>
       <c r="K89" s="3">
         <v>255700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-108100</v>
+        <v>-110100</v>
       </c>
       <c r="E91" s="3">
-        <v>-68200</v>
+        <v>-69500</v>
       </c>
       <c r="F91" s="3">
-        <v>-45700</v>
+        <v>-46500</v>
       </c>
       <c r="G91" s="3">
-        <v>-109600</v>
+        <v>-111700</v>
       </c>
       <c r="H91" s="3">
-        <v>-300600</v>
+        <v>-306200</v>
       </c>
       <c r="I91" s="3">
-        <v>-243300</v>
+        <v>-247900</v>
       </c>
       <c r="J91" s="3">
-        <v>-259300</v>
+        <v>-264100</v>
       </c>
       <c r="K91" s="3">
         <v>-145700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-560100</v>
+        <v>-570600</v>
       </c>
       <c r="E94" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="F94" s="3">
-        <v>-336600</v>
+        <v>-342900</v>
       </c>
       <c r="G94" s="3">
-        <v>-335800</v>
+        <v>-342100</v>
       </c>
       <c r="H94" s="3">
-        <v>-433800</v>
+        <v>-441900</v>
       </c>
       <c r="I94" s="3">
-        <v>-319100</v>
+        <v>-325100</v>
       </c>
       <c r="J94" s="3">
-        <v>-506800</v>
+        <v>-516400</v>
       </c>
       <c r="K94" s="3">
         <v>-377900</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-437500</v>
+        <v>-445800</v>
       </c>
       <c r="E96" s="3">
-        <v>-782000</v>
+        <v>-796700</v>
       </c>
       <c r="F96" s="3">
-        <v>-126400</v>
+        <v>-128800</v>
       </c>
       <c r="G96" s="3">
-        <v>-76800</v>
+        <v>-78200</v>
       </c>
       <c r="H96" s="3">
-        <v>-60700</v>
+        <v>-61800</v>
       </c>
       <c r="I96" s="3">
-        <v>-102200</v>
+        <v>-104100</v>
       </c>
       <c r="J96" s="3">
-        <v>-74500</v>
+        <v>-75900</v>
       </c>
       <c r="K96" s="3">
         <v>-59500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-387900</v>
+        <v>-395200</v>
       </c>
       <c r="E100" s="3">
-        <v>-582200</v>
+        <v>-593100</v>
       </c>
       <c r="F100" s="3">
-        <v>-346200</v>
+        <v>-352700</v>
       </c>
       <c r="G100" s="3">
-        <v>-58100</v>
+        <v>-59200</v>
       </c>
       <c r="H100" s="3">
-        <v>259700</v>
+        <v>264500</v>
       </c>
       <c r="I100" s="3">
-        <v>131200</v>
+        <v>133700</v>
       </c>
       <c r="J100" s="3">
-        <v>108100</v>
+        <v>110100</v>
       </c>
       <c r="K100" s="3">
         <v>265600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-160300</v>
+        <v>-163400</v>
       </c>
       <c r="E102" s="3">
-        <v>107800</v>
+        <v>109900</v>
       </c>
       <c r="F102" s="3">
-        <v>112700</v>
+        <v>114800</v>
       </c>
       <c r="G102" s="3">
-        <v>200500</v>
+        <v>204300</v>
       </c>
       <c r="H102" s="3">
-        <v>183300</v>
+        <v>186800</v>
       </c>
       <c r="I102" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="J102" s="3">
-        <v>-100600</v>
+        <v>-102500</v>
       </c>
       <c r="K102" s="3">
         <v>143400</v>
